--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4017520</v>
+        <v>4012784</v>
       </c>
       <c r="F2" t="n">
-        <v>853.3056731176566</v>
+        <v>477.7069723074801</v>
       </c>
       <c r="G2" t="n">
-        <v>805.6641970912254</v>
+        <v>589.4498437808033</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.02</v>
       </c>
       <c r="I2" t="n">
-        <v>48143</v>
+        <v>120283</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305657</v>
+        <v>1305851</v>
       </c>
       <c r="E3" t="n">
-        <v>4220419</v>
+        <v>4221045</v>
       </c>
       <c r="F3" t="n">
-        <v>6445.870541517921</v>
+        <v>6637.676182955823</v>
       </c>
       <c r="G3" t="n">
-        <v>10795.8475704486</v>
+        <v>10808.32054921432</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.45</v>
       </c>
       <c r="I3" t="n">
-        <v>107361</v>
+        <v>109024</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>244050771</v>
+        <v>245879539</v>
       </c>
       <c r="E4" t="n">
-        <v>1530408080</v>
+        <v>1541876027</v>
       </c>
       <c r="F4" t="n">
-        <v>247084.7617709131</v>
+        <v>253560.8132403747</v>
       </c>
       <c r="G4" t="n">
-        <v>260862.6534600541</v>
+        <v>254253.2334981519</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>16380507</v>
+        <v>16604787</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>141503901</v>
+        <v>142789924</v>
       </c>
       <c r="E5" t="n">
-        <v>156808437</v>
+        <v>158233551</v>
       </c>
       <c r="F5" t="n">
-        <v>94603.67968566674</v>
+        <v>90630.12809933785</v>
       </c>
       <c r="G5" t="n">
-        <v>96740.11392639822</v>
+        <v>98677.72126845003</v>
       </c>
       <c r="H5" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>35141537</v>
+        <v>35912485</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>125249282</v>
+        <v>126614875</v>
       </c>
       <c r="E6" t="n">
-        <v>490939682</v>
+        <v>496292397</v>
       </c>
       <c r="F6" t="n">
-        <v>22125.54017474139</v>
+        <v>15251.38246889595</v>
       </c>
       <c r="G6" t="n">
-        <v>44264.68202445241</v>
+        <v>51333.71173126658</v>
       </c>
       <c r="H6" t="n">
         <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>31138631</v>
+        <v>30783968</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4500166</v>
+        <v>4523610</v>
       </c>
       <c r="E7" t="n">
-        <v>27641306</v>
+        <v>27785305</v>
       </c>
       <c r="F7" t="n">
-        <v>3785.908918094337</v>
+        <v>2774.506078253675</v>
       </c>
       <c r="G7" t="n">
-        <v>2429.115335995765</v>
+        <v>1329.856679435956</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4</v>
+        <v>0.32</v>
       </c>
       <c r="I7" t="n">
-        <v>605036</v>
+        <v>621044</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197799</v>
+        <v>197918</v>
       </c>
       <c r="E8" t="n">
-        <v>2176010</v>
+        <v>2177318</v>
       </c>
       <c r="F8" t="n">
-        <v>4147.959337752324</v>
+        <v>3857.484298406708</v>
       </c>
       <c r="G8" t="n">
-        <v>5730.626310741302</v>
+        <v>5707.756921274487</v>
       </c>
       <c r="H8" t="n">
         <v>0.28</v>
       </c>
       <c r="I8" t="n">
-        <v>27450</v>
+        <v>27425</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69924184</v>
+        <v>69674873</v>
       </c>
       <c r="E9" t="n">
-        <v>121104839</v>
+        <v>120671604</v>
       </c>
       <c r="F9" t="n">
-        <v>13049.3790276942</v>
+        <v>9992.0329753105</v>
       </c>
       <c r="G9" t="n">
-        <v>9685.02354266723</v>
+        <v>7055.759141427108</v>
       </c>
       <c r="H9" t="n">
         <v>0.25</v>
       </c>
       <c r="I9" t="n">
-        <v>716699</v>
+        <v>712556</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8861276</v>
+        <v>8837348</v>
       </c>
       <c r="E10" t="n">
-        <v>12542478</v>
+        <v>12508610</v>
       </c>
       <c r="F10" t="n">
-        <v>4313.354147743394</v>
+        <v>4271.261877644917</v>
       </c>
       <c r="G10" t="n">
-        <v>3539.765744599579</v>
+        <v>4301.66615955633</v>
       </c>
       <c r="H10" t="n">
-        <v>0.08</v>
+        <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>68330</v>
+        <v>70013</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>471347430</v>
+        <v>475083512</v>
       </c>
       <c r="E11" t="n">
-        <v>471347432</v>
+        <v>475083512</v>
       </c>
       <c r="F11" t="n">
-        <v>37964.38878529242</v>
+        <v>30901.20043768248</v>
       </c>
       <c r="G11" t="n">
-        <v>89327.51930841996</v>
+        <v>72608.66844242631</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>71143513</v>
+        <v>71401530</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>355521</v>
+        <v>340446</v>
       </c>
       <c r="E12" t="n">
-        <v>1659610</v>
+        <v>1589238</v>
       </c>
       <c r="F12" t="n">
-        <v>189.0213325183625</v>
+        <v>601.5203479894482</v>
       </c>
       <c r="G12" t="n">
-        <v>36.51655099579796</v>
+        <v>763.5991553981611</v>
       </c>
       <c r="H12" t="n">
-        <v>0.31</v>
+        <v>0.19</v>
       </c>
       <c r="I12" t="n">
-        <v>749694</v>
+        <v>731917</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1599337</v>
+        <v>1564941</v>
       </c>
       <c r="F13" t="n">
-        <v>4487.156758767429</v>
+        <v>4530.952443327158</v>
       </c>
       <c r="G13" t="n">
-        <v>1570.127409907521</v>
+        <v>1671.809323799023</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06</v>
+        <v>0.46</v>
       </c>
       <c r="I13" t="n">
-        <v>248903</v>
+        <v>248414</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12810587</v>
+        <v>12791214</v>
       </c>
       <c r="E14" t="n">
-        <v>31883234</v>
+        <v>31835018</v>
       </c>
       <c r="F14" t="n">
-        <v>1024.374251336742</v>
+        <v>1027.073016134174</v>
       </c>
       <c r="G14" t="n">
-        <v>1668.802778615441</v>
+        <v>1923.685739519688</v>
       </c>
       <c r="H14" t="n">
-        <v>0.28</v>
+        <v>0.38</v>
       </c>
       <c r="I14" t="n">
-        <v>1415268</v>
+        <v>1417023</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>109186577</v>
+        <v>111168025</v>
       </c>
       <c r="E15" t="n">
-        <v>424882298</v>
+        <v>432578237</v>
       </c>
       <c r="F15" t="n">
-        <v>34250.96141861796</v>
+        <v>34122.81003507147</v>
       </c>
       <c r="G15" t="n">
-        <v>91770.2103425133</v>
+        <v>91906.50207927123</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>7922539</v>
+        <v>8123899</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5181793</v>
+        <v>5185344</v>
       </c>
       <c r="E16" t="n">
-        <v>7627880</v>
+        <v>7633107</v>
       </c>
       <c r="F16" t="n">
-        <v>688.053746505343</v>
+        <v>1114.830046261623</v>
       </c>
       <c r="G16" t="n">
-        <v>347.2627222890496</v>
+        <v>280.3119855234507</v>
       </c>
       <c r="H16" t="n">
-        <v>0.65</v>
+        <v>1.02</v>
       </c>
       <c r="I16" t="n">
-        <v>640615</v>
+        <v>680751</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1995791</v>
+        <v>2036089</v>
       </c>
       <c r="F17" t="n">
-        <v>325.489547381011</v>
+        <v>85.21560221666921</v>
       </c>
       <c r="G17" t="n">
-        <v>335.9745094201122</v>
+        <v>559.9179073783123</v>
       </c>
       <c r="H17" t="n">
-        <v>0.9</v>
+        <v>0.64</v>
       </c>
       <c r="I17" t="n">
-        <v>206429</v>
+        <v>206358</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>136313392</v>
+        <v>137704432</v>
       </c>
       <c r="E18" t="n">
-        <v>136313392</v>
+        <v>137704432</v>
       </c>
       <c r="F18" t="n">
-        <v>110964.1454694757</v>
+        <v>121423.3285238373</v>
       </c>
       <c r="G18" t="n">
-        <v>146333.778591085</v>
+        <v>142383.2098867198</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>61235152</v>
+        <v>63761627</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>64887859</v>
+        <v>65301711</v>
       </c>
       <c r="E19" t="n">
-        <v>332758251</v>
+        <v>334880567</v>
       </c>
       <c r="F19" t="n">
-        <v>23596.51705026246</v>
+        <v>22803.94267230498</v>
       </c>
       <c r="G19" t="n">
-        <v>20549.95015723135</v>
+        <v>20999.34164813079</v>
       </c>
       <c r="H19" t="n">
         <v>0.13</v>
       </c>
       <c r="I19" t="n">
-        <v>21186189</v>
+        <v>21443578</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>251321733</v>
+        <v>252856287</v>
       </c>
       <c r="E20" t="n">
-        <v>251321733</v>
+        <v>252856287</v>
       </c>
       <c r="F20" t="n">
-        <v>75991.71069483209</v>
+        <v>77592.78612967199</v>
       </c>
       <c r="G20" t="n">
-        <v>86500.63050157353</v>
+        <v>73462.62914065237</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14979030</v>
+        <v>14817314</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>153118443</v>
+        <v>158954559</v>
       </c>
       <c r="E21" t="n">
-        <v>201485963</v>
+        <v>209165609</v>
       </c>
       <c r="F21" t="n">
-        <v>24278.57388461685</v>
+        <v>26195.77015668241</v>
       </c>
       <c r="G21" t="n">
-        <v>41127.87731697277</v>
+        <v>28774.293021162</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8055427</v>
+        <v>8082574</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>74984441</v>
+        <v>76187540</v>
       </c>
       <c r="E22" t="n">
-        <v>209873261</v>
+        <v>213241685</v>
       </c>
       <c r="F22" t="n">
-        <v>29104.79871717574</v>
+        <v>25980.365917061</v>
       </c>
       <c r="G22" t="n">
-        <v>43623.66114464185</v>
+        <v>47094.36111076669</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>34808975</v>
+        <v>33988140</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>73857003</v>
+        <v>74522029</v>
       </c>
       <c r="E23" t="n">
-        <v>154029357</v>
+        <v>155416273</v>
       </c>
       <c r="F23" t="n">
-        <v>26662.71871359693</v>
+        <v>24716.16214037321</v>
       </c>
       <c r="G23" t="n">
-        <v>36531.04039710821</v>
+        <v>41066.18537384492</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>15887780</v>
+        <v>16060050</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>637463963</v>
+        <v>643459615</v>
       </c>
       <c r="E24" t="n">
-        <v>637463963</v>
+        <v>643459615</v>
       </c>
       <c r="F24" t="n">
-        <v>212731.26684352</v>
+        <v>194005.9580493869</v>
       </c>
       <c r="G24" t="n">
-        <v>223692.0923504926</v>
+        <v>200665.4730464115</v>
       </c>
       <c r="H24" t="n">
         <v>0.16</v>
       </c>
       <c r="I24" t="n">
-        <v>279131911</v>
+        <v>287560393</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>201220639</v>
+        <v>201375859</v>
       </c>
       <c r="E25" t="n">
-        <v>699058684</v>
+        <v>699597935</v>
       </c>
       <c r="F25" t="n">
-        <v>94513.97681517767</v>
+        <v>87244.57910694205</v>
       </c>
       <c r="G25" t="n">
-        <v>354791.2965013526</v>
+        <v>356326.0315549527</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>27195391</v>
+        <v>27270348</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5790453</v>
+        <v>5626889</v>
       </c>
       <c r="E26" t="n">
-        <v>7866837</v>
+        <v>7644445</v>
       </c>
       <c r="F26" t="n">
-        <v>1396.979968935692</v>
+        <v>723.6889325085806</v>
       </c>
       <c r="G26" t="n">
-        <v>1349.819883289254</v>
+        <v>332.7958699207912</v>
       </c>
       <c r="H26" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5918888</v>
+        <v>5882444</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14379191</v>
+        <v>14527040</v>
       </c>
       <c r="F27" t="n">
-        <v>2708.141823452678</v>
+        <v>2083.571913117848</v>
       </c>
       <c r="G27" t="n">
-        <v>2797.184066551308</v>
+        <v>3388.025009845545</v>
       </c>
       <c r="H27" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="I27" t="n">
-        <v>304248</v>
+        <v>301442</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25489249</v>
+        <v>25591493</v>
       </c>
       <c r="E28" t="n">
-        <v>36028058</v>
+        <v>36172576</v>
       </c>
       <c r="F28" t="n">
-        <v>248.6268876741099</v>
+        <v>264.2238974680553</v>
       </c>
       <c r="G28" t="n">
-        <v>9145.61312035457</v>
+        <v>8541.446346062101</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.55</v>
       </c>
       <c r="I28" t="n">
-        <v>64218</v>
+        <v>62619</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>265425742</v>
+        <v>268656122</v>
       </c>
       <c r="E29" t="n">
-        <v>1145724851</v>
+        <v>1159668964</v>
       </c>
       <c r="F29" t="n">
-        <v>370174.7924344628</v>
+        <v>263826.4701301535</v>
       </c>
       <c r="G29" t="n">
-        <v>361212.2743896804</v>
+        <v>363960.0524258166</v>
       </c>
       <c r="H29" t="n">
         <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>101412244</v>
+        <v>99139350</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>10998061</v>
+        <v>11014168</v>
       </c>
       <c r="E30" t="n">
-        <v>132767304</v>
+        <v>132961746</v>
       </c>
       <c r="F30" t="n">
-        <v>1449.449866427304</v>
+        <v>3316.377844855478</v>
       </c>
       <c r="G30" t="n">
-        <v>2665.350453693355</v>
+        <v>3940.887830441004</v>
       </c>
       <c r="H30" t="n">
-        <v>0.53</v>
+        <v>0.83</v>
       </c>
       <c r="I30" t="n">
-        <v>231730</v>
+        <v>219375</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19763560</v>
+        <v>19733758</v>
       </c>
       <c r="E31" t="n">
-        <v>49408901</v>
+        <v>49334394</v>
       </c>
       <c r="F31" t="n">
-        <v>14772.12074314012</v>
+        <v>15427.25437450847</v>
       </c>
       <c r="G31" t="n">
-        <v>9525.889095458528</v>
+        <v>8268.271749207468</v>
       </c>
       <c r="H31" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>1936905</v>
+        <v>1936540</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19768561</v>
+        <v>19770362</v>
       </c>
       <c r="F32" t="n">
-        <v>2948.251018183976</v>
+        <v>2775.454102821949</v>
       </c>
       <c r="G32" t="n">
-        <v>2496.464151431386</v>
+        <v>2213.265453972929</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I32" t="n">
-        <v>89681</v>
+        <v>89764</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1308979</v>
+        <v>1308321</v>
       </c>
       <c r="E33" t="n">
-        <v>4880223</v>
+        <v>4877768</v>
       </c>
       <c r="F33" t="n">
-        <v>2432.558635460387</v>
+        <v>1732.796217213122</v>
       </c>
       <c r="G33" t="n">
-        <v>2357.518300349344</v>
+        <v>2204.860158701385</v>
       </c>
       <c r="H33" t="n">
-        <v>0.23</v>
+        <v>1.01</v>
       </c>
       <c r="I33" t="n">
-        <v>459708</v>
+        <v>459575</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4171904</v>
+        <v>4163261</v>
       </c>
       <c r="E34" t="n">
-        <v>12017066</v>
+        <v>11992171</v>
       </c>
       <c r="F34" t="n">
-        <v>1203.692485131801</v>
+        <v>545.6670425178248</v>
       </c>
       <c r="G34" t="n">
-        <v>1742.000049296492</v>
+        <v>1374.925528503771</v>
       </c>
       <c r="H34" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="I34" t="n">
-        <v>627515</v>
+        <v>642143</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14227041</v>
+        <v>14310142</v>
       </c>
       <c r="E35" t="n">
-        <v>68903830</v>
+        <v>69306300</v>
       </c>
       <c r="F35" t="n">
-        <v>11013.884855571</v>
+        <v>11710.16647712858</v>
       </c>
       <c r="G35" t="n">
-        <v>10763.66681894315</v>
+        <v>10805.62121862308</v>
       </c>
       <c r="H35" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I35" t="n">
-        <v>3701053</v>
+        <v>3719693</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1432458</v>
+        <v>1423706</v>
       </c>
       <c r="E36" t="n">
-        <v>9375399</v>
+        <v>9318118</v>
       </c>
       <c r="F36" t="n">
-        <v>3866.30410400662</v>
+        <v>3806.980196013398</v>
       </c>
       <c r="G36" t="n">
-        <v>4731.823694796562</v>
+        <v>4155.980013782833</v>
       </c>
       <c r="H36" t="n">
         <v>0.64</v>
       </c>
       <c r="I36" t="n">
-        <v>544813</v>
+        <v>540314</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1914364357</v>
+        <v>1920420365</v>
       </c>
       <c r="F37" t="n">
-        <v>76290.46655883199</v>
+        <v>77556.76383209687</v>
       </c>
       <c r="G37" t="n">
-        <v>74066.4453342052</v>
+        <v>73898.2278029224</v>
       </c>
       <c r="H37" t="n">
         <v>0.62</v>
       </c>
       <c r="I37" t="n">
-        <v>26671479</v>
+        <v>26898936</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2064694</v>
+        <v>2059511</v>
       </c>
       <c r="E38" t="n">
-        <v>14805718</v>
+        <v>14768548</v>
       </c>
       <c r="F38" t="n">
-        <v>4253.133645578748</v>
+        <v>3849.589130526784</v>
       </c>
       <c r="G38" t="n">
-        <v>5518.147268255572</v>
+        <v>5536.306676568349</v>
       </c>
       <c r="H38" t="n">
-        <v>0.73</v>
+        <v>0.47</v>
       </c>
       <c r="I38" t="n">
-        <v>1977407</v>
+        <v>1974946</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>197980651</v>
+        <v>199398838</v>
       </c>
       <c r="E39" t="n">
-        <v>1121088092</v>
+        <v>1129118743</v>
       </c>
       <c r="F39" t="n">
-        <v>145320.0437775334</v>
+        <v>149728.993871889</v>
       </c>
       <c r="G39" t="n">
-        <v>173608.9052405092</v>
+        <v>186037.5487986392</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>62366514</v>
+        <v>61921656</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>138819414</v>
+        <v>139605707</v>
       </c>
       <c r="E40" t="n">
-        <v>1028291953</v>
+        <v>1034116348</v>
       </c>
       <c r="F40" t="n">
-        <v>210929.369248659</v>
+        <v>189373.6842332017</v>
       </c>
       <c r="G40" t="n">
-        <v>171142.5469975475</v>
+        <v>208554.8594187507</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>10102776</v>
+        <v>9984616</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>335618078</v>
+        <v>338525047</v>
       </c>
       <c r="E41" t="n">
-        <v>3019428342</v>
+        <v>3045581238</v>
       </c>
       <c r="F41" t="n">
-        <v>197962.1306542006</v>
+        <v>200377.6541006167</v>
       </c>
       <c r="G41" t="n">
-        <v>226178.1455609845</v>
+        <v>225527.2789558877</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>37179802</v>
+        <v>37554676</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1578299</v>
+        <v>1578205</v>
       </c>
       <c r="E42" t="n">
-        <v>13152491</v>
+        <v>13151712</v>
       </c>
       <c r="F42" t="n">
-        <v>522.978335992131</v>
+        <v>2898.690351389762</v>
       </c>
       <c r="G42" t="n">
-        <v>6391.532820571361</v>
+        <v>6464.269930706621</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
-        <v>41559</v>
+        <v>42161</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23187344</v>
+        <v>22894468</v>
       </c>
       <c r="E43" t="n">
-        <v>69504996</v>
+        <v>68627086</v>
       </c>
       <c r="F43" t="n">
-        <v>61824.4114730306</v>
+        <v>49473.74541277604</v>
       </c>
       <c r="G43" t="n">
-        <v>52291.88207222627</v>
+        <v>60634.21387414954</v>
       </c>
       <c r="H43" t="n">
-        <v>0.32</v>
+        <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>3063294</v>
+        <v>3149259</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9443450</v>
+        <v>9445479</v>
       </c>
       <c r="F44" t="n">
-        <v>6139.49188566765</v>
+        <v>5684.319627760132</v>
       </c>
       <c r="G44" t="n">
-        <v>5881.841716942959</v>
+        <v>5821.851863940028</v>
       </c>
       <c r="H44" t="n">
         <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121319</v>
+        <v>121403</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>12987410</v>
+        <v>13097520</v>
       </c>
       <c r="E45" t="n">
-        <v>12987410</v>
+        <v>13097520</v>
       </c>
       <c r="F45" t="n">
-        <v>1737.03434643182</v>
+        <v>223.4266725986327</v>
       </c>
       <c r="G45" t="n">
-        <v>759.9583400914947</v>
+        <v>22205.1669490409</v>
       </c>
       <c r="H45" t="n">
-        <v>0.46</v>
+        <v>0.68</v>
       </c>
       <c r="I45" t="n">
-        <v>3528836</v>
+        <v>3562035</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311795044</v>
+        <v>312804064</v>
       </c>
       <c r="E46" t="n">
-        <v>311795044</v>
+        <v>312804064</v>
       </c>
       <c r="F46" t="n">
-        <v>21678.54297245445</v>
+        <v>24578.67595936083</v>
       </c>
       <c r="G46" t="n">
-        <v>40567.87414479427</v>
+        <v>41513.99946708589</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>13526840</v>
+        <v>13401507</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12847688</v>
+        <v>12860544</v>
       </c>
       <c r="E47" t="n">
-        <v>40645438</v>
+        <v>40686111</v>
       </c>
       <c r="F47" t="n">
-        <v>15122.76746942812</v>
+        <v>16389.67360976795</v>
       </c>
       <c r="G47" t="n">
-        <v>12779.07627523373</v>
+        <v>12770.72540278249</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I47" t="n">
-        <v>1377302</v>
+        <v>1337270</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32260878</v>
+        <v>31630773</v>
       </c>
       <c r="E48" t="n">
-        <v>89359430</v>
+        <v>87614102</v>
       </c>
       <c r="F48" t="n">
-        <v>4979.72119988934</v>
+        <v>3943.238876528717</v>
       </c>
       <c r="G48" t="n">
-        <v>7700.268375270101</v>
+        <v>7921.66027959345</v>
       </c>
       <c r="H48" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
       <c r="I48" t="n">
-        <v>12118020</v>
+        <v>12054159</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28258843</v>
+        <v>28199967</v>
       </c>
       <c r="E49" t="n">
-        <v>67135985</v>
+        <v>66996109</v>
       </c>
       <c r="F49" t="n">
-        <v>17732.26234707851</v>
+        <v>19974.89782886068</v>
       </c>
       <c r="G49" t="n">
-        <v>18419.13352883413</v>
+        <v>17578.67689346688</v>
       </c>
       <c r="H49" t="n">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>497149</v>
+        <v>520340</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12655819</v>
+        <v>12755552</v>
       </c>
       <c r="E50" t="n">
-        <v>19265010</v>
+        <v>19416826</v>
       </c>
       <c r="F50" t="n">
-        <v>6821.161528603261</v>
+        <v>7161.823884961881</v>
       </c>
       <c r="G50" t="n">
-        <v>3445.292174776715</v>
+        <v>18371.38772589748</v>
       </c>
       <c r="H50" t="n">
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
-        <v>717343</v>
+        <v>746001</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>309776047</v>
+        <v>312528765</v>
       </c>
       <c r="E51" t="n">
-        <v>309776047</v>
+        <v>312528765</v>
       </c>
       <c r="F51" t="n">
-        <v>111121.9322160843</v>
+        <v>139599.1171607845</v>
       </c>
       <c r="G51" t="n">
-        <v>117140.30275483</v>
+        <v>108115.7843442378</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>50293899</v>
+        <v>50139920</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>88644830</v>
+        <v>89247462</v>
       </c>
       <c r="E52" t="n">
-        <v>510809744</v>
+        <v>514282371</v>
       </c>
       <c r="F52" t="n">
-        <v>267647.8794454001</v>
+        <v>268078.8777723939</v>
       </c>
       <c r="G52" t="n">
-        <v>237795.150185593</v>
+        <v>240642.9430154594</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I52" t="n">
-        <v>16502665</v>
+        <v>16509286</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30293298</v>
+        <v>30308904</v>
       </c>
       <c r="E53" t="n">
-        <v>135635520</v>
+        <v>135705395</v>
       </c>
       <c r="F53" t="n">
-        <v>34967.4438607017</v>
+        <v>40724.49452556005</v>
       </c>
       <c r="G53" t="n">
-        <v>31121.96640297446</v>
+        <v>38351.92831961691</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8390313</v>
+        <v>8460434</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9145012</v>
+        <v>9107068</v>
       </c>
       <c r="F54" t="n">
-        <v>2690.781239851116</v>
+        <v>2685.935785617718</v>
       </c>
       <c r="G54" t="n">
-        <v>4734.710145324523</v>
+        <v>4615.523221125779</v>
       </c>
       <c r="H54" t="n">
-        <v>0.33</v>
+        <v>0.55</v>
       </c>
       <c r="I54" t="n">
-        <v>300382</v>
+        <v>303389</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4795095</v>
+        <v>4788104</v>
       </c>
       <c r="F55" t="n">
-        <v>2383.438769224731</v>
+        <v>4797.774168038207</v>
       </c>
       <c r="G55" t="n">
-        <v>1325.239367298635</v>
+        <v>863.0596480217242</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>199885</v>
+        <v>199208</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125278087</v>
+        <v>125444296</v>
       </c>
       <c r="E56" t="n">
-        <v>2074707732</v>
+        <v>2077460289</v>
       </c>
       <c r="F56" t="n">
-        <v>189416.0760957486</v>
+        <v>183277.5454213294</v>
       </c>
       <c r="G56" t="n">
-        <v>118016.8669618614</v>
+        <v>183762.8817290877</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4974399</v>
+        <v>4833881</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94460071</v>
+        <v>98174958</v>
       </c>
       <c r="E57" t="n">
-        <v>95476869</v>
+        <v>99231745</v>
       </c>
       <c r="F57" t="n">
-        <v>35190.51452137246</v>
+        <v>46579.52012308752</v>
       </c>
       <c r="G57" t="n">
-        <v>53184.36847083888</v>
+        <v>59437.55123176315</v>
       </c>
       <c r="H57" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I57" t="n">
-        <v>29883580</v>
+        <v>31637955</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>228442721</v>
+        <v>231650769</v>
       </c>
       <c r="E58" t="n">
-        <v>228442721</v>
+        <v>231650769</v>
       </c>
       <c r="F58" t="n">
-        <v>102427.5993068548</v>
+        <v>105361.1238299034</v>
       </c>
       <c r="G58" t="n">
-        <v>128551.6862183242</v>
+        <v>117989.9673399017</v>
       </c>
       <c r="H58" t="n">
         <v>0.09</v>
       </c>
       <c r="I58" t="n">
-        <v>44160097</v>
+        <v>44267256</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>23773582</v>
+        <v>24081487</v>
       </c>
       <c r="E59" t="n">
-        <v>142242118</v>
+        <v>144084378</v>
       </c>
       <c r="F59" t="n">
-        <v>66424.61566896414</v>
+        <v>58122.50435464053</v>
       </c>
       <c r="G59" t="n">
-        <v>72626.61204181577</v>
+        <v>73001.46900184271</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>11876215</v>
+        <v>11538077</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2344342</v>
+        <v>2425123</v>
       </c>
       <c r="E60" t="n">
-        <v>4326618</v>
+        <v>4475703</v>
       </c>
       <c r="F60" t="n">
-        <v>5584.907686341157</v>
+        <v>5569.011132759052</v>
       </c>
       <c r="G60" t="n">
-        <v>322.672705018724</v>
+        <v>374.8435600676172</v>
       </c>
       <c r="H60" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>69350</v>
+        <v>23220</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10112258</v>
+        <v>10551272</v>
       </c>
       <c r="E62" t="n">
-        <v>30005369</v>
+        <v>31308023</v>
       </c>
       <c r="F62" t="n">
-        <v>6042.997572989266</v>
+        <v>3726.351764346916</v>
       </c>
       <c r="G62" t="n">
-        <v>10133.96273112786</v>
+        <v>4885.7045460567</v>
       </c>
       <c r="H62" t="n">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>6337434</v>
+        <v>6467123</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14604342</v>
+        <v>14620285</v>
       </c>
       <c r="E63" t="n">
-        <v>29565599</v>
+        <v>29597874</v>
       </c>
       <c r="F63" t="n">
-        <v>5028.503846682783</v>
+        <v>6050.414826298779</v>
       </c>
       <c r="G63" t="n">
-        <v>10343.65029382308</v>
+        <v>10085.1440627473</v>
       </c>
       <c r="H63" t="n">
         <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>503504</v>
+        <v>536341</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38023267</v>
+        <v>38179431</v>
       </c>
       <c r="E64" t="n">
-        <v>269578757</v>
+        <v>270685934</v>
       </c>
       <c r="F64" t="n">
-        <v>78470.5101445797</v>
+        <v>76120.67029339973</v>
       </c>
       <c r="G64" t="n">
-        <v>72123.07491840629</v>
+        <v>64701.22346644592</v>
       </c>
       <c r="H64" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1469747</v>
+        <v>1465658</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1270544</v>
+        <v>1270310</v>
       </c>
       <c r="E65" t="n">
-        <v>7878673</v>
+        <v>7877223</v>
       </c>
       <c r="F65" t="n">
-        <v>2304.828388309353</v>
+        <v>2280.914822800763</v>
       </c>
       <c r="G65" t="n">
-        <v>2191.275076849119</v>
+        <v>2127.166922559188</v>
       </c>
       <c r="H65" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>732099</v>
+        <v>743710</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>596438537</v>
+        <v>600077380</v>
       </c>
       <c r="E66" t="n">
-        <v>2309918456</v>
+        <v>2324011157</v>
       </c>
       <c r="F66" t="n">
-        <v>65394.25816819642</v>
+        <v>145421.480357855</v>
       </c>
       <c r="G66" t="n">
-        <v>81704.59268556206</v>
+        <v>146034.4573791748</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32966872</v>
+        <v>32895699</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5849823</v>
+        <v>5837056</v>
       </c>
       <c r="E67" t="n">
-        <v>26190387</v>
+        <v>26133228</v>
       </c>
       <c r="F67" t="n">
-        <v>4955.313229441107</v>
+        <v>4581.933620461674</v>
       </c>
       <c r="G67" t="n">
-        <v>4556.538068185051</v>
+        <v>4799.929268867249</v>
       </c>
       <c r="H67" t="n">
         <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>137930</v>
+        <v>148070</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>119468177</v>
+        <v>121264864</v>
       </c>
       <c r="E68" t="n">
-        <v>1038702376</v>
+        <v>1054323460</v>
       </c>
       <c r="F68" t="n">
-        <v>160868.7174445233</v>
+        <v>160185.138100714</v>
       </c>
       <c r="G68" t="n">
-        <v>161817.5037917555</v>
+        <v>161202.5502315908</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I68" t="n">
-        <v>8874421</v>
+        <v>9075963</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>113938327</v>
+        <v>112830130</v>
       </c>
       <c r="E69" t="n">
-        <v>173815589</v>
+        <v>172125007</v>
       </c>
       <c r="F69" t="n">
-        <v>50465.53071241947</v>
+        <v>62993.93385604887</v>
       </c>
       <c r="G69" t="n">
-        <v>79454.49604385869</v>
+        <v>83896.72963845772</v>
       </c>
       <c r="H69" t="n">
-        <v>0.12</v>
+        <v>0.17</v>
       </c>
       <c r="I69" t="n">
-        <v>9045930</v>
+        <v>9230724</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1092750</v>
+        <v>1102071</v>
       </c>
       <c r="E70" t="n">
-        <v>4231368</v>
+        <v>4267458</v>
       </c>
       <c r="F70" t="n">
-        <v>2549.991556950829</v>
+        <v>3527.564561763725</v>
       </c>
       <c r="G70" t="n">
-        <v>3379.410939003746</v>
+        <v>2505.075256113224</v>
       </c>
       <c r="H70" t="n">
-        <v>0.19</v>
+        <v>0.4</v>
       </c>
       <c r="I70" t="n">
-        <v>390466</v>
+        <v>386353</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>116610355</v>
+        <v>117864503</v>
       </c>
       <c r="E71" t="n">
-        <v>447336092</v>
+        <v>452147204</v>
       </c>
       <c r="F71" t="n">
-        <v>157539.7640932045</v>
+        <v>160961.7354873777</v>
       </c>
       <c r="G71" t="n">
-        <v>155910.3433789171</v>
+        <v>153688.3067422988</v>
       </c>
       <c r="H71" t="n">
         <v>0.09</v>
       </c>
       <c r="I71" t="n">
-        <v>31043421</v>
+        <v>30975398</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3175939</v>
+        <v>3175286</v>
       </c>
       <c r="E72" t="n">
-        <v>30092494</v>
+        <v>30086302</v>
       </c>
       <c r="F72" t="n">
-        <v>4868.771141154852</v>
+        <v>4791.825872117959</v>
       </c>
       <c r="G72" t="n">
-        <v>3818.838548116468</v>
+        <v>3942.328635069414</v>
       </c>
       <c r="H72" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I72" t="n">
-        <v>203705</v>
+        <v>204147</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31803704</v>
+        <v>31595440</v>
       </c>
       <c r="F73" t="n">
-        <v>3971.966978096745</v>
+        <v>910.3945057722467</v>
       </c>
       <c r="G73" t="n">
-        <v>5846.980614184728</v>
+        <v>6798.438496472855</v>
       </c>
       <c r="H73" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I73" t="n">
-        <v>5544319</v>
+        <v>5384791</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87570835</v>
+        <v>87981805</v>
       </c>
       <c r="E74" t="n">
-        <v>323716601</v>
+        <v>325234312</v>
       </c>
       <c r="F74" t="n">
-        <v>8127.941911437281</v>
+        <v>8250.83803871354</v>
       </c>
       <c r="G74" t="n">
-        <v>835.3604498178224</v>
+        <v>697.9527102152545</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I74" t="n">
-        <v>282940</v>
+        <v>283853</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22498715</v>
+        <v>22669607</v>
       </c>
       <c r="E75" t="n">
-        <v>22498715</v>
+        <v>22669607</v>
       </c>
       <c r="F75" t="n">
-        <v>28657.02993351342</v>
+        <v>25615.38855620748</v>
       </c>
       <c r="G75" t="n">
-        <v>25048.53634707267</v>
+        <v>24112.3760886251</v>
       </c>
       <c r="H75" t="n">
         <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>6005222</v>
+        <v>5816350</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>486712450</v>
+        <v>487493543</v>
       </c>
       <c r="E76" t="n">
-        <v>1694205531</v>
+        <v>1696924454</v>
       </c>
       <c r="F76" t="n">
-        <v>199490.3863049467</v>
+        <v>194945.1898205061</v>
       </c>
       <c r="G76" t="n">
-        <v>215108.6338882994</v>
+        <v>214294.5328763225</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>29822507</v>
+        <v>29354267</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5565739977</v>
+        <v>5735900188</v>
       </c>
       <c r="E77" t="n">
-        <v>5565739977</v>
+        <v>5735900188</v>
       </c>
       <c r="F77" t="n">
-        <v>10141.24233846159</v>
+        <v>10321.35933496996</v>
       </c>
       <c r="G77" t="n">
-        <v>93598.53698249784</v>
+        <v>93175.94033117556</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>18025480</v>
+        <v>17348344</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7628286</v>
+        <v>7643424</v>
       </c>
       <c r="E78" t="n">
-        <v>19817466</v>
+        <v>19856794</v>
       </c>
       <c r="F78" t="n">
-        <v>1077.667524959792</v>
+        <v>1087.452822557427</v>
       </c>
       <c r="G78" t="n">
-        <v>2870.475630309038</v>
+        <v>2918.728486114082</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4</v>
+        <v>0.55</v>
       </c>
       <c r="I78" t="n">
-        <v>708567</v>
+        <v>705890</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101857099</v>
+        <v>101743766</v>
       </c>
       <c r="E79" t="n">
-        <v>154325273</v>
+        <v>154153561</v>
       </c>
       <c r="F79" t="n">
-        <v>39511.26082995479</v>
+        <v>41077.19098438288</v>
       </c>
       <c r="G79" t="n">
-        <v>26809.9047942334</v>
+        <v>30250.01366533132</v>
       </c>
       <c r="H79" t="n">
         <v>0.32</v>
       </c>
       <c r="I79" t="n">
-        <v>7066083</v>
+        <v>7079222</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2619910</v>
+        <v>2629725</v>
       </c>
       <c r="E80" t="n">
-        <v>10479641</v>
+        <v>10518900</v>
       </c>
       <c r="F80" t="n">
-        <v>52972.62553337913</v>
+        <v>81096.37371972558</v>
       </c>
       <c r="G80" t="n">
-        <v>68524.63645187228</v>
+        <v>67793.11505801688</v>
       </c>
       <c r="H80" t="n">
-        <v>0.48</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>7013523</v>
+        <v>6964229</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2483043</v>
+        <v>2561126</v>
       </c>
       <c r="F81" t="n">
-        <v>144.6183042264196</v>
+        <v>51.12223449255888</v>
       </c>
       <c r="G81" t="n">
-        <v>693.5974549971392</v>
+        <v>1169.398950890955</v>
       </c>
       <c r="H81" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="I81" t="n">
-        <v>300513</v>
+        <v>308342</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>394876668</v>
+        <v>398600526</v>
       </c>
       <c r="E82" t="n">
-        <v>2256438102</v>
+        <v>2277717290</v>
       </c>
       <c r="F82" t="n">
-        <v>88034.09856046179</v>
+        <v>154007.0561946571</v>
       </c>
       <c r="G82" t="n">
-        <v>118778.0999782987</v>
+        <v>179983.5859422692</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>38869126</v>
+        <v>37921726</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4012784</v>
+        <v>3975220</v>
       </c>
       <c r="F2" t="n">
-        <v>477.7069723074801</v>
+        <v>904.1228732410706</v>
       </c>
       <c r="G2" t="n">
-        <v>589.4498437808033</v>
+        <v>513.9001244101423</v>
       </c>
       <c r="H2" t="n">
-        <v>0.02</v>
+        <v>0.33</v>
       </c>
       <c r="I2" t="n">
-        <v>120283</v>
+        <v>121893</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305851</v>
+        <v>1305395</v>
       </c>
       <c r="E3" t="n">
-        <v>4221045</v>
+        <v>4219572</v>
       </c>
       <c r="F3" t="n">
-        <v>6637.676182955823</v>
+        <v>5456.245064145663</v>
       </c>
       <c r="G3" t="n">
-        <v>10808.32054921432</v>
+        <v>10523.75771170412</v>
       </c>
       <c r="H3" t="n">
-        <v>0.45</v>
+        <v>0.19</v>
       </c>
       <c r="I3" t="n">
-        <v>109024</v>
+        <v>111481</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245879539</v>
+        <v>245603249</v>
       </c>
       <c r="E4" t="n">
-        <v>1541876027</v>
+        <v>1540143450</v>
       </c>
       <c r="F4" t="n">
-        <v>253560.8132403747</v>
+        <v>224131.5861572722</v>
       </c>
       <c r="G4" t="n">
-        <v>254253.2334981519</v>
+        <v>257785.0688950397</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I4" t="n">
-        <v>16604787</v>
+        <v>16494749</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>142789924</v>
+        <v>144081045</v>
       </c>
       <c r="E5" t="n">
-        <v>158233551</v>
+        <v>159664315</v>
       </c>
       <c r="F5" t="n">
-        <v>90630.12809933785</v>
+        <v>83752.02215692344</v>
       </c>
       <c r="G5" t="n">
-        <v>98677.72126845003</v>
+        <v>108817.2293461294</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>35912485</v>
+        <v>36209708</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126614875</v>
+        <v>127938391</v>
       </c>
       <c r="E6" t="n">
-        <v>496292397</v>
+        <v>501480184</v>
       </c>
       <c r="F6" t="n">
-        <v>15251.38246889595</v>
+        <v>16775.49782645694</v>
       </c>
       <c r="G6" t="n">
-        <v>51333.71173126658</v>
+        <v>55096.81344317604</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I6" t="n">
-        <v>30783968</v>
+        <v>30443464</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4523610</v>
+        <v>4524031</v>
       </c>
       <c r="E7" t="n">
-        <v>27785305</v>
+        <v>27787891</v>
       </c>
       <c r="F7" t="n">
-        <v>2774.506078253675</v>
+        <v>2957.730089561047</v>
       </c>
       <c r="G7" t="n">
-        <v>1329.856679435956</v>
+        <v>1175.574341085117</v>
       </c>
       <c r="H7" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
       <c r="I7" t="n">
-        <v>621044</v>
+        <v>634131</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197918</v>
+        <v>197936</v>
       </c>
       <c r="E8" t="n">
-        <v>2177318</v>
+        <v>2177513</v>
       </c>
       <c r="F8" t="n">
-        <v>3857.484298406708</v>
+        <v>3907.91707011391</v>
       </c>
       <c r="G8" t="n">
-        <v>5707.756921274487</v>
+        <v>5735.883448947182</v>
       </c>
       <c r="H8" t="n">
-        <v>0.28</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>27425</v>
+        <v>26834</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>69674873</v>
+        <v>70978117</v>
       </c>
       <c r="E9" t="n">
-        <v>120671604</v>
+        <v>122925784</v>
       </c>
       <c r="F9" t="n">
-        <v>9992.0329753105</v>
+        <v>9583.648081551039</v>
       </c>
       <c r="G9" t="n">
-        <v>7055.759141427108</v>
+        <v>12966.59346834285</v>
       </c>
       <c r="H9" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>712556</v>
+        <v>766115</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8837348</v>
+        <v>8834551</v>
       </c>
       <c r="E10" t="n">
-        <v>12508610</v>
+        <v>12504650</v>
       </c>
       <c r="F10" t="n">
-        <v>4271.261877644917</v>
+        <v>4279.471512468204</v>
       </c>
       <c r="G10" t="n">
-        <v>4301.66615955633</v>
+        <v>4296.348919564745</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>70013</v>
+        <v>70044</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="E11" t="n">
-        <v>475083512</v>
+        <v>480240719</v>
       </c>
       <c r="F11" t="n">
-        <v>30901.20043768248</v>
+        <v>39693.35291845915</v>
       </c>
       <c r="G11" t="n">
-        <v>72608.66844242631</v>
+        <v>83544.67006727369</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I11" t="n">
-        <v>71401530</v>
+        <v>71946805</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>340446</v>
+        <v>332370</v>
       </c>
       <c r="E12" t="n">
-        <v>1589238</v>
+        <v>1551536</v>
       </c>
       <c r="F12" t="n">
-        <v>601.5203479894482</v>
+        <v>85.9063219250571</v>
       </c>
       <c r="G12" t="n">
-        <v>763.5991553981611</v>
+        <v>214.51069819473</v>
       </c>
       <c r="H12" t="n">
-        <v>0.19</v>
+        <v>1.4</v>
       </c>
       <c r="I12" t="n">
-        <v>731917</v>
+        <v>721987</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1564941</v>
+        <v>1521487</v>
       </c>
       <c r="F13" t="n">
-        <v>4530.952443327158</v>
+        <v>4791.499035468326</v>
       </c>
       <c r="G13" t="n">
-        <v>1671.809323799023</v>
+        <v>2274.415839359732</v>
       </c>
       <c r="H13" t="n">
-        <v>0.46</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>248414</v>
+        <v>188825</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12791214</v>
+        <v>12799677</v>
       </c>
       <c r="E14" t="n">
-        <v>31835018</v>
+        <v>31856081</v>
       </c>
       <c r="F14" t="n">
-        <v>1027.073016134174</v>
+        <v>1063.438259301249</v>
       </c>
       <c r="G14" t="n">
-        <v>1923.685739519688</v>
+        <v>1875.792279361026</v>
       </c>
       <c r="H14" t="n">
-        <v>0.38</v>
+        <v>0.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1417023</v>
+        <v>1405487</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>111168025</v>
+        <v>112713924</v>
       </c>
       <c r="E15" t="n">
-        <v>432578237</v>
+        <v>438568260</v>
       </c>
       <c r="F15" t="n">
-        <v>34122.81003507147</v>
+        <v>36228.35814710893</v>
       </c>
       <c r="G15" t="n">
-        <v>91906.50207927123</v>
+        <v>106028.5254349084</v>
       </c>
       <c r="H15" t="n">
         <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>8123899</v>
+        <v>8523237</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5185344</v>
+        <v>5178925</v>
       </c>
       <c r="E16" t="n">
-        <v>7633107</v>
+        <v>7623658</v>
       </c>
       <c r="F16" t="n">
-        <v>1114.830046261623</v>
+        <v>714.3848228359069</v>
       </c>
       <c r="G16" t="n">
-        <v>280.3119855234507</v>
+        <v>410.8736926520527</v>
       </c>
       <c r="H16" t="n">
-        <v>1.02</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>680751</v>
+        <v>684385</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2036089</v>
+        <v>1957093</v>
       </c>
       <c r="F17" t="n">
-        <v>85.21560221666921</v>
+        <v>391.1032295891279</v>
       </c>
       <c r="G17" t="n">
-        <v>559.9179073783123</v>
+        <v>110.2777663510914</v>
       </c>
       <c r="H17" t="n">
-        <v>0.64</v>
+        <v>1.07</v>
       </c>
       <c r="I17" t="n">
-        <v>206358</v>
+        <v>211196</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="E18" t="n">
-        <v>137704432</v>
+        <v>138806916</v>
       </c>
       <c r="F18" t="n">
-        <v>121423.3285238373</v>
+        <v>89170.57117912218</v>
       </c>
       <c r="G18" t="n">
-        <v>142383.2098867198</v>
+        <v>146180.0741219207</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>63761627</v>
+        <v>65097557</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65301711</v>
+        <v>65499001</v>
       </c>
       <c r="E19" t="n">
-        <v>334880567</v>
+        <v>335892315</v>
       </c>
       <c r="F19" t="n">
-        <v>22803.94267230498</v>
+        <v>15437.31266892521</v>
       </c>
       <c r="G19" t="n">
-        <v>20999.34164813079</v>
+        <v>24573.32938513943</v>
       </c>
       <c r="H19" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>21443578</v>
+        <v>21626778</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>252856287</v>
+        <v>253972952</v>
       </c>
       <c r="E20" t="n">
-        <v>252856287</v>
+        <v>253972952</v>
       </c>
       <c r="F20" t="n">
-        <v>77592.78612967199</v>
+        <v>52263.71106192384</v>
       </c>
       <c r="G20" t="n">
-        <v>73462.62914065237</v>
+        <v>112708.1444022272</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14817314</v>
+        <v>14525926</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>158954559</v>
+        <v>159214825</v>
       </c>
       <c r="E21" t="n">
-        <v>209165609</v>
+        <v>209508089</v>
       </c>
       <c r="F21" t="n">
-        <v>26195.77015668241</v>
+        <v>20609.8353634524</v>
       </c>
       <c r="G21" t="n">
-        <v>28774.293021162</v>
+        <v>24411.29996783411</v>
       </c>
       <c r="H21" t="n">
         <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8082574</v>
+        <v>8170031</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76187540</v>
+        <v>78232881</v>
       </c>
       <c r="E22" t="n">
-        <v>213241685</v>
+        <v>218918329</v>
       </c>
       <c r="F22" t="n">
-        <v>25980.365917061</v>
+        <v>28610.7533265553</v>
       </c>
       <c r="G22" t="n">
-        <v>47094.36111076669</v>
+        <v>47062.730467059</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I22" t="n">
-        <v>33988140</v>
+        <v>34437252</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74522029</v>
+        <v>75336555</v>
       </c>
       <c r="E23" t="n">
-        <v>155416273</v>
+        <v>157114975</v>
       </c>
       <c r="F23" t="n">
-        <v>24716.16214037321</v>
+        <v>19364.37962540679</v>
       </c>
       <c r="G23" t="n">
-        <v>41066.18537384492</v>
+        <v>42114.38504238805</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>16060050</v>
+        <v>15795971</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>643459615</v>
+        <v>645865608</v>
       </c>
       <c r="E24" t="n">
-        <v>643459615</v>
+        <v>645865608</v>
       </c>
       <c r="F24" t="n">
-        <v>194005.9580493869</v>
+        <v>157741.0048126968</v>
       </c>
       <c r="G24" t="n">
-        <v>200665.4730464115</v>
+        <v>299084.8403346809</v>
       </c>
       <c r="H24" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>287560393</v>
+        <v>291012236</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>201375859</v>
+        <v>202651650</v>
       </c>
       <c r="E25" t="n">
-        <v>699597935</v>
+        <v>704030147</v>
       </c>
       <c r="F25" t="n">
-        <v>87244.57910694205</v>
+        <v>88523.33608952058</v>
       </c>
       <c r="G25" t="n">
-        <v>356326.0315549527</v>
+        <v>359418.0123467073</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>27270348</v>
+        <v>27651680</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5626889</v>
+        <v>5645783</v>
       </c>
       <c r="E26" t="n">
-        <v>7644445</v>
+        <v>7670113</v>
       </c>
       <c r="F26" t="n">
-        <v>723.6889325085806</v>
+        <v>719.6928542448474</v>
       </c>
       <c r="G26" t="n">
-        <v>332.7958699207912</v>
+        <v>260.7077668079611</v>
       </c>
       <c r="H26" t="n">
         <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5882444</v>
+        <v>5836025</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14527040</v>
+        <v>14519478</v>
       </c>
       <c r="F27" t="n">
-        <v>2083.571913117848</v>
+        <v>2390.342635412644</v>
       </c>
       <c r="G27" t="n">
-        <v>3388.025009845545</v>
+        <v>2727.642814994384</v>
       </c>
       <c r="H27" t="n">
-        <v>0.21</v>
+        <v>0.63</v>
       </c>
       <c r="I27" t="n">
-        <v>301442</v>
+        <v>289109</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25591493</v>
+        <v>25823676</v>
       </c>
       <c r="E28" t="n">
-        <v>36172576</v>
+        <v>36500758</v>
       </c>
       <c r="F28" t="n">
-        <v>264.2238974680553</v>
+        <v>244.1557586146602</v>
       </c>
       <c r="G28" t="n">
-        <v>8541.446346062101</v>
+        <v>7434.984185939373</v>
       </c>
       <c r="H28" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="I28" t="n">
-        <v>62619</v>
+        <v>64605</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>268656122</v>
+        <v>270909174</v>
       </c>
       <c r="E29" t="n">
-        <v>1159668964</v>
+        <v>1169394388</v>
       </c>
       <c r="F29" t="n">
-        <v>263826.4701301535</v>
+        <v>377694.8216445454</v>
       </c>
       <c r="G29" t="n">
-        <v>363960.0524258166</v>
+        <v>360808.8213660342</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.17</v>
       </c>
       <c r="I29" t="n">
-        <v>99139350</v>
+        <v>99035897</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11014168</v>
+        <v>11053257</v>
       </c>
       <c r="E30" t="n">
-        <v>132961746</v>
+        <v>133433629</v>
       </c>
       <c r="F30" t="n">
-        <v>3316.377844855478</v>
+        <v>5235.920718388707</v>
       </c>
       <c r="G30" t="n">
-        <v>3940.887830441004</v>
+        <v>2263.511462527469</v>
       </c>
       <c r="H30" t="n">
-        <v>0.83</v>
+        <v>0.3</v>
       </c>
       <c r="I30" t="n">
-        <v>219375</v>
+        <v>218540</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19733758</v>
+        <v>19796275</v>
       </c>
       <c r="E31" t="n">
-        <v>49334394</v>
+        <v>49490687</v>
       </c>
       <c r="F31" t="n">
-        <v>15427.25437450847</v>
+        <v>13370.01147362715</v>
       </c>
       <c r="G31" t="n">
-        <v>8268.271749207468</v>
+        <v>9250.460942723837</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I31" t="n">
-        <v>1936540</v>
+        <v>1897407</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19770362</v>
+        <v>19885435</v>
       </c>
       <c r="F32" t="n">
-        <v>2775.454102821949</v>
+        <v>2475.244835511034</v>
       </c>
       <c r="G32" t="n">
-        <v>2213.265453972929</v>
+        <v>2462.259422446687</v>
       </c>
       <c r="H32" t="n">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>89764</v>
+        <v>91656</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1308321</v>
+        <v>1301583</v>
       </c>
       <c r="E33" t="n">
-        <v>4877768</v>
+        <v>4852638</v>
       </c>
       <c r="F33" t="n">
-        <v>1732.796217213122</v>
+        <v>3459.403479811203</v>
       </c>
       <c r="G33" t="n">
-        <v>2204.860158701385</v>
+        <v>2396.333570076486</v>
       </c>
       <c r="H33" t="n">
-        <v>1.01</v>
+        <v>0.02</v>
       </c>
       <c r="I33" t="n">
-        <v>459575</v>
+        <v>480868</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4163261</v>
+        <v>4094525</v>
       </c>
       <c r="E34" t="n">
-        <v>11992171</v>
+        <v>11794178</v>
       </c>
       <c r="F34" t="n">
-        <v>545.6670425178248</v>
+        <v>1348.337962913147</v>
       </c>
       <c r="G34" t="n">
-        <v>1374.925528503771</v>
+        <v>5222.204582655039</v>
       </c>
       <c r="H34" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="I34" t="n">
-        <v>642143</v>
+        <v>630838</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14310142</v>
+        <v>14571451</v>
       </c>
       <c r="E35" t="n">
-        <v>69306300</v>
+        <v>70571863</v>
       </c>
       <c r="F35" t="n">
-        <v>11710.16647712858</v>
+        <v>10169.08352896503</v>
       </c>
       <c r="G35" t="n">
-        <v>10805.62121862308</v>
+        <v>12651.47906388308</v>
       </c>
       <c r="H35" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I35" t="n">
-        <v>3719693</v>
+        <v>3709510</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1423706</v>
+        <v>1420944</v>
       </c>
       <c r="E36" t="n">
-        <v>9318118</v>
+        <v>9300043</v>
       </c>
       <c r="F36" t="n">
-        <v>3806.980196013398</v>
+        <v>3736.745966656843</v>
       </c>
       <c r="G36" t="n">
-        <v>4155.980013782833</v>
+        <v>4282.910421320889</v>
       </c>
       <c r="H36" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>540314</v>
+        <v>545635</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1920420365</v>
+        <v>1929084890</v>
       </c>
       <c r="F37" t="n">
-        <v>77556.76383209687</v>
+        <v>76479.91763147687</v>
       </c>
       <c r="G37" t="n">
-        <v>73898.2278029224</v>
+        <v>71998.20649921428</v>
       </c>
       <c r="H37" t="n">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="I37" t="n">
-        <v>26898936</v>
+        <v>27235922</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2059511</v>
+        <v>2047908</v>
       </c>
       <c r="E38" t="n">
-        <v>14768548</v>
+        <v>14685340</v>
       </c>
       <c r="F38" t="n">
-        <v>3849.589130526784</v>
+        <v>4432.888957310212</v>
       </c>
       <c r="G38" t="n">
-        <v>5536.306676568349</v>
+        <v>5586.972811555522</v>
       </c>
       <c r="H38" t="n">
-        <v>0.47</v>
+        <v>0.4</v>
       </c>
       <c r="I38" t="n">
-        <v>1974946</v>
+        <v>1974160</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199398838</v>
+        <v>199913321</v>
       </c>
       <c r="E39" t="n">
-        <v>1129118743</v>
+        <v>1132032061</v>
       </c>
       <c r="F39" t="n">
-        <v>149728.993871889</v>
+        <v>160215.6187398299</v>
       </c>
       <c r="G39" t="n">
-        <v>186037.5487986392</v>
+        <v>162759.8481717236</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>61921656</v>
+        <v>62418735</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>139605707</v>
+        <v>140179169</v>
       </c>
       <c r="E40" t="n">
-        <v>1034116348</v>
+        <v>1038364212</v>
       </c>
       <c r="F40" t="n">
-        <v>189373.6842332017</v>
+        <v>196335.4358263739</v>
       </c>
       <c r="G40" t="n">
-        <v>208554.8594187507</v>
+        <v>180859.5288553702</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>9984616</v>
+        <v>9901496</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338525047</v>
+        <v>338276037</v>
       </c>
       <c r="E41" t="n">
-        <v>3045581238</v>
+        <v>3043340985</v>
       </c>
       <c r="F41" t="n">
-        <v>200377.6541006167</v>
+        <v>182128.5909263709</v>
       </c>
       <c r="G41" t="n">
-        <v>225527.2789558877</v>
+        <v>216317.7159645528</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>37554676</v>
+        <v>38296569</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1578205</v>
+        <v>1582518</v>
       </c>
       <c r="E42" t="n">
-        <v>13151712</v>
+        <v>13187654</v>
       </c>
       <c r="F42" t="n">
-        <v>2898.690351389762</v>
+        <v>4103.592862625991</v>
       </c>
       <c r="G42" t="n">
-        <v>6464.269930706621</v>
+        <v>6305.936187761032</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08</v>
+        <v>0.46</v>
       </c>
       <c r="I42" t="n">
-        <v>42161</v>
+        <v>42266</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22894468</v>
+        <v>22922832</v>
       </c>
       <c r="E43" t="n">
-        <v>68627086</v>
+        <v>68712109</v>
       </c>
       <c r="F43" t="n">
-        <v>49473.74541277604</v>
+        <v>58908.46003094724</v>
       </c>
       <c r="G43" t="n">
-        <v>60634.21387414954</v>
+        <v>62648.80848580603</v>
       </c>
       <c r="H43" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3149259</v>
+        <v>3092650</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9445479</v>
+        <v>9451514</v>
       </c>
       <c r="F44" t="n">
-        <v>5684.319627760132</v>
+        <v>6120.206635597937</v>
       </c>
       <c r="G44" t="n">
-        <v>5821.851863940028</v>
+        <v>5939.570188178225</v>
       </c>
       <c r="H44" t="n">
         <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>121403</v>
+        <v>121098</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13097520</v>
+        <v>13180362</v>
       </c>
       <c r="E45" t="n">
-        <v>13097520</v>
+        <v>13180362</v>
       </c>
       <c r="F45" t="n">
-        <v>223.4266725986327</v>
+        <v>313.5645478876305</v>
       </c>
       <c r="G45" t="n">
-        <v>22205.1669490409</v>
+        <v>22195.48428170273</v>
       </c>
       <c r="H45" t="n">
-        <v>0.68</v>
+        <v>0.61</v>
       </c>
       <c r="I45" t="n">
-        <v>3562035</v>
+        <v>3568123</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>312804064</v>
+        <v>311039087</v>
       </c>
       <c r="E46" t="n">
-        <v>312804064</v>
+        <v>311039087</v>
       </c>
       <c r="F46" t="n">
-        <v>24578.67595936083</v>
+        <v>51680.68976199247</v>
       </c>
       <c r="G46" t="n">
-        <v>41513.99946708589</v>
+        <v>42232.53694083337</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>13401507</v>
+        <v>14594900</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12860544</v>
+        <v>12894996</v>
       </c>
       <c r="E47" t="n">
-        <v>40686111</v>
+        <v>40795104</v>
       </c>
       <c r="F47" t="n">
-        <v>16389.67360976795</v>
+        <v>16138.7694892905</v>
       </c>
       <c r="G47" t="n">
-        <v>12770.72540278249</v>
+        <v>12916.99165355957</v>
       </c>
       <c r="H47" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>1337270</v>
+        <v>1290403</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31630773</v>
+        <v>31850610</v>
       </c>
       <c r="E48" t="n">
-        <v>87614102</v>
+        <v>88223028</v>
       </c>
       <c r="F48" t="n">
-        <v>3943.238876528717</v>
+        <v>3066.364597266752</v>
       </c>
       <c r="G48" t="n">
-        <v>7921.66027959345</v>
+        <v>6620.041146431759</v>
       </c>
       <c r="H48" t="n">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="I48" t="n">
-        <v>12054159</v>
+        <v>12094257</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28199967</v>
+        <v>28200660</v>
       </c>
       <c r="E49" t="n">
-        <v>66996109</v>
+        <v>66997756</v>
       </c>
       <c r="F49" t="n">
-        <v>19974.89782886068</v>
+        <v>13186.71224045486</v>
       </c>
       <c r="G49" t="n">
-        <v>17578.67689346688</v>
+        <v>17434.59708235317</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>520340</v>
+        <v>506026</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12755552</v>
+        <v>12773290</v>
       </c>
       <c r="E50" t="n">
-        <v>19416826</v>
+        <v>19443828</v>
       </c>
       <c r="F50" t="n">
-        <v>7161.823884961881</v>
+        <v>6808.238945076503</v>
       </c>
       <c r="G50" t="n">
-        <v>18371.38772589748</v>
+        <v>3899.848110640176</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>746001</v>
+        <v>776318</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>312528765</v>
+        <v>315186046</v>
       </c>
       <c r="E51" t="n">
-        <v>312528765</v>
+        <v>315186046</v>
       </c>
       <c r="F51" t="n">
-        <v>139599.1171607845</v>
+        <v>115663.5224801313</v>
       </c>
       <c r="G51" t="n">
-        <v>108115.7843442378</v>
+        <v>116405.5012688152</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I51" t="n">
-        <v>50139920</v>
+        <v>51221988</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>89247462</v>
+        <v>90253131</v>
       </c>
       <c r="E52" t="n">
-        <v>514282371</v>
+        <v>520077470</v>
       </c>
       <c r="F52" t="n">
-        <v>268078.8777723939</v>
+        <v>329545.320345286</v>
       </c>
       <c r="G52" t="n">
-        <v>240642.9430154594</v>
+        <v>244766.7562225071</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>16509286</v>
+        <v>16427611</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30308904</v>
+        <v>30405488</v>
       </c>
       <c r="E53" t="n">
-        <v>135705395</v>
+        <v>136137845</v>
       </c>
       <c r="F53" t="n">
-        <v>40724.49452556005</v>
+        <v>38067.37348904688</v>
       </c>
       <c r="G53" t="n">
-        <v>38351.92831961691</v>
+        <v>40237.67483226205</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8460434</v>
+        <v>8454004</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9107068</v>
+        <v>9090990</v>
       </c>
       <c r="F54" t="n">
-        <v>2685.935785617718</v>
+        <v>2592.333014667685</v>
       </c>
       <c r="G54" t="n">
-        <v>4615.523221125779</v>
+        <v>4651.595567975869</v>
       </c>
       <c r="H54" t="n">
-        <v>0.55</v>
+        <v>0.44</v>
       </c>
       <c r="I54" t="n">
-        <v>303389</v>
+        <v>303898</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4788104</v>
+        <v>4782306</v>
       </c>
       <c r="F55" t="n">
-        <v>4797.774168038207</v>
+        <v>4325.796169945436</v>
       </c>
       <c r="G55" t="n">
-        <v>863.0596480217242</v>
+        <v>870.8028890272557</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>199208</v>
+        <v>182831</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125444296</v>
+        <v>125323456</v>
       </c>
       <c r="E56" t="n">
-        <v>2077460289</v>
+        <v>2075459080</v>
       </c>
       <c r="F56" t="n">
-        <v>183277.5454213294</v>
+        <v>185372.8888900053</v>
       </c>
       <c r="G56" t="n">
-        <v>183762.8817290877</v>
+        <v>183957.9165445249</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4833881</v>
+        <v>4851386</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>98174958</v>
+        <v>94371245</v>
       </c>
       <c r="E57" t="n">
-        <v>99231745</v>
+        <v>95387088</v>
       </c>
       <c r="F57" t="n">
-        <v>46579.52012308752</v>
+        <v>44855.03670659947</v>
       </c>
       <c r="G57" t="n">
-        <v>59437.55123176315</v>
+        <v>63160.88147760603</v>
       </c>
       <c r="H57" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="I57" t="n">
-        <v>31637955</v>
+        <v>33723742</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>231650769</v>
+        <v>235050374</v>
       </c>
       <c r="E58" t="n">
-        <v>231650769</v>
+        <v>235050374</v>
       </c>
       <c r="F58" t="n">
-        <v>105361.1238299034</v>
+        <v>84673.9935814229</v>
       </c>
       <c r="G58" t="n">
-        <v>117989.9673399017</v>
+        <v>97363.11994967448</v>
       </c>
       <c r="H58" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>44267256</v>
+        <v>44586695</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24081487</v>
+        <v>24404770</v>
       </c>
       <c r="E59" t="n">
-        <v>144084378</v>
+        <v>146018646</v>
       </c>
       <c r="F59" t="n">
-        <v>58122.50435464053</v>
+        <v>66448.32116255835</v>
       </c>
       <c r="G59" t="n">
-        <v>73001.46900184271</v>
+        <v>36735.12816770909</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>11538077</v>
+        <v>12021564</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2425123</v>
+        <v>2342612</v>
       </c>
       <c r="E60" t="n">
-        <v>4475703</v>
+        <v>4323424</v>
       </c>
       <c r="F60" t="n">
-        <v>5569.011132759052</v>
+        <v>4004.152054533921</v>
       </c>
       <c r="G60" t="n">
-        <v>374.8435600676172</v>
+        <v>2009.011853234351</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23220</v>
+        <v>23061</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10551272</v>
+        <v>10846315</v>
       </c>
       <c r="E62" t="n">
-        <v>31308023</v>
+        <v>32181735</v>
       </c>
       <c r="F62" t="n">
-        <v>3726.351764346916</v>
+        <v>5644.570146790013</v>
       </c>
       <c r="G62" t="n">
-        <v>4885.7045460567</v>
+        <v>5941.674462219184</v>
       </c>
       <c r="H62" t="n">
         <v>0.16</v>
       </c>
       <c r="I62" t="n">
-        <v>6467123</v>
+        <v>6604398</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14620285</v>
+        <v>14510153</v>
       </c>
       <c r="E63" t="n">
-        <v>29597874</v>
+        <v>29374919</v>
       </c>
       <c r="F63" t="n">
-        <v>6050.414826298779</v>
+        <v>5737.265804625377</v>
       </c>
       <c r="G63" t="n">
-        <v>10085.1440627473</v>
+        <v>15258.96107575898</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>536341</v>
+        <v>553676</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38179431</v>
+        <v>38777007</v>
       </c>
       <c r="E64" t="n">
-        <v>270685934</v>
+        <v>274922656</v>
       </c>
       <c r="F64" t="n">
-        <v>76120.67029339973</v>
+        <v>88338.6237650524</v>
       </c>
       <c r="G64" t="n">
-        <v>64701.22346644592</v>
+        <v>52261.61876904871</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1465658</v>
+        <v>1604503</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1270310</v>
+        <v>1270347</v>
       </c>
       <c r="E65" t="n">
-        <v>7877223</v>
+        <v>7877451</v>
       </c>
       <c r="F65" t="n">
-        <v>2280.914822800763</v>
+        <v>2279.320399496576</v>
       </c>
       <c r="G65" t="n">
-        <v>2127.166922559188</v>
+        <v>2136.7307540827</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>743710</v>
+        <v>754011</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>600077380</v>
+        <v>605646057</v>
       </c>
       <c r="E66" t="n">
-        <v>2324011157</v>
+        <v>2345577822</v>
       </c>
       <c r="F66" t="n">
-        <v>145421.480357855</v>
+        <v>147933.5267795829</v>
       </c>
       <c r="G66" t="n">
-        <v>146034.4573791748</v>
+        <v>162155.4221786199</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>32895699</v>
+        <v>32867186</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5837056</v>
+        <v>5845990</v>
       </c>
       <c r="E67" t="n">
-        <v>26133228</v>
+        <v>26173228</v>
       </c>
       <c r="F67" t="n">
-        <v>4581.933620461674</v>
+        <v>4580.735272954416</v>
       </c>
       <c r="G67" t="n">
-        <v>4799.929268867249</v>
+        <v>4435.968995282927</v>
       </c>
       <c r="H67" t="n">
         <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>148070</v>
+        <v>147924</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>121264864</v>
+        <v>122631525</v>
       </c>
       <c r="E68" t="n">
-        <v>1054323460</v>
+        <v>1066205735</v>
       </c>
       <c r="F68" t="n">
-        <v>160185.138100714</v>
+        <v>166286.6204612461</v>
       </c>
       <c r="G68" t="n">
-        <v>161202.5502315908</v>
+        <v>167097.972790418</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>9075963</v>
+        <v>9017385</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>112830130</v>
+        <v>114618852</v>
       </c>
       <c r="E69" t="n">
-        <v>172125007</v>
+        <v>174853746</v>
       </c>
       <c r="F69" t="n">
-        <v>62993.93385604887</v>
+        <v>58225.67447589507</v>
       </c>
       <c r="G69" t="n">
-        <v>83896.72963845772</v>
+        <v>83441.91073048345</v>
       </c>
       <c r="H69" t="n">
         <v>0.17</v>
       </c>
       <c r="I69" t="n">
-        <v>9230724</v>
+        <v>8645985</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1102071</v>
+        <v>1102032</v>
       </c>
       <c r="E70" t="n">
-        <v>4267458</v>
+        <v>4267309</v>
       </c>
       <c r="F70" t="n">
-        <v>3527.564561763725</v>
+        <v>2728.614905145006</v>
       </c>
       <c r="G70" t="n">
-        <v>2505.075256113224</v>
+        <v>4108.671269643039</v>
       </c>
       <c r="H70" t="n">
-        <v>0.4</v>
+        <v>0.51</v>
       </c>
       <c r="I70" t="n">
-        <v>386353</v>
+        <v>369439</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>117864503</v>
+        <v>118364103</v>
       </c>
       <c r="E71" t="n">
-        <v>452147204</v>
+        <v>454063750</v>
       </c>
       <c r="F71" t="n">
-        <v>160961.7354873777</v>
+        <v>141460.3763480018</v>
       </c>
       <c r="G71" t="n">
-        <v>153688.3067422988</v>
+        <v>158737.5515242283</v>
       </c>
       <c r="H71" t="n">
         <v>0.09</v>
       </c>
       <c r="I71" t="n">
-        <v>30975398</v>
+        <v>30973312</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3175286</v>
+        <v>3178259</v>
       </c>
       <c r="E72" t="n">
-        <v>30086302</v>
+        <v>30114471</v>
       </c>
       <c r="F72" t="n">
-        <v>4791.825872117959</v>
+        <v>4309.137852258898</v>
       </c>
       <c r="G72" t="n">
-        <v>3942.328635069414</v>
+        <v>3681.636781064672</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>204147</v>
+        <v>216834</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31595440</v>
+        <v>31975405</v>
       </c>
       <c r="F73" t="n">
-        <v>910.3945057722467</v>
+        <v>688.3219523718058</v>
       </c>
       <c r="G73" t="n">
-        <v>6798.438496472855</v>
+        <v>332.0502137264327</v>
       </c>
       <c r="H73" t="n">
-        <v>0.07000000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="I73" t="n">
-        <v>5384791</v>
+        <v>4831702</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>87981805</v>
+        <v>88249178</v>
       </c>
       <c r="E74" t="n">
-        <v>325234312</v>
+        <v>326221181</v>
       </c>
       <c r="F74" t="n">
-        <v>8250.83803871354</v>
+        <v>8302.755188190824</v>
       </c>
       <c r="G74" t="n">
-        <v>697.9527102152545</v>
+        <v>522.1431211080189</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>283853</v>
+        <v>262178</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22669607</v>
+        <v>22864221</v>
       </c>
       <c r="E75" t="n">
-        <v>22669607</v>
+        <v>22864221</v>
       </c>
       <c r="F75" t="n">
-        <v>25615.38855620748</v>
+        <v>23347.34822516781</v>
       </c>
       <c r="G75" t="n">
-        <v>24112.3760886251</v>
+        <v>29988.93004307347</v>
       </c>
       <c r="H75" t="n">
         <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>5816350</v>
+        <v>5692662</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>487493543</v>
+        <v>492177804</v>
       </c>
       <c r="E76" t="n">
-        <v>1696924454</v>
+        <v>1713229974</v>
       </c>
       <c r="F76" t="n">
-        <v>194945.1898205061</v>
+        <v>194161.6862609863</v>
       </c>
       <c r="G76" t="n">
-        <v>214294.5328763225</v>
+        <v>211393.2870896547</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>29354267</v>
+        <v>29138850</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5735900188</v>
+        <v>5743422553</v>
       </c>
       <c r="E77" t="n">
-        <v>5735900188</v>
+        <v>5743422553</v>
       </c>
       <c r="F77" t="n">
-        <v>10321.35933496996</v>
+        <v>10367.26893732848</v>
       </c>
       <c r="G77" t="n">
-        <v>93175.94033117556</v>
+        <v>93562.44004782381</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>17348344</v>
+        <v>16738671</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7643424</v>
+        <v>7649128</v>
       </c>
       <c r="E78" t="n">
-        <v>19856794</v>
+        <v>19871613</v>
       </c>
       <c r="F78" t="n">
-        <v>1087.452822557427</v>
+        <v>1011.065655168412</v>
       </c>
       <c r="G78" t="n">
-        <v>2918.728486114082</v>
+        <v>2740.441963842849</v>
       </c>
       <c r="H78" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
       <c r="I78" t="n">
-        <v>705890</v>
+        <v>711646</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101743766</v>
+        <v>101817861</v>
       </c>
       <c r="E79" t="n">
-        <v>154153561</v>
+        <v>154265823</v>
       </c>
       <c r="F79" t="n">
-        <v>41077.19098438288</v>
+        <v>41396.50564212805</v>
       </c>
       <c r="G79" t="n">
-        <v>30250.01366533132</v>
+        <v>33031.14086169677</v>
       </c>
       <c r="H79" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>7079222</v>
+        <v>6950543</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2629725</v>
+        <v>2626774</v>
       </c>
       <c r="E80" t="n">
-        <v>10518900</v>
+        <v>10507095</v>
       </c>
       <c r="F80" t="n">
-        <v>81096.37371972558</v>
+        <v>16916.74424534202</v>
       </c>
       <c r="G80" t="n">
-        <v>67793.11505801688</v>
+        <v>62434.25428780285</v>
       </c>
       <c r="H80" t="n">
         <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>6964229</v>
+        <v>6897872</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2561126</v>
+        <v>2552235</v>
       </c>
       <c r="F81" t="n">
-        <v>51.12223449255888</v>
+        <v>1747.158006714621</v>
       </c>
       <c r="G81" t="n">
-        <v>1169.398950890955</v>
+        <v>39.32160352263799</v>
       </c>
       <c r="H81" t="n">
-        <v>0.78</v>
+        <v>0.47</v>
       </c>
       <c r="I81" t="n">
-        <v>308342</v>
+        <v>300464</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>398600526</v>
+        <v>400354251</v>
       </c>
       <c r="E82" t="n">
-        <v>2277717290</v>
+        <v>2287738575</v>
       </c>
       <c r="F82" t="n">
-        <v>154007.0561946571</v>
+        <v>148162.8423856605</v>
       </c>
       <c r="G82" t="n">
-        <v>179983.5859422692</v>
+        <v>179359.6060836187</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37921726</v>
+        <v>38222637</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3975220</v>
+        <v>3966710</v>
       </c>
       <c r="F2" t="n">
-        <v>904.1228732410706</v>
+        <v>404.8014717020352</v>
       </c>
       <c r="G2" t="n">
-        <v>513.9001244101423</v>
+        <v>484.7814909794677</v>
       </c>
       <c r="H2" t="n">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="I2" t="n">
-        <v>121893</v>
+        <v>130246</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305395</v>
+        <v>1298445</v>
       </c>
       <c r="E3" t="n">
-        <v>4219572</v>
+        <v>4197108</v>
       </c>
       <c r="F3" t="n">
-        <v>5456.245064145663</v>
+        <v>5234.192182996951</v>
       </c>
       <c r="G3" t="n">
-        <v>10523.75771170412</v>
+        <v>11182.56470827242</v>
       </c>
       <c r="H3" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="I3" t="n">
-        <v>111481</v>
+        <v>113210</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>245603249</v>
+        <v>246345352</v>
       </c>
       <c r="E4" t="n">
-        <v>1540143450</v>
+        <v>1544797073</v>
       </c>
       <c r="F4" t="n">
-        <v>224131.5861572722</v>
+        <v>267255.9369019834</v>
       </c>
       <c r="G4" t="n">
-        <v>257785.0688950397</v>
+        <v>252269.7610436252</v>
       </c>
       <c r="H4" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>16494749</v>
+        <v>16505956</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144081045</v>
+        <v>144611279</v>
       </c>
       <c r="E5" t="n">
-        <v>159664315</v>
+        <v>160251897</v>
       </c>
       <c r="F5" t="n">
-        <v>83752.02215692344</v>
+        <v>90427.31241541427</v>
       </c>
       <c r="G5" t="n">
-        <v>108817.2293461294</v>
+        <v>98117.38214149633</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>36209708</v>
+        <v>36735167</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127938391</v>
+        <v>127438732</v>
       </c>
       <c r="E6" t="n">
-        <v>501480184</v>
+        <v>499521670</v>
       </c>
       <c r="F6" t="n">
-        <v>16775.49782645694</v>
+        <v>26582.13883801345</v>
       </c>
       <c r="G6" t="n">
-        <v>55096.81344317604</v>
+        <v>52753.79852750379</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>30443464</v>
+        <v>30072043</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4524031</v>
+        <v>4545083</v>
       </c>
       <c r="E7" t="n">
-        <v>27787891</v>
+        <v>27917199</v>
       </c>
       <c r="F7" t="n">
-        <v>2957.730089561047</v>
+        <v>2317.127383720094</v>
       </c>
       <c r="G7" t="n">
-        <v>1175.574341085117</v>
+        <v>1940.313897050511</v>
       </c>
       <c r="H7" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>634131</v>
+        <v>642543</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197936</v>
+        <v>197851</v>
       </c>
       <c r="E8" t="n">
-        <v>2177513</v>
+        <v>2176573</v>
       </c>
       <c r="F8" t="n">
-        <v>3907.91707011391</v>
+        <v>3872.439982945177</v>
       </c>
       <c r="G8" t="n">
-        <v>5735.883448947182</v>
+        <v>5731.735155229605</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.28</v>
       </c>
       <c r="I8" t="n">
-        <v>26834</v>
+        <v>27391</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70978117</v>
+        <v>71410265</v>
       </c>
       <c r="E9" t="n">
-        <v>122925784</v>
+        <v>123671259</v>
       </c>
       <c r="F9" t="n">
-        <v>9583.648081551039</v>
+        <v>4291.893717556877</v>
       </c>
       <c r="G9" t="n">
-        <v>12966.59346834285</v>
+        <v>17352.17762593046</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>766115</v>
+        <v>795963</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8834551</v>
+        <v>8834147</v>
       </c>
       <c r="E10" t="n">
-        <v>12504650</v>
+        <v>12504079</v>
       </c>
       <c r="F10" t="n">
-        <v>4279.471512468204</v>
+        <v>4265.594765984739</v>
       </c>
       <c r="G10" t="n">
-        <v>4296.348919564745</v>
+        <v>4396.155295081934</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>70044</v>
+        <v>69877</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>480240719</v>
+        <v>476587445</v>
       </c>
       <c r="E11" t="n">
-        <v>480240719</v>
+        <v>476587448</v>
       </c>
       <c r="F11" t="n">
-        <v>39693.35291845915</v>
+        <v>33605.15036790954</v>
       </c>
       <c r="G11" t="n">
-        <v>83544.67006727369</v>
+        <v>70900.50351977178</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>71946805</v>
+        <v>72481572</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>332370</v>
+        <v>313167</v>
       </c>
       <c r="E12" t="n">
-        <v>1551536</v>
+        <v>1461897</v>
       </c>
       <c r="F12" t="n">
-        <v>85.9063219250571</v>
+        <v>100.2232365082968</v>
       </c>
       <c r="G12" t="n">
-        <v>214.51069819473</v>
+        <v>422.1025065713771</v>
       </c>
       <c r="H12" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="I12" t="n">
-        <v>721987</v>
+        <v>688352</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1521487</v>
+        <v>1521349</v>
       </c>
       <c r="F13" t="n">
-        <v>4791.499035468326</v>
+        <v>5024.155393314364</v>
       </c>
       <c r="G13" t="n">
-        <v>2274.415839359732</v>
+        <v>2255.542219889848</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.46</v>
       </c>
       <c r="I13" t="n">
-        <v>188825</v>
+        <v>229739</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12799677</v>
+        <v>12803468</v>
       </c>
       <c r="E14" t="n">
-        <v>31856081</v>
+        <v>31865516</v>
       </c>
       <c r="F14" t="n">
-        <v>1063.438259301249</v>
+        <v>987.9080523782392</v>
       </c>
       <c r="G14" t="n">
-        <v>1875.792279361026</v>
+        <v>1860.361084717338</v>
       </c>
       <c r="H14" t="n">
         <v>0.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1405487</v>
+        <v>1293698</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112713924</v>
+        <v>112281736</v>
       </c>
       <c r="E15" t="n">
-        <v>438568260</v>
+        <v>436861440</v>
       </c>
       <c r="F15" t="n">
-        <v>36228.35814710893</v>
+        <v>38916.66890172681</v>
       </c>
       <c r="G15" t="n">
-        <v>106028.5254349084</v>
+        <v>111612.2013424254</v>
       </c>
       <c r="H15" t="n">
         <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>8523237</v>
+        <v>8716418</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5178925</v>
+        <v>5127895</v>
       </c>
       <c r="E16" t="n">
-        <v>7623658</v>
+        <v>7548540</v>
       </c>
       <c r="F16" t="n">
-        <v>714.3848228359069</v>
+        <v>829.0305839493742</v>
       </c>
       <c r="G16" t="n">
-        <v>410.8736926520527</v>
+        <v>465.6066701221302</v>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0.77</v>
       </c>
       <c r="I16" t="n">
-        <v>684385</v>
+        <v>596001</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1957093</v>
+        <v>1949062</v>
       </c>
       <c r="F17" t="n">
-        <v>391.1032295891279</v>
+        <v>847.4860282848771</v>
       </c>
       <c r="G17" t="n">
-        <v>110.2777663510914</v>
+        <v>643.5958237622457</v>
       </c>
       <c r="H17" t="n">
-        <v>1.07</v>
+        <v>0.78</v>
       </c>
       <c r="I17" t="n">
-        <v>211196</v>
+        <v>207908</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="E18" t="n">
-        <v>138806916</v>
+        <v>138711045</v>
       </c>
       <c r="F18" t="n">
-        <v>89170.57117912218</v>
+        <v>120242.7914228016</v>
       </c>
       <c r="G18" t="n">
-        <v>146180.0741219207</v>
+        <v>135586.0670090131</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>65097557</v>
+        <v>66000476</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65499001</v>
+        <v>65609250</v>
       </c>
       <c r="E19" t="n">
-        <v>335892315</v>
+        <v>336457695</v>
       </c>
       <c r="F19" t="n">
-        <v>15437.31266892521</v>
+        <v>24183.71101820909</v>
       </c>
       <c r="G19" t="n">
-        <v>24573.32938513943</v>
+        <v>22862.37018157358</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>21626778</v>
+        <v>21691074</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>253972952</v>
+        <v>255054289</v>
       </c>
       <c r="E20" t="n">
-        <v>253972952</v>
+        <v>255054289</v>
       </c>
       <c r="F20" t="n">
-        <v>52263.71106192384</v>
+        <v>64303.3110617436</v>
       </c>
       <c r="G20" t="n">
-        <v>112708.1444022272</v>
+        <v>99851.94597990192</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14525926</v>
+        <v>14643488</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>159214825</v>
+        <v>161160175</v>
       </c>
       <c r="E21" t="n">
-        <v>209508089</v>
+        <v>212067941</v>
       </c>
       <c r="F21" t="n">
-        <v>20609.8353634524</v>
+        <v>24298.87942699195</v>
       </c>
       <c r="G21" t="n">
-        <v>24411.29996783411</v>
+        <v>34701.345807965</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="I21" t="n">
-        <v>8170031</v>
+        <v>8184819</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78232881</v>
+        <v>78922849</v>
       </c>
       <c r="E22" t="n">
-        <v>218918329</v>
+        <v>220839491</v>
       </c>
       <c r="F22" t="n">
-        <v>28610.7533265553</v>
+        <v>27340.87895579259</v>
       </c>
       <c r="G22" t="n">
-        <v>47062.730467059</v>
+        <v>39634.64448447469</v>
       </c>
       <c r="H22" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I22" t="n">
-        <v>34437252</v>
+        <v>34494314</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75336555</v>
+        <v>75825932</v>
       </c>
       <c r="E23" t="n">
-        <v>157114975</v>
+        <v>158135575</v>
       </c>
       <c r="F23" t="n">
-        <v>19364.37962540679</v>
+        <v>21190.52430320749</v>
       </c>
       <c r="G23" t="n">
-        <v>42114.38504238805</v>
+        <v>36137.29701523882</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>15795971</v>
+        <v>16240468</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>645865608</v>
+        <v>651320335</v>
       </c>
       <c r="E24" t="n">
-        <v>645865608</v>
+        <v>651320335</v>
       </c>
       <c r="F24" t="n">
-        <v>157741.0048126968</v>
+        <v>157444.3630779649</v>
       </c>
       <c r="G24" t="n">
-        <v>299084.8403346809</v>
+        <v>288249.4552155519</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>291012236</v>
+        <v>300670129</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202651650</v>
+        <v>202417382</v>
       </c>
       <c r="E25" t="n">
-        <v>704030147</v>
+        <v>703216278</v>
       </c>
       <c r="F25" t="n">
-        <v>88523.33608952058</v>
+        <v>101679.0123086921</v>
       </c>
       <c r="G25" t="n">
-        <v>359418.0123467073</v>
+        <v>347529.8119917329</v>
       </c>
       <c r="H25" t="n">
         <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>27651680</v>
+        <v>28172642</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5645783</v>
+        <v>5631259</v>
       </c>
       <c r="E26" t="n">
-        <v>7670113</v>
+        <v>7650382</v>
       </c>
       <c r="F26" t="n">
-        <v>719.6928542448474</v>
+        <v>843.0879339996205</v>
       </c>
       <c r="G26" t="n">
-        <v>260.7077668079611</v>
+        <v>247.0574066248674</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I26" t="n">
-        <v>5836025</v>
+        <v>5786057</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14519478</v>
+        <v>14522707</v>
       </c>
       <c r="F27" t="n">
-        <v>2390.342635412644</v>
+        <v>2777.225080353458</v>
       </c>
       <c r="G27" t="n">
-        <v>2727.642814994384</v>
+        <v>2823.460772366406</v>
       </c>
       <c r="H27" t="n">
-        <v>0.63</v>
+        <v>0.37</v>
       </c>
       <c r="I27" t="n">
-        <v>289109</v>
+        <v>277758</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25823676</v>
+        <v>25903579</v>
       </c>
       <c r="E28" t="n">
-        <v>36500758</v>
+        <v>36613697</v>
       </c>
       <c r="F28" t="n">
-        <v>244.1557586146602</v>
+        <v>382.1526927501313</v>
       </c>
       <c r="G28" t="n">
-        <v>7434.984185939373</v>
+        <v>8096.695393696934</v>
       </c>
       <c r="H28" t="n">
-        <v>0.57</v>
+        <v>0.18</v>
       </c>
       <c r="I28" t="n">
-        <v>64605</v>
+        <v>60945</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>270909174</v>
+        <v>271380300</v>
       </c>
       <c r="E29" t="n">
-        <v>1169394388</v>
+        <v>1171428027</v>
       </c>
       <c r="F29" t="n">
-        <v>377694.8216445454</v>
+        <v>265546.1403415172</v>
       </c>
       <c r="G29" t="n">
-        <v>360808.8213660342</v>
+        <v>379096.4673924815</v>
       </c>
       <c r="H29" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>99035897</v>
+        <v>98891096</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11053257</v>
+        <v>11186337</v>
       </c>
       <c r="E30" t="n">
-        <v>133433629</v>
+        <v>135040150</v>
       </c>
       <c r="F30" t="n">
-        <v>5235.920718388707</v>
+        <v>1730.907505503369</v>
       </c>
       <c r="G30" t="n">
-        <v>2263.511462527469</v>
+        <v>3446.078867227459</v>
       </c>
       <c r="H30" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I30" t="n">
-        <v>218540</v>
+        <v>223468</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19796275</v>
+        <v>19754206</v>
       </c>
       <c r="E31" t="n">
-        <v>49490687</v>
+        <v>49385514</v>
       </c>
       <c r="F31" t="n">
-        <v>13370.01147362715</v>
+        <v>14080.98672985674</v>
       </c>
       <c r="G31" t="n">
-        <v>9250.460942723837</v>
+        <v>9754.393574931555</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>1897407</v>
+        <v>1886832</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19885435</v>
+        <v>19892737</v>
       </c>
       <c r="F32" t="n">
-        <v>2475.244835511034</v>
+        <v>2077.702277521553</v>
       </c>
       <c r="G32" t="n">
-        <v>2462.259422446687</v>
+        <v>2533.564825018843</v>
       </c>
       <c r="H32" t="n">
         <v>0.25</v>
       </c>
       <c r="I32" t="n">
-        <v>91656</v>
+        <v>72477</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1301583</v>
+        <v>1297297</v>
       </c>
       <c r="E33" t="n">
-        <v>4852638</v>
+        <v>4836660</v>
       </c>
       <c r="F33" t="n">
-        <v>3459.403479811203</v>
+        <v>1629.336723443098</v>
       </c>
       <c r="G33" t="n">
-        <v>2396.333570076486</v>
+        <v>2598.157250427761</v>
       </c>
       <c r="H33" t="n">
-        <v>0.02</v>
+        <v>0.19</v>
       </c>
       <c r="I33" t="n">
-        <v>480868</v>
+        <v>498577</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4094525</v>
+        <v>4211464</v>
       </c>
       <c r="E34" t="n">
-        <v>11794178</v>
+        <v>12131020</v>
       </c>
       <c r="F34" t="n">
-        <v>1348.337962913147</v>
+        <v>2841.79509083532</v>
       </c>
       <c r="G34" t="n">
-        <v>5222.204582655039</v>
+        <v>1657.626612516826</v>
       </c>
       <c r="H34" t="n">
-        <v>0.59</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>630838</v>
+        <v>651030</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14571451</v>
+        <v>14560025</v>
       </c>
       <c r="E35" t="n">
-        <v>70571863</v>
+        <v>70516523</v>
       </c>
       <c r="F35" t="n">
-        <v>10169.08352896503</v>
+        <v>12057.9366196541</v>
       </c>
       <c r="G35" t="n">
-        <v>12651.47906388308</v>
+        <v>11576.5792680398</v>
       </c>
       <c r="H35" t="n">
-        <v>0.21</v>
+        <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3709510</v>
+        <v>3707675</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1420944</v>
+        <v>1420435</v>
       </c>
       <c r="E36" t="n">
-        <v>9300043</v>
+        <v>9296710</v>
       </c>
       <c r="F36" t="n">
-        <v>3736.745966656843</v>
+        <v>4761.269045524893</v>
       </c>
       <c r="G36" t="n">
-        <v>4282.910421320889</v>
+        <v>4006.401378524477</v>
       </c>
       <c r="H36" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I36" t="n">
-        <v>545635</v>
+        <v>600386</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1929084890</v>
+        <v>1927526013</v>
       </c>
       <c r="F37" t="n">
-        <v>76479.91763147687</v>
+        <v>73537.67160948484</v>
       </c>
       <c r="G37" t="n">
-        <v>71998.20649921428</v>
+        <v>56568.64671841916</v>
       </c>
       <c r="H37" t="n">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="I37" t="n">
-        <v>27235922</v>
+        <v>27889283</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2047908</v>
+        <v>2054113</v>
       </c>
       <c r="E38" t="n">
-        <v>14685340</v>
+        <v>14729836</v>
       </c>
       <c r="F38" t="n">
-        <v>4432.888957310212</v>
+        <v>4248.793313079282</v>
       </c>
       <c r="G38" t="n">
-        <v>5586.972811555522</v>
+        <v>5595.265468932278</v>
       </c>
       <c r="H38" t="n">
-        <v>0.4</v>
+        <v>0.47</v>
       </c>
       <c r="I38" t="n">
-        <v>1974160</v>
+        <v>1995871</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>199913321</v>
+        <v>200960557</v>
       </c>
       <c r="E39" t="n">
-        <v>1132032061</v>
+        <v>1137962154</v>
       </c>
       <c r="F39" t="n">
-        <v>160215.6187398299</v>
+        <v>167064.9433616538</v>
       </c>
       <c r="G39" t="n">
-        <v>162759.8481717236</v>
+        <v>170851.0142497822</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I39" t="n">
-        <v>62418735</v>
+        <v>63130671</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>140179169</v>
+        <v>141273503</v>
       </c>
       <c r="E40" t="n">
-        <v>1038364212</v>
+        <v>1046470390</v>
       </c>
       <c r="F40" t="n">
-        <v>196335.4358263739</v>
+        <v>222759.138013862</v>
       </c>
       <c r="G40" t="n">
-        <v>180859.5288553702</v>
+        <v>206726.644504709</v>
       </c>
       <c r="H40" t="n">
         <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>9901496</v>
+        <v>9663468</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>338276037</v>
+        <v>340292691</v>
       </c>
       <c r="E41" t="n">
-        <v>3043340985</v>
+        <v>3061484057</v>
       </c>
       <c r="F41" t="n">
-        <v>182128.5909263709</v>
+        <v>190414.2918274334</v>
       </c>
       <c r="G41" t="n">
-        <v>216317.7159645528</v>
+        <v>211051.8533377923</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>38296569</v>
+        <v>38731903</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1582518</v>
+        <v>1582834</v>
       </c>
       <c r="E42" t="n">
-        <v>13187654</v>
+        <v>13190284</v>
       </c>
       <c r="F42" t="n">
-        <v>4103.592862625991</v>
+        <v>4060.137959040919</v>
       </c>
       <c r="G42" t="n">
-        <v>6305.936187761032</v>
+        <v>6999.083764523683</v>
       </c>
       <c r="H42" t="n">
-        <v>0.46</v>
+        <v>0.38</v>
       </c>
       <c r="I42" t="n">
-        <v>42266</v>
+        <v>39731</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22922832</v>
+        <v>22527339</v>
       </c>
       <c r="E43" t="n">
-        <v>68712109</v>
+        <v>67526603</v>
       </c>
       <c r="F43" t="n">
-        <v>58908.46003094724</v>
+        <v>22435.74413019358</v>
       </c>
       <c r="G43" t="n">
-        <v>62648.80848580603</v>
+        <v>19477.53636562314</v>
       </c>
       <c r="H43" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
-        <v>3092650</v>
+        <v>3265057</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9451514</v>
+        <v>9437728</v>
       </c>
       <c r="F44" t="n">
-        <v>6120.206635597937</v>
+        <v>6187.642176161039</v>
       </c>
       <c r="G44" t="n">
-        <v>5939.570188178225</v>
+        <v>5790.131811061893</v>
       </c>
       <c r="H44" t="n">
-        <v>0.42</v>
+        <v>0.32</v>
       </c>
       <c r="I44" t="n">
-        <v>121098</v>
+        <v>110608</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13180362</v>
+        <v>13122759</v>
       </c>
       <c r="E45" t="n">
-        <v>13180362</v>
+        <v>13122759</v>
       </c>
       <c r="F45" t="n">
-        <v>313.5645478876305</v>
+        <v>349.4259010581411</v>
       </c>
       <c r="G45" t="n">
-        <v>22195.48428170273</v>
+        <v>22162.58544084342</v>
       </c>
       <c r="H45" t="n">
         <v>0.61</v>
       </c>
       <c r="I45" t="n">
-        <v>3568123</v>
+        <v>3617466</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311039087</v>
+        <v>311298915</v>
       </c>
       <c r="E46" t="n">
-        <v>311039087</v>
+        <v>311298915</v>
       </c>
       <c r="F46" t="n">
-        <v>51680.68976199247</v>
+        <v>44161.0914515933</v>
       </c>
       <c r="G46" t="n">
-        <v>42232.53694083337</v>
+        <v>48490.03568612749</v>
       </c>
       <c r="H46" t="n">
         <v>0.13</v>
       </c>
       <c r="I46" t="n">
-        <v>14594900</v>
+        <v>14907389</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12894996</v>
+        <v>12843997</v>
       </c>
       <c r="E47" t="n">
-        <v>40795104</v>
+        <v>40633762</v>
       </c>
       <c r="F47" t="n">
-        <v>16138.7694892905</v>
+        <v>23313.10934208805</v>
       </c>
       <c r="G47" t="n">
-        <v>12916.99165355957</v>
+        <v>9686.283487471817</v>
       </c>
       <c r="H47" t="n">
         <v>0.34</v>
       </c>
       <c r="I47" t="n">
-        <v>1290403</v>
+        <v>1205138</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31850610</v>
+        <v>31847256</v>
       </c>
       <c r="E48" t="n">
-        <v>88223028</v>
+        <v>88213738</v>
       </c>
       <c r="F48" t="n">
-        <v>3066.364597266752</v>
+        <v>3691.597592533582</v>
       </c>
       <c r="G48" t="n">
-        <v>6620.041146431759</v>
+        <v>7159.734209705012</v>
       </c>
       <c r="H48" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>12094257</v>
+        <v>12015320</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28200660</v>
+        <v>28160197</v>
       </c>
       <c r="E49" t="n">
-        <v>66997756</v>
+        <v>66901627</v>
       </c>
       <c r="F49" t="n">
-        <v>13186.71224045486</v>
+        <v>18951.18931887325</v>
       </c>
       <c r="G49" t="n">
-        <v>17434.59708235317</v>
+        <v>17290.7867500379</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>506026</v>
+        <v>458648</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12773290</v>
+        <v>12750614</v>
       </c>
       <c r="E50" t="n">
-        <v>19443828</v>
+        <v>19409310</v>
       </c>
       <c r="F50" t="n">
-        <v>6808.238945076503</v>
+        <v>6547.36038947398</v>
       </c>
       <c r="G50" t="n">
-        <v>3899.848110640176</v>
+        <v>3880.44274859665</v>
       </c>
       <c r="H50" t="n">
         <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>776318</v>
+        <v>775164</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>315186046</v>
+        <v>314446700</v>
       </c>
       <c r="E51" t="n">
-        <v>315186046</v>
+        <v>314446700</v>
       </c>
       <c r="F51" t="n">
-        <v>115663.5224801313</v>
+        <v>65366.09769973519</v>
       </c>
       <c r="G51" t="n">
-        <v>116405.5012688152</v>
+        <v>114535.4957878736</v>
       </c>
       <c r="H51" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>51221988</v>
+        <v>51624330</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90253131</v>
+        <v>90611195</v>
       </c>
       <c r="E52" t="n">
-        <v>520077470</v>
+        <v>522140789</v>
       </c>
       <c r="F52" t="n">
-        <v>329545.320345286</v>
+        <v>334037.5816592428</v>
       </c>
       <c r="G52" t="n">
-        <v>244766.7562225071</v>
+        <v>240099.7097832805</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>16427611</v>
+        <v>16570233</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30405488</v>
+        <v>30988819</v>
       </c>
       <c r="E53" t="n">
-        <v>136137845</v>
+        <v>138749655</v>
       </c>
       <c r="F53" t="n">
-        <v>38067.37348904688</v>
+        <v>29184.9986070624</v>
       </c>
       <c r="G53" t="n">
-        <v>40237.67483226205</v>
+        <v>51233.94616286331</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I53" t="n">
-        <v>8454004</v>
+        <v>8714862</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9090990</v>
+        <v>9101615</v>
       </c>
       <c r="F54" t="n">
-        <v>2592.333014667685</v>
+        <v>2581.378936532461</v>
       </c>
       <c r="G54" t="n">
-        <v>4651.595567975869</v>
+        <v>4504.881547274856</v>
       </c>
       <c r="H54" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I54" t="n">
-        <v>303898</v>
+        <v>304562</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4782306</v>
+        <v>4795186</v>
       </c>
       <c r="F55" t="n">
-        <v>4325.796169945436</v>
+        <v>5077.069576675556</v>
       </c>
       <c r="G55" t="n">
-        <v>870.8028890272557</v>
+        <v>884.0220345200506</v>
       </c>
       <c r="H55" t="n">
         <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>182831</v>
+        <v>201096</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125323456</v>
+        <v>125287206</v>
       </c>
       <c r="E56" t="n">
-        <v>2075459080</v>
+        <v>2074858749</v>
       </c>
       <c r="F56" t="n">
-        <v>185372.8888900053</v>
+        <v>190169.8428971213</v>
       </c>
       <c r="G56" t="n">
-        <v>183957.9165445249</v>
+        <v>187126.5775901059</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4851386</v>
+        <v>4914608</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>94371245</v>
+        <v>95970695</v>
       </c>
       <c r="E57" t="n">
-        <v>95387088</v>
+        <v>97003754</v>
       </c>
       <c r="F57" t="n">
-        <v>44855.03670659947</v>
+        <v>47660.79436605271</v>
       </c>
       <c r="G57" t="n">
-        <v>63160.88147760603</v>
+        <v>65651.97097870549</v>
       </c>
       <c r="H57" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>33723742</v>
+        <v>35128298</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>235050374</v>
+        <v>237841491</v>
       </c>
       <c r="E58" t="n">
-        <v>235050374</v>
+        <v>237841491</v>
       </c>
       <c r="F58" t="n">
-        <v>84673.9935814229</v>
+        <v>96197.71726441529</v>
       </c>
       <c r="G58" t="n">
-        <v>97363.11994967448</v>
+        <v>89717.6794008461</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>44586695</v>
+        <v>45304053</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24404770</v>
+        <v>24482770</v>
       </c>
       <c r="E59" t="n">
-        <v>146018646</v>
+        <v>146485337</v>
       </c>
       <c r="F59" t="n">
-        <v>66448.32116255835</v>
+        <v>21045.87656005167</v>
       </c>
       <c r="G59" t="n">
-        <v>36735.12816770909</v>
+        <v>37932.36719641904</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12021564</v>
+        <v>12261230</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2342612</v>
+        <v>2413507</v>
       </c>
       <c r="E60" t="n">
-        <v>4323424</v>
+        <v>4454265</v>
       </c>
       <c r="F60" t="n">
-        <v>4004.152054533921</v>
+        <v>3958.892642427809</v>
       </c>
       <c r="G60" t="n">
-        <v>2009.011853234351</v>
+        <v>1929.124627920933</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23061</v>
+        <v>23151</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>10846315</v>
+        <v>11121163</v>
       </c>
       <c r="E62" t="n">
-        <v>32181735</v>
+        <v>32997228</v>
       </c>
       <c r="F62" t="n">
-        <v>5644.570146790013</v>
+        <v>7663.469892292364</v>
       </c>
       <c r="G62" t="n">
-        <v>5941.674462219184</v>
+        <v>4127.09539480461</v>
       </c>
       <c r="H62" t="n">
-        <v>0.16</v>
+        <v>0.22</v>
       </c>
       <c r="I62" t="n">
-        <v>6604398</v>
+        <v>6784696</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14510153</v>
+        <v>14551590</v>
       </c>
       <c r="E63" t="n">
-        <v>29374919</v>
+        <v>29458806</v>
       </c>
       <c r="F63" t="n">
-        <v>5737.265804625377</v>
+        <v>5642.620425611237</v>
       </c>
       <c r="G63" t="n">
-        <v>15258.96107575898</v>
+        <v>15358.53519793684</v>
       </c>
       <c r="H63" t="n">
         <v>0.37</v>
       </c>
       <c r="I63" t="n">
-        <v>553676</v>
+        <v>570317</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38777007</v>
+        <v>38859389</v>
       </c>
       <c r="E64" t="n">
-        <v>274922656</v>
+        <v>275506726</v>
       </c>
       <c r="F64" t="n">
-        <v>88338.6237650524</v>
+        <v>83211.18954509306</v>
       </c>
       <c r="G64" t="n">
-        <v>52261.61876904871</v>
+        <v>70505.2756236065</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I64" t="n">
-        <v>1604503</v>
+        <v>1605244</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1270347</v>
+        <v>1271439</v>
       </c>
       <c r="E65" t="n">
-        <v>7877451</v>
+        <v>7884226</v>
       </c>
       <c r="F65" t="n">
-        <v>2279.320399496576</v>
+        <v>2090.591786750811</v>
       </c>
       <c r="G65" t="n">
-        <v>2136.7307540827</v>
+        <v>2192.334032211457</v>
       </c>
       <c r="H65" t="n">
         <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>754011</v>
+        <v>767795</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>605646057</v>
+        <v>607623205</v>
       </c>
       <c r="E66" t="n">
-        <v>2345577822</v>
+        <v>2353235026</v>
       </c>
       <c r="F66" t="n">
-        <v>147933.5267795829</v>
+        <v>153923.4109555455</v>
       </c>
       <c r="G66" t="n">
-        <v>162155.4221786199</v>
+        <v>156183.5503398835</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32867186</v>
+        <v>32651319</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5845990</v>
+        <v>5889025</v>
       </c>
       <c r="E67" t="n">
-        <v>26173228</v>
+        <v>26365903</v>
       </c>
       <c r="F67" t="n">
-        <v>4580.735272954416</v>
+        <v>4917.84800762682</v>
       </c>
       <c r="G67" t="n">
-        <v>4435.968995282927</v>
+        <v>4343.287294346596</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.11</v>
       </c>
       <c r="I67" t="n">
-        <v>147924</v>
+        <v>153174</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>122631525</v>
+        <v>122242362</v>
       </c>
       <c r="E68" t="n">
-        <v>1066205735</v>
+        <v>1062822207</v>
       </c>
       <c r="F68" t="n">
-        <v>166286.6204612461</v>
+        <v>164567.5705641308</v>
       </c>
       <c r="G68" t="n">
-        <v>167097.972790418</v>
+        <v>166667.5632987667</v>
       </c>
       <c r="H68" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I68" t="n">
-        <v>9017385</v>
+        <v>9326606</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>114618852</v>
+        <v>117469560</v>
       </c>
       <c r="E69" t="n">
-        <v>174853746</v>
+        <v>179202568</v>
       </c>
       <c r="F69" t="n">
-        <v>58225.67447589507</v>
+        <v>55849.56222360863</v>
       </c>
       <c r="G69" t="n">
-        <v>83441.91073048345</v>
+        <v>83810.22712770155</v>
       </c>
       <c r="H69" t="n">
-        <v>0.17</v>
+        <v>0.04</v>
       </c>
       <c r="I69" t="n">
-        <v>8645985</v>
+        <v>7966900</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1102032</v>
+        <v>1116678</v>
       </c>
       <c r="E70" t="n">
-        <v>4267309</v>
+        <v>4324022</v>
       </c>
       <c r="F70" t="n">
-        <v>2728.614905145006</v>
+        <v>2533.030130243995</v>
       </c>
       <c r="G70" t="n">
-        <v>4108.671269643039</v>
+        <v>6592.945104189632</v>
       </c>
       <c r="H70" t="n">
-        <v>0.51</v>
+        <v>0.18</v>
       </c>
       <c r="I70" t="n">
-        <v>369439</v>
+        <v>373070</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>118364103</v>
+        <v>120027076</v>
       </c>
       <c r="E71" t="n">
-        <v>454063750</v>
+        <v>460443184</v>
       </c>
       <c r="F71" t="n">
-        <v>141460.3763480018</v>
+        <v>154090.180807768</v>
       </c>
       <c r="G71" t="n">
-        <v>158737.5515242283</v>
+        <v>162357.0025903423</v>
       </c>
       <c r="H71" t="n">
-        <v>0.09</v>
+        <v>0.13</v>
       </c>
       <c r="I71" t="n">
-        <v>30973312</v>
+        <v>31270095</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3178259</v>
+        <v>3185421</v>
       </c>
       <c r="E72" t="n">
-        <v>30114471</v>
+        <v>30182334</v>
       </c>
       <c r="F72" t="n">
-        <v>4309.137852258898</v>
+        <v>4782.6088483336</v>
       </c>
       <c r="G72" t="n">
-        <v>3681.636781064672</v>
+        <v>3771.578842689175</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.26</v>
       </c>
       <c r="I72" t="n">
-        <v>216834</v>
+        <v>216775</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31975405</v>
+        <v>31845451</v>
       </c>
       <c r="F73" t="n">
-        <v>688.3219523718058</v>
+        <v>5919.224333985243</v>
       </c>
       <c r="G73" t="n">
-        <v>332.0502137264327</v>
+        <v>4423.343500895469</v>
       </c>
       <c r="H73" t="n">
-        <v>3.6</v>
+        <v>0.11</v>
       </c>
       <c r="I73" t="n">
-        <v>4831702</v>
+        <v>5508049</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88249178</v>
+        <v>88664501</v>
       </c>
       <c r="E74" t="n">
-        <v>326221181</v>
+        <v>327755698</v>
       </c>
       <c r="F74" t="n">
-        <v>8302.755188190824</v>
+        <v>8245.701031429786</v>
       </c>
       <c r="G74" t="n">
-        <v>522.1431211080189</v>
+        <v>639.2274617298693</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>262178</v>
+        <v>253354</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>22864221</v>
+        <v>23065037</v>
       </c>
       <c r="E75" t="n">
-        <v>22864221</v>
+        <v>23065037</v>
       </c>
       <c r="F75" t="n">
-        <v>23347.34822516781</v>
+        <v>20779.47809210077</v>
       </c>
       <c r="G75" t="n">
-        <v>29988.93004307347</v>
+        <v>30707.70865586117</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I75" t="n">
-        <v>5692662</v>
+        <v>5624506</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>492177804</v>
+        <v>494880538</v>
       </c>
       <c r="E76" t="n">
-        <v>1713229974</v>
+        <v>1722637967</v>
       </c>
       <c r="F76" t="n">
-        <v>194161.6862609863</v>
+        <v>198099.4607512614</v>
       </c>
       <c r="G76" t="n">
-        <v>211393.2870896547</v>
+        <v>215159.9945791665</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>29138850</v>
+        <v>30012711</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5743422553</v>
+        <v>5747088524</v>
       </c>
       <c r="E77" t="n">
-        <v>5743422553</v>
+        <v>5747088524</v>
       </c>
       <c r="F77" t="n">
-        <v>10367.26893732848</v>
+        <v>10331.49823144041</v>
       </c>
       <c r="G77" t="n">
-        <v>93562.44004782381</v>
+        <v>94730.65966905787</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>16738671</v>
+        <v>11825926</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7649128</v>
+        <v>7517006</v>
       </c>
       <c r="E78" t="n">
-        <v>19871613</v>
+        <v>19528374</v>
       </c>
       <c r="F78" t="n">
-        <v>1011.065655168412</v>
+        <v>3154.095508400601</v>
       </c>
       <c r="G78" t="n">
-        <v>2740.441963842849</v>
+        <v>3184.566197760381</v>
       </c>
       <c r="H78" t="n">
-        <v>0.4</v>
+        <v>0.31</v>
       </c>
       <c r="I78" t="n">
-        <v>711646</v>
+        <v>715231</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>101817861</v>
+        <v>102102049</v>
       </c>
       <c r="E79" t="n">
-        <v>154265823</v>
+        <v>154696401</v>
       </c>
       <c r="F79" t="n">
-        <v>41396.50564212805</v>
+        <v>40440.16037477673</v>
       </c>
       <c r="G79" t="n">
-        <v>33031.14086169677</v>
+        <v>37083.26709992884</v>
       </c>
       <c r="H79" t="n">
         <v>0.31</v>
       </c>
       <c r="I79" t="n">
-        <v>6950543</v>
+        <v>6955784</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2626774</v>
+        <v>2638051</v>
       </c>
       <c r="E80" t="n">
-        <v>10507095</v>
+        <v>10552204</v>
       </c>
       <c r="F80" t="n">
-        <v>16916.74424534202</v>
+        <v>70329.92562003233</v>
       </c>
       <c r="G80" t="n">
-        <v>62434.25428780285</v>
+        <v>80522.63438248452</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.29</v>
       </c>
       <c r="I80" t="n">
-        <v>6897872</v>
+        <v>6922194</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2552235</v>
+        <v>2497265</v>
       </c>
       <c r="F81" t="n">
-        <v>1747.158006714621</v>
+        <v>1869.929284663979</v>
       </c>
       <c r="G81" t="n">
-        <v>39.32160352263799</v>
+        <v>389.9296704139906</v>
       </c>
       <c r="H81" t="n">
-        <v>0.47</v>
+        <v>0.28</v>
       </c>
       <c r="I81" t="n">
-        <v>300464</v>
+        <v>302775</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>400354251</v>
+        <v>401294558</v>
       </c>
       <c r="E82" t="n">
-        <v>2287738575</v>
+        <v>2293111759</v>
       </c>
       <c r="F82" t="n">
-        <v>148162.8423856605</v>
+        <v>151345.1107744199</v>
       </c>
       <c r="G82" t="n">
-        <v>179359.6060836187</v>
+        <v>177685.4230494221</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I82" t="n">
-        <v>38222637</v>
+        <v>37770268</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3966710</v>
+        <v>3991193</v>
       </c>
       <c r="F2" t="n">
-        <v>404.8014717020352</v>
+        <v>732.4498928383748</v>
       </c>
       <c r="G2" t="n">
-        <v>484.7814909794677</v>
+        <v>492.3680452121513</v>
       </c>
       <c r="H2" t="n">
-        <v>0.66</v>
+        <v>0.52</v>
       </c>
       <c r="I2" t="n">
-        <v>130246</v>
+        <v>136267</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1298445</v>
+        <v>1305323</v>
       </c>
       <c r="E3" t="n">
-        <v>4197108</v>
+        <v>4219340</v>
       </c>
       <c r="F3" t="n">
-        <v>5234.192182996951</v>
+        <v>5375.151345673589</v>
       </c>
       <c r="G3" t="n">
-        <v>11182.56470827242</v>
+        <v>11660.9478919777</v>
       </c>
       <c r="H3" t="n">
-        <v>0.14</v>
+        <v>0.02</v>
       </c>
       <c r="I3" t="n">
-        <v>113210</v>
+        <v>113234</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246345352</v>
+        <v>246465876</v>
       </c>
       <c r="E4" t="n">
-        <v>1544797073</v>
+        <v>1545552866</v>
       </c>
       <c r="F4" t="n">
-        <v>267255.9369019834</v>
+        <v>255287.7293009066</v>
       </c>
       <c r="G4" t="n">
-        <v>252269.7610436252</v>
+        <v>248570.4918974387</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
       <c r="I4" t="n">
-        <v>16505956</v>
+        <v>16844361</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>144611279</v>
+        <v>146458886</v>
       </c>
       <c r="E5" t="n">
-        <v>160251897</v>
+        <v>162299334</v>
       </c>
       <c r="F5" t="n">
-        <v>90427.31241541427</v>
+        <v>86227.07488691993</v>
       </c>
       <c r="G5" t="n">
-        <v>98117.38214149633</v>
+        <v>101254.5845587771</v>
       </c>
       <c r="H5" t="n">
         <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>36735167</v>
+        <v>37189561</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127438732</v>
+        <v>127387490</v>
       </c>
       <c r="E6" t="n">
-        <v>499521670</v>
+        <v>499320820</v>
       </c>
       <c r="F6" t="n">
-        <v>26582.13883801345</v>
+        <v>25883.39410883208</v>
       </c>
       <c r="G6" t="n">
-        <v>52753.79852750379</v>
+        <v>40143.60759900005</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>30072043</v>
+        <v>29759162</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4545083</v>
+        <v>4559767</v>
       </c>
       <c r="E7" t="n">
-        <v>27917199</v>
+        <v>28007390</v>
       </c>
       <c r="F7" t="n">
-        <v>2317.127383720094</v>
+        <v>1669.991584579558</v>
       </c>
       <c r="G7" t="n">
-        <v>1940.313897050511</v>
+        <v>1902.956766671896</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I7" t="n">
-        <v>642543</v>
+        <v>645134</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197851</v>
+        <v>198332</v>
       </c>
       <c r="E8" t="n">
-        <v>2176573</v>
+        <v>2181874</v>
       </c>
       <c r="F8" t="n">
-        <v>3872.439982945177</v>
+        <v>4137.772086847931</v>
       </c>
       <c r="G8" t="n">
-        <v>5731.735155229605</v>
+        <v>5705.988255703261</v>
       </c>
       <c r="H8" t="n">
-        <v>0.28</v>
+        <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>27391</v>
+        <v>27364</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71410265</v>
+        <v>71631169</v>
       </c>
       <c r="E9" t="n">
-        <v>123671259</v>
+        <v>124049381</v>
       </c>
       <c r="F9" t="n">
-        <v>4291.893717556877</v>
+        <v>3912.443353598</v>
       </c>
       <c r="G9" t="n">
-        <v>17352.17762593046</v>
+        <v>9930.575923946391</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I9" t="n">
-        <v>795963</v>
+        <v>791656</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8834147</v>
+        <v>8833807</v>
       </c>
       <c r="E10" t="n">
-        <v>12504079</v>
+        <v>12503597</v>
       </c>
       <c r="F10" t="n">
-        <v>4265.594765984739</v>
+        <v>4264.339163591096</v>
       </c>
       <c r="G10" t="n">
-        <v>4396.155295081934</v>
+        <v>4389.943793028287</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>69877</v>
+        <v>69560</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>476587445</v>
+        <v>472793281</v>
       </c>
       <c r="E11" t="n">
-        <v>476587448</v>
+        <v>472793284</v>
       </c>
       <c r="F11" t="n">
-        <v>33605.15036790954</v>
+        <v>332.7382535379577</v>
       </c>
       <c r="G11" t="n">
-        <v>70900.50351977178</v>
+        <v>20474.23377745368</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.87</v>
       </c>
       <c r="I11" t="n">
-        <v>72481572</v>
+        <v>70377889</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>313167</v>
+        <v>311526</v>
       </c>
       <c r="E12" t="n">
-        <v>1461897</v>
+        <v>1454236</v>
       </c>
       <c r="F12" t="n">
-        <v>100.2232365082968</v>
+        <v>105.5466540822249</v>
       </c>
       <c r="G12" t="n">
-        <v>422.1025065713771</v>
+        <v>536.0633793930538</v>
       </c>
       <c r="H12" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="I12" t="n">
-        <v>688352</v>
+        <v>698331</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1521349</v>
+        <v>1517802</v>
       </c>
       <c r="F13" t="n">
-        <v>5024.155393314364</v>
+        <v>4818.793779280008</v>
       </c>
       <c r="G13" t="n">
-        <v>2255.542219889848</v>
+        <v>2096.552893297919</v>
       </c>
       <c r="H13" t="n">
-        <v>0.46</v>
+        <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>229739</v>
+        <v>284076</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12803468</v>
+        <v>12768925</v>
       </c>
       <c r="E14" t="n">
-        <v>31865516</v>
+        <v>31779546</v>
       </c>
       <c r="F14" t="n">
-        <v>987.9080523782392</v>
+        <v>910.6825511476501</v>
       </c>
       <c r="G14" t="n">
-        <v>1860.361084717338</v>
+        <v>1848.105816389055</v>
       </c>
       <c r="H14" t="n">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="I14" t="n">
-        <v>1293698</v>
+        <v>1246262</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>112281736</v>
+        <v>114451211</v>
       </c>
       <c r="E15" t="n">
-        <v>436861440</v>
+        <v>445272890</v>
       </c>
       <c r="F15" t="n">
-        <v>38916.66890172681</v>
+        <v>41348.68616419598</v>
       </c>
       <c r="G15" t="n">
-        <v>111612.2013424254</v>
+        <v>102152.3236169439</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>8716418</v>
+        <v>9070155</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5127895</v>
+        <v>5152469</v>
       </c>
       <c r="E16" t="n">
-        <v>7548540</v>
+        <v>7584714</v>
       </c>
       <c r="F16" t="n">
-        <v>829.0305839493742</v>
+        <v>797.0889396178483</v>
       </c>
       <c r="G16" t="n">
-        <v>465.6066701221302</v>
+        <v>338.2603589328479</v>
       </c>
       <c r="H16" t="n">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="n">
-        <v>596001</v>
+        <v>645591</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1949062</v>
+        <v>2121802</v>
       </c>
       <c r="F17" t="n">
-        <v>847.4860282848771</v>
+        <v>23.52300606663397</v>
       </c>
       <c r="G17" t="n">
-        <v>643.5958237622457</v>
+        <v>492.5663356890978</v>
       </c>
       <c r="H17" t="n">
-        <v>0.78</v>
+        <v>1.1</v>
       </c>
       <c r="I17" t="n">
-        <v>207908</v>
+        <v>165410</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="E18" t="n">
-        <v>138711045</v>
+        <v>138504236</v>
       </c>
       <c r="F18" t="n">
-        <v>120242.7914228016</v>
+        <v>132796.3671896635</v>
       </c>
       <c r="G18" t="n">
-        <v>135586.0670090131</v>
+        <v>164399.8078151862</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>66000476</v>
+        <v>64374787</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>65609250</v>
+        <v>66352121</v>
       </c>
       <c r="E19" t="n">
-        <v>336457695</v>
+        <v>340267290</v>
       </c>
       <c r="F19" t="n">
-        <v>24183.71101820909</v>
+        <v>13990.86550051085</v>
       </c>
       <c r="G19" t="n">
-        <v>22862.37018157358</v>
+        <v>25159.70790545909</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>21691074</v>
+        <v>21679815</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>255054289</v>
+        <v>257752601</v>
       </c>
       <c r="E20" t="n">
-        <v>255054289</v>
+        <v>257752601</v>
       </c>
       <c r="F20" t="n">
-        <v>64303.3110617436</v>
+        <v>52452.6340396596</v>
       </c>
       <c r="G20" t="n">
-        <v>99851.94597990192</v>
+        <v>101857.5990350741</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14643488</v>
+        <v>14456389</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>161160175</v>
+        <v>159296774</v>
       </c>
       <c r="E21" t="n">
-        <v>212067941</v>
+        <v>209615924</v>
       </c>
       <c r="F21" t="n">
-        <v>24298.87942699195</v>
+        <v>13430.44524934919</v>
       </c>
       <c r="G21" t="n">
-        <v>34701.345807965</v>
+        <v>29894.90432966149</v>
       </c>
       <c r="H21" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>8184819</v>
+        <v>7985741</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>78922849</v>
+        <v>81113169</v>
       </c>
       <c r="E22" t="n">
-        <v>220839491</v>
+        <v>226978213</v>
       </c>
       <c r="F22" t="n">
-        <v>27340.87895579259</v>
+        <v>21344.39701554755</v>
       </c>
       <c r="G22" t="n">
-        <v>39634.64448447469</v>
+        <v>44051.70767253551</v>
       </c>
       <c r="H22" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>34494314</v>
+        <v>40485903</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75825932</v>
+        <v>76673664</v>
       </c>
       <c r="E23" t="n">
-        <v>158135575</v>
+        <v>159903527</v>
       </c>
       <c r="F23" t="n">
-        <v>21190.52430320749</v>
+        <v>20911.10944309998</v>
       </c>
       <c r="G23" t="n">
-        <v>36137.29701523882</v>
+        <v>46614.18869047792</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>16240468</v>
+        <v>16589217</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>651320335</v>
+        <v>648119231</v>
       </c>
       <c r="E24" t="n">
-        <v>651320335</v>
+        <v>648119231</v>
       </c>
       <c r="F24" t="n">
-        <v>157444.3630779649</v>
+        <v>194302.0122416399</v>
       </c>
       <c r="G24" t="n">
-        <v>288249.4552155519</v>
+        <v>281749.7183615386</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.31</v>
       </c>
       <c r="I24" t="n">
-        <v>300670129</v>
+        <v>306806573</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>202417382</v>
+        <v>205261517</v>
       </c>
       <c r="E25" t="n">
-        <v>703216278</v>
+        <v>713097060</v>
       </c>
       <c r="F25" t="n">
-        <v>101679.0123086921</v>
+        <v>91588.94186289782</v>
       </c>
       <c r="G25" t="n">
-        <v>347529.8119917329</v>
+        <v>356511.6866393745</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>28172642</v>
+        <v>27957100</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5631259</v>
+        <v>5697890</v>
       </c>
       <c r="E26" t="n">
-        <v>7650382</v>
+        <v>7740904</v>
       </c>
       <c r="F26" t="n">
-        <v>843.0879339996205</v>
+        <v>1002.924344409681</v>
       </c>
       <c r="G26" t="n">
-        <v>247.0574066248674</v>
+        <v>2414.948532244581</v>
       </c>
       <c r="H26" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5786057</v>
+        <v>5715762</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14522707</v>
+        <v>14679138</v>
       </c>
       <c r="F27" t="n">
-        <v>2777.225080353458</v>
+        <v>2351.009351952293</v>
       </c>
       <c r="G27" t="n">
-        <v>2823.460772366406</v>
+        <v>2753.145791617537</v>
       </c>
       <c r="H27" t="n">
-        <v>0.37</v>
+        <v>0.18</v>
       </c>
       <c r="I27" t="n">
-        <v>277758</v>
+        <v>258697</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25903579</v>
+        <v>25897165</v>
       </c>
       <c r="E28" t="n">
-        <v>36613697</v>
+        <v>36604632</v>
       </c>
       <c r="F28" t="n">
-        <v>382.1526927501313</v>
+        <v>370.3036220158806</v>
       </c>
       <c r="G28" t="n">
-        <v>8096.695393696934</v>
+        <v>8054.344922443812</v>
       </c>
       <c r="H28" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I28" t="n">
-        <v>60945</v>
+        <v>53761</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>271380300</v>
+        <v>273076065</v>
       </c>
       <c r="E29" t="n">
-        <v>1171428027</v>
+        <v>1178747891</v>
       </c>
       <c r="F29" t="n">
-        <v>265546.1403415172</v>
+        <v>369973.3322405863</v>
       </c>
       <c r="G29" t="n">
-        <v>379096.4673924815</v>
+        <v>383217.5926163518</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>98891096</v>
+        <v>97681539</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11186337</v>
+        <v>11137100</v>
       </c>
       <c r="E30" t="n">
-        <v>135040150</v>
+        <v>134445762</v>
       </c>
       <c r="F30" t="n">
-        <v>1730.907505503369</v>
+        <v>5527.928569694733</v>
       </c>
       <c r="G30" t="n">
-        <v>3446.078867227459</v>
+        <v>2070.725166554061</v>
       </c>
       <c r="H30" t="n">
-        <v>0.44</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>223468</v>
+        <v>273115</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19754206</v>
+        <v>19605075</v>
       </c>
       <c r="E31" t="n">
-        <v>49385514</v>
+        <v>49012687</v>
       </c>
       <c r="F31" t="n">
-        <v>14080.98672985674</v>
+        <v>9776.054509746682</v>
       </c>
       <c r="G31" t="n">
-        <v>9754.393574931555</v>
+        <v>9465.13581581086</v>
       </c>
       <c r="H31" t="n">
         <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>1886832</v>
+        <v>2067893</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19892737</v>
+        <v>19835494</v>
       </c>
       <c r="F32" t="n">
-        <v>2077.702277521553</v>
+        <v>2508.495732542976</v>
       </c>
       <c r="G32" t="n">
-        <v>2533.564825018843</v>
+        <v>2045.932164488722</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I32" t="n">
-        <v>72477</v>
+        <v>57558</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1297297</v>
+        <v>1304965</v>
       </c>
       <c r="E33" t="n">
-        <v>4836660</v>
+        <v>4865246</v>
       </c>
       <c r="F33" t="n">
-        <v>1629.336723443098</v>
+        <v>1607.120253962819</v>
       </c>
       <c r="G33" t="n">
-        <v>2598.157250427761</v>
+        <v>1612.580049082196</v>
       </c>
       <c r="H33" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="I33" t="n">
-        <v>498577</v>
+        <v>511124</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4211464</v>
+        <v>4197788</v>
       </c>
       <c r="E34" t="n">
-        <v>12131020</v>
+        <v>12091626</v>
       </c>
       <c r="F34" t="n">
-        <v>2841.79509083532</v>
+        <v>2311.226925587154</v>
       </c>
       <c r="G34" t="n">
-        <v>1657.626612516826</v>
+        <v>4887.621344136129</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.58</v>
       </c>
       <c r="I34" t="n">
-        <v>651030</v>
+        <v>649337</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14560025</v>
+        <v>14465282</v>
       </c>
       <c r="E35" t="n">
-        <v>70516523</v>
+        <v>70057671</v>
       </c>
       <c r="F35" t="n">
-        <v>12057.9366196541</v>
+        <v>6755.101826957136</v>
       </c>
       <c r="G35" t="n">
-        <v>11576.5792680398</v>
+        <v>12368.17075947857</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I35" t="n">
-        <v>3707675</v>
+        <v>3801213</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1420435</v>
+        <v>1459014</v>
       </c>
       <c r="E36" t="n">
-        <v>9296710</v>
+        <v>9549207</v>
       </c>
       <c r="F36" t="n">
-        <v>4761.269045524893</v>
+        <v>4002.44619324085</v>
       </c>
       <c r="G36" t="n">
-        <v>4006.401378524477</v>
+        <v>894.5041267906512</v>
       </c>
       <c r="H36" t="n">
-        <v>0.32</v>
+        <v>0.31</v>
       </c>
       <c r="I36" t="n">
-        <v>600386</v>
+        <v>660954</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1927526013</v>
+        <v>1932450600</v>
       </c>
       <c r="F37" t="n">
-        <v>73537.67160948484</v>
+        <v>70623.12263626722</v>
       </c>
       <c r="G37" t="n">
-        <v>56568.64671841916</v>
+        <v>71777.52255743198</v>
       </c>
       <c r="H37" t="n">
-        <v>0.31</v>
+        <v>0.67</v>
       </c>
       <c r="I37" t="n">
-        <v>27889283</v>
+        <v>27383145</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2054113</v>
+        <v>2078331</v>
       </c>
       <c r="E38" t="n">
-        <v>14729836</v>
+        <v>14903501</v>
       </c>
       <c r="F38" t="n">
-        <v>4248.793313079282</v>
+        <v>5397.904998205581</v>
       </c>
       <c r="G38" t="n">
-        <v>5595.265468932278</v>
+        <v>5753.945774398552</v>
       </c>
       <c r="H38" t="n">
-        <v>0.47</v>
+        <v>0.2</v>
       </c>
       <c r="I38" t="n">
-        <v>1995871</v>
+        <v>1991962</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>200960557</v>
+        <v>204635752</v>
       </c>
       <c r="E39" t="n">
-        <v>1137962154</v>
+        <v>1158773364</v>
       </c>
       <c r="F39" t="n">
-        <v>167064.9433616538</v>
+        <v>150657.2795493734</v>
       </c>
       <c r="G39" t="n">
-        <v>170851.0142497822</v>
+        <v>171135.697425968</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>63130671</v>
+        <v>64763989</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>141273503</v>
+        <v>142942451</v>
       </c>
       <c r="E40" t="n">
-        <v>1046470390</v>
+        <v>1058832972</v>
       </c>
       <c r="F40" t="n">
-        <v>222759.138013862</v>
+        <v>216914.7402962534</v>
       </c>
       <c r="G40" t="n">
-        <v>206726.644504709</v>
+        <v>207113.4124922702</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>9663468</v>
+        <v>8963988</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>340292691</v>
+        <v>339783581</v>
       </c>
       <c r="E41" t="n">
-        <v>3061484057</v>
+        <v>3056903784</v>
       </c>
       <c r="F41" t="n">
-        <v>190414.2918274334</v>
+        <v>185795.1585870032</v>
       </c>
       <c r="G41" t="n">
-        <v>211051.8533377923</v>
+        <v>222285.41648561</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>38731903</v>
+        <v>38604629</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1582834</v>
+        <v>1577655</v>
       </c>
       <c r="E42" t="n">
-        <v>13190284</v>
+        <v>13147123</v>
       </c>
       <c r="F42" t="n">
-        <v>4060.137959040919</v>
+        <v>4025.521111113434</v>
       </c>
       <c r="G42" t="n">
-        <v>6999.083764523683</v>
+        <v>6444.301880383013</v>
       </c>
       <c r="H42" t="n">
         <v>0.38</v>
       </c>
       <c r="I42" t="n">
-        <v>39731</v>
+        <v>38586</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22527339</v>
+        <v>22542011</v>
       </c>
       <c r="E43" t="n">
-        <v>67526603</v>
+        <v>67570582</v>
       </c>
       <c r="F43" t="n">
-        <v>22435.74413019358</v>
+        <v>54087.59044815013</v>
       </c>
       <c r="G43" t="n">
-        <v>19477.53636562314</v>
+        <v>50615.58607843407</v>
       </c>
       <c r="H43" t="n">
-        <v>0.19</v>
+        <v>0.28</v>
       </c>
       <c r="I43" t="n">
-        <v>3265057</v>
+        <v>3334634</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9437728</v>
+        <v>9472442</v>
       </c>
       <c r="F44" t="n">
-        <v>6187.642176161039</v>
+        <v>1947.25043869132</v>
       </c>
       <c r="G44" t="n">
-        <v>5790.131811061893</v>
+        <v>1651.173201730262</v>
       </c>
       <c r="H44" t="n">
         <v>0.32</v>
       </c>
       <c r="I44" t="n">
-        <v>110608</v>
+        <v>98201</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13122759</v>
+        <v>13076513</v>
       </c>
       <c r="E45" t="n">
-        <v>13122759</v>
+        <v>13076513</v>
       </c>
       <c r="F45" t="n">
-        <v>349.4259010581411</v>
+        <v>232.2095180726089</v>
       </c>
       <c r="G45" t="n">
-        <v>22162.58544084342</v>
+        <v>22262.07543029098</v>
       </c>
       <c r="H45" t="n">
-        <v>0.61</v>
+        <v>0.45</v>
       </c>
       <c r="I45" t="n">
-        <v>3617466</v>
+        <v>3661624</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311298915</v>
+        <v>312834265</v>
       </c>
       <c r="E46" t="n">
-        <v>311298915</v>
+        <v>312834265</v>
       </c>
       <c r="F46" t="n">
-        <v>44161.0914515933</v>
+        <v>43048.95141065774</v>
       </c>
       <c r="G46" t="n">
-        <v>48490.03568612749</v>
+        <v>38384.14048680643</v>
       </c>
       <c r="H46" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>14907389</v>
+        <v>14919498</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12843997</v>
+        <v>12762775</v>
       </c>
       <c r="E47" t="n">
-        <v>40633762</v>
+        <v>40376806</v>
       </c>
       <c r="F47" t="n">
-        <v>23313.10934208805</v>
+        <v>16353.02676397844</v>
       </c>
       <c r="G47" t="n">
-        <v>9686.283487471817</v>
+        <v>11258.70267127712</v>
       </c>
       <c r="H47" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>1205138</v>
+        <v>1170108</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31847256</v>
+        <v>31987568</v>
       </c>
       <c r="E48" t="n">
-        <v>88213738</v>
+        <v>88602390</v>
       </c>
       <c r="F48" t="n">
-        <v>3691.597592533582</v>
+        <v>6032.687128915934</v>
       </c>
       <c r="G48" t="n">
-        <v>7159.734209705012</v>
+        <v>5514.03396840437</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I48" t="n">
-        <v>12015320</v>
+        <v>12090786</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28160197</v>
+        <v>28529250</v>
       </c>
       <c r="E49" t="n">
-        <v>66901627</v>
+        <v>67778404</v>
       </c>
       <c r="F49" t="n">
-        <v>18951.18931887325</v>
+        <v>13841.07033705009</v>
       </c>
       <c r="G49" t="n">
-        <v>17290.7867500379</v>
+        <v>17074.59030179573</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>458648</v>
+        <v>434341</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12750614</v>
+        <v>12750954</v>
       </c>
       <c r="E50" t="n">
-        <v>19409310</v>
+        <v>19409827</v>
       </c>
       <c r="F50" t="n">
-        <v>6547.36038947398</v>
+        <v>6654.594535508488</v>
       </c>
       <c r="G50" t="n">
-        <v>3880.44274859665</v>
+        <v>3734.123777164455</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
-        <v>775164</v>
+        <v>766304</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>314446700</v>
+        <v>301286590</v>
       </c>
       <c r="E51" t="n">
-        <v>314446700</v>
+        <v>301286590</v>
       </c>
       <c r="F51" t="n">
-        <v>65366.09769973519</v>
+        <v>53971.44832610443</v>
       </c>
       <c r="G51" t="n">
-        <v>114535.4957878736</v>
+        <v>111917.9060917727</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>51624330</v>
+        <v>58752904</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>90611195</v>
+        <v>91401749</v>
       </c>
       <c r="E52" t="n">
-        <v>522140789</v>
+        <v>526696299</v>
       </c>
       <c r="F52" t="n">
-        <v>334037.5816592428</v>
+        <v>335705.8262594008</v>
       </c>
       <c r="G52" t="n">
-        <v>240099.7097832805</v>
+        <v>230555.1529846575</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I52" t="n">
-        <v>16570233</v>
+        <v>16779451</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30988819</v>
+        <v>30778990</v>
       </c>
       <c r="E53" t="n">
-        <v>138749655</v>
+        <v>137810164</v>
       </c>
       <c r="F53" t="n">
-        <v>29184.9986070624</v>
+        <v>43519.29532931359</v>
       </c>
       <c r="G53" t="n">
-        <v>51233.94616286331</v>
+        <v>53779.62739429955</v>
       </c>
       <c r="H53" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8714862</v>
+        <v>8717068</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9101615</v>
+        <v>9105783</v>
       </c>
       <c r="F54" t="n">
-        <v>2581.378936532461</v>
+        <v>2590.394890134194</v>
       </c>
       <c r="G54" t="n">
-        <v>4504.881547274856</v>
+        <v>4628.771180207197</v>
       </c>
       <c r="H54" t="n">
-        <v>0.55</v>
+        <v>0.76</v>
       </c>
       <c r="I54" t="n">
-        <v>304562</v>
+        <v>305092</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4795186</v>
+        <v>4777016</v>
       </c>
       <c r="F55" t="n">
-        <v>5077.069576675556</v>
+        <v>4431.372476703735</v>
       </c>
       <c r="G55" t="n">
-        <v>884.0220345200506</v>
+        <v>938.5765180216642</v>
       </c>
       <c r="H55" t="n">
         <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>201096</v>
+        <v>182143</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125287206</v>
+        <v>125354785</v>
       </c>
       <c r="E56" t="n">
-        <v>2074858749</v>
+        <v>2075977914</v>
       </c>
       <c r="F56" t="n">
-        <v>190169.8428971213</v>
+        <v>180912.1967734662</v>
       </c>
       <c r="G56" t="n">
-        <v>187126.5775901059</v>
+        <v>176972.1517214602</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4914608</v>
+        <v>4841111</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>95970695</v>
+        <v>97116306</v>
       </c>
       <c r="E57" t="n">
-        <v>97003754</v>
+        <v>98161697</v>
       </c>
       <c r="F57" t="n">
-        <v>47660.79436605271</v>
+        <v>50408.12112835768</v>
       </c>
       <c r="G57" t="n">
-        <v>65651.97097870549</v>
+        <v>67083.44114366446</v>
       </c>
       <c r="H57" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>35128298</v>
+        <v>37411832</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>237841491</v>
+        <v>240076495</v>
       </c>
       <c r="E58" t="n">
-        <v>237841491</v>
+        <v>240076495</v>
       </c>
       <c r="F58" t="n">
-        <v>96197.71726441529</v>
+        <v>90710.9067740485</v>
       </c>
       <c r="G58" t="n">
-        <v>89717.6794008461</v>
+        <v>135065.8730873555</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>45304053</v>
+        <v>46280080</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24482770</v>
+        <v>24618931</v>
       </c>
       <c r="E59" t="n">
-        <v>146485337</v>
+        <v>147300015</v>
       </c>
       <c r="F59" t="n">
-        <v>21045.87656005167</v>
+        <v>29466.12709313239</v>
       </c>
       <c r="G59" t="n">
-        <v>37932.36719641904</v>
+        <v>30060.14184929086</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12261230</v>
+        <v>12066988</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2413507</v>
+        <v>2410600</v>
       </c>
       <c r="E60" t="n">
-        <v>4454265</v>
+        <v>4448899</v>
       </c>
       <c r="F60" t="n">
-        <v>3958.892642427809</v>
+        <v>3931.953418598333</v>
       </c>
       <c r="G60" t="n">
-        <v>1929.124627920933</v>
+        <v>1984.88213961986</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23151</v>
+        <v>23441</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11121163</v>
+        <v>11187654</v>
       </c>
       <c r="E62" t="n">
-        <v>32997228</v>
+        <v>33194512</v>
       </c>
       <c r="F62" t="n">
-        <v>7663.469892292364</v>
+        <v>4451.081381350582</v>
       </c>
       <c r="G62" t="n">
-        <v>4127.09539480461</v>
+        <v>3638.752197398996</v>
       </c>
       <c r="H62" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>6784696</v>
+        <v>7121966</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14551590</v>
+        <v>14568584</v>
       </c>
       <c r="E63" t="n">
-        <v>29458806</v>
+        <v>29493208</v>
       </c>
       <c r="F63" t="n">
-        <v>5642.620425611237</v>
+        <v>5948.212750084783</v>
       </c>
       <c r="G63" t="n">
-        <v>15358.53519793684</v>
+        <v>13710.0886388724</v>
       </c>
       <c r="H63" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="I63" t="n">
-        <v>570317</v>
+        <v>572301</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38859389</v>
+        <v>38989590</v>
       </c>
       <c r="E64" t="n">
-        <v>275506726</v>
+        <v>276429830</v>
       </c>
       <c r="F64" t="n">
-        <v>83211.18954509306</v>
+        <v>62316.02679264656</v>
       </c>
       <c r="G64" t="n">
-        <v>70505.2756236065</v>
+        <v>50129.23879116622</v>
       </c>
       <c r="H64" t="n">
         <v>0.11</v>
       </c>
       <c r="I64" t="n">
-        <v>1605244</v>
+        <v>1622514</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1271439</v>
+        <v>1274865</v>
       </c>
       <c r="E65" t="n">
-        <v>7884226</v>
+        <v>7905468</v>
       </c>
       <c r="F65" t="n">
-        <v>2090.591786750811</v>
+        <v>2129.907828191071</v>
       </c>
       <c r="G65" t="n">
-        <v>2192.334032211457</v>
+        <v>1926.368314225221</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>767795</v>
+        <v>783077</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>607623205</v>
+        <v>611037200</v>
       </c>
       <c r="E66" t="n">
-        <v>2353235026</v>
+        <v>2366456923</v>
       </c>
       <c r="F66" t="n">
-        <v>153923.4109555455</v>
+        <v>158489.1908858077</v>
       </c>
       <c r="G66" t="n">
-        <v>156183.5503398835</v>
+        <v>140763.9851579844</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32651319</v>
+        <v>32587929</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5889025</v>
+        <v>5887507</v>
       </c>
       <c r="E67" t="n">
-        <v>26365903</v>
+        <v>26359104</v>
       </c>
       <c r="F67" t="n">
-        <v>4917.84800762682</v>
+        <v>4975.116948585498</v>
       </c>
       <c r="G67" t="n">
-        <v>4343.287294346596</v>
+        <v>4193.176101886795</v>
       </c>
       <c r="H67" t="n">
-        <v>0.11</v>
+        <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>153174</v>
+        <v>152587</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>122242362</v>
+        <v>123205650</v>
       </c>
       <c r="E68" t="n">
-        <v>1062822207</v>
+        <v>1071197401</v>
       </c>
       <c r="F68" t="n">
-        <v>164567.5705641308</v>
+        <v>164120.8506555083</v>
       </c>
       <c r="G68" t="n">
-        <v>166667.5632987667</v>
+        <v>162826.317148844</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>9326606</v>
+        <v>9152396</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>117469560</v>
+        <v>113543836</v>
       </c>
       <c r="E69" t="n">
-        <v>179202568</v>
+        <v>173213783</v>
       </c>
       <c r="F69" t="n">
-        <v>55849.56222360863</v>
+        <v>51281.36797174954</v>
       </c>
       <c r="G69" t="n">
-        <v>83810.22712770155</v>
+        <v>83041.99529642997</v>
       </c>
       <c r="H69" t="n">
-        <v>0.04</v>
+        <v>0.2</v>
       </c>
       <c r="I69" t="n">
-        <v>7966900</v>
+        <v>7885587</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1116678</v>
+        <v>1117338</v>
       </c>
       <c r="E70" t="n">
-        <v>4324022</v>
+        <v>4326577</v>
       </c>
       <c r="F70" t="n">
-        <v>2533.030130243995</v>
+        <v>3384.426077836915</v>
       </c>
       <c r="G70" t="n">
-        <v>6592.945104189632</v>
+        <v>2518.050100690076</v>
       </c>
       <c r="H70" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="I70" t="n">
-        <v>373070</v>
+        <v>380625</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>120027076</v>
+        <v>121431442</v>
       </c>
       <c r="E71" t="n">
-        <v>460443184</v>
+        <v>465830556</v>
       </c>
       <c r="F71" t="n">
-        <v>154090.180807768</v>
+        <v>157429.8823798876</v>
       </c>
       <c r="G71" t="n">
-        <v>162357.0025903423</v>
+        <v>157979.5953740522</v>
       </c>
       <c r="H71" t="n">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="I71" t="n">
-        <v>31270095</v>
+        <v>30596733</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3185421</v>
+        <v>3188980</v>
       </c>
       <c r="E72" t="n">
-        <v>30182334</v>
+        <v>30216059</v>
       </c>
       <c r="F72" t="n">
-        <v>4782.6088483336</v>
+        <v>4774.306389171472</v>
       </c>
       <c r="G72" t="n">
-        <v>3771.578842689175</v>
+        <v>3339.143505330427</v>
       </c>
       <c r="H72" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="I72" t="n">
-        <v>216775</v>
+        <v>212685</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31845451</v>
+        <v>31606710</v>
       </c>
       <c r="F73" t="n">
-        <v>5919.224333985243</v>
+        <v>7044.472018629538</v>
       </c>
       <c r="G73" t="n">
-        <v>4423.343500895469</v>
+        <v>1904.749973863813</v>
       </c>
       <c r="H73" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5508049</v>
+        <v>5402493</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88664501</v>
+        <v>88541154</v>
       </c>
       <c r="E74" t="n">
-        <v>327755698</v>
+        <v>327299975</v>
       </c>
       <c r="F74" t="n">
-        <v>8245.701031429786</v>
+        <v>8440.979167514895</v>
       </c>
       <c r="G74" t="n">
-        <v>639.2274617298693</v>
+        <v>589.2963023204926</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I74" t="n">
-        <v>253354</v>
+        <v>241220</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23065037</v>
+        <v>23452392</v>
       </c>
       <c r="E75" t="n">
-        <v>23065037</v>
+        <v>23452392</v>
       </c>
       <c r="F75" t="n">
-        <v>20779.47809210077</v>
+        <v>20959.24275231409</v>
       </c>
       <c r="G75" t="n">
-        <v>30707.70865586117</v>
+        <v>24671.98120566309</v>
       </c>
       <c r="H75" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>5624506</v>
+        <v>5820999</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>494880538</v>
+        <v>495750647</v>
       </c>
       <c r="E76" t="n">
-        <v>1722637967</v>
+        <v>1725666745</v>
       </c>
       <c r="F76" t="n">
-        <v>198099.4607512614</v>
+        <v>198129.7861852424</v>
       </c>
       <c r="G76" t="n">
-        <v>215159.9945791665</v>
+        <v>218426.467873426</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I76" t="n">
-        <v>30012711</v>
+        <v>30535608</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5747088524</v>
+        <v>5759229155</v>
       </c>
       <c r="E77" t="n">
-        <v>5747088524</v>
+        <v>5759229155</v>
       </c>
       <c r="F77" t="n">
-        <v>10331.49823144041</v>
+        <v>10266.5829550666</v>
       </c>
       <c r="G77" t="n">
-        <v>94730.65966905787</v>
+        <v>94470.6068919992</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>11825926</v>
+        <v>10244435</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7517006</v>
+        <v>7527826</v>
       </c>
       <c r="E78" t="n">
-        <v>19528374</v>
+        <v>19556483</v>
       </c>
       <c r="F78" t="n">
-        <v>3154.095508400601</v>
+        <v>2585.28013677066</v>
       </c>
       <c r="G78" t="n">
-        <v>3184.566197760381</v>
+        <v>3326.978730700883</v>
       </c>
       <c r="H78" t="n">
-        <v>0.31</v>
+        <v>0.25</v>
       </c>
       <c r="I78" t="n">
-        <v>715231</v>
+        <v>714278</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>102102049</v>
+        <v>104061929</v>
       </c>
       <c r="E79" t="n">
-        <v>154696401</v>
+        <v>157665845</v>
       </c>
       <c r="F79" t="n">
-        <v>40440.16037477673</v>
+        <v>38785.74930239602</v>
       </c>
       <c r="G79" t="n">
-        <v>37083.26709992884</v>
+        <v>49082.18739880434</v>
       </c>
       <c r="H79" t="n">
-        <v>0.31</v>
+        <v>0.12</v>
       </c>
       <c r="I79" t="n">
-        <v>6955784</v>
+        <v>7540396</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2638051</v>
+        <v>2631093</v>
       </c>
       <c r="E80" t="n">
-        <v>10552204</v>
+        <v>10524372</v>
       </c>
       <c r="F80" t="n">
-        <v>70329.92562003233</v>
+        <v>77587.0291231052</v>
       </c>
       <c r="G80" t="n">
-        <v>80522.63438248452</v>
+        <v>4083.736179905698</v>
       </c>
       <c r="H80" t="n">
-        <v>0.29</v>
+        <v>0.19</v>
       </c>
       <c r="I80" t="n">
-        <v>6922194</v>
+        <v>6907389</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2497265</v>
+        <v>2547775</v>
       </c>
       <c r="F81" t="n">
-        <v>1869.929284663979</v>
+        <v>1539.83956758122</v>
       </c>
       <c r="G81" t="n">
-        <v>389.9296704139906</v>
+        <v>935.6266601102132</v>
       </c>
       <c r="H81" t="n">
-        <v>0.28</v>
+        <v>0.39</v>
       </c>
       <c r="I81" t="n">
-        <v>302775</v>
+        <v>306824</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>401294558</v>
+        <v>402280006</v>
       </c>
       <c r="E82" t="n">
-        <v>2293111759</v>
+        <v>2298742894</v>
       </c>
       <c r="F82" t="n">
-        <v>151345.1107744199</v>
+        <v>154500.7738250056</v>
       </c>
       <c r="G82" t="n">
-        <v>177685.4230494221</v>
+        <v>181907.5501415659</v>
       </c>
       <c r="H82" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>37770268</v>
+        <v>38785847</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3991193</v>
+        <v>4006760</v>
       </c>
       <c r="F2" t="n">
-        <v>732.4498928383748</v>
+        <v>380.5773427107709</v>
       </c>
       <c r="G2" t="n">
-        <v>492.3680452121513</v>
+        <v>509.257601900066</v>
       </c>
       <c r="H2" t="n">
-        <v>0.52</v>
+        <v>0.55</v>
       </c>
       <c r="I2" t="n">
-        <v>136267</v>
+        <v>135184</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1305323</v>
+        <v>1354640</v>
       </c>
       <c r="E3" t="n">
-        <v>4219340</v>
+        <v>4378751</v>
       </c>
       <c r="F3" t="n">
-        <v>5375.151345673589</v>
+        <v>1109.214119390818</v>
       </c>
       <c r="G3" t="n">
-        <v>11660.9478919777</v>
+        <v>6082.579762413661</v>
       </c>
       <c r="H3" t="n">
-        <v>0.02</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>113234</v>
+        <v>126669</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>246465876</v>
+        <v>249831742</v>
       </c>
       <c r="E4" t="n">
-        <v>1545552866</v>
+        <v>1566659737</v>
       </c>
       <c r="F4" t="n">
-        <v>255287.7293009066</v>
+        <v>244683.1036130211</v>
       </c>
       <c r="G4" t="n">
-        <v>248570.4918974387</v>
+        <v>239996.2302316865</v>
       </c>
       <c r="H4" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>16844361</v>
+        <v>17372271</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146458886</v>
+        <v>146979466</v>
       </c>
       <c r="E5" t="n">
-        <v>162299334</v>
+        <v>162876218</v>
       </c>
       <c r="F5" t="n">
-        <v>86227.07488691993</v>
+        <v>83900.77764319889</v>
       </c>
       <c r="G5" t="n">
-        <v>101254.5845587771</v>
+        <v>90232.83448497315</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37189561</v>
+        <v>37450472</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127387490</v>
+        <v>127817851</v>
       </c>
       <c r="E6" t="n">
-        <v>499320820</v>
+        <v>501007705</v>
       </c>
       <c r="F6" t="n">
-        <v>25883.39410883208</v>
+        <v>31402.27732166662</v>
       </c>
       <c r="G6" t="n">
-        <v>40143.60759900005</v>
+        <v>43994.19944394011</v>
       </c>
       <c r="H6" t="n">
         <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>29759162</v>
+        <v>29447878</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4559767</v>
+        <v>4575763</v>
       </c>
       <c r="E7" t="n">
-        <v>28007390</v>
+        <v>28105643</v>
       </c>
       <c r="F7" t="n">
-        <v>1669.991584579558</v>
+        <v>2469.031133736592</v>
       </c>
       <c r="G7" t="n">
-        <v>1902.956766671896</v>
+        <v>1854.279356365223</v>
       </c>
       <c r="H7" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>645134</v>
+        <v>655983</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198332</v>
+        <v>198287</v>
       </c>
       <c r="E8" t="n">
-        <v>2181874</v>
+        <v>2181375</v>
       </c>
       <c r="F8" t="n">
-        <v>4137.772086847931</v>
+        <v>4102.989477203195</v>
       </c>
       <c r="G8" t="n">
-        <v>5705.988255703261</v>
+        <v>5769.268213258452</v>
       </c>
       <c r="H8" t="n">
         <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>27364</v>
+        <v>27265</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71631169</v>
+        <v>71653071</v>
       </c>
       <c r="E9" t="n">
-        <v>124049381</v>
+        <v>124085827</v>
       </c>
       <c r="F9" t="n">
-        <v>3912.443353598</v>
+        <v>4514.257549073415</v>
       </c>
       <c r="G9" t="n">
-        <v>9930.575923946391</v>
+        <v>10031.31718408754</v>
       </c>
       <c r="H9" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>791656</v>
+        <v>767546</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8833807</v>
+        <v>8833277</v>
       </c>
       <c r="E10" t="n">
-        <v>12503597</v>
+        <v>12502847</v>
       </c>
       <c r="F10" t="n">
-        <v>4264.339163591096</v>
+        <v>4264.047491964248</v>
       </c>
       <c r="G10" t="n">
-        <v>4389.943793028287</v>
+        <v>4384.936353217947</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>69560</v>
+        <v>69506</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>472793281</v>
+        <v>478286193</v>
       </c>
       <c r="E11" t="n">
-        <v>472793284</v>
+        <v>478286198</v>
       </c>
       <c r="F11" t="n">
-        <v>332.7382535379577</v>
+        <v>32337.11174674235</v>
       </c>
       <c r="G11" t="n">
-        <v>20474.23377745368</v>
+        <v>57802.70543453642</v>
       </c>
       <c r="H11" t="n">
-        <v>0.87</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>70377889</v>
+        <v>82750812</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>311526</v>
+        <v>315036</v>
       </c>
       <c r="E12" t="n">
-        <v>1454236</v>
+        <v>1470618</v>
       </c>
       <c r="F12" t="n">
-        <v>105.5466540822249</v>
+        <v>1486.827305931342</v>
       </c>
       <c r="G12" t="n">
-        <v>536.0633793930538</v>
+        <v>427.547938546761</v>
       </c>
       <c r="H12" t="n">
-        <v>1.18</v>
+        <v>0.6</v>
       </c>
       <c r="I12" t="n">
-        <v>698331</v>
+        <v>706946</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1517802</v>
+        <v>1511779</v>
       </c>
       <c r="F13" t="n">
-        <v>4818.793779280008</v>
+        <v>4752.887018341048</v>
       </c>
       <c r="G13" t="n">
-        <v>2096.552893297919</v>
+        <v>1816.471555475837</v>
       </c>
       <c r="H13" t="n">
         <v>0.13</v>
       </c>
       <c r="I13" t="n">
-        <v>284076</v>
+        <v>290909</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12768925</v>
+        <v>12802439</v>
       </c>
       <c r="E14" t="n">
-        <v>31779546</v>
+        <v>31862955</v>
       </c>
       <c r="F14" t="n">
-        <v>910.6825511476501</v>
+        <v>470.3657215867878</v>
       </c>
       <c r="G14" t="n">
-        <v>1848.105816389055</v>
+        <v>849.0109440924639</v>
       </c>
       <c r="H14" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I14" t="n">
-        <v>1246262</v>
+        <v>1242978</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>114451211</v>
+        <v>116206932</v>
       </c>
       <c r="E15" t="n">
-        <v>445272890</v>
+        <v>452088937</v>
       </c>
       <c r="F15" t="n">
-        <v>41348.68616419598</v>
+        <v>40867.29980652648</v>
       </c>
       <c r="G15" t="n">
-        <v>102152.3236169439</v>
+        <v>97777.35479416061</v>
       </c>
       <c r="H15" t="n">
         <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>9070155</v>
+        <v>9378762</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5152469</v>
+        <v>5156616</v>
       </c>
       <c r="E16" t="n">
-        <v>7584714</v>
+        <v>7590819</v>
       </c>
       <c r="F16" t="n">
-        <v>797.0889396178483</v>
+        <v>1007.330495740712</v>
       </c>
       <c r="G16" t="n">
-        <v>338.2603589328479</v>
+        <v>350.5491924413</v>
       </c>
       <c r="H16" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="I16" t="n">
-        <v>645591</v>
+        <v>646469</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2121802</v>
+        <v>2011496</v>
       </c>
       <c r="F17" t="n">
-        <v>23.52300606663397</v>
+        <v>196.1325598115411</v>
       </c>
       <c r="G17" t="n">
-        <v>492.5663356890978</v>
+        <v>474.4099379535143</v>
       </c>
       <c r="H17" t="n">
-        <v>1.1</v>
+        <v>0.19</v>
       </c>
       <c r="I17" t="n">
-        <v>165410</v>
+        <v>144635</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>138504236</v>
+        <v>139801911</v>
       </c>
       <c r="E18" t="n">
-        <v>138504236</v>
+        <v>139801911</v>
       </c>
       <c r="F18" t="n">
-        <v>132796.3671896635</v>
+        <v>127681.5296099264</v>
       </c>
       <c r="G18" t="n">
-        <v>164399.8078151862</v>
+        <v>145753.7005338143</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>64374787</v>
+        <v>68105069</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66352121</v>
+        <v>66663090</v>
       </c>
       <c r="E19" t="n">
-        <v>340267290</v>
+        <v>341862002</v>
       </c>
       <c r="F19" t="n">
-        <v>13990.86550051085</v>
+        <v>18252.46104713466</v>
       </c>
       <c r="G19" t="n">
-        <v>25159.70790545909</v>
+        <v>13280.10173840341</v>
       </c>
       <c r="H19" t="n">
         <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>21679815</v>
+        <v>22065382</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257752601</v>
+        <v>257917660</v>
       </c>
       <c r="E20" t="n">
-        <v>257752601</v>
+        <v>257917660</v>
       </c>
       <c r="F20" t="n">
-        <v>52452.6340396596</v>
+        <v>74017.60994019484</v>
       </c>
       <c r="G20" t="n">
-        <v>101857.5990350741</v>
+        <v>82393.54383572533</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14456389</v>
+        <v>14511837</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>159296774</v>
+        <v>165412715</v>
       </c>
       <c r="E21" t="n">
-        <v>209615924</v>
+        <v>217663787</v>
       </c>
       <c r="F21" t="n">
-        <v>13430.44524934919</v>
+        <v>22322.0540280737</v>
       </c>
       <c r="G21" t="n">
-        <v>29894.90432966149</v>
+        <v>14520.33173069617</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I21" t="n">
-        <v>7985741</v>
+        <v>8194547</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>81113169</v>
+        <v>83361989</v>
       </c>
       <c r="E22" t="n">
-        <v>226978213</v>
+        <v>233200969</v>
       </c>
       <c r="F22" t="n">
-        <v>21344.39701554755</v>
+        <v>23851.42944146281</v>
       </c>
       <c r="G22" t="n">
-        <v>44051.70767253551</v>
+        <v>43008.44558405198</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>40485903</v>
+        <v>43966809</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76673664</v>
+        <v>78255538</v>
       </c>
       <c r="E23" t="n">
-        <v>159903527</v>
+        <v>163202537</v>
       </c>
       <c r="F23" t="n">
-        <v>20911.10944309998</v>
+        <v>10700.86130829166</v>
       </c>
       <c r="G23" t="n">
-        <v>46614.18869047792</v>
+        <v>39752.13596233324</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>16589217</v>
+        <v>17518952</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>648119231</v>
+        <v>654160080</v>
       </c>
       <c r="E24" t="n">
-        <v>648119231</v>
+        <v>654160080</v>
       </c>
       <c r="F24" t="n">
-        <v>194302.0122416399</v>
+        <v>198442.4109995422</v>
       </c>
       <c r="G24" t="n">
-        <v>281749.7183615386</v>
+        <v>229299.3146905315</v>
       </c>
       <c r="H24" t="n">
-        <v>0.31</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>306806573</v>
+        <v>310940686</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>205261517</v>
+        <v>204970917</v>
       </c>
       <c r="E25" t="n">
-        <v>713097060</v>
+        <v>712087489</v>
       </c>
       <c r="F25" t="n">
-        <v>91588.94186289782</v>
+        <v>90271.78073604425</v>
       </c>
       <c r="G25" t="n">
-        <v>356511.6866393745</v>
+        <v>347165.8269756648</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>27957100</v>
+        <v>28103476</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5697890</v>
+        <v>5823487</v>
       </c>
       <c r="E26" t="n">
-        <v>7740904</v>
+        <v>7911535</v>
       </c>
       <c r="F26" t="n">
-        <v>1002.924344409681</v>
+        <v>608.1423504531881</v>
       </c>
       <c r="G26" t="n">
-        <v>2414.948532244581</v>
+        <v>116.944185025905</v>
       </c>
       <c r="H26" t="n">
-        <v>0.35</v>
+        <v>0.21</v>
       </c>
       <c r="I26" t="n">
-        <v>5715762</v>
+        <v>1331636</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14679138</v>
+        <v>14674225</v>
       </c>
       <c r="F27" t="n">
-        <v>2351.009351952293</v>
+        <v>2647.720381650083</v>
       </c>
       <c r="G27" t="n">
-        <v>2753.145791617537</v>
+        <v>2861.278999845613</v>
       </c>
       <c r="H27" t="n">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
       <c r="I27" t="n">
-        <v>258697</v>
+        <v>270270</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25897165</v>
+        <v>25761390</v>
       </c>
       <c r="E28" t="n">
-        <v>36604632</v>
+        <v>36412719</v>
       </c>
       <c r="F28" t="n">
-        <v>370.3036220158806</v>
+        <v>221.6705681344603</v>
       </c>
       <c r="G28" t="n">
-        <v>8054.344922443812</v>
+        <v>7387.830925360347</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>53761</v>
+        <v>70315</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>273076065</v>
+        <v>274107891</v>
       </c>
       <c r="E29" t="n">
-        <v>1178747891</v>
+        <v>1183201828</v>
       </c>
       <c r="F29" t="n">
-        <v>369973.3322405863</v>
+        <v>358410.1335795685</v>
       </c>
       <c r="G29" t="n">
-        <v>383217.5926163518</v>
+        <v>351416.5599893673</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>97681539</v>
+        <v>99978976</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11137100</v>
+        <v>11173846</v>
       </c>
       <c r="E30" t="n">
-        <v>134445762</v>
+        <v>134889362</v>
       </c>
       <c r="F30" t="n">
-        <v>5527.928569694733</v>
+        <v>2736.971009903243</v>
       </c>
       <c r="G30" t="n">
-        <v>2070.725166554061</v>
+        <v>906.222771550688</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I30" t="n">
-        <v>273115</v>
+        <v>215595</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19605075</v>
+        <v>19603975</v>
       </c>
       <c r="E31" t="n">
-        <v>49012687</v>
+        <v>49009938</v>
       </c>
       <c r="F31" t="n">
-        <v>9776.054509746682</v>
+        <v>11502.81358192853</v>
       </c>
       <c r="G31" t="n">
-        <v>9465.13581581086</v>
+        <v>10389.1055886711</v>
       </c>
       <c r="H31" t="n">
         <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>2067893</v>
+        <v>2058412</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19835494</v>
+        <v>19827300</v>
       </c>
       <c r="F32" t="n">
-        <v>2508.495732542976</v>
+        <v>2209.732292765663</v>
       </c>
       <c r="G32" t="n">
-        <v>2045.932164488722</v>
+        <v>2100.447933288271</v>
       </c>
       <c r="H32" t="n">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="I32" t="n">
-        <v>57558</v>
+        <v>55358</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1304965</v>
+        <v>1326988</v>
       </c>
       <c r="E33" t="n">
-        <v>4865246</v>
+        <v>4947356</v>
       </c>
       <c r="F33" t="n">
-        <v>1607.120253962819</v>
+        <v>4807.736590691845</v>
       </c>
       <c r="G33" t="n">
-        <v>1612.580049082196</v>
+        <v>149.8968874656921</v>
       </c>
       <c r="H33" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="I33" t="n">
-        <v>511124</v>
+        <v>558706</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4197788</v>
+        <v>4234178</v>
       </c>
       <c r="E34" t="n">
-        <v>12091626</v>
+        <v>12196446</v>
       </c>
       <c r="F34" t="n">
-        <v>2311.226925587154</v>
+        <v>1254.680335040041</v>
       </c>
       <c r="G34" t="n">
-        <v>4887.621344136129</v>
+        <v>3287.668472428221</v>
       </c>
       <c r="H34" t="n">
-        <v>0.58</v>
+        <v>1.64</v>
       </c>
       <c r="I34" t="n">
-        <v>649337</v>
+        <v>638105</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14465282</v>
+        <v>14588417</v>
       </c>
       <c r="E35" t="n">
-        <v>70057671</v>
+        <v>70654034</v>
       </c>
       <c r="F35" t="n">
-        <v>6755.101826957136</v>
+        <v>5985.041243050281</v>
       </c>
       <c r="G35" t="n">
-        <v>12368.17075947857</v>
+        <v>7843.649618281026</v>
       </c>
       <c r="H35" t="n">
-        <v>0.18</v>
+        <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3801213</v>
+        <v>3806620</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1459014</v>
+        <v>1453909</v>
       </c>
       <c r="E36" t="n">
-        <v>9549207</v>
+        <v>9515798</v>
       </c>
       <c r="F36" t="n">
-        <v>4002.44619324085</v>
+        <v>4281.782440226412</v>
       </c>
       <c r="G36" t="n">
-        <v>894.5041267906512</v>
+        <v>4567.13993322877</v>
       </c>
       <c r="H36" t="n">
-        <v>0.31</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>660954</v>
+        <v>692066</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1932450600</v>
+        <v>1928824615</v>
       </c>
       <c r="F37" t="n">
-        <v>70623.12263626722</v>
+        <v>72039.47025795879</v>
       </c>
       <c r="G37" t="n">
-        <v>71777.52255743198</v>
+        <v>75856.87711735231</v>
       </c>
       <c r="H37" t="n">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="I37" t="n">
-        <v>27383145</v>
+        <v>27656722</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2078331</v>
+        <v>2074582</v>
       </c>
       <c r="E38" t="n">
-        <v>14903501</v>
+        <v>14876623</v>
       </c>
       <c r="F38" t="n">
-        <v>5397.904998205581</v>
+        <v>4464.928877551602</v>
       </c>
       <c r="G38" t="n">
-        <v>5753.945774398552</v>
+        <v>5633.20795250122</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="I38" t="n">
-        <v>1991962</v>
+        <v>1982638</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>204635752</v>
+        <v>205111578</v>
       </c>
       <c r="E39" t="n">
-        <v>1158773364</v>
+        <v>1161467782</v>
       </c>
       <c r="F39" t="n">
-        <v>150657.2795493734</v>
+        <v>139765.5676924004</v>
       </c>
       <c r="G39" t="n">
-        <v>171135.697425968</v>
+        <v>176000.5068083939</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I39" t="n">
-        <v>64763989</v>
+        <v>66051862</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>142942451</v>
+        <v>143106892</v>
       </c>
       <c r="E40" t="n">
-        <v>1058832972</v>
+        <v>1060051052</v>
       </c>
       <c r="F40" t="n">
-        <v>216914.7402962534</v>
+        <v>222842.8734201156</v>
       </c>
       <c r="G40" t="n">
-        <v>207113.4124922702</v>
+        <v>205276.9959191633</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>8963988</v>
+        <v>8686430</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>339783581</v>
+        <v>345920874</v>
       </c>
       <c r="E41" t="n">
-        <v>3056903784</v>
+        <v>3112118682</v>
       </c>
       <c r="F41" t="n">
-        <v>185795.1585870032</v>
+        <v>187221.5018172881</v>
       </c>
       <c r="G41" t="n">
-        <v>222285.41648561</v>
+        <v>182906.1313708791</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>38604629</v>
+        <v>39725624</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1577655</v>
+        <v>1577438</v>
       </c>
       <c r="E42" t="n">
-        <v>13147123</v>
+        <v>13145320</v>
       </c>
       <c r="F42" t="n">
-        <v>4025.521111113434</v>
+        <v>3788.85707548622</v>
       </c>
       <c r="G42" t="n">
-        <v>6444.301880383013</v>
+        <v>7052.253324852182</v>
       </c>
       <c r="H42" t="n">
         <v>0.38</v>
       </c>
       <c r="I42" t="n">
-        <v>38586</v>
+        <v>38382</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22542011</v>
+        <v>22683595</v>
       </c>
       <c r="E43" t="n">
-        <v>67570582</v>
+        <v>67994987</v>
       </c>
       <c r="F43" t="n">
-        <v>54087.59044815013</v>
+        <v>57151.30096854368</v>
       </c>
       <c r="G43" t="n">
-        <v>50615.58607843407</v>
+        <v>59746.54991521458</v>
       </c>
       <c r="H43" t="n">
-        <v>0.28</v>
+        <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>3334634</v>
+        <v>3387173</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9472442</v>
+        <v>9474588</v>
       </c>
       <c r="F44" t="n">
-        <v>1947.25043869132</v>
+        <v>5770.389913812943</v>
       </c>
       <c r="G44" t="n">
-        <v>1651.173201730262</v>
+        <v>6023.460726629967</v>
       </c>
       <c r="H44" t="n">
-        <v>0.32</v>
+        <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>98201</v>
+        <v>98550</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13076513</v>
+        <v>13255840</v>
       </c>
       <c r="E45" t="n">
-        <v>13076513</v>
+        <v>13255840</v>
       </c>
       <c r="F45" t="n">
-        <v>232.2095180726089</v>
+        <v>1137.291341957954</v>
       </c>
       <c r="G45" t="n">
-        <v>22262.07543029098</v>
+        <v>716.9090116108008</v>
       </c>
       <c r="H45" t="n">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="I45" t="n">
-        <v>3661624</v>
+        <v>3685309</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>312834265</v>
+        <v>313833060</v>
       </c>
       <c r="E46" t="n">
-        <v>312834265</v>
+        <v>313833060</v>
       </c>
       <c r="F46" t="n">
-        <v>43048.95141065774</v>
+        <v>40829.19189310588</v>
       </c>
       <c r="G46" t="n">
-        <v>38384.14048680643</v>
+        <v>39741.0098064455</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>14919498</v>
+        <v>15010408</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12762775</v>
+        <v>12745036</v>
       </c>
       <c r="E47" t="n">
-        <v>40376806</v>
+        <v>40320686</v>
       </c>
       <c r="F47" t="n">
-        <v>16353.02676397844</v>
+        <v>15064.57332278515</v>
       </c>
       <c r="G47" t="n">
-        <v>11258.70267127712</v>
+        <v>7514.796046174567</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="I47" t="n">
-        <v>1170108</v>
+        <v>1090147</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>31987568</v>
+        <v>32121594</v>
       </c>
       <c r="E48" t="n">
-        <v>88602390</v>
+        <v>88973627</v>
       </c>
       <c r="F48" t="n">
-        <v>6032.687128915934</v>
+        <v>4157.006368146687</v>
       </c>
       <c r="G48" t="n">
-        <v>5514.03396840437</v>
+        <v>7319.523732223327</v>
       </c>
       <c r="H48" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
       <c r="I48" t="n">
-        <v>12090786</v>
+        <v>12107671</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28529250</v>
+        <v>28354107</v>
       </c>
       <c r="E49" t="n">
-        <v>67778404</v>
+        <v>67362307</v>
       </c>
       <c r="F49" t="n">
-        <v>13841.07033705009</v>
+        <v>19179.27296649065</v>
       </c>
       <c r="G49" t="n">
-        <v>17074.59030179573</v>
+        <v>17487.56894659395</v>
       </c>
       <c r="H49" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I49" t="n">
-        <v>434341</v>
+        <v>402187</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12750954</v>
+        <v>12718354</v>
       </c>
       <c r="E50" t="n">
-        <v>19409827</v>
+        <v>19360203</v>
       </c>
       <c r="F50" t="n">
-        <v>6654.594535508488</v>
+        <v>6641.48196968732</v>
       </c>
       <c r="G50" t="n">
-        <v>3734.123777164455</v>
+        <v>3606.670026127732</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="I50" t="n">
-        <v>766304</v>
+        <v>775848</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="E51" t="n">
-        <v>301286590</v>
+        <v>295827939</v>
       </c>
       <c r="F51" t="n">
-        <v>53971.44832610443</v>
+        <v>82367.72874228998</v>
       </c>
       <c r="G51" t="n">
-        <v>111917.9060917727</v>
+        <v>98472.2595866014</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>58752904</v>
+        <v>76400836</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>91401749</v>
+        <v>91534952</v>
       </c>
       <c r="E52" t="n">
-        <v>526696299</v>
+        <v>527463872</v>
       </c>
       <c r="F52" t="n">
-        <v>335705.8262594008</v>
+        <v>300918.2483071585</v>
       </c>
       <c r="G52" t="n">
-        <v>230555.1529846575</v>
+        <v>192855.0155034123</v>
       </c>
       <c r="H52" t="n">
         <v>0.02</v>
       </c>
       <c r="I52" t="n">
-        <v>16779451</v>
+        <v>17029701</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30778990</v>
+        <v>30856432</v>
       </c>
       <c r="E53" t="n">
-        <v>137810164</v>
+        <v>138156906</v>
       </c>
       <c r="F53" t="n">
-        <v>43519.29532931359</v>
+        <v>36952.30920942612</v>
       </c>
       <c r="G53" t="n">
-        <v>53779.62739429955</v>
+        <v>50097.78143065288</v>
       </c>
       <c r="H53" t="n">
         <v>0.22</v>
       </c>
       <c r="I53" t="n">
-        <v>8717068</v>
+        <v>8604478</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9105783</v>
+        <v>9085671</v>
       </c>
       <c r="F54" t="n">
-        <v>2590.394890134194</v>
+        <v>2592.923946292298</v>
       </c>
       <c r="G54" t="n">
-        <v>4628.771180207197</v>
+        <v>4669.32147165709</v>
       </c>
       <c r="H54" t="n">
         <v>0.76</v>
       </c>
       <c r="I54" t="n">
-        <v>305092</v>
+        <v>304256</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4777016</v>
+        <v>4762991</v>
       </c>
       <c r="F55" t="n">
-        <v>4431.372476703735</v>
+        <v>4435.298783628874</v>
       </c>
       <c r="G55" t="n">
-        <v>938.5765180216642</v>
+        <v>943.5371195444728</v>
       </c>
       <c r="H55" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
-        <v>182143</v>
+        <v>199189</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125354785</v>
+        <v>125572471</v>
       </c>
       <c r="E56" t="n">
-        <v>2075977914</v>
+        <v>2079582964</v>
       </c>
       <c r="F56" t="n">
-        <v>180912.1967734662</v>
+        <v>186933.7095726774</v>
       </c>
       <c r="G56" t="n">
-        <v>176972.1517214602</v>
+        <v>176021.6004752364</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4841111</v>
+        <v>4705866</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>97116306</v>
+        <v>98049841</v>
       </c>
       <c r="E57" t="n">
-        <v>98161697</v>
+        <v>99105282</v>
       </c>
       <c r="F57" t="n">
-        <v>50408.12112835768</v>
+        <v>38153.31023632949</v>
       </c>
       <c r="G57" t="n">
-        <v>67083.44114366446</v>
+        <v>65496.50310899874</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>37411832</v>
+        <v>38647602</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>240076495</v>
+        <v>241426790</v>
       </c>
       <c r="E58" t="n">
-        <v>240076495</v>
+        <v>241426790</v>
       </c>
       <c r="F58" t="n">
-        <v>90710.9067740485</v>
+        <v>81618.28737510508</v>
       </c>
       <c r="G58" t="n">
-        <v>135065.8730873555</v>
+        <v>106974.7392004696</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>46280080</v>
+        <v>46801110</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24618931</v>
+        <v>24660936</v>
       </c>
       <c r="E59" t="n">
-        <v>147300015</v>
+        <v>147551335</v>
       </c>
       <c r="F59" t="n">
-        <v>29466.12709313239</v>
+        <v>71442.47075727239</v>
       </c>
       <c r="G59" t="n">
-        <v>30060.14184929086</v>
+        <v>68865.96722692854</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12066988</v>
+        <v>12438277</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2410600</v>
+        <v>2410514</v>
       </c>
       <c r="E60" t="n">
-        <v>4448899</v>
+        <v>4448740</v>
       </c>
       <c r="F60" t="n">
-        <v>3931.953418598333</v>
+        <v>3943.466722541481</v>
       </c>
       <c r="G60" t="n">
-        <v>1984.88213961986</v>
+        <v>2017.491369130569</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23441</v>
+        <v>23388</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11187654</v>
+        <v>11338087</v>
       </c>
       <c r="E62" t="n">
-        <v>33194512</v>
+        <v>33640856</v>
       </c>
       <c r="F62" t="n">
-        <v>4451.081381350582</v>
+        <v>3795.971935808178</v>
       </c>
       <c r="G62" t="n">
-        <v>3638.752197398996</v>
+        <v>2948.78074842511</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I62" t="n">
-        <v>7121966</v>
+        <v>7196446</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14568584</v>
+        <v>14592514</v>
       </c>
       <c r="E63" t="n">
-        <v>29493208</v>
+        <v>29541653</v>
       </c>
       <c r="F63" t="n">
-        <v>5948.212750084783</v>
+        <v>6242.993089464999</v>
       </c>
       <c r="G63" t="n">
-        <v>13710.0886388724</v>
+        <v>12261.95511259827</v>
       </c>
       <c r="H63" t="n">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>572301</v>
+        <v>572905</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38989590</v>
+        <v>39044876</v>
       </c>
       <c r="E64" t="n">
-        <v>276429830</v>
+        <v>276821800</v>
       </c>
       <c r="F64" t="n">
-        <v>62316.02679264656</v>
+        <v>42488.58826174324</v>
       </c>
       <c r="G64" t="n">
-        <v>50129.23879116622</v>
+        <v>52088.25999423518</v>
       </c>
       <c r="H64" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1622514</v>
+        <v>1615216</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1274865</v>
+        <v>1276433</v>
       </c>
       <c r="E65" t="n">
-        <v>7905468</v>
+        <v>7915195</v>
       </c>
       <c r="F65" t="n">
-        <v>2129.907828191071</v>
+        <v>2071.118223631764</v>
       </c>
       <c r="G65" t="n">
-        <v>1926.368314225221</v>
+        <v>1974.170617528927</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>783077</v>
+        <v>781655</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>611037200</v>
+        <v>609553598</v>
       </c>
       <c r="E66" t="n">
-        <v>2366456923</v>
+        <v>2360711150</v>
       </c>
       <c r="F66" t="n">
-        <v>158489.1908858077</v>
+        <v>145459.0821403028</v>
       </c>
       <c r="G66" t="n">
-        <v>140763.9851579844</v>
+        <v>148221.8975717658</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32587929</v>
+        <v>32892507</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5887507</v>
+        <v>5889243</v>
       </c>
       <c r="E67" t="n">
-        <v>26359104</v>
+        <v>26362777</v>
       </c>
       <c r="F67" t="n">
-        <v>4975.116948585498</v>
+        <v>2118.048234692099</v>
       </c>
       <c r="G67" t="n">
-        <v>4193.176101886795</v>
+        <v>1438.624596670619</v>
       </c>
       <c r="H67" t="n">
         <v>0.23</v>
       </c>
       <c r="I67" t="n">
-        <v>152587</v>
+        <v>151535</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>123205650</v>
+        <v>123296876</v>
       </c>
       <c r="E68" t="n">
-        <v>1071197401</v>
+        <v>1071990560</v>
       </c>
       <c r="F68" t="n">
-        <v>164120.8506555083</v>
+        <v>161448.9195075789</v>
       </c>
       <c r="G68" t="n">
-        <v>162826.317148844</v>
+        <v>158467.9401556884</v>
       </c>
       <c r="H68" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9152396</v>
+        <v>9147020</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>113543836</v>
+        <v>113954732</v>
       </c>
       <c r="E69" t="n">
-        <v>173213783</v>
+        <v>173840614</v>
       </c>
       <c r="F69" t="n">
-        <v>51281.36797174954</v>
+        <v>51380.07738671365</v>
       </c>
       <c r="G69" t="n">
-        <v>83041.99529642997</v>
+        <v>82162.87520348775</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="I69" t="n">
-        <v>7885587</v>
+        <v>7901857</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1117338</v>
+        <v>1139771</v>
       </c>
       <c r="E70" t="n">
-        <v>4326577</v>
+        <v>4413441</v>
       </c>
       <c r="F70" t="n">
-        <v>3384.426077836915</v>
+        <v>3795.474954834665</v>
       </c>
       <c r="G70" t="n">
-        <v>2518.050100690076</v>
+        <v>2222.302479454147</v>
       </c>
       <c r="H70" t="n">
-        <v>0.05</v>
+        <v>0.66</v>
       </c>
       <c r="I70" t="n">
-        <v>380625</v>
+        <v>371587</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>121431442</v>
+        <v>122504302</v>
       </c>
       <c r="E71" t="n">
-        <v>465830556</v>
+        <v>469946219</v>
       </c>
       <c r="F71" t="n">
-        <v>157429.8823798876</v>
+        <v>157058.7157324928</v>
       </c>
       <c r="G71" t="n">
-        <v>157979.5953740522</v>
+        <v>164684.1244023097</v>
       </c>
       <c r="H71" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I71" t="n">
-        <v>30596733</v>
+        <v>30633804</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3188980</v>
+        <v>3187853</v>
       </c>
       <c r="E72" t="n">
-        <v>30216059</v>
+        <v>30205383</v>
       </c>
       <c r="F72" t="n">
-        <v>4774.306389171472</v>
+        <v>4811.838275882962</v>
       </c>
       <c r="G72" t="n">
-        <v>3339.143505330427</v>
+        <v>3725.652579229996</v>
       </c>
       <c r="H72" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="I72" t="n">
-        <v>212685</v>
+        <v>213202</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31606710</v>
+        <v>31764167</v>
       </c>
       <c r="F73" t="n">
-        <v>7044.472018629538</v>
+        <v>4874.023316216459</v>
       </c>
       <c r="G73" t="n">
-        <v>1904.749973863813</v>
+        <v>2873.907670544481</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.02</v>
       </c>
       <c r="I73" t="n">
-        <v>5402493</v>
+        <v>5353088</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88541154</v>
+        <v>88988696</v>
       </c>
       <c r="E74" t="n">
-        <v>327299975</v>
+        <v>328952841</v>
       </c>
       <c r="F74" t="n">
-        <v>8440.979167514895</v>
+        <v>8319.541237137291</v>
       </c>
       <c r="G74" t="n">
-        <v>589.2963023204926</v>
+        <v>693.5675022500097</v>
       </c>
       <c r="H74" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>241220</v>
+        <v>239402</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23452392</v>
+        <v>23489394</v>
       </c>
       <c r="E75" t="n">
-        <v>23452392</v>
+        <v>23489394</v>
       </c>
       <c r="F75" t="n">
-        <v>20959.24275231409</v>
+        <v>21044.58827742335</v>
       </c>
       <c r="G75" t="n">
-        <v>24671.98120566309</v>
+        <v>24014.08339464125</v>
       </c>
       <c r="H75" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>5820999</v>
+        <v>5692712</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>495750647</v>
+        <v>498330311</v>
       </c>
       <c r="E76" t="n">
-        <v>1725666745</v>
+        <v>1734646339</v>
       </c>
       <c r="F76" t="n">
-        <v>198129.7861852424</v>
+        <v>199754.156321382</v>
       </c>
       <c r="G76" t="n">
-        <v>218426.467873426</v>
+        <v>219208.5245698498</v>
       </c>
       <c r="H76" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30535608</v>
+        <v>30884985</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5759229155</v>
+        <v>5780298660</v>
       </c>
       <c r="E77" t="n">
-        <v>5759229155</v>
+        <v>5780298660</v>
       </c>
       <c r="F77" t="n">
-        <v>10266.5829550666</v>
+        <v>10299.93661696482</v>
       </c>
       <c r="G77" t="n">
-        <v>94470.6068919992</v>
+        <v>95324.4266346317</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>10244435</v>
+        <v>10091485</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7527826</v>
+        <v>7512808</v>
       </c>
       <c r="E78" t="n">
-        <v>19556483</v>
+        <v>19517466</v>
       </c>
       <c r="F78" t="n">
-        <v>2585.28013677066</v>
+        <v>2679.477421900549</v>
       </c>
       <c r="G78" t="n">
-        <v>3326.978730700883</v>
+        <v>3327.401933250464</v>
       </c>
       <c r="H78" t="n">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="I78" t="n">
-        <v>714278</v>
+        <v>713853</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104061929</v>
+        <v>104905360</v>
       </c>
       <c r="E79" t="n">
-        <v>157665845</v>
+        <v>158943741</v>
       </c>
       <c r="F79" t="n">
-        <v>38785.74930239602</v>
+        <v>37378.43299342302</v>
       </c>
       <c r="G79" t="n">
-        <v>49082.18739880434</v>
+        <v>46078.92382848616</v>
       </c>
       <c r="H79" t="n">
         <v>0.12</v>
       </c>
       <c r="I79" t="n">
-        <v>7540396</v>
+        <v>7663642</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2631093</v>
+        <v>2631551</v>
       </c>
       <c r="E80" t="n">
-        <v>10524372</v>
+        <v>10526205</v>
       </c>
       <c r="F80" t="n">
-        <v>77587.0291231052</v>
+        <v>79329.2435999962</v>
       </c>
       <c r="G80" t="n">
-        <v>4083.736179905698</v>
+        <v>9524.756548674462</v>
       </c>
       <c r="H80" t="n">
-        <v>0.19</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>6907389</v>
+        <v>6861652</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2547775</v>
+        <v>2540073</v>
       </c>
       <c r="F81" t="n">
-        <v>1539.83956758122</v>
+        <v>1753.187895238774</v>
       </c>
       <c r="G81" t="n">
-        <v>935.6266601102132</v>
+        <v>581.8729577520508</v>
       </c>
       <c r="H81" t="n">
-        <v>0.39</v>
+        <v>0.12</v>
       </c>
       <c r="I81" t="n">
-        <v>306824</v>
+        <v>305961</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>402280006</v>
+        <v>405193101</v>
       </c>
       <c r="E82" t="n">
-        <v>2298742894</v>
+        <v>2315389147</v>
       </c>
       <c r="F82" t="n">
-        <v>154500.7738250056</v>
+        <v>88441.04438785838</v>
       </c>
       <c r="G82" t="n">
-        <v>181907.5501415659</v>
+        <v>180034.430912589</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>38785847</v>
+        <v>39301244</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4006760</v>
+        <v>3980094</v>
       </c>
       <c r="F2" t="n">
-        <v>380.5773427107709</v>
+        <v>447.8166181823703</v>
       </c>
       <c r="G2" t="n">
-        <v>509.257601900066</v>
+        <v>455.8895450683098</v>
       </c>
       <c r="H2" t="n">
         <v>0.55</v>
       </c>
       <c r="I2" t="n">
-        <v>135184</v>
+        <v>139915</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1354640</v>
+        <v>1346634</v>
       </c>
       <c r="E3" t="n">
-        <v>4378751</v>
+        <v>4352873</v>
       </c>
       <c r="F3" t="n">
-        <v>1109.214119390818</v>
+        <v>673.7512650244913</v>
       </c>
       <c r="G3" t="n">
-        <v>6082.579762413661</v>
+        <v>5992.898531180903</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.55</v>
       </c>
       <c r="I3" t="n">
-        <v>126669</v>
+        <v>124230</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249831742</v>
+        <v>248630681</v>
       </c>
       <c r="E4" t="n">
-        <v>1566659737</v>
+        <v>1559128054</v>
       </c>
       <c r="F4" t="n">
-        <v>244683.1036130211</v>
+        <v>232590.962243115</v>
       </c>
       <c r="G4" t="n">
-        <v>239996.2302316865</v>
+        <v>222831.9311060192</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>17372271</v>
+        <v>17467361</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>146979466</v>
+        <v>147105454</v>
       </c>
       <c r="E5" t="n">
-        <v>162876218</v>
+        <v>163015833</v>
       </c>
       <c r="F5" t="n">
-        <v>83900.77764319889</v>
+        <v>89199.31743860373</v>
       </c>
       <c r="G5" t="n">
-        <v>90232.83448497315</v>
+        <v>85772.42975578253</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37450472</v>
+        <v>37341173</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127817851</v>
+        <v>127398218</v>
       </c>
       <c r="E6" t="n">
-        <v>501007705</v>
+        <v>499362869</v>
       </c>
       <c r="F6" t="n">
-        <v>31402.27732166662</v>
+        <v>28217.27065747969</v>
       </c>
       <c r="G6" t="n">
-        <v>43994.19944394011</v>
+        <v>42190.3367885299</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>29447878</v>
+        <v>29592103</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4575763</v>
+        <v>4575535</v>
       </c>
       <c r="E7" t="n">
-        <v>28105643</v>
+        <v>28104243</v>
       </c>
       <c r="F7" t="n">
-        <v>2469.031133736592</v>
+        <v>3085.455682916507</v>
       </c>
       <c r="G7" t="n">
-        <v>1854.279356365223</v>
+        <v>1308.373331358011</v>
       </c>
       <c r="H7" t="n">
         <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>655983</v>
+        <v>650119</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198287</v>
+        <v>197974</v>
       </c>
       <c r="E8" t="n">
-        <v>2181375</v>
+        <v>2177927</v>
       </c>
       <c r="F8" t="n">
-        <v>4102.989477203195</v>
+        <v>3913.669440202041</v>
       </c>
       <c r="G8" t="n">
-        <v>5769.268213258452</v>
+        <v>5457.656719868211</v>
       </c>
       <c r="H8" t="n">
         <v>0.5</v>
       </c>
       <c r="I8" t="n">
-        <v>27265</v>
+        <v>27311</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71653071</v>
+        <v>71674630</v>
       </c>
       <c r="E9" t="n">
-        <v>124085827</v>
+        <v>124121679</v>
       </c>
       <c r="F9" t="n">
-        <v>4514.257549073415</v>
+        <v>4471.924188780824</v>
       </c>
       <c r="G9" t="n">
-        <v>10031.31718408754</v>
+        <v>9220.851225915019</v>
       </c>
       <c r="H9" t="n">
         <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>767546</v>
+        <v>756277</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8833277</v>
+        <v>8828562</v>
       </c>
       <c r="E10" t="n">
-        <v>12502847</v>
+        <v>12496173</v>
       </c>
       <c r="F10" t="n">
-        <v>4264.047491964248</v>
+        <v>4263.626708042607</v>
       </c>
       <c r="G10" t="n">
-        <v>4384.936353217947</v>
+        <v>4384.959245462949</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>69506</v>
+        <v>69466</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>478286193</v>
+        <v>478575805</v>
       </c>
       <c r="E11" t="n">
-        <v>478286198</v>
+        <v>478575809</v>
       </c>
       <c r="F11" t="n">
-        <v>32337.11174674235</v>
+        <v>36193.67091369174</v>
       </c>
       <c r="G11" t="n">
-        <v>57802.70543453642</v>
+        <v>68712.03205968731</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>82750812</v>
+        <v>81842648</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>315036</v>
+        <v>314983</v>
       </c>
       <c r="E12" t="n">
-        <v>1470618</v>
+        <v>1470372</v>
       </c>
       <c r="F12" t="n">
-        <v>1486.827305931342</v>
+        <v>1638.631633276478</v>
       </c>
       <c r="G12" t="n">
-        <v>427.547938546761</v>
+        <v>1072.961591063137</v>
       </c>
       <c r="H12" t="n">
-        <v>0.6</v>
+        <v>0.46</v>
       </c>
       <c r="I12" t="n">
-        <v>706946</v>
+        <v>700626</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1511779</v>
+        <v>1509144</v>
       </c>
       <c r="F13" t="n">
-        <v>4752.887018341048</v>
+        <v>4675.545456788985</v>
       </c>
       <c r="G13" t="n">
-        <v>1816.471555475837</v>
+        <v>2064.594447307785</v>
       </c>
       <c r="H13" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>290909</v>
+        <v>289098</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12802439</v>
+        <v>12769771</v>
       </c>
       <c r="E14" t="n">
-        <v>31862955</v>
+        <v>31781649</v>
       </c>
       <c r="F14" t="n">
-        <v>470.3657215867878</v>
+        <v>470.8725952561431</v>
       </c>
       <c r="G14" t="n">
-        <v>849.0109440924639</v>
+        <v>786.8391587410921</v>
       </c>
       <c r="H14" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
       <c r="I14" t="n">
-        <v>1242978</v>
+        <v>1235285</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116206932</v>
+        <v>115983348</v>
       </c>
       <c r="E15" t="n">
-        <v>452088937</v>
+        <v>451208846</v>
       </c>
       <c r="F15" t="n">
-        <v>40867.29980652648</v>
+        <v>38769.94508533065</v>
       </c>
       <c r="G15" t="n">
-        <v>97777.35479416061</v>
+        <v>103460.7352904294</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>9378762</v>
+        <v>9392454</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5156616</v>
+        <v>5176626</v>
       </c>
       <c r="E16" t="n">
-        <v>7590819</v>
+        <v>7620274</v>
       </c>
       <c r="F16" t="n">
-        <v>1007.330495740712</v>
+        <v>1020.50907226576</v>
       </c>
       <c r="G16" t="n">
-        <v>350.5491924413</v>
+        <v>507.022783000445</v>
       </c>
       <c r="H16" t="n">
-        <v>1.4</v>
+        <v>0.51</v>
       </c>
       <c r="I16" t="n">
-        <v>646469</v>
+        <v>608277</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2011496</v>
+        <v>2124231</v>
       </c>
       <c r="F17" t="n">
-        <v>196.1325598115411</v>
+        <v>274.1460271508055</v>
       </c>
       <c r="G17" t="n">
-        <v>474.4099379535143</v>
+        <v>81.74838959051901</v>
       </c>
       <c r="H17" t="n">
         <v>0.19</v>
       </c>
       <c r="I17" t="n">
-        <v>144635</v>
+        <v>143768</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139801911</v>
+        <v>139697662</v>
       </c>
       <c r="E18" t="n">
-        <v>139801911</v>
+        <v>139697662</v>
       </c>
       <c r="F18" t="n">
-        <v>127681.5296099264</v>
+        <v>95139.2829039201</v>
       </c>
       <c r="G18" t="n">
-        <v>145753.7005338143</v>
+        <v>151153.8664522553</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>68105069</v>
+        <v>68133880</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>66663090</v>
+        <v>67046338</v>
       </c>
       <c r="E19" t="n">
-        <v>341862002</v>
+        <v>343827377</v>
       </c>
       <c r="F19" t="n">
-        <v>18252.46104713466</v>
+        <v>17713.443456865</v>
       </c>
       <c r="G19" t="n">
-        <v>13280.10173840341</v>
+        <v>14032.09021023689</v>
       </c>
       <c r="H19" t="n">
         <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>22065382</v>
+        <v>22214304</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257917660</v>
+        <v>257684251</v>
       </c>
       <c r="E20" t="n">
-        <v>257917660</v>
+        <v>257684251</v>
       </c>
       <c r="F20" t="n">
-        <v>74017.60994019484</v>
+        <v>72909.64672417029</v>
       </c>
       <c r="G20" t="n">
-        <v>82393.54383572533</v>
+        <v>79916.87378668309</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14511837</v>
+        <v>14349667</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>165412715</v>
+        <v>165367165</v>
       </c>
       <c r="E21" t="n">
-        <v>217663787</v>
+        <v>217603849</v>
       </c>
       <c r="F21" t="n">
-        <v>22322.0540280737</v>
+        <v>24721.44387583114</v>
       </c>
       <c r="G21" t="n">
-        <v>14520.33173069617</v>
+        <v>25723.41486778934</v>
       </c>
       <c r="H21" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="I21" t="n">
-        <v>8194547</v>
+        <v>8188408</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>83361989</v>
+        <v>82741185</v>
       </c>
       <c r="E22" t="n">
-        <v>233200969</v>
+        <v>231524960</v>
       </c>
       <c r="F22" t="n">
-        <v>23851.42944146281</v>
+        <v>29593.38174757747</v>
       </c>
       <c r="G22" t="n">
-        <v>43008.44558405198</v>
+        <v>31624.9209686132</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.17</v>
       </c>
       <c r="I22" t="n">
-        <v>43966809</v>
+        <v>44470920</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78255538</v>
+        <v>78638697</v>
       </c>
       <c r="E23" t="n">
-        <v>163202537</v>
+        <v>164001619</v>
       </c>
       <c r="F23" t="n">
-        <v>10700.86130829166</v>
+        <v>19395.76880458725</v>
       </c>
       <c r="G23" t="n">
-        <v>39752.13596233324</v>
+        <v>31149.39529880218</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>17518952</v>
+        <v>17680245</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>654160080</v>
+        <v>653743509</v>
       </c>
       <c r="E24" t="n">
-        <v>654160080</v>
+        <v>653743509</v>
       </c>
       <c r="F24" t="n">
-        <v>198442.4109995422</v>
+        <v>209843.6638356027</v>
       </c>
       <c r="G24" t="n">
-        <v>229299.3146905315</v>
+        <v>252879.4323013656</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>310940686</v>
+        <v>310636391</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>204970917</v>
+        <v>205280170</v>
       </c>
       <c r="E25" t="n">
-        <v>712087489</v>
+        <v>713161862</v>
       </c>
       <c r="F25" t="n">
-        <v>90271.78073604425</v>
+        <v>96350.31477861393</v>
       </c>
       <c r="G25" t="n">
-        <v>347165.8269756648</v>
+        <v>351166.7545632244</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I25" t="n">
-        <v>28103476</v>
+        <v>27954999</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5823487</v>
+        <v>5817822</v>
       </c>
       <c r="E26" t="n">
-        <v>7911535</v>
+        <v>7903838</v>
       </c>
       <c r="F26" t="n">
-        <v>608.1423504531881</v>
+        <v>731.3620356207026</v>
       </c>
       <c r="G26" t="n">
-        <v>116.944185025905</v>
+        <v>190.4904255591154</v>
       </c>
       <c r="H26" t="n">
-        <v>0.21</v>
+        <v>0.34</v>
       </c>
       <c r="I26" t="n">
-        <v>1331636</v>
+        <v>1329050</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14674225</v>
+        <v>14663446</v>
       </c>
       <c r="F27" t="n">
-        <v>2647.720381650083</v>
+        <v>2947.559105676565</v>
       </c>
       <c r="G27" t="n">
-        <v>2861.278999845613</v>
+        <v>2216.319239946242</v>
       </c>
       <c r="H27" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
-        <v>270270</v>
+        <v>267249</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25761390</v>
+        <v>25951822</v>
       </c>
       <c r="E28" t="n">
-        <v>36412719</v>
+        <v>36681887</v>
       </c>
       <c r="F28" t="n">
-        <v>221.6705681344603</v>
+        <v>4994.790202647391</v>
       </c>
       <c r="G28" t="n">
-        <v>7387.830925360347</v>
+        <v>88.38126930393365</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.47</v>
       </c>
       <c r="I28" t="n">
-        <v>70315</v>
+        <v>71236</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>274107891</v>
+        <v>273183223</v>
       </c>
       <c r="E29" t="n">
-        <v>1183201828</v>
+        <v>1179210447</v>
       </c>
       <c r="F29" t="n">
-        <v>358410.1335795685</v>
+        <v>339556.8244386331</v>
       </c>
       <c r="G29" t="n">
-        <v>351416.5599893673</v>
+        <v>357393.154155159</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0.09</v>
       </c>
       <c r="I29" t="n">
-        <v>99978976</v>
+        <v>100152599</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11173846</v>
+        <v>11558047</v>
       </c>
       <c r="E30" t="n">
-        <v>134889362</v>
+        <v>139527396</v>
       </c>
       <c r="F30" t="n">
-        <v>2736.971009903243</v>
+        <v>1848.43356632977</v>
       </c>
       <c r="G30" t="n">
-        <v>906.222771550688</v>
+        <v>2089.860555094933</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I30" t="n">
-        <v>215595</v>
+        <v>216958</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19603975</v>
+        <v>19506534</v>
       </c>
       <c r="E31" t="n">
-        <v>49009938</v>
+        <v>48766334</v>
       </c>
       <c r="F31" t="n">
-        <v>11502.81358192853</v>
+        <v>10493.48769088458</v>
       </c>
       <c r="G31" t="n">
-        <v>10389.1055886711</v>
+        <v>8152.037504047527</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2058412</v>
+        <v>2063629</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19827300</v>
+        <v>19828895</v>
       </c>
       <c r="F32" t="n">
-        <v>2209.732292765663</v>
+        <v>2114.730162929354</v>
       </c>
       <c r="G32" t="n">
-        <v>2100.447933288271</v>
+        <v>2111.719337820215</v>
       </c>
       <c r="H32" t="n">
         <v>0.15</v>
       </c>
       <c r="I32" t="n">
-        <v>55358</v>
+        <v>56052</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1326988</v>
+        <v>1351199</v>
       </c>
       <c r="E33" t="n">
-        <v>4947356</v>
+        <v>5037619</v>
       </c>
       <c r="F33" t="n">
-        <v>4807.736590691845</v>
+        <v>2663.316379420786</v>
       </c>
       <c r="G33" t="n">
-        <v>149.8968874656921</v>
+        <v>1731.466601828981</v>
       </c>
       <c r="H33" t="n">
-        <v>0.41</v>
+        <v>0.38</v>
       </c>
       <c r="I33" t="n">
-        <v>558706</v>
+        <v>558605</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4234178</v>
+        <v>4214056</v>
       </c>
       <c r="E34" t="n">
-        <v>12196446</v>
+        <v>12138486</v>
       </c>
       <c r="F34" t="n">
-        <v>1254.680335040041</v>
+        <v>4182.237838142975</v>
       </c>
       <c r="G34" t="n">
-        <v>3287.668472428221</v>
+        <v>1163.592420510375</v>
       </c>
       <c r="H34" t="n">
-        <v>1.64</v>
+        <v>0.25</v>
       </c>
       <c r="I34" t="n">
-        <v>638105</v>
+        <v>628609</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14588417</v>
+        <v>14628790</v>
       </c>
       <c r="E35" t="n">
-        <v>70654034</v>
+        <v>70849566</v>
       </c>
       <c r="F35" t="n">
-        <v>5985.041243050281</v>
+        <v>5897.409268684957</v>
       </c>
       <c r="G35" t="n">
-        <v>7843.649618281026</v>
+        <v>8957.920059256187</v>
       </c>
       <c r="H35" t="n">
         <v>0.25</v>
       </c>
       <c r="I35" t="n">
-        <v>3806620</v>
+        <v>3809984</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1453909</v>
+        <v>1475756</v>
       </c>
       <c r="E36" t="n">
-        <v>9515798</v>
+        <v>9658780</v>
       </c>
       <c r="F36" t="n">
-        <v>4281.782440226412</v>
+        <v>4048.936858183964</v>
       </c>
       <c r="G36" t="n">
-        <v>4567.13993322877</v>
+        <v>3173.157142472142</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.21</v>
       </c>
       <c r="I36" t="n">
-        <v>692066</v>
+        <v>703428</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1928824615</v>
+        <v>1923988001</v>
       </c>
       <c r="F37" t="n">
-        <v>72039.47025795879</v>
+        <v>73557.15498934768</v>
       </c>
       <c r="G37" t="n">
-        <v>75856.87711735231</v>
+        <v>71708.46402001874</v>
       </c>
       <c r="H37" t="n">
-        <v>0.83</v>
+        <v>0.47</v>
       </c>
       <c r="I37" t="n">
-        <v>27656722</v>
+        <v>27681514</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2074582</v>
+        <v>2072626</v>
       </c>
       <c r="E38" t="n">
-        <v>14876623</v>
+        <v>14862593</v>
       </c>
       <c r="F38" t="n">
-        <v>4464.928877551602</v>
+        <v>3865.043538482561</v>
       </c>
       <c r="G38" t="n">
-        <v>5633.20795250122</v>
+        <v>5575.921192799065</v>
       </c>
       <c r="H38" t="n">
         <v>0.6</v>
       </c>
       <c r="I38" t="n">
-        <v>1982638</v>
+        <v>1982623</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>205111578</v>
+        <v>205031000</v>
       </c>
       <c r="E39" t="n">
-        <v>1161467782</v>
+        <v>1161011502</v>
       </c>
       <c r="F39" t="n">
-        <v>139765.5676924004</v>
+        <v>155015.865840261</v>
       </c>
       <c r="G39" t="n">
-        <v>176000.5068083939</v>
+        <v>164549.8650028178</v>
       </c>
       <c r="H39" t="n">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>66051862</v>
+        <v>66287529</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>143106892</v>
+        <v>143199300</v>
       </c>
       <c r="E40" t="n">
-        <v>1060051052</v>
+        <v>1060735555</v>
       </c>
       <c r="F40" t="n">
-        <v>222842.8734201156</v>
+        <v>214588.4068763593</v>
       </c>
       <c r="G40" t="n">
-        <v>205276.9959191633</v>
+        <v>208443.5289920244</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8686430</v>
+        <v>8580936</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>345920874</v>
+        <v>344882920</v>
       </c>
       <c r="E41" t="n">
-        <v>3112118682</v>
+        <v>3102780603</v>
       </c>
       <c r="F41" t="n">
-        <v>187221.5018172881</v>
+        <v>198732.063211382</v>
       </c>
       <c r="G41" t="n">
-        <v>182906.1313708791</v>
+        <v>195222.8994191509</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I41" t="n">
-        <v>39725624</v>
+        <v>41362033</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1577438</v>
+        <v>1577592</v>
       </c>
       <c r="E42" t="n">
-        <v>13145320</v>
+        <v>13146599</v>
       </c>
       <c r="F42" t="n">
-        <v>3788.85707548622</v>
+        <v>4244.095515379102</v>
       </c>
       <c r="G42" t="n">
-        <v>7052.253324852182</v>
+        <v>6244.936578037089</v>
       </c>
       <c r="H42" t="n">
-        <v>0.38</v>
+        <v>0.46</v>
       </c>
       <c r="I42" t="n">
-        <v>38382</v>
+        <v>36464</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22683595</v>
+        <v>22695418</v>
       </c>
       <c r="E43" t="n">
-        <v>67994987</v>
+        <v>68030427</v>
       </c>
       <c r="F43" t="n">
-        <v>57151.30096854368</v>
+        <v>53892.58094781022</v>
       </c>
       <c r="G43" t="n">
-        <v>59746.54991521458</v>
+        <v>57378.55497939029</v>
       </c>
       <c r="H43" t="n">
-        <v>0.18</v>
+        <v>0.28</v>
       </c>
       <c r="I43" t="n">
-        <v>3387173</v>
+        <v>3397369</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9474588</v>
+        <v>9454921</v>
       </c>
       <c r="F44" t="n">
-        <v>5770.389913812943</v>
+        <v>5744.354816386784</v>
       </c>
       <c r="G44" t="n">
-        <v>6023.460726629967</v>
+        <v>6021.953317893557</v>
       </c>
       <c r="H44" t="n">
         <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>98550</v>
+        <v>98507</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13255840</v>
+        <v>13259000</v>
       </c>
       <c r="E45" t="n">
-        <v>13255840</v>
+        <v>13259000</v>
       </c>
       <c r="F45" t="n">
-        <v>1137.291341957954</v>
+        <v>400.8944192568706</v>
       </c>
       <c r="G45" t="n">
-        <v>716.9090116108008</v>
+        <v>1348.597463450966</v>
       </c>
       <c r="H45" t="n">
-        <v>1.05</v>
+        <v>1.49</v>
       </c>
       <c r="I45" t="n">
-        <v>3685309</v>
+        <v>3738235</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>313833060</v>
+        <v>311922498</v>
       </c>
       <c r="E46" t="n">
-        <v>313833060</v>
+        <v>311922498</v>
       </c>
       <c r="F46" t="n">
-        <v>40829.19189310588</v>
+        <v>43383.38750977561</v>
       </c>
       <c r="G46" t="n">
-        <v>39741.0098064455</v>
+        <v>39223.69712157733</v>
       </c>
       <c r="H46" t="n">
         <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>15010408</v>
+        <v>14999366</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12745036</v>
+        <v>12755018</v>
       </c>
       <c r="E47" t="n">
-        <v>40320686</v>
+        <v>40352265</v>
       </c>
       <c r="F47" t="n">
-        <v>15064.57332278515</v>
+        <v>12542.1287053202</v>
       </c>
       <c r="G47" t="n">
-        <v>7514.796046174567</v>
+        <v>10012.60868617699</v>
       </c>
       <c r="H47" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="I47" t="n">
-        <v>1090147</v>
+        <v>1040439</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32121594</v>
+        <v>32074296</v>
       </c>
       <c r="E48" t="n">
-        <v>88973627</v>
+        <v>88842618</v>
       </c>
       <c r="F48" t="n">
-        <v>4157.006368146687</v>
+        <v>3645.860029530995</v>
       </c>
       <c r="G48" t="n">
-        <v>7319.523732223327</v>
+        <v>8000.693235958255</v>
       </c>
       <c r="H48" t="n">
-        <v>0.14</v>
+        <v>0.22</v>
       </c>
       <c r="I48" t="n">
-        <v>12107671</v>
+        <v>12042559</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28354107</v>
+        <v>28341712</v>
       </c>
       <c r="E49" t="n">
-        <v>67362307</v>
+        <v>67332862</v>
       </c>
       <c r="F49" t="n">
-        <v>19179.27296649065</v>
+        <v>18476.82351686838</v>
       </c>
       <c r="G49" t="n">
-        <v>17487.56894659395</v>
+        <v>17461.81905852599</v>
       </c>
       <c r="H49" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>402187</v>
+        <v>401469</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12718354</v>
+        <v>12716039</v>
       </c>
       <c r="E50" t="n">
-        <v>19360203</v>
+        <v>19356679</v>
       </c>
       <c r="F50" t="n">
-        <v>6641.48196968732</v>
+        <v>6393.230442377325</v>
       </c>
       <c r="G50" t="n">
-        <v>3606.670026127732</v>
+        <v>3776.028827581899</v>
       </c>
       <c r="H50" t="n">
-        <v>0.64</v>
+        <v>0.55</v>
       </c>
       <c r="I50" t="n">
-        <v>775848</v>
+        <v>770848</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>295827939</v>
+        <v>297240779</v>
       </c>
       <c r="E51" t="n">
-        <v>295827939</v>
+        <v>297240779</v>
       </c>
       <c r="F51" t="n">
-        <v>82367.72874228998</v>
+        <v>61391.73661374475</v>
       </c>
       <c r="G51" t="n">
-        <v>98472.2595866014</v>
+        <v>116442.6871690747</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>76400836</v>
+        <v>76666911</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>91534952</v>
+        <v>91660065</v>
       </c>
       <c r="E52" t="n">
-        <v>527463872</v>
+        <v>528184830</v>
       </c>
       <c r="F52" t="n">
-        <v>300918.2483071585</v>
+        <v>315068.5425936255</v>
       </c>
       <c r="G52" t="n">
-        <v>192855.0155034123</v>
+        <v>236264.3313105026</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I52" t="n">
-        <v>17029701</v>
+        <v>17033003</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30856432</v>
+        <v>30894728</v>
       </c>
       <c r="E53" t="n">
-        <v>138156906</v>
+        <v>138328371</v>
       </c>
       <c r="F53" t="n">
-        <v>36952.30920942612</v>
+        <v>31621.85486788181</v>
       </c>
       <c r="G53" t="n">
-        <v>50097.78143065288</v>
+        <v>50250.62118227201</v>
       </c>
       <c r="H53" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I53" t="n">
-        <v>8604478</v>
+        <v>8591252</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9085671</v>
+        <v>9085007</v>
       </c>
       <c r="F54" t="n">
-        <v>2592.923946292298</v>
+        <v>2599.671317793813</v>
       </c>
       <c r="G54" t="n">
-        <v>4669.32147165709</v>
+        <v>4880.067148354843</v>
       </c>
       <c r="H54" t="n">
-        <v>0.76</v>
+        <v>0.44</v>
       </c>
       <c r="I54" t="n">
-        <v>304256</v>
+        <v>273466</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4762991</v>
+        <v>4789581</v>
       </c>
       <c r="F55" t="n">
-        <v>4435.298783628874</v>
+        <v>2435.479185870989</v>
       </c>
       <c r="G55" t="n">
-        <v>943.5371195444728</v>
+        <v>1368.177323336994</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="I55" t="n">
-        <v>199189</v>
+        <v>199406</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125572471</v>
+        <v>125420326</v>
       </c>
       <c r="E56" t="n">
-        <v>2079582964</v>
+        <v>2077063316</v>
       </c>
       <c r="F56" t="n">
-        <v>186933.7095726774</v>
+        <v>183609.0110025896</v>
       </c>
       <c r="G56" t="n">
-        <v>176021.6004752364</v>
+        <v>174581.4379300849</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4705866</v>
+        <v>4691543</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>98049841</v>
+        <v>96192430</v>
       </c>
       <c r="E57" t="n">
-        <v>99105282</v>
+        <v>97227877</v>
       </c>
       <c r="F57" t="n">
-        <v>38153.31023632949</v>
+        <v>35212.45586377263</v>
       </c>
       <c r="G57" t="n">
-        <v>65496.50310899874</v>
+        <v>69516.67779411763</v>
       </c>
       <c r="H57" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="I57" t="n">
-        <v>38647602</v>
+        <v>38514123</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241426790</v>
+        <v>241703472</v>
       </c>
       <c r="E58" t="n">
-        <v>241426790</v>
+        <v>241703472</v>
       </c>
       <c r="F58" t="n">
-        <v>81618.28737510508</v>
+        <v>83688.39063189743</v>
       </c>
       <c r="G58" t="n">
-        <v>106974.7392004696</v>
+        <v>115421.7243141488</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="I58" t="n">
-        <v>46801110</v>
+        <v>47160019</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24660936</v>
+        <v>24675162</v>
       </c>
       <c r="E59" t="n">
-        <v>147551335</v>
+        <v>147636456</v>
       </c>
       <c r="F59" t="n">
-        <v>71442.47075727239</v>
+        <v>57950.54741935812</v>
       </c>
       <c r="G59" t="n">
-        <v>68865.96722692854</v>
+        <v>68639.08176207278</v>
       </c>
       <c r="H59" t="n">
         <v>0.14</v>
       </c>
       <c r="I59" t="n">
-        <v>12438277</v>
+        <v>12486155</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2410514</v>
+        <v>2412757</v>
       </c>
       <c r="E60" t="n">
-        <v>4448740</v>
+        <v>4452880</v>
       </c>
       <c r="F60" t="n">
-        <v>3943.466722541481</v>
+        <v>3908.677899344674</v>
       </c>
       <c r="G60" t="n">
-        <v>2017.491369130569</v>
+        <v>2014.904938549354</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>23388</v>
+        <v>23408</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11338087</v>
+        <v>11526351</v>
       </c>
       <c r="E62" t="n">
-        <v>33640856</v>
+        <v>34199446</v>
       </c>
       <c r="F62" t="n">
-        <v>3795.971935808178</v>
+        <v>3208.291168559988</v>
       </c>
       <c r="G62" t="n">
-        <v>2948.78074842511</v>
+        <v>3408.73519119103</v>
       </c>
       <c r="H62" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>7196446</v>
+        <v>7263197</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14592514</v>
+        <v>14584142</v>
       </c>
       <c r="E63" t="n">
-        <v>29541653</v>
+        <v>29524705</v>
       </c>
       <c r="F63" t="n">
-        <v>6242.993089464999</v>
+        <v>6301.443459072512</v>
       </c>
       <c r="G63" t="n">
-        <v>12261.95511259827</v>
+        <v>10995.10056903458</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>572905</v>
+        <v>571237</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>39044876</v>
+        <v>39071770</v>
       </c>
       <c r="E64" t="n">
-        <v>276821800</v>
+        <v>277012473</v>
       </c>
       <c r="F64" t="n">
-        <v>42488.58826174324</v>
+        <v>83727.28658882792</v>
       </c>
       <c r="G64" t="n">
-        <v>52088.25999423518</v>
+        <v>64681.15016766264</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1615216</v>
+        <v>1614080</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1276433</v>
+        <v>1275560</v>
       </c>
       <c r="E65" t="n">
-        <v>7915195</v>
+        <v>7909780</v>
       </c>
       <c r="F65" t="n">
-        <v>2071.118223631764</v>
+        <v>2062.15344157958</v>
       </c>
       <c r="G65" t="n">
-        <v>1974.170617528927</v>
+        <v>1980.06288065007</v>
       </c>
       <c r="H65" t="n">
         <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>781655</v>
+        <v>779876</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>609553598</v>
+        <v>609620370</v>
       </c>
       <c r="E66" t="n">
-        <v>2360711150</v>
+        <v>2360969751</v>
       </c>
       <c r="F66" t="n">
-        <v>145459.0821403028</v>
+        <v>150467.184226371</v>
       </c>
       <c r="G66" t="n">
-        <v>148221.8975717658</v>
+        <v>157748.993144695</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>32892507</v>
+        <v>32718709</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5889243</v>
+        <v>5889114</v>
       </c>
       <c r="E67" t="n">
-        <v>26362777</v>
+        <v>26362200</v>
       </c>
       <c r="F67" t="n">
-        <v>2118.048234692099</v>
+        <v>4911.668209986734</v>
       </c>
       <c r="G67" t="n">
-        <v>1438.624596670619</v>
+        <v>4124.60775387115</v>
       </c>
       <c r="H67" t="n">
-        <v>0.23</v>
+        <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>151535</v>
+        <v>151307</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>123296876</v>
+        <v>123145155</v>
       </c>
       <c r="E68" t="n">
-        <v>1071990560</v>
+        <v>1070671433</v>
       </c>
       <c r="F68" t="n">
-        <v>161448.9195075789</v>
+        <v>161189.8084343901</v>
       </c>
       <c r="G68" t="n">
-        <v>158467.9401556884</v>
+        <v>157641.6673636114</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I68" t="n">
-        <v>9147020</v>
+        <v>9267843</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>113954732</v>
+        <v>114058218</v>
       </c>
       <c r="E69" t="n">
-        <v>173840614</v>
+        <v>173998485</v>
       </c>
       <c r="F69" t="n">
-        <v>51380.07738671365</v>
+        <v>55711.20872882577</v>
       </c>
       <c r="G69" t="n">
-        <v>82162.87520348775</v>
+        <v>89204.33772449259</v>
       </c>
       <c r="H69" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="I69" t="n">
-        <v>7901857</v>
+        <v>7904582</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1139771</v>
+        <v>1137420</v>
       </c>
       <c r="E70" t="n">
-        <v>4413441</v>
+        <v>4404340</v>
       </c>
       <c r="F70" t="n">
-        <v>3795.474954834665</v>
+        <v>3541.727302562613</v>
       </c>
       <c r="G70" t="n">
-        <v>2222.302479454147</v>
+        <v>2316.337296553327</v>
       </c>
       <c r="H70" t="n">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="I70" t="n">
-        <v>371587</v>
+        <v>368495</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122504302</v>
+        <v>122910131</v>
       </c>
       <c r="E71" t="n">
-        <v>469946219</v>
+        <v>471503045</v>
       </c>
       <c r="F71" t="n">
-        <v>157058.7157324928</v>
+        <v>146578.0908281287</v>
       </c>
       <c r="G71" t="n">
-        <v>164684.1244023097</v>
+        <v>163678.8928865911</v>
       </c>
       <c r="H71" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I71" t="n">
-        <v>30633804</v>
+        <v>30566886</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3187853</v>
+        <v>3197754</v>
       </c>
       <c r="E72" t="n">
-        <v>30205383</v>
+        <v>30299193</v>
       </c>
       <c r="F72" t="n">
-        <v>4811.838275882962</v>
+        <v>4666.291139761702</v>
       </c>
       <c r="G72" t="n">
-        <v>3725.652579229996</v>
+        <v>4108.906633215118</v>
       </c>
       <c r="H72" t="n">
-        <v>0.26</v>
+        <v>0.23</v>
       </c>
       <c r="I72" t="n">
-        <v>213202</v>
+        <v>213318</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>31764167</v>
+        <v>32095267</v>
       </c>
       <c r="F73" t="n">
-        <v>4874.023316216459</v>
+        <v>5519.001416732297</v>
       </c>
       <c r="G73" t="n">
-        <v>2873.907670544481</v>
+        <v>5834.310518030236</v>
       </c>
       <c r="H73" t="n">
-        <v>0.02</v>
+        <v>0.15</v>
       </c>
       <c r="I73" t="n">
-        <v>5353088</v>
+        <v>5404250</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88988696</v>
+        <v>88990719</v>
       </c>
       <c r="E74" t="n">
-        <v>328952841</v>
+        <v>328960320</v>
       </c>
       <c r="F74" t="n">
-        <v>8319.541237137291</v>
+        <v>8545.534141764916</v>
       </c>
       <c r="G74" t="n">
-        <v>693.5675022500097</v>
+        <v>485.8952210626096</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I74" t="n">
-        <v>239402</v>
+        <v>235897</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23489394</v>
+        <v>23489271</v>
       </c>
       <c r="E75" t="n">
-        <v>23489394</v>
+        <v>23489271</v>
       </c>
       <c r="F75" t="n">
-        <v>21044.58827742335</v>
+        <v>29483.79340857415</v>
       </c>
       <c r="G75" t="n">
-        <v>24014.08339464125</v>
+        <v>20746.66112609731</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="I75" t="n">
-        <v>5692712</v>
+        <v>5672205</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>498330311</v>
+        <v>498022145</v>
       </c>
       <c r="E76" t="n">
-        <v>1734646339</v>
+        <v>1733573641</v>
       </c>
       <c r="F76" t="n">
-        <v>199754.156321382</v>
+        <v>201193.5866178873</v>
       </c>
       <c r="G76" t="n">
-        <v>219208.5245698498</v>
+        <v>220210.021889816</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30884985</v>
+        <v>30657749</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5780298660</v>
+        <v>5775077357</v>
       </c>
       <c r="E77" t="n">
-        <v>5780298660</v>
+        <v>5775077357</v>
       </c>
       <c r="F77" t="n">
-        <v>10299.93661696482</v>
+        <v>10272.62117222114</v>
       </c>
       <c r="G77" t="n">
-        <v>95324.4266346317</v>
+        <v>95071.62613640605</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>10091485</v>
+        <v>10109256</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7512808</v>
+        <v>7493542</v>
       </c>
       <c r="E78" t="n">
-        <v>19517466</v>
+        <v>19467417</v>
       </c>
       <c r="F78" t="n">
-        <v>2679.477421900549</v>
+        <v>2706.248692105212</v>
       </c>
       <c r="G78" t="n">
-        <v>3327.401933250464</v>
+        <v>3205.015460518369</v>
       </c>
       <c r="H78" t="n">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="I78" t="n">
-        <v>713853</v>
+        <v>716943</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>104905360</v>
+        <v>105150441</v>
       </c>
       <c r="E79" t="n">
-        <v>158943741</v>
+        <v>159315068</v>
       </c>
       <c r="F79" t="n">
-        <v>37378.43299342302</v>
+        <v>26789.18542407533</v>
       </c>
       <c r="G79" t="n">
-        <v>46078.92382848616</v>
+        <v>41592.38963535295</v>
       </c>
       <c r="H79" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I79" t="n">
-        <v>7663642</v>
+        <v>7672059</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2631551</v>
+        <v>2636303</v>
       </c>
       <c r="E80" t="n">
-        <v>10526205</v>
+        <v>10545214</v>
       </c>
       <c r="F80" t="n">
-        <v>79329.2435999962</v>
+        <v>72732.97586554862</v>
       </c>
       <c r="G80" t="n">
-        <v>9524.756548674462</v>
+        <v>12507.81776805414</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.28</v>
       </c>
       <c r="I80" t="n">
-        <v>6861652</v>
+        <v>6862805</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2540073</v>
+        <v>2530724</v>
       </c>
       <c r="F81" t="n">
-        <v>1753.187895238774</v>
+        <v>2235.084594981312</v>
       </c>
       <c r="G81" t="n">
-        <v>581.8729577520508</v>
+        <v>601.1428350506407</v>
       </c>
       <c r="H81" t="n">
-        <v>0.12</v>
+        <v>0.32</v>
       </c>
       <c r="I81" t="n">
-        <v>305961</v>
+        <v>298490</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>405193101</v>
+        <v>404862593</v>
       </c>
       <c r="E82" t="n">
-        <v>2315389147</v>
+        <v>2313500532</v>
       </c>
       <c r="F82" t="n">
-        <v>88441.04438785838</v>
+        <v>150648.749004882</v>
       </c>
       <c r="G82" t="n">
-        <v>180034.430912589</v>
+        <v>198500.6486796478</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>39301244</v>
+        <v>39252199</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3980094</v>
+        <v>4144395</v>
       </c>
       <c r="F2" t="n">
-        <v>447.8166181823703</v>
+        <v>534.1279477343298</v>
       </c>
       <c r="G2" t="n">
-        <v>455.8895450683098</v>
+        <v>348.647334238437</v>
       </c>
       <c r="H2" t="n">
-        <v>0.55</v>
+        <v>0.82</v>
       </c>
       <c r="I2" t="n">
-        <v>139915</v>
+        <v>143643</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1346634</v>
+        <v>1388402</v>
       </c>
       <c r="E3" t="n">
-        <v>4352873</v>
+        <v>4487884</v>
       </c>
       <c r="F3" t="n">
-        <v>673.7512650244913</v>
+        <v>2061.495873419495</v>
       </c>
       <c r="G3" t="n">
-        <v>5992.898531180903</v>
+        <v>8667.112716028396</v>
       </c>
       <c r="H3" t="n">
-        <v>0.55</v>
+        <v>0.25</v>
       </c>
       <c r="I3" t="n">
-        <v>124230</v>
+        <v>141450</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248630681</v>
+        <v>248159727</v>
       </c>
       <c r="E4" t="n">
-        <v>1559128054</v>
+        <v>1556174769</v>
       </c>
       <c r="F4" t="n">
-        <v>232590.962243115</v>
+        <v>239890.6484968015</v>
       </c>
       <c r="G4" t="n">
-        <v>222831.9311060192</v>
+        <v>266511.4224675128</v>
       </c>
       <c r="H4" t="n">
         <v>0.11</v>
       </c>
       <c r="I4" t="n">
-        <v>17467361</v>
+        <v>17525031</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>147105454</v>
+        <v>148007181</v>
       </c>
       <c r="E5" t="n">
-        <v>163015833</v>
+        <v>164015087</v>
       </c>
       <c r="F5" t="n">
-        <v>89199.31743860373</v>
+        <v>86257.21576870908</v>
       </c>
       <c r="G5" t="n">
-        <v>85772.42975578253</v>
+        <v>104239.7360996301</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>37341173</v>
+        <v>38004984</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127398218</v>
+        <v>126798516</v>
       </c>
       <c r="E6" t="n">
-        <v>499362869</v>
+        <v>497012218</v>
       </c>
       <c r="F6" t="n">
-        <v>28217.27065747969</v>
+        <v>15895.83236926747</v>
       </c>
       <c r="G6" t="n">
-        <v>42190.3367885299</v>
+        <v>48750.03382727165</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I6" t="n">
-        <v>29592103</v>
+        <v>29597807</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4575535</v>
+        <v>4559286</v>
       </c>
       <c r="E7" t="n">
-        <v>28104243</v>
+        <v>28004437</v>
       </c>
       <c r="F7" t="n">
-        <v>3085.455682916507</v>
+        <v>2823.049185412134</v>
       </c>
       <c r="G7" t="n">
-        <v>1308.373331358011</v>
+        <v>2342.774142501135</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>650119</v>
+        <v>664459</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>197974</v>
+        <v>198440</v>
       </c>
       <c r="E8" t="n">
-        <v>2177927</v>
+        <v>2183061</v>
       </c>
       <c r="F8" t="n">
-        <v>3913.669440202041</v>
+        <v>3879.18545040968</v>
       </c>
       <c r="G8" t="n">
-        <v>5457.656719868211</v>
+        <v>4387.98918291452</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>27311</v>
+        <v>27644</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71674630</v>
+        <v>71645885</v>
       </c>
       <c r="E9" t="n">
-        <v>124121679</v>
+        <v>124070419</v>
       </c>
       <c r="F9" t="n">
-        <v>4471.924188780824</v>
+        <v>9707.156140087312</v>
       </c>
       <c r="G9" t="n">
-        <v>9220.851225915019</v>
+        <v>11871.37344548953</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>756277</v>
+        <v>781206</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8828562</v>
+        <v>8836955</v>
       </c>
       <c r="E10" t="n">
-        <v>12496173</v>
+        <v>12508053</v>
       </c>
       <c r="F10" t="n">
-        <v>4263.626708042607</v>
+        <v>4262.635715376</v>
       </c>
       <c r="G10" t="n">
-        <v>4384.959245462949</v>
+        <v>4385.183881406597</v>
       </c>
       <c r="H10" t="n">
         <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>69466</v>
+        <v>69493</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>478575805</v>
+        <v>477067537</v>
       </c>
       <c r="E11" t="n">
-        <v>478575809</v>
+        <v>477067542</v>
       </c>
       <c r="F11" t="n">
-        <v>36193.67091369174</v>
+        <v>36342.58506161578</v>
       </c>
       <c r="G11" t="n">
-        <v>68712.03205968731</v>
+        <v>79207.02328374641</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>81842648</v>
+        <v>65342334</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>314983</v>
+        <v>312885</v>
       </c>
       <c r="E12" t="n">
-        <v>1470372</v>
+        <v>1460581</v>
       </c>
       <c r="F12" t="n">
-        <v>1638.631633276478</v>
+        <v>1491.606040594125</v>
       </c>
       <c r="G12" t="n">
-        <v>1072.961591063137</v>
+        <v>2575.551198874955</v>
       </c>
       <c r="H12" t="n">
-        <v>0.46</v>
+        <v>0.53</v>
       </c>
       <c r="I12" t="n">
-        <v>700626</v>
+        <v>709365</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1509144</v>
+        <v>1490548</v>
       </c>
       <c r="F13" t="n">
-        <v>4675.545456788985</v>
+        <v>4916.568158576828</v>
       </c>
       <c r="G13" t="n">
-        <v>2064.594447307785</v>
+        <v>523.5275975600337</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>289098</v>
+        <v>294137</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12769771</v>
+        <v>12774097</v>
       </c>
       <c r="E14" t="n">
-        <v>31781649</v>
+        <v>31792417</v>
       </c>
       <c r="F14" t="n">
-        <v>470.8725952561431</v>
+        <v>571.8028364272463</v>
       </c>
       <c r="G14" t="n">
-        <v>786.8391587410921</v>
+        <v>945.3499804777307</v>
       </c>
       <c r="H14" t="n">
-        <v>0.31</v>
+        <v>0.41</v>
       </c>
       <c r="I14" t="n">
-        <v>1235285</v>
+        <v>1235931</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115983348</v>
+        <v>116401282</v>
       </c>
       <c r="E15" t="n">
-        <v>451208846</v>
+        <v>452811162</v>
       </c>
       <c r="F15" t="n">
-        <v>38769.94508533065</v>
+        <v>46576.9171308787</v>
       </c>
       <c r="G15" t="n">
-        <v>103460.7352904294</v>
+        <v>104534.3196472249</v>
       </c>
       <c r="H15" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I15" t="n">
-        <v>9392454</v>
+        <v>9213449</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5176626</v>
+        <v>5408048</v>
       </c>
       <c r="E16" t="n">
-        <v>7620274</v>
+        <v>7960940</v>
       </c>
       <c r="F16" t="n">
-        <v>1020.50907226576</v>
+        <v>4042.627503404992</v>
       </c>
       <c r="G16" t="n">
-        <v>507.022783000445</v>
+        <v>3088.852411391762</v>
       </c>
       <c r="H16" t="n">
-        <v>0.51</v>
+        <v>0.64</v>
       </c>
       <c r="I16" t="n">
-        <v>608277</v>
+        <v>667771</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2124231</v>
+        <v>2098895</v>
       </c>
       <c r="F17" t="n">
-        <v>274.1460271508055</v>
+        <v>586.7308113244208</v>
       </c>
       <c r="G17" t="n">
-        <v>81.74838959051901</v>
+        <v>87.66799967626231</v>
       </c>
       <c r="H17" t="n">
-        <v>0.19</v>
+        <v>0.87</v>
       </c>
       <c r="I17" t="n">
-        <v>143768</v>
+        <v>136884</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>139697662</v>
+        <v>141237115</v>
       </c>
       <c r="E18" t="n">
-        <v>139697662</v>
+        <v>141237115</v>
       </c>
       <c r="F18" t="n">
-        <v>95139.2829039201</v>
+        <v>126961.8489406702</v>
       </c>
       <c r="G18" t="n">
-        <v>151153.8664522553</v>
+        <v>134115.8941139226</v>
       </c>
       <c r="H18" t="n">
         <v>0.1</v>
       </c>
       <c r="I18" t="n">
-        <v>68133880</v>
+        <v>68952078</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67046338</v>
+        <v>67768648</v>
       </c>
       <c r="E19" t="n">
-        <v>343827377</v>
+        <v>347531526</v>
       </c>
       <c r="F19" t="n">
-        <v>17713.443456865</v>
+        <v>17415.10300661599</v>
       </c>
       <c r="G19" t="n">
-        <v>14032.09021023689</v>
+        <v>18353.9872266599</v>
       </c>
       <c r="H19" t="n">
         <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>22214304</v>
+        <v>24299761</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>257684251</v>
+        <v>260704132</v>
       </c>
       <c r="E20" t="n">
-        <v>257684251</v>
+        <v>260704132</v>
       </c>
       <c r="F20" t="n">
-        <v>72909.64672417029</v>
+        <v>61509.930701349</v>
       </c>
       <c r="G20" t="n">
-        <v>79916.87378668309</v>
+        <v>97884.10373166815</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14349667</v>
+        <v>14780532</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>165367165</v>
+        <v>174571797</v>
       </c>
       <c r="E21" t="n">
-        <v>217603849</v>
+        <v>229716068</v>
       </c>
       <c r="F21" t="n">
-        <v>24721.44387583114</v>
+        <v>4376.212402609811</v>
       </c>
       <c r="G21" t="n">
-        <v>25723.41486778934</v>
+        <v>11502.66950775857</v>
       </c>
       <c r="H21" t="n">
-        <v>0.29</v>
+        <v>0.21</v>
       </c>
       <c r="I21" t="n">
-        <v>8188408</v>
+        <v>9196319</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82741185</v>
+        <v>83401487</v>
       </c>
       <c r="E22" t="n">
-        <v>231524960</v>
+        <v>233311748</v>
       </c>
       <c r="F22" t="n">
-        <v>29593.38174757747</v>
+        <v>26001.92160714244</v>
       </c>
       <c r="G22" t="n">
-        <v>31624.9209686132</v>
+        <v>56723.95548142512</v>
       </c>
       <c r="H22" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>44470920</v>
+        <v>43346325</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78638697</v>
+        <v>78324790</v>
       </c>
       <c r="E23" t="n">
-        <v>164001619</v>
+        <v>163346963</v>
       </c>
       <c r="F23" t="n">
-        <v>19395.76880458725</v>
+        <v>22302.90355918735</v>
       </c>
       <c r="G23" t="n">
-        <v>31149.39529880218</v>
+        <v>45376.40891196201</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I23" t="n">
-        <v>17680245</v>
+        <v>18522508</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>653743509</v>
+        <v>652221626</v>
       </c>
       <c r="E24" t="n">
-        <v>653743509</v>
+        <v>652221626</v>
       </c>
       <c r="F24" t="n">
-        <v>209843.6638356027</v>
+        <v>213933.087343798</v>
       </c>
       <c r="G24" t="n">
-        <v>252879.4323013656</v>
+        <v>256871.8165285405</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>310636391</v>
+        <v>311893131</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>205280170</v>
+        <v>208697473</v>
       </c>
       <c r="E25" t="n">
-        <v>713161862</v>
+        <v>725033883</v>
       </c>
       <c r="F25" t="n">
-        <v>96350.31477861393</v>
+        <v>96851.33574208156</v>
       </c>
       <c r="G25" t="n">
-        <v>351166.7545632244</v>
+        <v>357639.1325373951</v>
       </c>
       <c r="H25" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>27954999</v>
+        <v>29159420</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5817822</v>
+        <v>5776994</v>
       </c>
       <c r="E26" t="n">
-        <v>7903838</v>
+        <v>7848371</v>
       </c>
       <c r="F26" t="n">
-        <v>731.3620356207026</v>
+        <v>1662.570069437413</v>
       </c>
       <c r="G26" t="n">
-        <v>190.4904255591154</v>
+        <v>334.3859735494277</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>1329050</v>
+        <v>5617114</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14663446</v>
+        <v>15016103</v>
       </c>
       <c r="F27" t="n">
-        <v>2947.559105676565</v>
+        <v>3185.150744213048</v>
       </c>
       <c r="G27" t="n">
-        <v>2216.319239946242</v>
+        <v>1652.279568617003</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
       <c r="I27" t="n">
-        <v>267249</v>
+        <v>267657</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>25951822</v>
+        <v>26134088</v>
       </c>
       <c r="E28" t="n">
-        <v>36681887</v>
+        <v>36939513</v>
       </c>
       <c r="F28" t="n">
-        <v>4994.790202647391</v>
+        <v>87.54893727322735</v>
       </c>
       <c r="G28" t="n">
-        <v>88.38126930393365</v>
+        <v>3425.972295907693</v>
       </c>
       <c r="H28" t="n">
-        <v>0.47</v>
+        <v>0.02</v>
       </c>
       <c r="I28" t="n">
-        <v>71236</v>
+        <v>58769</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>273183223</v>
+        <v>271729384</v>
       </c>
       <c r="E29" t="n">
-        <v>1179210447</v>
+        <v>1172934869</v>
       </c>
       <c r="F29" t="n">
-        <v>339556.8244386331</v>
+        <v>350770.3764811035</v>
       </c>
       <c r="G29" t="n">
-        <v>357393.154155159</v>
+        <v>378518.4472165045</v>
       </c>
       <c r="H29" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>100152599</v>
+        <v>100816198</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11558047</v>
+        <v>11344035</v>
       </c>
       <c r="E30" t="n">
-        <v>139527396</v>
+        <v>136943862</v>
       </c>
       <c r="F30" t="n">
-        <v>1848.43356632977</v>
+        <v>1819.244910029547</v>
       </c>
       <c r="G30" t="n">
-        <v>2089.860555094933</v>
+        <v>1808.602184920599</v>
       </c>
       <c r="H30" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="I30" t="n">
-        <v>216958</v>
+        <v>241199</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19506534</v>
+        <v>19324164</v>
       </c>
       <c r="E31" t="n">
-        <v>48766334</v>
+        <v>48310410</v>
       </c>
       <c r="F31" t="n">
-        <v>10493.48769088458</v>
+        <v>10965.16031812029</v>
       </c>
       <c r="G31" t="n">
-        <v>8152.037504047527</v>
+        <v>12876.69199231386</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2063629</v>
+        <v>2042958</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19828895</v>
+        <v>19761084</v>
       </c>
       <c r="F32" t="n">
-        <v>2114.730162929354</v>
+        <v>2474.899940521809</v>
       </c>
       <c r="G32" t="n">
-        <v>2111.719337820215</v>
+        <v>2638.865794593176</v>
       </c>
       <c r="H32" t="n">
-        <v>0.15</v>
+        <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>56052</v>
+        <v>52377</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1351199</v>
+        <v>1344971</v>
       </c>
       <c r="E33" t="n">
-        <v>5037619</v>
+        <v>5014401</v>
       </c>
       <c r="F33" t="n">
-        <v>2663.316379420786</v>
+        <v>1271.319661242288</v>
       </c>
       <c r="G33" t="n">
-        <v>1731.466601828981</v>
+        <v>2213.728071673463</v>
       </c>
       <c r="H33" t="n">
-        <v>0.38</v>
+        <v>0.24</v>
       </c>
       <c r="I33" t="n">
-        <v>558605</v>
+        <v>577297</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4214056</v>
+        <v>4288918</v>
       </c>
       <c r="E34" t="n">
-        <v>12138486</v>
+        <v>12354124</v>
       </c>
       <c r="F34" t="n">
-        <v>4182.237838142975</v>
+        <v>244.8970331650791</v>
       </c>
       <c r="G34" t="n">
-        <v>1163.592420510375</v>
+        <v>553.1209296658212</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0.64</v>
       </c>
       <c r="I34" t="n">
-        <v>628609</v>
+        <v>618418</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14628790</v>
+        <v>14899706</v>
       </c>
       <c r="E35" t="n">
-        <v>70849566</v>
+        <v>72161652</v>
       </c>
       <c r="F35" t="n">
-        <v>5897.409268684957</v>
+        <v>11474.53833714772</v>
       </c>
       <c r="G35" t="n">
-        <v>8957.920059256187</v>
+        <v>14143.80729877203</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="I35" t="n">
-        <v>3809984</v>
+        <v>3927784</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1475756</v>
+        <v>1444810</v>
       </c>
       <c r="E36" t="n">
-        <v>9658780</v>
+        <v>9456245</v>
       </c>
       <c r="F36" t="n">
-        <v>4048.936858183964</v>
+        <v>3809.27092999866</v>
       </c>
       <c r="G36" t="n">
-        <v>3173.157142472142</v>
+        <v>3976.976537761155</v>
       </c>
       <c r="H36" t="n">
-        <v>0.21</v>
+        <v>0.42</v>
       </c>
       <c r="I36" t="n">
-        <v>703428</v>
+        <v>713167</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1923988001</v>
+        <v>1924639047</v>
       </c>
       <c r="F37" t="n">
-        <v>73557.15498934768</v>
+        <v>66846.87002034989</v>
       </c>
       <c r="G37" t="n">
-        <v>71708.46402001874</v>
+        <v>76347.82389665789</v>
       </c>
       <c r="H37" t="n">
-        <v>0.47</v>
+        <v>0.57</v>
       </c>
       <c r="I37" t="n">
-        <v>27681514</v>
+        <v>27659041</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2072626</v>
+        <v>2010049</v>
       </c>
       <c r="E38" t="n">
-        <v>14862593</v>
+        <v>14413859</v>
       </c>
       <c r="F38" t="n">
-        <v>3865.043538482561</v>
+        <v>357.4078117851781</v>
       </c>
       <c r="G38" t="n">
-        <v>5575.921192799065</v>
+        <v>176.2334474087696</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6</v>
+        <v>1.09</v>
       </c>
       <c r="I38" t="n">
-        <v>1982623</v>
+        <v>618264</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>205031000</v>
+        <v>205512833</v>
       </c>
       <c r="E39" t="n">
-        <v>1161011502</v>
+        <v>1163739937</v>
       </c>
       <c r="F39" t="n">
-        <v>155015.865840261</v>
+        <v>167860.1650277984</v>
       </c>
       <c r="G39" t="n">
-        <v>164549.8650028178</v>
+        <v>167150.7027558963</v>
       </c>
       <c r="H39" t="n">
         <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>66287529</v>
+        <v>67386208</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>143199300</v>
+        <v>143265915</v>
       </c>
       <c r="E40" t="n">
-        <v>1060735555</v>
+        <v>1061229002</v>
       </c>
       <c r="F40" t="n">
-        <v>214588.4068763593</v>
+        <v>228111.7084189017</v>
       </c>
       <c r="G40" t="n">
-        <v>208443.5289920244</v>
+        <v>186364.780383244</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8580936</v>
+        <v>8477529</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>344882920</v>
+        <v>344984436</v>
       </c>
       <c r="E41" t="n">
-        <v>3102780603</v>
+        <v>3103693904</v>
       </c>
       <c r="F41" t="n">
-        <v>198732.063211382</v>
+        <v>158727.8484219502</v>
       </c>
       <c r="G41" t="n">
-        <v>195222.8994191509</v>
+        <v>208665.5047844657</v>
       </c>
       <c r="H41" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>41362033</v>
+        <v>43216787</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1577592</v>
+        <v>1573600</v>
       </c>
       <c r="E42" t="n">
-        <v>13146599</v>
+        <v>13113330</v>
       </c>
       <c r="F42" t="n">
-        <v>4244.095515379102</v>
+        <v>2751.750076167526</v>
       </c>
       <c r="G42" t="n">
-        <v>6244.936578037089</v>
+        <v>6271.797158407384</v>
       </c>
       <c r="H42" t="n">
-        <v>0.46</v>
+        <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>36464</v>
+        <v>24541</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22695418</v>
+        <v>22938439</v>
       </c>
       <c r="E43" t="n">
-        <v>68030427</v>
+        <v>68758891</v>
       </c>
       <c r="F43" t="n">
-        <v>53892.58094781022</v>
+        <v>62569.92976832363</v>
       </c>
       <c r="G43" t="n">
-        <v>57378.55497939029</v>
+        <v>63980.69438369868</v>
       </c>
       <c r="H43" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3397369</v>
+        <v>3454383</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9454921</v>
+        <v>9433537</v>
       </c>
       <c r="F44" t="n">
-        <v>5744.354816386784</v>
+        <v>5685.556013670423</v>
       </c>
       <c r="G44" t="n">
-        <v>6021.953317893557</v>
+        <v>6093.187164820595</v>
       </c>
       <c r="H44" t="n">
         <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>98507</v>
+        <v>70296</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13259000</v>
+        <v>13277217</v>
       </c>
       <c r="E45" t="n">
-        <v>13259000</v>
+        <v>13277217</v>
       </c>
       <c r="F45" t="n">
-        <v>400.8944192568706</v>
+        <v>112.0805544544682</v>
       </c>
       <c r="G45" t="n">
-        <v>1348.597463450966</v>
+        <v>1232.066655681076</v>
       </c>
       <c r="H45" t="n">
-        <v>1.49</v>
+        <v>0.6</v>
       </c>
       <c r="I45" t="n">
-        <v>3738235</v>
+        <v>3683763</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311922498</v>
+        <v>311159118</v>
       </c>
       <c r="E46" t="n">
-        <v>311922498</v>
+        <v>311159118</v>
       </c>
       <c r="F46" t="n">
-        <v>43383.38750977561</v>
+        <v>35041.27927049559</v>
       </c>
       <c r="G46" t="n">
-        <v>39223.69712157733</v>
+        <v>41249.50813130754</v>
       </c>
       <c r="H46" t="n">
         <v>0.25</v>
       </c>
       <c r="I46" t="n">
-        <v>14999366</v>
+        <v>15307232</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12755018</v>
+        <v>12757850</v>
       </c>
       <c r="E47" t="n">
-        <v>40352265</v>
+        <v>40361224</v>
       </c>
       <c r="F47" t="n">
-        <v>12542.1287053202</v>
+        <v>21070.40643232586</v>
       </c>
       <c r="G47" t="n">
-        <v>10012.60868617699</v>
+        <v>10302.87345804106</v>
       </c>
       <c r="H47" t="n">
-        <v>0.4</v>
+        <v>0.27</v>
       </c>
       <c r="I47" t="n">
-        <v>1040439</v>
+        <v>979161</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32074296</v>
+        <v>32106217</v>
       </c>
       <c r="E48" t="n">
-        <v>88842618</v>
+        <v>88931034</v>
       </c>
       <c r="F48" t="n">
-        <v>3645.860029530995</v>
+        <v>3368.274960764686</v>
       </c>
       <c r="G48" t="n">
-        <v>8000.693235958255</v>
+        <v>8895.991914968181</v>
       </c>
       <c r="H48" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="I48" t="n">
-        <v>12042559</v>
+        <v>12127362</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28341712</v>
+        <v>28285870</v>
       </c>
       <c r="E49" t="n">
-        <v>67332862</v>
+        <v>67200194</v>
       </c>
       <c r="F49" t="n">
-        <v>18476.82351686838</v>
+        <v>19692.67489159787</v>
       </c>
       <c r="G49" t="n">
-        <v>17461.81905852599</v>
+        <v>12223.32156548463</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="I49" t="n">
-        <v>401469</v>
+        <v>397108</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12716039</v>
+        <v>12715821</v>
       </c>
       <c r="E50" t="n">
-        <v>19356679</v>
+        <v>19356348</v>
       </c>
       <c r="F50" t="n">
-        <v>6393.230442377325</v>
+        <v>16197.072438649</v>
       </c>
       <c r="G50" t="n">
-        <v>3776.028827581899</v>
+        <v>18830.74030094635</v>
       </c>
       <c r="H50" t="n">
-        <v>0.55</v>
+        <v>0.32</v>
       </c>
       <c r="I50" t="n">
-        <v>770848</v>
+        <v>745317</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>297240779</v>
+        <v>300671910</v>
       </c>
       <c r="E51" t="n">
-        <v>297240779</v>
+        <v>300671910</v>
       </c>
       <c r="F51" t="n">
-        <v>61391.73661374475</v>
+        <v>72477.07832141932</v>
       </c>
       <c r="G51" t="n">
-        <v>116442.6871690747</v>
+        <v>113415.5486249844</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>76666911</v>
+        <v>80046352</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>91660065</v>
+        <v>91823400</v>
       </c>
       <c r="E52" t="n">
-        <v>528184830</v>
+        <v>529126033</v>
       </c>
       <c r="F52" t="n">
-        <v>315068.5425936255</v>
+        <v>306831.1647013875</v>
       </c>
       <c r="G52" t="n">
-        <v>236264.3313105026</v>
+        <v>263968.8982528649</v>
       </c>
       <c r="H52" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I52" t="n">
-        <v>17033003</v>
+        <v>16893232</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30894728</v>
+        <v>30961474</v>
       </c>
       <c r="E53" t="n">
-        <v>138328371</v>
+        <v>138627220</v>
       </c>
       <c r="F53" t="n">
-        <v>31621.85486788181</v>
+        <v>40730.07186841442</v>
       </c>
       <c r="G53" t="n">
-        <v>50250.62118227201</v>
+        <v>48453.67601106862</v>
       </c>
       <c r="H53" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="I53" t="n">
-        <v>8591252</v>
+        <v>8594879</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9085007</v>
+        <v>9091343</v>
       </c>
       <c r="F54" t="n">
-        <v>2599.671317793813</v>
+        <v>2583.101033600859</v>
       </c>
       <c r="G54" t="n">
-        <v>4880.067148354843</v>
+        <v>4908.134077672301</v>
       </c>
       <c r="H54" t="n">
-        <v>0.44</v>
+        <v>0.55</v>
       </c>
       <c r="I54" t="n">
-        <v>273466</v>
+        <v>292913</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4789581</v>
+        <v>4796554</v>
       </c>
       <c r="F55" t="n">
-        <v>2435.479185870989</v>
+        <v>4831.002571647315</v>
       </c>
       <c r="G55" t="n">
-        <v>1368.177323336994</v>
+        <v>922.934592487146</v>
       </c>
       <c r="H55" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>199406</v>
+        <v>196322</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125420326</v>
+        <v>125330846</v>
       </c>
       <c r="E56" t="n">
-        <v>2077063316</v>
+        <v>2075581459</v>
       </c>
       <c r="F56" t="n">
-        <v>183609.0110025896</v>
+        <v>182838.1652664902</v>
       </c>
       <c r="G56" t="n">
-        <v>174581.4379300849</v>
+        <v>183455.6958738143</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4691543</v>
+        <v>4512652</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>96192430</v>
+        <v>99571129</v>
       </c>
       <c r="E57" t="n">
-        <v>97227877</v>
+        <v>100642945</v>
       </c>
       <c r="F57" t="n">
-        <v>35212.45586377263</v>
+        <v>41047.83272931288</v>
       </c>
       <c r="G57" t="n">
-        <v>69516.67779411763</v>
+        <v>58787.49060575285</v>
       </c>
       <c r="H57" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>38514123</v>
+        <v>41100743</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241703472</v>
+        <v>241589225</v>
       </c>
       <c r="E58" t="n">
-        <v>241703472</v>
+        <v>241589225</v>
       </c>
       <c r="F58" t="n">
-        <v>83688.39063189743</v>
+        <v>138178.8303487402</v>
       </c>
       <c r="G58" t="n">
-        <v>115421.7243141488</v>
+        <v>94139.14391897131</v>
       </c>
       <c r="H58" t="n">
-        <v>0.12</v>
+        <v>0.04</v>
       </c>
       <c r="I58" t="n">
-        <v>47160019</v>
+        <v>47501602</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24675162</v>
+        <v>24711842</v>
       </c>
       <c r="E59" t="n">
-        <v>147636456</v>
+        <v>147855920</v>
       </c>
       <c r="F59" t="n">
-        <v>57950.54741935812</v>
+        <v>69705.47704699069</v>
       </c>
       <c r="G59" t="n">
-        <v>68639.08176207278</v>
+        <v>80424.47953705458</v>
       </c>
       <c r="H59" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>12486155</v>
+        <v>12614959</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2412757</v>
+        <v>2350132</v>
       </c>
       <c r="E60" t="n">
-        <v>4452880</v>
+        <v>4337303</v>
       </c>
       <c r="F60" t="n">
-        <v>3908.677899344674</v>
+        <v>5419.612543350497</v>
       </c>
       <c r="G60" t="n">
-        <v>2014.904938549354</v>
+        <v>334.7679837522288</v>
       </c>
       <c r="H60" t="n">
-        <v>0.57</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>23408</v>
+        <v>70940</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11526351</v>
+        <v>11249705</v>
       </c>
       <c r="E62" t="n">
-        <v>34199446</v>
+        <v>33372601</v>
       </c>
       <c r="F62" t="n">
-        <v>3208.291168559988</v>
+        <v>6126.332983069441</v>
       </c>
       <c r="G62" t="n">
-        <v>3408.73519119103</v>
+        <v>4783.42444341893</v>
       </c>
       <c r="H62" t="n">
         <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>7263197</v>
+        <v>7379143</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14584142</v>
+        <v>14530202</v>
       </c>
       <c r="E63" t="n">
-        <v>29524705</v>
+        <v>29415506</v>
       </c>
       <c r="F63" t="n">
-        <v>6301.443459072512</v>
+        <v>4491.756058964672</v>
       </c>
       <c r="G63" t="n">
-        <v>10995.10056903458</v>
+        <v>18675.90955095597</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>571237</v>
+        <v>564427</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>39071770</v>
+        <v>38997940</v>
       </c>
       <c r="E64" t="n">
-        <v>277012473</v>
+        <v>276489032</v>
       </c>
       <c r="F64" t="n">
-        <v>83727.28658882792</v>
+        <v>71700.58297459972</v>
       </c>
       <c r="G64" t="n">
-        <v>64681.15016766264</v>
+        <v>63988.11678387496</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1614080</v>
+        <v>1652976</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1275560</v>
+        <v>1275429</v>
       </c>
       <c r="E65" t="n">
-        <v>7909780</v>
+        <v>7908969</v>
       </c>
       <c r="F65" t="n">
-        <v>2062.15344157958</v>
+        <v>2046.371376130028</v>
       </c>
       <c r="G65" t="n">
-        <v>1980.06288065007</v>
+        <v>1941.580023714092</v>
       </c>
       <c r="H65" t="n">
         <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>779876</v>
+        <v>779020</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>609620370</v>
+        <v>617799656</v>
       </c>
       <c r="E66" t="n">
-        <v>2360969751</v>
+        <v>2392646920</v>
       </c>
       <c r="F66" t="n">
-        <v>150467.184226371</v>
+        <v>150772.3761917032</v>
       </c>
       <c r="G66" t="n">
-        <v>157748.993144695</v>
+        <v>163002.1402521624</v>
       </c>
       <c r="H66" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>32718709</v>
+        <v>33374972</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5889114</v>
+        <v>5894941</v>
       </c>
       <c r="E67" t="n">
-        <v>26362200</v>
+        <v>26388286</v>
       </c>
       <c r="F67" t="n">
-        <v>4911.668209986734</v>
+        <v>4893.213354633284</v>
       </c>
       <c r="G67" t="n">
-        <v>4124.60775387115</v>
+        <v>4227.862954639713</v>
       </c>
       <c r="H67" t="n">
         <v>0.19</v>
       </c>
       <c r="I67" t="n">
-        <v>151307</v>
+        <v>149580</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>123145155</v>
+        <v>115076250</v>
       </c>
       <c r="E68" t="n">
-        <v>1070671433</v>
+        <v>1069206568</v>
       </c>
       <c r="F68" t="n">
-        <v>161189.8084343901</v>
+        <v>164278.8793782191</v>
       </c>
       <c r="G68" t="n">
-        <v>157641.6673636114</v>
+        <v>164314.2327871187</v>
       </c>
       <c r="H68" t="n">
         <v>0.1</v>
       </c>
       <c r="I68" t="n">
-        <v>9267843</v>
+        <v>9127864</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>114058218</v>
+        <v>116420191</v>
       </c>
       <c r="E69" t="n">
-        <v>173998485</v>
+        <v>177601730</v>
       </c>
       <c r="F69" t="n">
-        <v>55711.20872882577</v>
+        <v>57916.67016499337</v>
       </c>
       <c r="G69" t="n">
-        <v>89204.33772449259</v>
+        <v>79492.80366902004</v>
       </c>
       <c r="H69" t="n">
-        <v>0.22</v>
+        <v>0.16</v>
       </c>
       <c r="I69" t="n">
-        <v>7904582</v>
+        <v>7972375</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1137420</v>
+        <v>1136034</v>
       </c>
       <c r="E70" t="n">
-        <v>4404340</v>
+        <v>4398970</v>
       </c>
       <c r="F70" t="n">
-        <v>3541.727302562613</v>
+        <v>3073.15315075584</v>
       </c>
       <c r="G70" t="n">
-        <v>2316.337296553327</v>
+        <v>2843.033810021603</v>
       </c>
       <c r="H70" t="n">
-        <v>0.39</v>
+        <v>0.55</v>
       </c>
       <c r="I70" t="n">
-        <v>368495</v>
+        <v>360750</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>122910131</v>
+        <v>124912453</v>
       </c>
       <c r="E71" t="n">
-        <v>471503045</v>
+        <v>479184276</v>
       </c>
       <c r="F71" t="n">
-        <v>146578.0908281287</v>
+        <v>152503.3857718465</v>
       </c>
       <c r="G71" t="n">
-        <v>163678.8928865911</v>
+        <v>158734.2702710463</v>
       </c>
       <c r="H71" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="I71" t="n">
-        <v>30566886</v>
+        <v>31655843</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3197754</v>
+        <v>3218359</v>
       </c>
       <c r="E72" t="n">
-        <v>30299193</v>
+        <v>30494431</v>
       </c>
       <c r="F72" t="n">
-        <v>4666.291139761702</v>
+        <v>4051.677468436723</v>
       </c>
       <c r="G72" t="n">
-        <v>4108.906633215118</v>
+        <v>4636.450883332916</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="I72" t="n">
-        <v>213318</v>
+        <v>221921</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>32095267</v>
+        <v>32484968</v>
       </c>
       <c r="F73" t="n">
-        <v>5519.001416732297</v>
+        <v>5375.321989457871</v>
       </c>
       <c r="G73" t="n">
-        <v>5834.310518030236</v>
+        <v>6761.182335293057</v>
       </c>
       <c r="H73" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="I73" t="n">
-        <v>5404250</v>
+        <v>5579835</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88990719</v>
+        <v>89008029</v>
       </c>
       <c r="E74" t="n">
-        <v>328960320</v>
+        <v>329022795</v>
       </c>
       <c r="F74" t="n">
-        <v>8545.534141764916</v>
+        <v>8403.834347412827</v>
       </c>
       <c r="G74" t="n">
-        <v>485.8952210626096</v>
+        <v>421.6273397163156</v>
       </c>
       <c r="H74" t="n">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="I74" t="n">
-        <v>235897</v>
+        <v>230622</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23489271</v>
+        <v>23670311</v>
       </c>
       <c r="E75" t="n">
-        <v>23489271</v>
+        <v>23670311</v>
       </c>
       <c r="F75" t="n">
-        <v>29483.79340857415</v>
+        <v>24308.61801634421</v>
       </c>
       <c r="G75" t="n">
-        <v>20746.66112609731</v>
+        <v>30038.85357376753</v>
       </c>
       <c r="H75" t="n">
-        <v>0.16</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>5672205</v>
+        <v>5753669</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>498022145</v>
+        <v>499904286</v>
       </c>
       <c r="E76" t="n">
-        <v>1733573641</v>
+        <v>1740125215</v>
       </c>
       <c r="F76" t="n">
-        <v>201193.5866178873</v>
+        <v>186977.7893860663</v>
       </c>
       <c r="G76" t="n">
-        <v>220210.021889816</v>
+        <v>213909.9486596107</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>30657749</v>
+        <v>31609541</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5775077357</v>
+        <v>5753318399</v>
       </c>
       <c r="E77" t="n">
-        <v>5775077357</v>
+        <v>5753318399</v>
       </c>
       <c r="F77" t="n">
-        <v>10272.62117222114</v>
+        <v>10529.3975496666</v>
       </c>
       <c r="G77" t="n">
-        <v>95071.62613640605</v>
+        <v>93542.584220861</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>10109256</v>
+        <v>9470921</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7493542</v>
+        <v>7475001</v>
       </c>
       <c r="E78" t="n">
-        <v>19467417</v>
+        <v>19419248</v>
       </c>
       <c r="F78" t="n">
-        <v>2706.248692105212</v>
+        <v>2723.629560119415</v>
       </c>
       <c r="G78" t="n">
-        <v>3205.015460518369</v>
+        <v>3170.067756340513</v>
       </c>
       <c r="H78" t="n">
-        <v>0.41</v>
+        <v>0.21</v>
       </c>
       <c r="I78" t="n">
-        <v>716943</v>
+        <v>717079</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>105150441</v>
+        <v>106663792</v>
       </c>
       <c r="E79" t="n">
-        <v>159315068</v>
+        <v>161607968</v>
       </c>
       <c r="F79" t="n">
-        <v>26789.18542407533</v>
+        <v>42580.06269909643</v>
       </c>
       <c r="G79" t="n">
-        <v>41592.38963535295</v>
+        <v>46898.92890573113</v>
       </c>
       <c r="H79" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I79" t="n">
-        <v>7672059</v>
+        <v>8050229</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2636303</v>
+        <v>2626705</v>
       </c>
       <c r="E80" t="n">
-        <v>10545214</v>
+        <v>10506818</v>
       </c>
       <c r="F80" t="n">
-        <v>72732.97586554862</v>
+        <v>75340.18357382793</v>
       </c>
       <c r="G80" t="n">
-        <v>12507.81776805414</v>
+        <v>27827.52367240572</v>
       </c>
       <c r="H80" t="n">
-        <v>0.28</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>6862805</v>
+        <v>6890832</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2530724</v>
+        <v>2517678</v>
       </c>
       <c r="F81" t="n">
-        <v>2235.084594981312</v>
+        <v>1916.775458004343</v>
       </c>
       <c r="G81" t="n">
-        <v>601.1428350506407</v>
+        <v>537.6544658544467</v>
       </c>
       <c r="H81" t="n">
-        <v>0.32</v>
+        <v>0.28</v>
       </c>
       <c r="I81" t="n">
-        <v>298490</v>
+        <v>285688</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>404862593</v>
+        <v>404437044</v>
       </c>
       <c r="E82" t="n">
-        <v>2313500532</v>
+        <v>2311068823</v>
       </c>
       <c r="F82" t="n">
-        <v>150648.749004882</v>
+        <v>137637.6190088206</v>
       </c>
       <c r="G82" t="n">
-        <v>198500.6486796478</v>
+        <v>180323.4242126586</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>39252199</v>
+        <v>39620521</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4144395</v>
+        <v>4134456</v>
       </c>
       <c r="F2" t="n">
-        <v>534.1279477343298</v>
+        <v>1334.283150715601</v>
       </c>
       <c r="G2" t="n">
-        <v>348.647334238437</v>
+        <v>355.0424763282022</v>
       </c>
       <c r="H2" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="I2" t="n">
-        <v>143643</v>
+        <v>147313</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1388402</v>
+        <v>1358479</v>
       </c>
       <c r="E3" t="n">
-        <v>4487884</v>
+        <v>4391161</v>
       </c>
       <c r="F3" t="n">
-        <v>2061.495873419495</v>
+        <v>4699.750564709806</v>
       </c>
       <c r="G3" t="n">
-        <v>8667.112716028396</v>
+        <v>8971.685883934028</v>
       </c>
       <c r="H3" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>141450</v>
+        <v>126855</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>248159727</v>
+        <v>249953270</v>
       </c>
       <c r="E4" t="n">
-        <v>1556174769</v>
+        <v>1567421821</v>
       </c>
       <c r="F4" t="n">
-        <v>239890.6484968015</v>
+        <v>234979.657198368</v>
       </c>
       <c r="G4" t="n">
-        <v>266511.4224675128</v>
+        <v>254532.8787900222</v>
       </c>
       <c r="H4" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I4" t="n">
-        <v>17525031</v>
+        <v>17289021</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>148007181</v>
+        <v>149214893</v>
       </c>
       <c r="E5" t="n">
-        <v>164015087</v>
+        <v>165353421</v>
       </c>
       <c r="F5" t="n">
-        <v>86257.21576870908</v>
+        <v>83379.37445393702</v>
       </c>
       <c r="G5" t="n">
-        <v>104239.7360996301</v>
+        <v>119006.7517787152</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>38004984</v>
+        <v>38362735</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>126798516</v>
+        <v>127952617</v>
       </c>
       <c r="E6" t="n">
-        <v>497012218</v>
+        <v>501535946</v>
       </c>
       <c r="F6" t="n">
-        <v>15895.83236926747</v>
+        <v>18786.25507880346</v>
       </c>
       <c r="G6" t="n">
-        <v>48750.03382727165</v>
+        <v>43526.23104492176</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>29597807</v>
+        <v>29456683</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4559286</v>
+        <v>4576513</v>
       </c>
       <c r="E7" t="n">
-        <v>28004437</v>
+        <v>28107371</v>
       </c>
       <c r="F7" t="n">
-        <v>2823.049185412134</v>
+        <v>2902.900001342321</v>
       </c>
       <c r="G7" t="n">
-        <v>2342.774142501135</v>
+        <v>2911.348296155438</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.25</v>
       </c>
       <c r="I7" t="n">
-        <v>664459</v>
+        <v>672603</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198440</v>
+        <v>198018</v>
       </c>
       <c r="E8" t="n">
-        <v>2183061</v>
+        <v>2178411</v>
       </c>
       <c r="F8" t="n">
-        <v>3879.18545040968</v>
+        <v>3727.10750072245</v>
       </c>
       <c r="G8" t="n">
-        <v>4387.98918291452</v>
+        <v>5552.367874434832</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.41</v>
       </c>
       <c r="I8" t="n">
-        <v>27644</v>
+        <v>27692</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71645885</v>
+        <v>71794535</v>
       </c>
       <c r="E9" t="n">
-        <v>124070419</v>
+        <v>124324865</v>
       </c>
       <c r="F9" t="n">
-        <v>9707.156140087312</v>
+        <v>9258.635398569537</v>
       </c>
       <c r="G9" t="n">
-        <v>11871.37344548953</v>
+        <v>11785.04789537133</v>
       </c>
       <c r="H9" t="n">
         <v>0.24</v>
       </c>
       <c r="I9" t="n">
-        <v>781206</v>
+        <v>793250</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8836955</v>
+        <v>8799164</v>
       </c>
       <c r="E10" t="n">
-        <v>12508053</v>
+        <v>12454563</v>
       </c>
       <c r="F10" t="n">
-        <v>4262.635715376</v>
+        <v>3923.225891057937</v>
       </c>
       <c r="G10" t="n">
-        <v>4385.183881406597</v>
+        <v>4522.265257144973</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>69493</v>
+        <v>70052</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>477067537</v>
+        <v>485560161</v>
       </c>
       <c r="E11" t="n">
-        <v>477067542</v>
+        <v>485560167</v>
       </c>
       <c r="F11" t="n">
-        <v>36342.58506161578</v>
+        <v>36339.23636291374</v>
       </c>
       <c r="G11" t="n">
-        <v>79207.02328374641</v>
+        <v>71512.27082780297</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>65342334</v>
+        <v>65132681</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>312885</v>
+        <v>315659</v>
       </c>
       <c r="E12" t="n">
-        <v>1460581</v>
+        <v>1473527</v>
       </c>
       <c r="F12" t="n">
-        <v>1491.606040594125</v>
+        <v>1663.081767725116</v>
       </c>
       <c r="G12" t="n">
-        <v>2575.551198874955</v>
+        <v>1668.951166655984</v>
       </c>
       <c r="H12" t="n">
-        <v>0.53</v>
+        <v>0.66</v>
       </c>
       <c r="I12" t="n">
-        <v>709365</v>
+        <v>702880</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1490548</v>
+        <v>1465967</v>
       </c>
       <c r="F13" t="n">
-        <v>4916.568158576828</v>
+        <v>4691.232302731089</v>
       </c>
       <c r="G13" t="n">
-        <v>523.5275975600337</v>
+        <v>1211.746950986192</v>
       </c>
       <c r="H13" t="n">
         <v>0.27</v>
       </c>
       <c r="I13" t="n">
-        <v>294137</v>
+        <v>320517</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12774097</v>
+        <v>12777131</v>
       </c>
       <c r="E14" t="n">
-        <v>31792417</v>
+        <v>31799968</v>
       </c>
       <c r="F14" t="n">
-        <v>571.8028364272463</v>
+        <v>523.9698511221297</v>
       </c>
       <c r="G14" t="n">
-        <v>945.3499804777307</v>
+        <v>627.353652011506</v>
       </c>
       <c r="H14" t="n">
-        <v>0.41</v>
+        <v>0.76</v>
       </c>
       <c r="I14" t="n">
-        <v>1235931</v>
+        <v>1246867</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116401282</v>
+        <v>116701377</v>
       </c>
       <c r="E15" t="n">
-        <v>452811162</v>
+        <v>453961675</v>
       </c>
       <c r="F15" t="n">
-        <v>46576.9171308787</v>
+        <v>47121.72784380979</v>
       </c>
       <c r="G15" t="n">
-        <v>104534.3196472249</v>
+        <v>104635.3487197359</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>9213449</v>
+        <v>9289839</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5408048</v>
+        <v>5402488</v>
       </c>
       <c r="E16" t="n">
-        <v>7960940</v>
+        <v>7952756</v>
       </c>
       <c r="F16" t="n">
-        <v>4042.627503404992</v>
+        <v>3935.359708676091</v>
       </c>
       <c r="G16" t="n">
-        <v>3088.852411391762</v>
+        <v>2106.235510109786</v>
       </c>
       <c r="H16" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="I16" t="n">
-        <v>667771</v>
+        <v>659213</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2098895</v>
+        <v>2072773</v>
       </c>
       <c r="F17" t="n">
-        <v>586.7308113244208</v>
+        <v>422.199114462298</v>
       </c>
       <c r="G17" t="n">
-        <v>87.66799967626231</v>
+        <v>21.40315355730929</v>
       </c>
       <c r="H17" t="n">
-        <v>0.87</v>
+        <v>1.17</v>
       </c>
       <c r="I17" t="n">
-        <v>136884</v>
+        <v>134922</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="E18" t="n">
-        <v>141237115</v>
+        <v>143147077</v>
       </c>
       <c r="F18" t="n">
-        <v>126961.8489406702</v>
+        <v>125517.0922038428</v>
       </c>
       <c r="G18" t="n">
-        <v>134115.8941139226</v>
+        <v>163612.2742492245</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>68952078</v>
+        <v>70319634</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67768648</v>
+        <v>68427863</v>
       </c>
       <c r="E19" t="n">
-        <v>347531526</v>
+        <v>350912116</v>
       </c>
       <c r="F19" t="n">
-        <v>17415.10300661599</v>
+        <v>18679.42734895513</v>
       </c>
       <c r="G19" t="n">
-        <v>18353.9872266599</v>
+        <v>17309.03646821236</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>24299761</v>
+        <v>24760749</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="E20" t="n">
-        <v>260704132</v>
+        <v>264115624</v>
       </c>
       <c r="F20" t="n">
-        <v>61509.930701349</v>
+        <v>71469.77353401291</v>
       </c>
       <c r="G20" t="n">
-        <v>97884.10373166815</v>
+        <v>91953.6750990697</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>14780532</v>
+        <v>18335728</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>174571797</v>
+        <v>187477485</v>
       </c>
       <c r="E21" t="n">
-        <v>229716068</v>
+        <v>246698444</v>
       </c>
       <c r="F21" t="n">
-        <v>4376.212402609811</v>
+        <v>11208.73528578019</v>
       </c>
       <c r="G21" t="n">
-        <v>11502.66950775857</v>
+        <v>23911.18592785982</v>
       </c>
       <c r="H21" t="n">
-        <v>0.21</v>
+        <v>0.31</v>
       </c>
       <c r="I21" t="n">
-        <v>9196319</v>
+        <v>10121887</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>83401487</v>
+        <v>84809181</v>
       </c>
       <c r="E22" t="n">
-        <v>233311748</v>
+        <v>237310445</v>
       </c>
       <c r="F22" t="n">
-        <v>26001.92160714244</v>
+        <v>20141.02667070621</v>
       </c>
       <c r="G22" t="n">
-        <v>56723.95548142512</v>
+        <v>45844.36088873071</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>43346325</v>
+        <v>44231305</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>78324790</v>
+        <v>79258660</v>
       </c>
       <c r="E23" t="n">
-        <v>163346963</v>
+        <v>165294554</v>
       </c>
       <c r="F23" t="n">
-        <v>22302.90355918735</v>
+        <v>27120.95665117714</v>
       </c>
       <c r="G23" t="n">
-        <v>45376.40891196201</v>
+        <v>38926.61904165101</v>
       </c>
       <c r="H23" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>18522508</v>
+        <v>19107653</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>652221626</v>
+        <v>662049139</v>
       </c>
       <c r="E24" t="n">
-        <v>652221626</v>
+        <v>662049139</v>
       </c>
       <c r="F24" t="n">
-        <v>213933.087343798</v>
+        <v>181402.6302157672</v>
       </c>
       <c r="G24" t="n">
-        <v>256871.8165285405</v>
+        <v>286912.5195223197</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.3</v>
       </c>
       <c r="I24" t="n">
-        <v>311893131</v>
+        <v>306148578</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>208697473</v>
+        <v>209794835</v>
       </c>
       <c r="E25" t="n">
-        <v>725033883</v>
+        <v>728846218</v>
       </c>
       <c r="F25" t="n">
-        <v>96851.33574208156</v>
+        <v>86924.35219164607</v>
       </c>
       <c r="G25" t="n">
-        <v>357639.1325373951</v>
+        <v>365254.2200108904</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>29159420</v>
+        <v>29703389</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5776994</v>
+        <v>5774855</v>
       </c>
       <c r="E26" t="n">
-        <v>7848371</v>
+        <v>7845465</v>
       </c>
       <c r="F26" t="n">
-        <v>1662.570069437413</v>
+        <v>1880.088022256992</v>
       </c>
       <c r="G26" t="n">
-        <v>334.3859735494277</v>
+        <v>507.0321696171519</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5617114</v>
+        <v>5598647</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15016103</v>
+        <v>15038911</v>
       </c>
       <c r="F27" t="n">
-        <v>3185.150744213048</v>
+        <v>2970.081945325261</v>
       </c>
       <c r="G27" t="n">
-        <v>1652.279568617003</v>
+        <v>1565.836299021536</v>
       </c>
       <c r="H27" t="n">
-        <v>0.13</v>
+        <v>0.25</v>
       </c>
       <c r="I27" t="n">
-        <v>267657</v>
+        <v>279985</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26134088</v>
+        <v>26180717</v>
       </c>
       <c r="E28" t="n">
-        <v>36939513</v>
+        <v>37005421</v>
       </c>
       <c r="F28" t="n">
-        <v>87.54893727322735</v>
+        <v>91.07308591482584</v>
       </c>
       <c r="G28" t="n">
-        <v>3425.972295907693</v>
+        <v>2487.870975837799</v>
       </c>
       <c r="H28" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="I28" t="n">
-        <v>58769</v>
+        <v>58535</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>271729384</v>
+        <v>275861406</v>
       </c>
       <c r="E29" t="n">
-        <v>1172934869</v>
+        <v>1190770968</v>
       </c>
       <c r="F29" t="n">
-        <v>350770.3764811035</v>
+        <v>354433.4264264697</v>
       </c>
       <c r="G29" t="n">
-        <v>378518.4472165045</v>
+        <v>354333.2381445194</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>100816198</v>
+        <v>101854556</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11344035</v>
+        <v>11564849</v>
       </c>
       <c r="E30" t="n">
-        <v>136943862</v>
+        <v>139601043</v>
       </c>
       <c r="F30" t="n">
-        <v>1819.244910029547</v>
+        <v>3545.955057338512</v>
       </c>
       <c r="G30" t="n">
-        <v>1808.602184920599</v>
+        <v>3820.863571850456</v>
       </c>
       <c r="H30" t="n">
-        <v>0.57</v>
+        <v>0.22</v>
       </c>
       <c r="I30" t="n">
-        <v>241199</v>
+        <v>364864</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19324164</v>
+        <v>19468260</v>
       </c>
       <c r="E31" t="n">
-        <v>48310410</v>
+        <v>48670650</v>
       </c>
       <c r="F31" t="n">
-        <v>10965.16031812029</v>
+        <v>13133.41287475536</v>
       </c>
       <c r="G31" t="n">
-        <v>12876.69199231386</v>
+        <v>10277.37278487523</v>
       </c>
       <c r="H31" t="n">
         <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2042958</v>
+        <v>2066750</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19761084</v>
+        <v>19817055</v>
       </c>
       <c r="F32" t="n">
-        <v>2474.899940521809</v>
+        <v>2366.883861631382</v>
       </c>
       <c r="G32" t="n">
-        <v>2638.865794593176</v>
+        <v>2512.223090955666</v>
       </c>
       <c r="H32" t="n">
         <v>0.45</v>
       </c>
       <c r="I32" t="n">
-        <v>52377</v>
+        <v>41513</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1344971</v>
+        <v>1344717</v>
       </c>
       <c r="E33" t="n">
-        <v>5014401</v>
+        <v>5013437</v>
       </c>
       <c r="F33" t="n">
-        <v>1271.319661242288</v>
+        <v>1820.294367505402</v>
       </c>
       <c r="G33" t="n">
-        <v>2213.728071673463</v>
+        <v>2493.557536801162</v>
       </c>
       <c r="H33" t="n">
-        <v>0.24</v>
+        <v>0.18</v>
       </c>
       <c r="I33" t="n">
-        <v>577297</v>
+        <v>577990</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4288918</v>
+        <v>4273183</v>
       </c>
       <c r="E34" t="n">
-        <v>12354124</v>
+        <v>12308798</v>
       </c>
       <c r="F34" t="n">
-        <v>244.8970331650791</v>
+        <v>3663.987136417417</v>
       </c>
       <c r="G34" t="n">
-        <v>553.1209296658212</v>
+        <v>2902.126926679664</v>
       </c>
       <c r="H34" t="n">
-        <v>0.64</v>
+        <v>0.98</v>
       </c>
       <c r="I34" t="n">
-        <v>618418</v>
+        <v>601967</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>14899706</v>
+        <v>15261488</v>
       </c>
       <c r="E35" t="n">
-        <v>72161652</v>
+        <v>73913824</v>
       </c>
       <c r="F35" t="n">
-        <v>11474.53833714772</v>
+        <v>8872.443921870401</v>
       </c>
       <c r="G35" t="n">
-        <v>14143.80729877203</v>
+        <v>15264.88752487428</v>
       </c>
       <c r="H35" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="I35" t="n">
-        <v>3927784</v>
+        <v>3898754</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1444810</v>
+        <v>1440268</v>
       </c>
       <c r="E36" t="n">
-        <v>9456245</v>
+        <v>9426518</v>
       </c>
       <c r="F36" t="n">
-        <v>3809.27092999866</v>
+        <v>4066.661915412754</v>
       </c>
       <c r="G36" t="n">
-        <v>3976.976537761155</v>
+        <v>4753.347876354235</v>
       </c>
       <c r="H36" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I36" t="n">
-        <v>713167</v>
+        <v>713656</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1924639047</v>
+        <v>1931807915</v>
       </c>
       <c r="F37" t="n">
-        <v>66846.87002034989</v>
+        <v>77306.26342909707</v>
       </c>
       <c r="G37" t="n">
-        <v>76347.82389665789</v>
+        <v>75176.4947085618</v>
       </c>
       <c r="H37" t="n">
-        <v>0.57</v>
+        <v>0.77</v>
       </c>
       <c r="I37" t="n">
-        <v>27659041</v>
+        <v>27809166</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2010049</v>
+        <v>1968952</v>
       </c>
       <c r="E38" t="n">
-        <v>14413859</v>
+        <v>14119159</v>
       </c>
       <c r="F38" t="n">
-        <v>357.4078117851781</v>
+        <v>3704.453058609772</v>
       </c>
       <c r="G38" t="n">
-        <v>176.2334474087696</v>
+        <v>5484.689046120277</v>
       </c>
       <c r="H38" t="n">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="I38" t="n">
-        <v>618264</v>
+        <v>2051493</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>205512833</v>
+        <v>207409930</v>
       </c>
       <c r="E39" t="n">
-        <v>1163739937</v>
+        <v>1174482467</v>
       </c>
       <c r="F39" t="n">
-        <v>167860.1650277984</v>
+        <v>155145.6192184562</v>
       </c>
       <c r="G39" t="n">
-        <v>167150.7027558963</v>
+        <v>174195.3844345835</v>
       </c>
       <c r="H39" t="n">
         <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>67386208</v>
+        <v>67983040</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>143265915</v>
+        <v>143742114</v>
       </c>
       <c r="E40" t="n">
-        <v>1061229002</v>
+        <v>1064756401</v>
       </c>
       <c r="F40" t="n">
-        <v>228111.7084189017</v>
+        <v>216182.2153129921</v>
       </c>
       <c r="G40" t="n">
-        <v>186364.780383244</v>
+        <v>224781.6471268276</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8477529</v>
+        <v>8354311</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>344984436</v>
+        <v>348113619</v>
       </c>
       <c r="E41" t="n">
-        <v>3103693904</v>
+        <v>3131845975</v>
       </c>
       <c r="F41" t="n">
-        <v>158727.8484219502</v>
+        <v>190595.9003236775</v>
       </c>
       <c r="G41" t="n">
-        <v>208665.5047844657</v>
+        <v>224109.6082920003</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>43216787</v>
+        <v>44561530</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1573600</v>
+        <v>1574479</v>
       </c>
       <c r="E42" t="n">
-        <v>13113330</v>
+        <v>13120659</v>
       </c>
       <c r="F42" t="n">
-        <v>2751.750076167526</v>
+        <v>2044.783331184657</v>
       </c>
       <c r="G42" t="n">
-        <v>6271.797158407384</v>
+        <v>4733.150191019956</v>
       </c>
       <c r="H42" t="n">
-        <v>0.23</v>
+        <v>0.3</v>
       </c>
       <c r="I42" t="n">
-        <v>24541</v>
+        <v>24597</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22938439</v>
+        <v>23003387</v>
       </c>
       <c r="E43" t="n">
-        <v>68758891</v>
+        <v>68953577</v>
       </c>
       <c r="F43" t="n">
-        <v>62569.92976832363</v>
+        <v>58875.32672377706</v>
       </c>
       <c r="G43" t="n">
-        <v>63980.69438369868</v>
+        <v>57349.25122081261</v>
       </c>
       <c r="H43" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="I43" t="n">
-        <v>3454383</v>
+        <v>3460990</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9433537</v>
+        <v>9460907</v>
       </c>
       <c r="F44" t="n">
-        <v>5685.556013670423</v>
+        <v>6004.344415815341</v>
       </c>
       <c r="G44" t="n">
-        <v>6093.187164820595</v>
+        <v>5655.983512427066</v>
       </c>
       <c r="H44" t="n">
-        <v>0.42</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>70296</v>
+        <v>98617</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13277217</v>
+        <v>13259958</v>
       </c>
       <c r="E45" t="n">
-        <v>13277217</v>
+        <v>13259958</v>
       </c>
       <c r="F45" t="n">
-        <v>112.0805544544682</v>
+        <v>1060.386652476774</v>
       </c>
       <c r="G45" t="n">
-        <v>1232.066655681076</v>
+        <v>1123.934985605342</v>
       </c>
       <c r="H45" t="n">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="I45" t="n">
-        <v>3683763</v>
+        <v>3673494</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>311159118</v>
+        <v>315447064</v>
       </c>
       <c r="E46" t="n">
-        <v>311159118</v>
+        <v>315447064</v>
       </c>
       <c r="F46" t="n">
-        <v>35041.27927049559</v>
+        <v>46592.7783705539</v>
       </c>
       <c r="G46" t="n">
-        <v>41249.50813130754</v>
+        <v>46983.71612807504</v>
       </c>
       <c r="H46" t="n">
-        <v>0.25</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>15307232</v>
+        <v>15506383</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12757850</v>
+        <v>12802253</v>
       </c>
       <c r="E47" t="n">
-        <v>40361224</v>
+        <v>40495937</v>
       </c>
       <c r="F47" t="n">
-        <v>21070.40643232586</v>
+        <v>22167.3048635789</v>
       </c>
       <c r="G47" t="n">
-        <v>10302.87345804106</v>
+        <v>14242.65325094337</v>
       </c>
       <c r="H47" t="n">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
       <c r="I47" t="n">
-        <v>979161</v>
+        <v>987206</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32106217</v>
+        <v>32180847</v>
       </c>
       <c r="E48" t="n">
-        <v>88931034</v>
+        <v>89137754</v>
       </c>
       <c r="F48" t="n">
-        <v>3368.274960764686</v>
+        <v>5202.730087018222</v>
       </c>
       <c r="G48" t="n">
-        <v>8895.991914968181</v>
+        <v>4634.369197746486</v>
       </c>
       <c r="H48" t="n">
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>12127362</v>
+        <v>12173763</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28285870</v>
+        <v>28252938</v>
       </c>
       <c r="E49" t="n">
-        <v>67200194</v>
+        <v>67121957</v>
       </c>
       <c r="F49" t="n">
-        <v>19692.67489159787</v>
+        <v>19210.22936288757</v>
       </c>
       <c r="G49" t="n">
-        <v>12223.32156548463</v>
+        <v>17455.76356046135</v>
       </c>
       <c r="H49" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I49" t="n">
-        <v>397108</v>
+        <v>384972</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12715821</v>
+        <v>12712255</v>
       </c>
       <c r="E50" t="n">
-        <v>19356348</v>
+        <v>19350919</v>
       </c>
       <c r="F50" t="n">
-        <v>16197.072438649</v>
+        <v>7035.043321912297</v>
       </c>
       <c r="G50" t="n">
-        <v>18830.74030094635</v>
+        <v>18529.02436840148</v>
       </c>
       <c r="H50" t="n">
-        <v>0.32</v>
+        <v>0.55</v>
       </c>
       <c r="I50" t="n">
-        <v>745317</v>
+        <v>731155</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="E51" t="n">
-        <v>300671910</v>
+        <v>303568433</v>
       </c>
       <c r="F51" t="n">
-        <v>72477.07832141932</v>
+        <v>77687.17191285465</v>
       </c>
       <c r="G51" t="n">
-        <v>113415.5486249844</v>
+        <v>102761.9315642181</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>80046352</v>
+        <v>71788259</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>91823400</v>
+        <v>92353141</v>
       </c>
       <c r="E52" t="n">
-        <v>529126033</v>
+        <v>532178634</v>
       </c>
       <c r="F52" t="n">
-        <v>306831.1647013875</v>
+        <v>263046.5827504639</v>
       </c>
       <c r="G52" t="n">
-        <v>263968.8982528649</v>
+        <v>250719.7494339165</v>
       </c>
       <c r="H52" t="n">
-        <v>0.02</v>
+        <v>0.08</v>
       </c>
       <c r="I52" t="n">
-        <v>16893232</v>
+        <v>17406473</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>30961474</v>
+        <v>31172332</v>
       </c>
       <c r="E53" t="n">
-        <v>138627220</v>
+        <v>139571317</v>
       </c>
       <c r="F53" t="n">
-        <v>40730.07186841442</v>
+        <v>37986.90875090406</v>
       </c>
       <c r="G53" t="n">
-        <v>48453.67601106862</v>
+        <v>52791.91245536307</v>
       </c>
       <c r="H53" t="n">
-        <v>0.14</v>
+        <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8594879</v>
+        <v>8515280</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9091343</v>
+        <v>9117562</v>
       </c>
       <c r="F54" t="n">
-        <v>2583.101033600859</v>
+        <v>2467.547050453336</v>
       </c>
       <c r="G54" t="n">
-        <v>4908.134077672301</v>
+        <v>4776.746999353691</v>
       </c>
       <c r="H54" t="n">
-        <v>0.55</v>
+        <v>0.66</v>
       </c>
       <c r="I54" t="n">
-        <v>292913</v>
+        <v>294269</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4796554</v>
+        <v>4796608</v>
       </c>
       <c r="F55" t="n">
-        <v>4831.002571647315</v>
+        <v>4274.923875938835</v>
       </c>
       <c r="G55" t="n">
-        <v>922.934592487146</v>
+        <v>821.522682424657</v>
       </c>
       <c r="H55" t="n">
-        <v>0.25</v>
+        <v>0.83</v>
       </c>
       <c r="I55" t="n">
-        <v>196322</v>
+        <v>180593</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125330846</v>
+        <v>125306819</v>
       </c>
       <c r="E56" t="n">
-        <v>2075581459</v>
+        <v>2075183547</v>
       </c>
       <c r="F56" t="n">
-        <v>182838.1652664902</v>
+        <v>188482.5329486528</v>
       </c>
       <c r="G56" t="n">
-        <v>183455.6958738143</v>
+        <v>186552.029350955</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4512652</v>
+        <v>4486697</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>99571129</v>
+        <v>102536807</v>
       </c>
       <c r="E57" t="n">
-        <v>100642945</v>
+        <v>103640547</v>
       </c>
       <c r="F57" t="n">
-        <v>41047.83272931288</v>
+        <v>41103.89048079892</v>
       </c>
       <c r="G57" t="n">
-        <v>58787.49060575285</v>
+        <v>50032.13353022193</v>
       </c>
       <c r="H57" t="n">
         <v>0.12</v>
       </c>
       <c r="I57" t="n">
-        <v>41100743</v>
+        <v>44649901</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>241589225</v>
+        <v>250175735</v>
       </c>
       <c r="E58" t="n">
-        <v>241589225</v>
+        <v>250175735</v>
       </c>
       <c r="F58" t="n">
-        <v>138178.8303487402</v>
+        <v>96541.9075847566</v>
       </c>
       <c r="G58" t="n">
-        <v>94139.14391897131</v>
+        <v>123710.5517768331</v>
       </c>
       <c r="H58" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>47501602</v>
+        <v>48807533</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24711842</v>
+        <v>24907474</v>
       </c>
       <c r="E59" t="n">
-        <v>147855920</v>
+        <v>149026425</v>
       </c>
       <c r="F59" t="n">
-        <v>69705.47704699069</v>
+        <v>69943.20445423492</v>
       </c>
       <c r="G59" t="n">
-        <v>80424.47953705458</v>
+        <v>79637.09224340197</v>
       </c>
       <c r="H59" t="n">
         <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>12614959</v>
+        <v>12705921</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2350132</v>
+        <v>2347545</v>
       </c>
       <c r="E60" t="n">
-        <v>4337303</v>
+        <v>4332528</v>
       </c>
       <c r="F60" t="n">
-        <v>5419.612543350497</v>
+        <v>3869.206201752782</v>
       </c>
       <c r="G60" t="n">
-        <v>334.7679837522288</v>
+        <v>1945.227918763291</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.46</v>
       </c>
       <c r="I60" t="n">
-        <v>70940</v>
+        <v>71994</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11249705</v>
+        <v>11554568</v>
       </c>
       <c r="E62" t="n">
-        <v>33372601</v>
+        <v>34276987</v>
       </c>
       <c r="F62" t="n">
-        <v>6126.332983069441</v>
+        <v>6320.078285265996</v>
       </c>
       <c r="G62" t="n">
-        <v>4783.42444341893</v>
+        <v>6095.533411089878</v>
       </c>
       <c r="H62" t="n">
         <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>7379143</v>
+        <v>7428698</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14530202</v>
+        <v>14550517</v>
       </c>
       <c r="E63" t="n">
-        <v>29415506</v>
+        <v>29456633</v>
       </c>
       <c r="F63" t="n">
-        <v>4491.756058964672</v>
+        <v>4553.684317651417</v>
       </c>
       <c r="G63" t="n">
-        <v>18675.90955095597</v>
+        <v>18670.32051953319</v>
       </c>
       <c r="H63" t="n">
         <v>0.31</v>
       </c>
       <c r="I63" t="n">
-        <v>564427</v>
+        <v>559178</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>38997940</v>
+        <v>39327778</v>
       </c>
       <c r="E64" t="n">
-        <v>276489032</v>
+        <v>278827527</v>
       </c>
       <c r="F64" t="n">
-        <v>71700.58297459972</v>
+        <v>54379.40090162079</v>
       </c>
       <c r="G64" t="n">
-        <v>63988.11678387496</v>
+        <v>62705.07754136638</v>
       </c>
       <c r="H64" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1652976</v>
+        <v>1658056</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1275429</v>
+        <v>1275251</v>
       </c>
       <c r="E65" t="n">
-        <v>7908969</v>
+        <v>7907865</v>
       </c>
       <c r="F65" t="n">
-        <v>2046.371376130028</v>
+        <v>1994.685707324082</v>
       </c>
       <c r="G65" t="n">
-        <v>1941.580023714092</v>
+        <v>1920.089207012275</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>779020</v>
+        <v>781527</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>617799656</v>
+        <v>621555106</v>
       </c>
       <c r="E66" t="n">
-        <v>2392646920</v>
+        <v>2407191222</v>
       </c>
       <c r="F66" t="n">
-        <v>150772.3761917032</v>
+        <v>152208.1466353312</v>
       </c>
       <c r="G66" t="n">
-        <v>163002.1402521624</v>
+        <v>178985.6101213882</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>33374972</v>
+        <v>33887304</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5894941</v>
+        <v>5897733</v>
       </c>
       <c r="E67" t="n">
-        <v>26388286</v>
+        <v>26400783</v>
       </c>
       <c r="F67" t="n">
-        <v>4893.213354633284</v>
+        <v>4791.90179683309</v>
       </c>
       <c r="G67" t="n">
-        <v>4227.862954639713</v>
+        <v>4223.252002214215</v>
       </c>
       <c r="H67" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>149580</v>
+        <v>149740</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>115076250</v>
+        <v>115292479</v>
       </c>
       <c r="E68" t="n">
-        <v>1069206568</v>
+        <v>1071215618</v>
       </c>
       <c r="F68" t="n">
-        <v>164278.8793782191</v>
+        <v>168479.84317731</v>
       </c>
       <c r="G68" t="n">
-        <v>164314.2327871187</v>
+        <v>161715.0084286041</v>
       </c>
       <c r="H68" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>9127864</v>
+        <v>9171624</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>116420191</v>
+        <v>117995738</v>
       </c>
       <c r="E69" t="n">
-        <v>177601730</v>
+        <v>180005264</v>
       </c>
       <c r="F69" t="n">
-        <v>57916.67016499337</v>
+        <v>12663.80552444421</v>
       </c>
       <c r="G69" t="n">
-        <v>79492.80366902004</v>
+        <v>39041.45929084157</v>
       </c>
       <c r="H69" t="n">
-        <v>0.16</v>
+        <v>0.12</v>
       </c>
       <c r="I69" t="n">
-        <v>7972375</v>
+        <v>8469977</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1136034</v>
+        <v>1130775</v>
       </c>
       <c r="E70" t="n">
-        <v>4398970</v>
+        <v>4378606</v>
       </c>
       <c r="F70" t="n">
-        <v>3073.15315075584</v>
+        <v>3215.065520896625</v>
       </c>
       <c r="G70" t="n">
-        <v>2843.033810021603</v>
+        <v>2464.393236221614</v>
       </c>
       <c r="H70" t="n">
-        <v>0.55</v>
+        <v>0.45</v>
       </c>
       <c r="I70" t="n">
-        <v>360750</v>
+        <v>321750</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>124912453</v>
+        <v>126639276</v>
       </c>
       <c r="E71" t="n">
-        <v>479184276</v>
+        <v>485808647</v>
       </c>
       <c r="F71" t="n">
-        <v>152503.3857718465</v>
+        <v>154185.4253824779</v>
       </c>
       <c r="G71" t="n">
-        <v>158734.2702710463</v>
+        <v>156793.7407422493</v>
       </c>
       <c r="H71" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>31655843</v>
+        <v>33257011</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3218359</v>
+        <v>3235739</v>
       </c>
       <c r="E72" t="n">
-        <v>30494431</v>
+        <v>30659104</v>
       </c>
       <c r="F72" t="n">
-        <v>4051.677468436723</v>
+        <v>4067.325496590202</v>
       </c>
       <c r="G72" t="n">
-        <v>4636.450883332916</v>
+        <v>4583.578298603966</v>
       </c>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I72" t="n">
-        <v>221921</v>
+        <v>223569</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>32484968</v>
+        <v>34852798</v>
       </c>
       <c r="F73" t="n">
-        <v>5375.321989457871</v>
+        <v>6485.815691623235</v>
       </c>
       <c r="G73" t="n">
-        <v>6761.182335293057</v>
+        <v>3731.070095178084</v>
       </c>
       <c r="H73" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>5579835</v>
+        <v>5996382</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89008029</v>
+        <v>89007037</v>
       </c>
       <c r="E74" t="n">
-        <v>329022795</v>
+        <v>329017866</v>
       </c>
       <c r="F74" t="n">
-        <v>8403.834347412827</v>
+        <v>8214.308886463232</v>
       </c>
       <c r="G74" t="n">
-        <v>421.6273397163156</v>
+        <v>750.5100249545095</v>
       </c>
       <c r="H74" t="n">
-        <v>0.15</v>
+        <v>0.04</v>
       </c>
       <c r="I74" t="n">
-        <v>230622</v>
+        <v>231936</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23670311</v>
+        <v>23965455</v>
       </c>
       <c r="E75" t="n">
-        <v>23670311</v>
+        <v>23965455</v>
       </c>
       <c r="F75" t="n">
-        <v>24308.61801634421</v>
+        <v>15421.94335316516</v>
       </c>
       <c r="G75" t="n">
-        <v>30038.85357376753</v>
+        <v>26818.56719610675</v>
       </c>
       <c r="H75" t="n">
         <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>5753669</v>
+        <v>5869236</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>499904286</v>
+        <v>504692552</v>
       </c>
       <c r="E76" t="n">
-        <v>1740125215</v>
+        <v>1756792771</v>
       </c>
       <c r="F76" t="n">
-        <v>186977.7893860663</v>
+        <v>197454.3034181725</v>
       </c>
       <c r="G76" t="n">
-        <v>213909.9486596107</v>
+        <v>222798.4402261544</v>
       </c>
       <c r="H76" t="n">
-        <v>0.06</v>
+        <v>0.11</v>
       </c>
       <c r="I76" t="n">
-        <v>31609541</v>
+        <v>31915266</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5753318399</v>
+        <v>5757089962</v>
       </c>
       <c r="E77" t="n">
-        <v>5753318399</v>
+        <v>5757089962</v>
       </c>
       <c r="F77" t="n">
-        <v>10529.3975496666</v>
+        <v>10543.25448072535</v>
       </c>
       <c r="G77" t="n">
-        <v>93542.584220861</v>
+        <v>94958.46783583336</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>9470921</v>
+        <v>9464963</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7475001</v>
+        <v>7508021</v>
       </c>
       <c r="E78" t="n">
-        <v>19419248</v>
+        <v>19505030</v>
       </c>
       <c r="F78" t="n">
-        <v>2723.629560119415</v>
+        <v>2917.953406495608</v>
       </c>
       <c r="G78" t="n">
-        <v>3170.067756340513</v>
+        <v>2624.701493935444</v>
       </c>
       <c r="H78" t="n">
         <v>0.21</v>
       </c>
       <c r="I78" t="n">
-        <v>717079</v>
+        <v>714375</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>106663792</v>
+        <v>109469681</v>
       </c>
       <c r="E79" t="n">
-        <v>161607968</v>
+        <v>165859214</v>
       </c>
       <c r="F79" t="n">
-        <v>42580.06269909643</v>
+        <v>38256.41655455235</v>
       </c>
       <c r="G79" t="n">
-        <v>46898.92890573113</v>
+        <v>40107.47774598846</v>
       </c>
       <c r="H79" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="I79" t="n">
-        <v>8050229</v>
+        <v>8356899</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2626705</v>
+        <v>2661908</v>
       </c>
       <c r="E80" t="n">
-        <v>10506818</v>
+        <v>10647630</v>
       </c>
       <c r="F80" t="n">
-        <v>75340.18357382793</v>
+        <v>71678.93815247157</v>
       </c>
       <c r="G80" t="n">
-        <v>27827.52367240572</v>
+        <v>10732.44871842383</v>
       </c>
       <c r="H80" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>6890832</v>
+        <v>6956866</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2517678</v>
+        <v>2527694</v>
       </c>
       <c r="F81" t="n">
-        <v>1916.775458004343</v>
+        <v>1309.756578425864</v>
       </c>
       <c r="G81" t="n">
-        <v>537.6544658544467</v>
+        <v>764.5198685262677</v>
       </c>
       <c r="H81" t="n">
-        <v>0.28</v>
+        <v>0.31</v>
       </c>
       <c r="I81" t="n">
-        <v>285688</v>
+        <v>290576</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>404437044</v>
+        <v>408508602</v>
       </c>
       <c r="E82" t="n">
-        <v>2311068823</v>
+        <v>2334334868</v>
       </c>
       <c r="F82" t="n">
-        <v>137637.6190088206</v>
+        <v>74671.8841362033</v>
       </c>
       <c r="G82" t="n">
-        <v>180323.4242126586</v>
+        <v>175142.5316719579</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>39620521</v>
+        <v>40156336</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4134456</v>
+        <v>4167843</v>
       </c>
       <c r="F2" t="n">
-        <v>1334.283150715601</v>
+        <v>903.7814489002998</v>
       </c>
       <c r="G2" t="n">
-        <v>355.0424763282022</v>
+        <v>380.4457202008483</v>
       </c>
       <c r="H2" t="n">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="I2" t="n">
-        <v>147313</v>
+        <v>148462</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1358479</v>
+        <v>1354818</v>
       </c>
       <c r="E3" t="n">
-        <v>4391161</v>
+        <v>4379329</v>
       </c>
       <c r="F3" t="n">
-        <v>4699.750564709806</v>
+        <v>6669.246211325838</v>
       </c>
       <c r="G3" t="n">
-        <v>8971.685883934028</v>
+        <v>10840.04569141812</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.16</v>
       </c>
       <c r="I3" t="n">
-        <v>126855</v>
+        <v>133118</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>249953270</v>
+        <v>253228938</v>
       </c>
       <c r="E4" t="n">
-        <v>1567421821</v>
+        <v>1587963075</v>
       </c>
       <c r="F4" t="n">
-        <v>234979.657198368</v>
+        <v>255060.1274611811</v>
       </c>
       <c r="G4" t="n">
-        <v>254532.8787900222</v>
+        <v>261312.163631421</v>
       </c>
       <c r="H4" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I4" t="n">
-        <v>17289021</v>
+        <v>18506051</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>149214893</v>
+        <v>150961450</v>
       </c>
       <c r="E5" t="n">
-        <v>165353421</v>
+        <v>167288879</v>
       </c>
       <c r="F5" t="n">
-        <v>83379.37445393702</v>
+        <v>84542.69000019851</v>
       </c>
       <c r="G5" t="n">
-        <v>119006.7517787152</v>
+        <v>102951.6887528651</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>38362735</v>
+        <v>39165234</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>127952617</v>
+        <v>129663844</v>
       </c>
       <c r="E6" t="n">
-        <v>501535946</v>
+        <v>508243444</v>
       </c>
       <c r="F6" t="n">
-        <v>18786.25507880346</v>
+        <v>23092.62499508077</v>
       </c>
       <c r="G6" t="n">
-        <v>43526.23104492176</v>
+        <v>44413.54968733792</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>29456683</v>
+        <v>29774341</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4576513</v>
+        <v>4610354</v>
       </c>
       <c r="E7" t="n">
-        <v>28107371</v>
+        <v>28315216</v>
       </c>
       <c r="F7" t="n">
-        <v>2902.900001342321</v>
+        <v>2713.352178412511</v>
       </c>
       <c r="G7" t="n">
-        <v>2911.348296155438</v>
+        <v>2454.506988208189</v>
       </c>
       <c r="H7" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>672603</v>
+        <v>681450</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198018</v>
+        <v>198060</v>
       </c>
       <c r="E8" t="n">
-        <v>2178411</v>
+        <v>2178878</v>
       </c>
       <c r="F8" t="n">
-        <v>3727.10750072245</v>
+        <v>4207.259304339686</v>
       </c>
       <c r="G8" t="n">
-        <v>5552.367874434832</v>
+        <v>5799.405119817849</v>
       </c>
       <c r="H8" t="n">
-        <v>0.41</v>
+        <v>0.23</v>
       </c>
       <c r="I8" t="n">
-        <v>27692</v>
+        <v>27696</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>71794535</v>
+        <v>72108455</v>
       </c>
       <c r="E9" t="n">
-        <v>124324865</v>
+        <v>124868474</v>
       </c>
       <c r="F9" t="n">
-        <v>9258.635398569537</v>
+        <v>9024.930391844866</v>
       </c>
       <c r="G9" t="n">
-        <v>11785.04789537133</v>
+        <v>11608.77278430918</v>
       </c>
       <c r="H9" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>793250</v>
+        <v>757459</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8799164</v>
+        <v>8809983</v>
       </c>
       <c r="E10" t="n">
-        <v>12454563</v>
+        <v>12469876</v>
       </c>
       <c r="F10" t="n">
-        <v>3923.225891057937</v>
+        <v>4222.187696546102</v>
       </c>
       <c r="G10" t="n">
-        <v>4522.265257144973</v>
+        <v>4306.324752537605</v>
       </c>
       <c r="H10" t="n">
         <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>70052</v>
+        <v>70306</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>485560161</v>
+        <v>492965666</v>
       </c>
       <c r="E11" t="n">
-        <v>485560167</v>
+        <v>492965673</v>
       </c>
       <c r="F11" t="n">
-        <v>36339.23636291374</v>
+        <v>39895.18744766708</v>
       </c>
       <c r="G11" t="n">
-        <v>71512.27082780297</v>
+        <v>75908.73126757069</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>65132681</v>
+        <v>78036672</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>315659</v>
+        <v>313227</v>
       </c>
       <c r="E12" t="n">
-        <v>1473527</v>
+        <v>1462175</v>
       </c>
       <c r="F12" t="n">
-        <v>1663.081767725116</v>
+        <v>1572.48793857066</v>
       </c>
       <c r="G12" t="n">
-        <v>1668.951166655984</v>
+        <v>1124.994289857243</v>
       </c>
       <c r="H12" t="n">
-        <v>0.66</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I12" t="n">
-        <v>702880</v>
+        <v>699901</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1465967</v>
+        <v>1457407</v>
       </c>
       <c r="F13" t="n">
-        <v>4691.232302731089</v>
+        <v>4666.858878113148</v>
       </c>
       <c r="G13" t="n">
-        <v>1211.746950986192</v>
+        <v>589.9898393947476</v>
       </c>
       <c r="H13" t="n">
-        <v>0.27</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>320517</v>
+        <v>243186</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12777131</v>
+        <v>12788000</v>
       </c>
       <c r="E14" t="n">
-        <v>31799968</v>
+        <v>31827019</v>
       </c>
       <c r="F14" t="n">
-        <v>523.9698511221297</v>
+        <v>415.7297343320753</v>
       </c>
       <c r="G14" t="n">
-        <v>627.353652011506</v>
+        <v>771.6080143259466</v>
       </c>
       <c r="H14" t="n">
-        <v>0.76</v>
+        <v>0.63</v>
       </c>
       <c r="I14" t="n">
-        <v>1246867</v>
+        <v>1250861</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116701377</v>
+        <v>117417421</v>
       </c>
       <c r="E15" t="n">
-        <v>453961675</v>
+        <v>456737647</v>
       </c>
       <c r="F15" t="n">
-        <v>47121.72784380979</v>
+        <v>46981.126367829</v>
       </c>
       <c r="G15" t="n">
-        <v>104635.3487197359</v>
+        <v>97259.7588047574</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>9289839</v>
+        <v>9674489</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5402488</v>
+        <v>5367648</v>
       </c>
       <c r="E16" t="n">
-        <v>7952756</v>
+        <v>7901468</v>
       </c>
       <c r="F16" t="n">
-        <v>3935.359708676091</v>
+        <v>2194.901504767382</v>
       </c>
       <c r="G16" t="n">
-        <v>2106.235510109786</v>
+        <v>2055.531629511581</v>
       </c>
       <c r="H16" t="n">
-        <v>0.65</v>
+        <v>0.64</v>
       </c>
       <c r="I16" t="n">
-        <v>659213</v>
+        <v>588288</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2072773</v>
+        <v>2055291</v>
       </c>
       <c r="F17" t="n">
-        <v>422.199114462298</v>
+        <v>444.764965871503</v>
       </c>
       <c r="G17" t="n">
-        <v>21.40315355730929</v>
+        <v>31.52112660975484</v>
       </c>
       <c r="H17" t="n">
-        <v>1.17</v>
+        <v>1.47</v>
       </c>
       <c r="I17" t="n">
-        <v>134922</v>
+        <v>133874</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="E18" t="n">
-        <v>143147077</v>
+        <v>144764227</v>
       </c>
       <c r="F18" t="n">
-        <v>125517.0922038428</v>
+        <v>141304.7249775558</v>
       </c>
       <c r="G18" t="n">
-        <v>163612.2742492245</v>
+        <v>160821.2059251019</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>70319634</v>
+        <v>72158657</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68427863</v>
+        <v>68943304</v>
       </c>
       <c r="E19" t="n">
-        <v>350912116</v>
+        <v>353555405</v>
       </c>
       <c r="F19" t="n">
-        <v>18679.42734895513</v>
+        <v>14578.08510178135</v>
       </c>
       <c r="G19" t="n">
-        <v>17309.03646821236</v>
+        <v>19610.94892515397</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>24760749</v>
+        <v>25375903</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="E20" t="n">
-        <v>264115624</v>
+        <v>268272727</v>
       </c>
       <c r="F20" t="n">
-        <v>71469.77353401291</v>
+        <v>74835.1004802042</v>
       </c>
       <c r="G20" t="n">
-        <v>91953.6750990697</v>
+        <v>81328.3686680449</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>18335728</v>
+        <v>17879080</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>187477485</v>
+        <v>192176693</v>
       </c>
       <c r="E21" t="n">
-        <v>246698444</v>
+        <v>252882052</v>
       </c>
       <c r="F21" t="n">
-        <v>11208.73528578019</v>
+        <v>9747.971580645606</v>
       </c>
       <c r="G21" t="n">
-        <v>23911.18592785982</v>
+        <v>26801.2622984925</v>
       </c>
       <c r="H21" t="n">
-        <v>0.31</v>
+        <v>0.26</v>
       </c>
       <c r="I21" t="n">
-        <v>10121887</v>
+        <v>10543068</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84809181</v>
+        <v>86357057</v>
       </c>
       <c r="E22" t="n">
-        <v>237310445</v>
+        <v>241540799</v>
       </c>
       <c r="F22" t="n">
-        <v>20141.02667070621</v>
+        <v>20419.96741766795</v>
       </c>
       <c r="G22" t="n">
-        <v>45844.36088873071</v>
+        <v>42683.35323361546</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="I22" t="n">
-        <v>44231305</v>
+        <v>50556284</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79258660</v>
+        <v>80690839</v>
       </c>
       <c r="E23" t="n">
-        <v>165294554</v>
+        <v>168281377</v>
       </c>
       <c r="F23" t="n">
-        <v>27120.95665117714</v>
+        <v>27955.7586998936</v>
       </c>
       <c r="G23" t="n">
-        <v>38926.61904165101</v>
+        <v>42772.1771003403</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I23" t="n">
-        <v>19107653</v>
+        <v>19897001</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>662049139</v>
+        <v>679978748</v>
       </c>
       <c r="E24" t="n">
-        <v>662049139</v>
+        <v>679978748</v>
       </c>
       <c r="F24" t="n">
-        <v>181402.6302157672</v>
+        <v>231265.7013987017</v>
       </c>
       <c r="G24" t="n">
-        <v>286912.5195223197</v>
+        <v>213991.2846374296</v>
       </c>
       <c r="H24" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>306148578</v>
+        <v>328377986</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>209794835</v>
+        <v>210238235</v>
       </c>
       <c r="E25" t="n">
-        <v>728846218</v>
+        <v>730386628</v>
       </c>
       <c r="F25" t="n">
-        <v>86924.35219164607</v>
+        <v>91823.94066626286</v>
       </c>
       <c r="G25" t="n">
-        <v>365254.2200108904</v>
+        <v>353988.9048051519</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>29703389</v>
+        <v>29843640</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5774855</v>
+        <v>5772949</v>
       </c>
       <c r="E26" t="n">
-        <v>7845465</v>
+        <v>7842876</v>
       </c>
       <c r="F26" t="n">
-        <v>1880.088022256992</v>
+        <v>1824.781112405559</v>
       </c>
       <c r="G26" t="n">
-        <v>507.0321696171519</v>
+        <v>3006.210151798853</v>
       </c>
       <c r="H26" t="n">
         <v>0.35</v>
       </c>
       <c r="I26" t="n">
-        <v>5598647</v>
+        <v>5611245</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15038911</v>
+        <v>15031982</v>
       </c>
       <c r="F27" t="n">
-        <v>2970.081945325261</v>
+        <v>2375.357225507971</v>
       </c>
       <c r="G27" t="n">
-        <v>1565.836299021536</v>
+        <v>2898.245205319693</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>0.91</v>
       </c>
       <c r="I27" t="n">
-        <v>279985</v>
+        <v>277098</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26180717</v>
+        <v>26799795</v>
       </c>
       <c r="E28" t="n">
-        <v>37005421</v>
+        <v>37880200</v>
       </c>
       <c r="F28" t="n">
-        <v>91.07308591482584</v>
+        <v>6476.704203552063</v>
       </c>
       <c r="G28" t="n">
-        <v>2487.870975837799</v>
+        <v>93.82403601788489</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I28" t="n">
-        <v>58535</v>
+        <v>78088</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>275861406</v>
+        <v>279667493</v>
       </c>
       <c r="E29" t="n">
-        <v>1190770968</v>
+        <v>1207200153</v>
       </c>
       <c r="F29" t="n">
-        <v>354433.4264264697</v>
+        <v>379868.8969382032</v>
       </c>
       <c r="G29" t="n">
-        <v>354333.2381445194</v>
+        <v>348166.1664471803</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>101854556</v>
+        <v>106035481</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11564849</v>
+        <v>12102274</v>
       </c>
       <c r="E30" t="n">
-        <v>139601043</v>
+        <v>146088384</v>
       </c>
       <c r="F30" t="n">
-        <v>3545.955057338512</v>
+        <v>2375.270022710892</v>
       </c>
       <c r="G30" t="n">
-        <v>3820.863571850456</v>
+        <v>3403.522369703205</v>
       </c>
       <c r="H30" t="n">
-        <v>0.22</v>
+        <v>0.27</v>
       </c>
       <c r="I30" t="n">
-        <v>364864</v>
+        <v>441834</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19468260</v>
+        <v>19685364</v>
       </c>
       <c r="E31" t="n">
-        <v>48670650</v>
+        <v>49213410</v>
       </c>
       <c r="F31" t="n">
-        <v>13133.41287475536</v>
+        <v>15437.65217257016</v>
       </c>
       <c r="G31" t="n">
-        <v>10277.37278487523</v>
+        <v>10953.35040002553</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I31" t="n">
-        <v>2066750</v>
+        <v>2117636</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19817055</v>
+        <v>19893691</v>
       </c>
       <c r="F32" t="n">
-        <v>2366.883861631382</v>
+        <v>2296.562540195971</v>
       </c>
       <c r="G32" t="n">
-        <v>2512.223090955666</v>
+        <v>2461.369163573557</v>
       </c>
       <c r="H32" t="n">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>41513</v>
+        <v>37743</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1344717</v>
+        <v>1343959</v>
       </c>
       <c r="E33" t="n">
-        <v>5013437</v>
+        <v>5010609</v>
       </c>
       <c r="F33" t="n">
-        <v>1820.294367505402</v>
+        <v>918.3316576895063</v>
       </c>
       <c r="G33" t="n">
-        <v>2493.557536801162</v>
+        <v>1920.347302444306</v>
       </c>
       <c r="H33" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="I33" t="n">
-        <v>577990</v>
+        <v>579468</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4273183</v>
+        <v>4271310</v>
       </c>
       <c r="E34" t="n">
-        <v>12308798</v>
+        <v>12303405</v>
       </c>
       <c r="F34" t="n">
-        <v>3663.987136417417</v>
+        <v>3189.895572009753</v>
       </c>
       <c r="G34" t="n">
-        <v>2902.126926679664</v>
+        <v>557.871198847783</v>
       </c>
       <c r="H34" t="n">
-        <v>0.98</v>
+        <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>601967</v>
+        <v>609637</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15261488</v>
+        <v>15542929</v>
       </c>
       <c r="E35" t="n">
-        <v>73913824</v>
+        <v>75276884</v>
       </c>
       <c r="F35" t="n">
-        <v>8872.443921870401</v>
+        <v>10079.86630350019</v>
       </c>
       <c r="G35" t="n">
-        <v>15264.88752487428</v>
+        <v>12093.83041936423</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2</v>
+        <v>0.36</v>
       </c>
       <c r="I35" t="n">
-        <v>3898754</v>
+        <v>4096963</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1440268</v>
+        <v>1511604</v>
       </c>
       <c r="E36" t="n">
-        <v>9426518</v>
+        <v>9893410</v>
       </c>
       <c r="F36" t="n">
-        <v>4066.661915412754</v>
+        <v>3575.838962525756</v>
       </c>
       <c r="G36" t="n">
-        <v>4753.347876354235</v>
+        <v>3447.575814894262</v>
       </c>
       <c r="H36" t="n">
-        <v>0.63</v>
+        <v>0.72</v>
       </c>
       <c r="I36" t="n">
-        <v>713656</v>
+        <v>696824</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1931807915</v>
+        <v>1932228312</v>
       </c>
       <c r="F37" t="n">
-        <v>77306.26342909707</v>
+        <v>80459.41746554113</v>
       </c>
       <c r="G37" t="n">
-        <v>75176.4947085618</v>
+        <v>74100.38380205219</v>
       </c>
       <c r="H37" t="n">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="I37" t="n">
-        <v>27809166</v>
+        <v>27735494</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1968952</v>
+        <v>1957652</v>
       </c>
       <c r="E38" t="n">
-        <v>14119159</v>
+        <v>14038126</v>
       </c>
       <c r="F38" t="n">
-        <v>3704.453058609772</v>
+        <v>3780.09792680677</v>
       </c>
       <c r="G38" t="n">
-        <v>5484.689046120277</v>
+        <v>5495.087365279297</v>
       </c>
       <c r="H38" t="n">
         <v>0.49</v>
       </c>
       <c r="I38" t="n">
-        <v>2051493</v>
+        <v>2042797</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>207409930</v>
+        <v>210409904</v>
       </c>
       <c r="E39" t="n">
-        <v>1174482467</v>
+        <v>1191470163</v>
       </c>
       <c r="F39" t="n">
-        <v>155145.6192184562</v>
+        <v>157907.8210472891</v>
       </c>
       <c r="G39" t="n">
-        <v>174195.3844345835</v>
+        <v>171228.8533470609</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I39" t="n">
-        <v>67983040</v>
+        <v>69514972</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>143742114</v>
+        <v>144140319</v>
       </c>
       <c r="E40" t="n">
-        <v>1064756401</v>
+        <v>1067706066</v>
       </c>
       <c r="F40" t="n">
-        <v>216182.2153129921</v>
+        <v>225390.9438122326</v>
       </c>
       <c r="G40" t="n">
-        <v>224781.6471268276</v>
+        <v>192082.3353135678</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8354311</v>
+        <v>8040063</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>348113619</v>
+        <v>350003596</v>
       </c>
       <c r="E41" t="n">
-        <v>3131845975</v>
+        <v>3148849381</v>
       </c>
       <c r="F41" t="n">
-        <v>190595.9003236775</v>
+        <v>212140.5427734322</v>
       </c>
       <c r="G41" t="n">
-        <v>224109.6082920003</v>
+        <v>220322.9312723159</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="I41" t="n">
-        <v>44561530</v>
+        <v>45426671</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1574479</v>
+        <v>1575041</v>
       </c>
       <c r="E42" t="n">
-        <v>13120659</v>
+        <v>13125343</v>
       </c>
       <c r="F42" t="n">
-        <v>2044.783331184657</v>
+        <v>2612.976620828309</v>
       </c>
       <c r="G42" t="n">
-        <v>4733.150191019956</v>
+        <v>4668.036680756912</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3</v>
+        <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>24597</v>
+        <v>24447</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23003387</v>
+        <v>23301540</v>
       </c>
       <c r="E43" t="n">
-        <v>68953577</v>
+        <v>69847302</v>
       </c>
       <c r="F43" t="n">
-        <v>58875.32672377706</v>
+        <v>58942.79437545918</v>
       </c>
       <c r="G43" t="n">
-        <v>57349.25122081261</v>
+        <v>61091.21905958185</v>
       </c>
       <c r="H43" t="n">
-        <v>0.14</v>
+        <v>0.31</v>
       </c>
       <c r="I43" t="n">
-        <v>3460990</v>
+        <v>3477286</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9460907</v>
+        <v>9452748</v>
       </c>
       <c r="F44" t="n">
-        <v>6004.344415815341</v>
+        <v>5652.129452382143</v>
       </c>
       <c r="G44" t="n">
-        <v>5655.983512427066</v>
+        <v>5678.640400306846</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.42</v>
       </c>
       <c r="I44" t="n">
-        <v>98617</v>
+        <v>98448</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13259958</v>
+        <v>13576004</v>
       </c>
       <c r="E45" t="n">
-        <v>13259958</v>
+        <v>13576004</v>
       </c>
       <c r="F45" t="n">
-        <v>1060.386652476774</v>
+        <v>299.5310072387668</v>
       </c>
       <c r="G45" t="n">
-        <v>1123.934985605342</v>
+        <v>1291.999597662463</v>
       </c>
       <c r="H45" t="n">
-        <v>0.67</v>
+        <v>0.73</v>
       </c>
       <c r="I45" t="n">
-        <v>3673494</v>
+        <v>3724585</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>315447064</v>
+        <v>323620695</v>
       </c>
       <c r="E46" t="n">
-        <v>315447064</v>
+        <v>323620695</v>
       </c>
       <c r="F46" t="n">
-        <v>46592.7783705539</v>
+        <v>29316.35784750546</v>
       </c>
       <c r="G46" t="n">
-        <v>46983.71612807504</v>
+        <v>42955.03845794235</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I46" t="n">
-        <v>15506383</v>
+        <v>15448249</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12802253</v>
+        <v>12854734</v>
       </c>
       <c r="E47" t="n">
-        <v>40495937</v>
+        <v>40661944</v>
       </c>
       <c r="F47" t="n">
-        <v>22167.3048635789</v>
+        <v>31429.3571106275</v>
       </c>
       <c r="G47" t="n">
-        <v>14242.65325094337</v>
+        <v>14600.3905356231</v>
       </c>
       <c r="H47" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
       <c r="I47" t="n">
-        <v>987206</v>
+        <v>982489</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32180847</v>
+        <v>32406690</v>
       </c>
       <c r="E48" t="n">
-        <v>89137754</v>
+        <v>89763315</v>
       </c>
       <c r="F48" t="n">
-        <v>5202.730087018222</v>
+        <v>3611.957859604377</v>
       </c>
       <c r="G48" t="n">
-        <v>4634.369197746486</v>
+        <v>6443.773048998835</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>12173763</v>
+        <v>11975047</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28252938</v>
+        <v>28308234</v>
       </c>
       <c r="E49" t="n">
-        <v>67121957</v>
+        <v>67253326</v>
       </c>
       <c r="F49" t="n">
-        <v>19210.22936288757</v>
+        <v>18894.10395950822</v>
       </c>
       <c r="G49" t="n">
-        <v>17455.76356046135</v>
+        <v>18569.84224665278</v>
       </c>
       <c r="H49" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>384972</v>
+        <v>414822</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12712255</v>
+        <v>12703672</v>
       </c>
       <c r="E50" t="n">
-        <v>19350919</v>
+        <v>19337853</v>
       </c>
       <c r="F50" t="n">
-        <v>7035.043321912297</v>
+        <v>6759.331202498174</v>
       </c>
       <c r="G50" t="n">
-        <v>18529.02436840148</v>
+        <v>18556.02619309499</v>
       </c>
       <c r="H50" t="n">
-        <v>0.55</v>
+        <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>731155</v>
+        <v>720969</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="E51" t="n">
-        <v>303568433</v>
+        <v>305926157</v>
       </c>
       <c r="F51" t="n">
-        <v>77687.17191285465</v>
+        <v>82385.23914742481</v>
       </c>
       <c r="G51" t="n">
-        <v>102761.9315642181</v>
+        <v>99610.0557984566</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>71788259</v>
+        <v>81613494</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>92353141</v>
+        <v>93857861</v>
       </c>
       <c r="E52" t="n">
-        <v>532178634</v>
+        <v>540849477</v>
       </c>
       <c r="F52" t="n">
-        <v>263046.5827504639</v>
+        <v>271013.8629204383</v>
       </c>
       <c r="G52" t="n">
-        <v>250719.7494339165</v>
+        <v>255633.9234965575</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>17406473</v>
+        <v>17809708</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31172332</v>
+        <v>31316660</v>
       </c>
       <c r="E53" t="n">
-        <v>139571317</v>
+        <v>140217532</v>
       </c>
       <c r="F53" t="n">
-        <v>37986.90875090406</v>
+        <v>39577.76702721997</v>
       </c>
       <c r="G53" t="n">
-        <v>52791.91245536307</v>
+        <v>46724.88073741994</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8515280</v>
+        <v>8675934</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9117562</v>
+        <v>9124337</v>
       </c>
       <c r="F54" t="n">
-        <v>2467.547050453336</v>
+        <v>2648.220382872438</v>
       </c>
       <c r="G54" t="n">
-        <v>4776.746999353691</v>
+        <v>4774.823618738349</v>
       </c>
       <c r="H54" t="n">
-        <v>0.66</v>
+        <v>0.22</v>
       </c>
       <c r="I54" t="n">
-        <v>294269</v>
+        <v>294228</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4796608</v>
+        <v>4797752</v>
       </c>
       <c r="F55" t="n">
-        <v>4274.923875938835</v>
+        <v>2557.901308153752</v>
       </c>
       <c r="G55" t="n">
-        <v>821.522682424657</v>
+        <v>1459.415907451502</v>
       </c>
       <c r="H55" t="n">
-        <v>0.83</v>
+        <v>0.42</v>
       </c>
       <c r="I55" t="n">
-        <v>180593</v>
+        <v>196040</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125306819</v>
+        <v>125262697</v>
       </c>
       <c r="E56" t="n">
-        <v>2075183547</v>
+        <v>2074452857</v>
       </c>
       <c r="F56" t="n">
-        <v>188482.5329486528</v>
+        <v>187462.0304074596</v>
       </c>
       <c r="G56" t="n">
-        <v>186552.029350955</v>
+        <v>185659.5357097045</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4486697</v>
+        <v>4573779</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>102536807</v>
+        <v>100893871</v>
       </c>
       <c r="E57" t="n">
-        <v>103640547</v>
+        <v>101979925</v>
       </c>
       <c r="F57" t="n">
-        <v>41103.89048079892</v>
+        <v>47891.92805565231</v>
       </c>
       <c r="G57" t="n">
-        <v>50032.13353022193</v>
+        <v>65314.22055480558</v>
       </c>
       <c r="H57" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>44649901</v>
+        <v>45755244</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>250175735</v>
+        <v>253709533</v>
       </c>
       <c r="E58" t="n">
-        <v>250175735</v>
+        <v>253709533</v>
       </c>
       <c r="F58" t="n">
-        <v>96541.9075847566</v>
+        <v>90594.81108290119</v>
       </c>
       <c r="G58" t="n">
-        <v>123710.5517768331</v>
+        <v>122308.7391106482</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>48807533</v>
+        <v>51730446</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>24907474</v>
+        <v>25242381</v>
       </c>
       <c r="E59" t="n">
-        <v>149026425</v>
+        <v>151030237</v>
       </c>
       <c r="F59" t="n">
-        <v>69943.20445423492</v>
+        <v>73567.27552106364</v>
       </c>
       <c r="G59" t="n">
-        <v>79637.09224340197</v>
+        <v>69448.52757578973</v>
       </c>
       <c r="H59" t="n">
         <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>12705921</v>
+        <v>12654272</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2347545</v>
+        <v>2400718</v>
       </c>
       <c r="E60" t="n">
-        <v>4332528</v>
+        <v>4430662</v>
       </c>
       <c r="F60" t="n">
-        <v>3869.206201752782</v>
+        <v>2697.828040896082</v>
       </c>
       <c r="G60" t="n">
-        <v>1945.227918763291</v>
+        <v>2515.784196607251</v>
       </c>
       <c r="H60" t="n">
-        <v>0.46</v>
+        <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>71994</v>
+        <v>28036</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11554568</v>
+        <v>11544615</v>
       </c>
       <c r="E62" t="n">
-        <v>34276987</v>
+        <v>34247462</v>
       </c>
       <c r="F62" t="n">
-        <v>6320.078285265996</v>
+        <v>7979.432858036681</v>
       </c>
       <c r="G62" t="n">
-        <v>6095.533411089878</v>
+        <v>4254.999628552058</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="I62" t="n">
-        <v>7428698</v>
+        <v>7356418</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14550517</v>
+        <v>14526469</v>
       </c>
       <c r="E63" t="n">
-        <v>29456633</v>
+        <v>29407950</v>
       </c>
       <c r="F63" t="n">
-        <v>4553.684317651417</v>
+        <v>3973.066768666079</v>
       </c>
       <c r="G63" t="n">
-        <v>18670.32051953319</v>
+        <v>20411.83810423805</v>
       </c>
       <c r="H63" t="n">
-        <v>0.31</v>
+        <v>0.34</v>
       </c>
       <c r="I63" t="n">
-        <v>559178</v>
+        <v>552800</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>39327778</v>
+        <v>40451066</v>
       </c>
       <c r="E64" t="n">
-        <v>278827527</v>
+        <v>286791459</v>
       </c>
       <c r="F64" t="n">
-        <v>54379.40090162079</v>
+        <v>45492.12000401963</v>
       </c>
       <c r="G64" t="n">
-        <v>62705.07754136638</v>
+        <v>59100.96635986263</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I64" t="n">
-        <v>1658056</v>
+        <v>1799472</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1275251</v>
+        <v>1279249</v>
       </c>
       <c r="E65" t="n">
-        <v>7907865</v>
+        <v>7932652</v>
       </c>
       <c r="F65" t="n">
-        <v>1994.685707324082</v>
+        <v>2095.201958979404</v>
       </c>
       <c r="G65" t="n">
-        <v>1920.089207012275</v>
+        <v>2028.541685420949</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I65" t="n">
-        <v>781527</v>
+        <v>783512</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>621555106</v>
+        <v>628721102</v>
       </c>
       <c r="E66" t="n">
-        <v>2407191222</v>
+        <v>2434944069</v>
       </c>
       <c r="F66" t="n">
-        <v>152208.1466353312</v>
+        <v>153556.1944331853</v>
       </c>
       <c r="G66" t="n">
-        <v>178985.6101213882</v>
+        <v>149680.145265885</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>33887304</v>
+        <v>36639348</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5897733</v>
+        <v>5873609</v>
       </c>
       <c r="E67" t="n">
-        <v>26400783</v>
+        <v>26292793</v>
       </c>
       <c r="F67" t="n">
-        <v>4791.90179683309</v>
+        <v>4530.823664625897</v>
       </c>
       <c r="G67" t="n">
-        <v>4223.252002214215</v>
+        <v>4037.380133591311</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.27</v>
       </c>
       <c r="I67" t="n">
-        <v>149740</v>
+        <v>151054</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>115292479</v>
+        <v>116410062</v>
       </c>
       <c r="E68" t="n">
-        <v>1071215618</v>
+        <v>1081599401</v>
       </c>
       <c r="F68" t="n">
-        <v>168479.84317731</v>
+        <v>168624.3165854732</v>
       </c>
       <c r="G68" t="n">
-        <v>161715.0084286041</v>
+        <v>165719.1084100648</v>
       </c>
       <c r="H68" t="n">
         <v>0.09</v>
       </c>
       <c r="I68" t="n">
-        <v>9171624</v>
+        <v>9394845</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>117995738</v>
+        <v>118806453</v>
       </c>
       <c r="E69" t="n">
-        <v>180005264</v>
+        <v>181242029</v>
       </c>
       <c r="F69" t="n">
-        <v>12663.80552444421</v>
+        <v>57827.69174928399</v>
       </c>
       <c r="G69" t="n">
-        <v>39041.45929084157</v>
+        <v>74764.056036259</v>
       </c>
       <c r="H69" t="n">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="I69" t="n">
-        <v>8469977</v>
+        <v>8587445</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1130775</v>
+        <v>1141244</v>
       </c>
       <c r="E70" t="n">
-        <v>4378606</v>
+        <v>4419145</v>
       </c>
       <c r="F70" t="n">
-        <v>3215.065520896625</v>
+        <v>2642.474181792071</v>
       </c>
       <c r="G70" t="n">
-        <v>2464.393236221614</v>
+        <v>2447.752110860201</v>
       </c>
       <c r="H70" t="n">
-        <v>0.45</v>
+        <v>0.22</v>
       </c>
       <c r="I70" t="n">
-        <v>321750</v>
+        <v>330832</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>126639276</v>
+        <v>128318971</v>
       </c>
       <c r="E71" t="n">
-        <v>485808647</v>
+        <v>492252228</v>
       </c>
       <c r="F71" t="n">
-        <v>154185.4253824779</v>
+        <v>156295.5867376766</v>
       </c>
       <c r="G71" t="n">
-        <v>156793.7407422493</v>
+        <v>160739.6395355844</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>33257011</v>
+        <v>33712552</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3235739</v>
+        <v>3279447</v>
       </c>
       <c r="E72" t="n">
-        <v>30659104</v>
+        <v>31073242</v>
       </c>
       <c r="F72" t="n">
-        <v>4067.325496590202</v>
+        <v>4199.002227305507</v>
       </c>
       <c r="G72" t="n">
-        <v>4583.578298603966</v>
+        <v>4079.528103592209</v>
       </c>
       <c r="H72" t="n">
-        <v>0.23</v>
+        <v>0.38</v>
       </c>
       <c r="I72" t="n">
-        <v>223569</v>
+        <v>225772</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>34852798</v>
+        <v>34615181</v>
       </c>
       <c r="F73" t="n">
-        <v>6485.815691623235</v>
+        <v>5383.643150386801</v>
       </c>
       <c r="G73" t="n">
-        <v>3731.070095178084</v>
+        <v>5106.288770969098</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="I73" t="n">
-        <v>5996382</v>
+        <v>6031148</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89007037</v>
+        <v>89029053</v>
       </c>
       <c r="E74" t="n">
-        <v>329017866</v>
+        <v>329099248</v>
       </c>
       <c r="F74" t="n">
-        <v>8214.308886463232</v>
+        <v>8205.596075028472</v>
       </c>
       <c r="G74" t="n">
-        <v>750.5100249545095</v>
+        <v>679.2060695899212</v>
       </c>
       <c r="H74" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>231936</v>
+        <v>232852</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23965455</v>
+        <v>24338986</v>
       </c>
       <c r="E75" t="n">
-        <v>23965455</v>
+        <v>24338986</v>
       </c>
       <c r="F75" t="n">
-        <v>15421.94335316516</v>
+        <v>24832.47932021202</v>
       </c>
       <c r="G75" t="n">
-        <v>26818.56719610675</v>
+        <v>25413.36190152311</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I75" t="n">
-        <v>5869236</v>
+        <v>5886582</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>504692552</v>
+        <v>510607856</v>
       </c>
       <c r="E76" t="n">
-        <v>1756792771</v>
+        <v>1777383452</v>
       </c>
       <c r="F76" t="n">
-        <v>197454.3034181725</v>
+        <v>205424.9661815801</v>
       </c>
       <c r="G76" t="n">
-        <v>222798.4402261544</v>
+        <v>219403.1124269149</v>
       </c>
       <c r="H76" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31915266</v>
+        <v>31909515</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5757089962</v>
+        <v>5857261949</v>
       </c>
       <c r="E77" t="n">
-        <v>5757089962</v>
+        <v>5855309865</v>
       </c>
       <c r="F77" t="n">
-        <v>10543.25448072535</v>
+        <v>10512.81597594791</v>
       </c>
       <c r="G77" t="n">
-        <v>94958.46783583336</v>
+        <v>95660.49755592115</v>
       </c>
       <c r="H77" t="n">
         <v>0.16</v>
       </c>
       <c r="I77" t="n">
-        <v>9464963</v>
+        <v>8488911</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7508021</v>
+        <v>7495869</v>
       </c>
       <c r="E78" t="n">
-        <v>19505030</v>
+        <v>19473461</v>
       </c>
       <c r="F78" t="n">
-        <v>2917.953406495608</v>
+        <v>2924.001341673371</v>
       </c>
       <c r="G78" t="n">
-        <v>2624.701493935444</v>
+        <v>3088.83556816932</v>
       </c>
       <c r="H78" t="n">
-        <v>0.21</v>
+        <v>0.26</v>
       </c>
       <c r="I78" t="n">
-        <v>714375</v>
+        <v>717845</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109469681</v>
+        <v>111584607</v>
       </c>
       <c r="E79" t="n">
-        <v>165859214</v>
+        <v>169063572</v>
       </c>
       <c r="F79" t="n">
-        <v>38256.41655455235</v>
+        <v>39518.23782692227</v>
       </c>
       <c r="G79" t="n">
-        <v>40107.47774598846</v>
+        <v>40799.47663024323</v>
       </c>
       <c r="H79" t="n">
-        <v>0.06</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>8356899</v>
+        <v>8514413</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2661908</v>
+        <v>2637059</v>
       </c>
       <c r="E80" t="n">
-        <v>10647630</v>
+        <v>10548238</v>
       </c>
       <c r="F80" t="n">
-        <v>71678.93815247157</v>
+        <v>73521.44480909139</v>
       </c>
       <c r="G80" t="n">
-        <v>10732.44871842383</v>
+        <v>12716.92326966239</v>
       </c>
       <c r="H80" t="n">
         <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>6956866</v>
+        <v>7018351</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2527694</v>
+        <v>2565211</v>
       </c>
       <c r="F81" t="n">
-        <v>1309.756578425864</v>
+        <v>2240.821609397038</v>
       </c>
       <c r="G81" t="n">
-        <v>764.5198685262677</v>
+        <v>329.8939500372501</v>
       </c>
       <c r="H81" t="n">
         <v>0.31</v>
       </c>
       <c r="I81" t="n">
-        <v>290576</v>
+        <v>293829</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>408508602</v>
+        <v>413225439</v>
       </c>
       <c r="E82" t="n">
-        <v>2334334868</v>
+        <v>2361288223</v>
       </c>
       <c r="F82" t="n">
-        <v>74671.8841362033</v>
+        <v>117410.3904243774</v>
       </c>
       <c r="G82" t="n">
-        <v>175142.5316719579</v>
+        <v>130336.9543316156</v>
       </c>
       <c r="H82" t="n">
-        <v>0.09</v>
+        <v>0.18</v>
       </c>
       <c r="I82" t="n">
-        <v>40156336</v>
+        <v>41748779</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4167843</v>
+        <v>4133957</v>
       </c>
       <c r="F2" t="n">
-        <v>903.7814489002998</v>
+        <v>469.2595305944595</v>
       </c>
       <c r="G2" t="n">
-        <v>380.4457202008483</v>
+        <v>345.28331511771</v>
       </c>
       <c r="H2" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="I2" t="n">
-        <v>148462</v>
+        <v>150002</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1354818</v>
+        <v>1388118</v>
       </c>
       <c r="E3" t="n">
-        <v>4379329</v>
+        <v>4486967</v>
       </c>
       <c r="F3" t="n">
-        <v>6669.246211325838</v>
+        <v>4754.897592169261</v>
       </c>
       <c r="G3" t="n">
-        <v>10840.04569141812</v>
+        <v>8141.225939303108</v>
       </c>
       <c r="H3" t="n">
-        <v>0.16</v>
+        <v>0.29</v>
       </c>
       <c r="I3" t="n">
-        <v>133118</v>
+        <v>147586</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253228938</v>
+        <v>253911113</v>
       </c>
       <c r="E4" t="n">
-        <v>1587963075</v>
+        <v>1592240901</v>
       </c>
       <c r="F4" t="n">
-        <v>255060.1274611811</v>
+        <v>247765.3778146969</v>
       </c>
       <c r="G4" t="n">
-        <v>261312.163631421</v>
+        <v>257890.6976048601</v>
       </c>
       <c r="H4" t="n">
-        <v>0.12</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>18506051</v>
+        <v>17635534</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>150961450</v>
+        <v>152334345</v>
       </c>
       <c r="E5" t="n">
-        <v>167288879</v>
+        <v>168810261</v>
       </c>
       <c r="F5" t="n">
-        <v>84542.69000019851</v>
+        <v>88073.98796228813</v>
       </c>
       <c r="G5" t="n">
-        <v>102951.6887528651</v>
+        <v>112458.0228926112</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>39165234</v>
+        <v>40632817</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>129663844</v>
+        <v>129336639</v>
       </c>
       <c r="E6" t="n">
-        <v>508243444</v>
+        <v>506960899</v>
       </c>
       <c r="F6" t="n">
-        <v>23092.62499508077</v>
+        <v>19730.43478249126</v>
       </c>
       <c r="G6" t="n">
-        <v>44413.54968733792</v>
+        <v>45918.59977524796</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>29774341</v>
+        <v>29332389</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4610354</v>
+        <v>4713774</v>
       </c>
       <c r="E7" t="n">
-        <v>28315216</v>
+        <v>28950383</v>
       </c>
       <c r="F7" t="n">
-        <v>2713.352178412511</v>
+        <v>1778.750467748303</v>
       </c>
       <c r="G7" t="n">
-        <v>2454.506988208189</v>
+        <v>1260.589143933962</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="I7" t="n">
-        <v>681450</v>
+        <v>687817</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>198060</v>
+        <v>202084</v>
       </c>
       <c r="E8" t="n">
-        <v>2178878</v>
+        <v>2223150</v>
       </c>
       <c r="F8" t="n">
-        <v>4207.259304339686</v>
+        <v>2556.053462707744</v>
       </c>
       <c r="G8" t="n">
-        <v>5799.405119817849</v>
+        <v>2573.921502659503</v>
       </c>
       <c r="H8" t="n">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="I8" t="n">
-        <v>27696</v>
+        <v>30685</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72108455</v>
+        <v>72730144</v>
       </c>
       <c r="E9" t="n">
-        <v>124868474</v>
+        <v>125942027</v>
       </c>
       <c r="F9" t="n">
-        <v>9024.930391844866</v>
+        <v>4186.917054182035</v>
       </c>
       <c r="G9" t="n">
-        <v>11608.77278430918</v>
+        <v>16984.14555531751</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.4</v>
       </c>
       <c r="I9" t="n">
-        <v>757459</v>
+        <v>828791</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8809983</v>
+        <v>8801642</v>
       </c>
       <c r="E10" t="n">
-        <v>12469876</v>
+        <v>12458071</v>
       </c>
       <c r="F10" t="n">
-        <v>4222.187696546102</v>
+        <v>4252.935690485804</v>
       </c>
       <c r="G10" t="n">
-        <v>4306.324752537605</v>
+        <v>4395.342536575206</v>
       </c>
       <c r="H10" t="n">
         <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>70306</v>
+        <v>70347</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>492965666</v>
+        <v>484462244</v>
       </c>
       <c r="E11" t="n">
-        <v>492965673</v>
+        <v>484462245</v>
       </c>
       <c r="F11" t="n">
-        <v>39895.18744766708</v>
+        <v>43384.49257483137</v>
       </c>
       <c r="G11" t="n">
-        <v>75908.73126757069</v>
+        <v>69879.30606219881</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I11" t="n">
-        <v>78036672</v>
+        <v>66228538</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>313227</v>
+        <v>324769</v>
       </c>
       <c r="E12" t="n">
-        <v>1462175</v>
+        <v>1516052</v>
       </c>
       <c r="F12" t="n">
-        <v>1572.48793857066</v>
+        <v>86.61093848416525</v>
       </c>
       <c r="G12" t="n">
-        <v>1124.994289857243</v>
+        <v>1713.699699058271</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="I12" t="n">
-        <v>699901</v>
+        <v>709209</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1457407</v>
+        <v>1464779</v>
       </c>
       <c r="F13" t="n">
-        <v>4666.858878113148</v>
+        <v>4864.475183625662</v>
       </c>
       <c r="G13" t="n">
-        <v>589.9898393947476</v>
+        <v>873.3851705770055</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>243186</v>
+        <v>332448</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12788000</v>
+        <v>12669494</v>
       </c>
       <c r="E14" t="n">
-        <v>31827019</v>
+        <v>31532078</v>
       </c>
       <c r="F14" t="n">
-        <v>415.7297343320753</v>
+        <v>553.0521745325741</v>
       </c>
       <c r="G14" t="n">
-        <v>771.6080143259466</v>
+        <v>506.0489369469312</v>
       </c>
       <c r="H14" t="n">
-        <v>0.63</v>
+        <v>0.44</v>
       </c>
       <c r="I14" t="n">
-        <v>1250861</v>
+        <v>1283153</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>117417421</v>
+        <v>118615428</v>
       </c>
       <c r="E15" t="n">
-        <v>456737647</v>
+        <v>461371074</v>
       </c>
       <c r="F15" t="n">
-        <v>46981.126367829</v>
+        <v>60368.62506319909</v>
       </c>
       <c r="G15" t="n">
-        <v>97259.7588047574</v>
+        <v>104632.2283528251</v>
       </c>
       <c r="H15" t="n">
         <v>0.11</v>
       </c>
       <c r="I15" t="n">
-        <v>9674489</v>
+        <v>17235689</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5367648</v>
+        <v>5164115</v>
       </c>
       <c r="E16" t="n">
-        <v>7901468</v>
+        <v>7601858</v>
       </c>
       <c r="F16" t="n">
-        <v>2194.901504767382</v>
+        <v>1850.58298490379</v>
       </c>
       <c r="G16" t="n">
-        <v>2055.531629511581</v>
+        <v>3890.364622814867</v>
       </c>
       <c r="H16" t="n">
-        <v>0.64</v>
+        <v>0.52</v>
       </c>
       <c r="I16" t="n">
-        <v>588288</v>
+        <v>578318</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2055291</v>
+        <v>1993639</v>
       </c>
       <c r="F17" t="n">
-        <v>444.764965871503</v>
+        <v>674.9626842065769</v>
       </c>
       <c r="G17" t="n">
-        <v>31.52112660975484</v>
+        <v>913.4362397410697</v>
       </c>
       <c r="H17" t="n">
-        <v>1.47</v>
+        <v>0.49</v>
       </c>
       <c r="I17" t="n">
-        <v>133874</v>
+        <v>131393</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>144764227</v>
+        <v>145141077</v>
       </c>
       <c r="E18" t="n">
-        <v>144764227</v>
+        <v>145141077</v>
       </c>
       <c r="F18" t="n">
-        <v>141304.7249775558</v>
+        <v>147479.8465708489</v>
       </c>
       <c r="G18" t="n">
-        <v>160821.2059251019</v>
+        <v>153117.7236527722</v>
       </c>
       <c r="H18" t="n">
         <v>0.05</v>
       </c>
       <c r="I18" t="n">
-        <v>72158657</v>
+        <v>74581853</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>68943304</v>
+        <v>69756411</v>
       </c>
       <c r="E19" t="n">
-        <v>353555405</v>
+        <v>357725184</v>
       </c>
       <c r="F19" t="n">
-        <v>14578.08510178135</v>
+        <v>15733.79146944465</v>
       </c>
       <c r="G19" t="n">
-        <v>19610.94892515397</v>
+        <v>13880.58150636285</v>
       </c>
       <c r="H19" t="n">
         <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>25375903</v>
+        <v>26136560</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>268272727</v>
+        <v>268060614</v>
       </c>
       <c r="E20" t="n">
-        <v>268272727</v>
+        <v>268060614</v>
       </c>
       <c r="F20" t="n">
-        <v>74835.1004802042</v>
+        <v>75701.56284166611</v>
       </c>
       <c r="G20" t="n">
-        <v>81328.3686680449</v>
+        <v>91811.34851295281</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>17879080</v>
+        <v>15476433</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>192176693</v>
+        <v>195209134</v>
       </c>
       <c r="E21" t="n">
-        <v>252882052</v>
+        <v>256872391</v>
       </c>
       <c r="F21" t="n">
-        <v>9747.971580645606</v>
+        <v>16789.64971489475</v>
       </c>
       <c r="G21" t="n">
-        <v>26801.2622984925</v>
+        <v>33209.64882515041</v>
       </c>
       <c r="H21" t="n">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="I21" t="n">
-        <v>10543068</v>
+        <v>11349465</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>86357057</v>
+        <v>83723835</v>
       </c>
       <c r="E22" t="n">
-        <v>241540799</v>
+        <v>234216658</v>
       </c>
       <c r="F22" t="n">
-        <v>20419.96741766795</v>
+        <v>24535.05921436686</v>
       </c>
       <c r="G22" t="n">
-        <v>42683.35323361546</v>
+        <v>42772.3153055841</v>
       </c>
       <c r="H22" t="n">
-        <v>0.11</v>
+        <v>0.13</v>
       </c>
       <c r="I22" t="n">
-        <v>50556284</v>
+        <v>46881276</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80690839</v>
+        <v>80114890</v>
       </c>
       <c r="E23" t="n">
-        <v>168281377</v>
+        <v>167080230</v>
       </c>
       <c r="F23" t="n">
-        <v>27955.7586998936</v>
+        <v>31100.41121404784</v>
       </c>
       <c r="G23" t="n">
-        <v>42772.1771003403</v>
+        <v>40343.94867582843</v>
       </c>
       <c r="H23" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>19897001</v>
+        <v>20305313</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>679978748</v>
+        <v>679299013</v>
       </c>
       <c r="E24" t="n">
-        <v>679978748</v>
+        <v>679299013</v>
       </c>
       <c r="F24" t="n">
-        <v>231265.7013987017</v>
+        <v>178464.4708105881</v>
       </c>
       <c r="G24" t="n">
-        <v>213991.2846374296</v>
+        <v>307910.1862890684</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>328377986</v>
+        <v>345949922</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>210238235</v>
+        <v>210714523</v>
       </c>
       <c r="E25" t="n">
-        <v>730386628</v>
+        <v>732041295</v>
       </c>
       <c r="F25" t="n">
-        <v>91823.94066626286</v>
+        <v>92729.46906370918</v>
       </c>
       <c r="G25" t="n">
-        <v>353988.9048051519</v>
+        <v>360390.0271917781</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="I25" t="n">
-        <v>29843640</v>
+        <v>30038385</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5772949</v>
+        <v>5776326</v>
       </c>
       <c r="E26" t="n">
-        <v>7842876</v>
+        <v>7847464</v>
       </c>
       <c r="F26" t="n">
-        <v>1824.781112405559</v>
+        <v>733.0705189972958</v>
       </c>
       <c r="G26" t="n">
-        <v>3006.210151798853</v>
+        <v>229.9448086959482</v>
       </c>
       <c r="H26" t="n">
-        <v>0.35</v>
+        <v>0.48</v>
       </c>
       <c r="I26" t="n">
-        <v>5611245</v>
+        <v>5516251</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15031982</v>
+        <v>14884215</v>
       </c>
       <c r="F27" t="n">
-        <v>2375.357225507971</v>
+        <v>1731.785837916161</v>
       </c>
       <c r="G27" t="n">
-        <v>2898.245205319693</v>
+        <v>3125.977081020991</v>
       </c>
       <c r="H27" t="n">
-        <v>0.91</v>
+        <v>0.66</v>
       </c>
       <c r="I27" t="n">
-        <v>277098</v>
+        <v>265484</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26799795</v>
+        <v>26439653</v>
       </c>
       <c r="E28" t="n">
-        <v>37880200</v>
+        <v>37371157</v>
       </c>
       <c r="F28" t="n">
-        <v>6476.704203552063</v>
+        <v>591.1395738095819</v>
       </c>
       <c r="G28" t="n">
-        <v>93.82403601788489</v>
+        <v>938.8030824275236</v>
       </c>
       <c r="H28" t="n">
-        <v>0.24</v>
+        <v>0.14</v>
       </c>
       <c r="I28" t="n">
-        <v>78088</v>
+        <v>83286</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279667493</v>
+        <v>279955204</v>
       </c>
       <c r="E29" t="n">
-        <v>1207200153</v>
+        <v>1208442077</v>
       </c>
       <c r="F29" t="n">
-        <v>379868.8969382032</v>
+        <v>287181.0177647138</v>
       </c>
       <c r="G29" t="n">
-        <v>348166.1664471803</v>
+        <v>370477.9430609304</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>106035481</v>
+        <v>110690895</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>12102274</v>
+        <v>11817177</v>
       </c>
       <c r="E30" t="n">
-        <v>146088384</v>
+        <v>142646939</v>
       </c>
       <c r="F30" t="n">
-        <v>2375.270022710892</v>
+        <v>4065.471546657738</v>
       </c>
       <c r="G30" t="n">
-        <v>3403.522369703205</v>
+        <v>2088.06916909617</v>
       </c>
       <c r="H30" t="n">
-        <v>0.27</v>
+        <v>0.62</v>
       </c>
       <c r="I30" t="n">
-        <v>441834</v>
+        <v>431210</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19685364</v>
+        <v>19837113</v>
       </c>
       <c r="E31" t="n">
-        <v>49213410</v>
+        <v>49592783</v>
       </c>
       <c r="F31" t="n">
-        <v>15437.65217257016</v>
+        <v>9701.648768137795</v>
       </c>
       <c r="G31" t="n">
-        <v>10953.35040002553</v>
+        <v>14043.23772640619</v>
       </c>
       <c r="H31" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="I31" t="n">
-        <v>2117636</v>
+        <v>2016883</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19893691</v>
+        <v>19722716</v>
       </c>
       <c r="F32" t="n">
-        <v>2296.562540195971</v>
+        <v>2277.492266814006</v>
       </c>
       <c r="G32" t="n">
-        <v>2461.369163573557</v>
+        <v>2513.732492146065</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4</v>
+        <v>0.46</v>
       </c>
       <c r="I32" t="n">
-        <v>37743</v>
+        <v>45385</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1343959</v>
+        <v>1369172</v>
       </c>
       <c r="E33" t="n">
-        <v>5010609</v>
+        <v>5104611</v>
       </c>
       <c r="F33" t="n">
-        <v>918.3316576895063</v>
+        <v>2628.241117795325</v>
       </c>
       <c r="G33" t="n">
-        <v>1920.347302444306</v>
+        <v>2910.604182417354</v>
       </c>
       <c r="H33" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="I33" t="n">
-        <v>579468</v>
+        <v>606942</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4271310</v>
+        <v>4224364</v>
       </c>
       <c r="E34" t="n">
-        <v>12303405</v>
+        <v>12168177</v>
       </c>
       <c r="F34" t="n">
-        <v>3189.895572009753</v>
+        <v>1258.937491393279</v>
       </c>
       <c r="G34" t="n">
-        <v>557.871198847783</v>
+        <v>1020.230702886426</v>
       </c>
       <c r="H34" t="n">
-        <v>0.41</v>
+        <v>0.98</v>
       </c>
       <c r="I34" t="n">
-        <v>609637</v>
+        <v>598352</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15542929</v>
+        <v>15635295</v>
       </c>
       <c r="E35" t="n">
-        <v>75276884</v>
+        <v>75724228</v>
       </c>
       <c r="F35" t="n">
-        <v>10079.86630350019</v>
+        <v>10421.53198201217</v>
       </c>
       <c r="G35" t="n">
-        <v>12093.83041936423</v>
+        <v>13972.29147038245</v>
       </c>
       <c r="H35" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4096963</v>
+        <v>4213449</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1511604</v>
+        <v>1480724</v>
       </c>
       <c r="E36" t="n">
-        <v>9893410</v>
+        <v>9691299</v>
       </c>
       <c r="F36" t="n">
-        <v>3575.838962525756</v>
+        <v>4160.252931900573</v>
       </c>
       <c r="G36" t="n">
-        <v>3447.575814894262</v>
+        <v>1357.732543337653</v>
       </c>
       <c r="H36" t="n">
-        <v>0.72</v>
+        <v>0.52</v>
       </c>
       <c r="I36" t="n">
-        <v>696824</v>
+        <v>701508</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1932228312</v>
+        <v>1929205612</v>
       </c>
       <c r="F37" t="n">
-        <v>80459.41746554113</v>
+        <v>75224.29143321542</v>
       </c>
       <c r="G37" t="n">
-        <v>74100.38380205219</v>
+        <v>74846.81375998001</v>
       </c>
       <c r="H37" t="n">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>27735494</v>
+        <v>28069409</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1957652</v>
+        <v>1945557</v>
       </c>
       <c r="E38" t="n">
-        <v>14038126</v>
+        <v>13951395</v>
       </c>
       <c r="F38" t="n">
-        <v>3780.09792680677</v>
+        <v>3883.914976992841</v>
       </c>
       <c r="G38" t="n">
-        <v>5495.087365279297</v>
+        <v>5451.126635533769</v>
       </c>
       <c r="H38" t="n">
-        <v>0.49</v>
+        <v>0.7</v>
       </c>
       <c r="I38" t="n">
-        <v>2042797</v>
+        <v>2000891</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>210409904</v>
+        <v>208578487</v>
       </c>
       <c r="E39" t="n">
-        <v>1191470163</v>
+        <v>1181099551</v>
       </c>
       <c r="F39" t="n">
-        <v>157907.8210472891</v>
+        <v>146616.772861709</v>
       </c>
       <c r="G39" t="n">
-        <v>171228.8533470609</v>
+        <v>162626.5073214265</v>
       </c>
       <c r="H39" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>69514972</v>
+        <v>69838307</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>144140319</v>
+        <v>144925576</v>
       </c>
       <c r="E40" t="n">
-        <v>1067706066</v>
+        <v>1073522784</v>
       </c>
       <c r="F40" t="n">
-        <v>225390.9438122326</v>
+        <v>219842.535316526</v>
       </c>
       <c r="G40" t="n">
-        <v>192082.3353135678</v>
+        <v>202515.4292981085</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8040063</v>
+        <v>8372930</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>350003596</v>
+        <v>350341534</v>
       </c>
       <c r="E41" t="n">
-        <v>3148849381</v>
+        <v>3151889677</v>
       </c>
       <c r="F41" t="n">
-        <v>212140.5427734322</v>
+        <v>218159.7245772039</v>
       </c>
       <c r="G41" t="n">
-        <v>220322.9312723159</v>
+        <v>252560.5687261097</v>
       </c>
       <c r="H41" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>45426671</v>
+        <v>47253036</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1575041</v>
+        <v>1573241</v>
       </c>
       <c r="E42" t="n">
-        <v>13125343</v>
+        <v>13110343</v>
       </c>
       <c r="F42" t="n">
-        <v>2612.976620828309</v>
+        <v>1452.196020910259</v>
       </c>
       <c r="G42" t="n">
-        <v>4668.036680756912</v>
+        <v>4530.090087886602</v>
       </c>
       <c r="H42" t="n">
-        <v>0.23</v>
+        <v>0.08</v>
       </c>
       <c r="I42" t="n">
-        <v>24447</v>
+        <v>26535</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23301540</v>
+        <v>23162524</v>
       </c>
       <c r="E43" t="n">
-        <v>69847302</v>
+        <v>69429961</v>
       </c>
       <c r="F43" t="n">
-        <v>58942.79437545918</v>
+        <v>57976.9422510694</v>
       </c>
       <c r="G43" t="n">
-        <v>61091.21905958185</v>
+        <v>67896.76591822646</v>
       </c>
       <c r="H43" t="n">
-        <v>0.31</v>
+        <v>0.23</v>
       </c>
       <c r="I43" t="n">
-        <v>3477286</v>
+        <v>3502730</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9452748</v>
+        <v>9441259</v>
       </c>
       <c r="F44" t="n">
-        <v>5652.129452382143</v>
+        <v>5651.129326573343</v>
       </c>
       <c r="G44" t="n">
-        <v>5678.640400306846</v>
+        <v>6084.04897274481</v>
       </c>
       <c r="H44" t="n">
-        <v>0.42</v>
+        <v>0.63</v>
       </c>
       <c r="I44" t="n">
-        <v>98448</v>
+        <v>98616</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13576004</v>
+        <v>13586925</v>
       </c>
       <c r="E45" t="n">
-        <v>13576004</v>
+        <v>13586925</v>
       </c>
       <c r="F45" t="n">
-        <v>299.5310072387668</v>
+        <v>300.8666927516596</v>
       </c>
       <c r="G45" t="n">
-        <v>1291.999597662463</v>
+        <v>1368.41233390981</v>
       </c>
       <c r="H45" t="n">
-        <v>0.73</v>
+        <v>1.02</v>
       </c>
       <c r="I45" t="n">
-        <v>3724585</v>
+        <v>3889852</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>323620695</v>
+        <v>323615901</v>
       </c>
       <c r="E46" t="n">
-        <v>323620695</v>
+        <v>323615901</v>
       </c>
       <c r="F46" t="n">
-        <v>29316.35784750546</v>
+        <v>33034.19045054584</v>
       </c>
       <c r="G46" t="n">
-        <v>42955.03845794235</v>
+        <v>41659.75367089828</v>
       </c>
       <c r="H46" t="n">
         <v>0.24</v>
       </c>
       <c r="I46" t="n">
-        <v>15448249</v>
+        <v>15934278</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12854734</v>
+        <v>12771787</v>
       </c>
       <c r="E47" t="n">
-        <v>40661944</v>
+        <v>40399567</v>
       </c>
       <c r="F47" t="n">
-        <v>31429.3571106275</v>
+        <v>20265.16659672236</v>
       </c>
       <c r="G47" t="n">
-        <v>14600.3905356231</v>
+        <v>13758.42494535264</v>
       </c>
       <c r="H47" t="n">
-        <v>0.29</v>
+        <v>0.22</v>
       </c>
       <c r="I47" t="n">
-        <v>982489</v>
+        <v>972542</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>32406690</v>
+        <v>33034114</v>
       </c>
       <c r="E48" t="n">
-        <v>89763315</v>
+        <v>91501217</v>
       </c>
       <c r="F48" t="n">
-        <v>3611.957859604377</v>
+        <v>3990.874427937062</v>
       </c>
       <c r="G48" t="n">
-        <v>6443.773048998835</v>
+        <v>6881.157719228739</v>
       </c>
       <c r="H48" t="n">
         <v>0.2</v>
       </c>
       <c r="I48" t="n">
-        <v>11975047</v>
+        <v>12087270</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28308234</v>
+        <v>28414143</v>
       </c>
       <c r="E49" t="n">
-        <v>67253326</v>
+        <v>67504938</v>
       </c>
       <c r="F49" t="n">
-        <v>18894.10395950822</v>
+        <v>18458.05268646876</v>
       </c>
       <c r="G49" t="n">
-        <v>18569.84224665278</v>
+        <v>11356.31016357881</v>
       </c>
       <c r="H49" t="n">
         <v>0.09</v>
       </c>
       <c r="I49" t="n">
-        <v>414822</v>
+        <v>412938</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12703672</v>
+        <v>12734681</v>
       </c>
       <c r="E50" t="n">
-        <v>19337853</v>
+        <v>19385056</v>
       </c>
       <c r="F50" t="n">
-        <v>6759.331202498174</v>
+        <v>4835.968958205248</v>
       </c>
       <c r="G50" t="n">
-        <v>18556.02619309499</v>
+        <v>17613.37085648919</v>
       </c>
       <c r="H50" t="n">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="I50" t="n">
-        <v>720969</v>
+        <v>693685</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="E51" t="n">
-        <v>305926157</v>
+        <v>304625998</v>
       </c>
       <c r="F51" t="n">
-        <v>82385.23914742481</v>
+        <v>91523.17482461066</v>
       </c>
       <c r="G51" t="n">
-        <v>99610.0557984566</v>
+        <v>108361.650288752</v>
       </c>
       <c r="H51" t="n">
         <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>81613494</v>
+        <v>80737900</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>93857861</v>
+        <v>93495183</v>
       </c>
       <c r="E52" t="n">
-        <v>540849477</v>
+        <v>538759571</v>
       </c>
       <c r="F52" t="n">
-        <v>271013.8629204383</v>
+        <v>267599.2253567936</v>
       </c>
       <c r="G52" t="n">
-        <v>255633.9234965575</v>
+        <v>197487.3009363937</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>17809708</v>
+        <v>18323439</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31316660</v>
+        <v>31792551</v>
       </c>
       <c r="E53" t="n">
-        <v>140217532</v>
+        <v>142348292</v>
       </c>
       <c r="F53" t="n">
-        <v>39577.76702721997</v>
+        <v>22444.73101091406</v>
       </c>
       <c r="G53" t="n">
-        <v>46724.88073741994</v>
+        <v>41522.8061838765</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8675934</v>
+        <v>7963095</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9124337</v>
+        <v>9102600</v>
       </c>
       <c r="F54" t="n">
-        <v>2648.220382872438</v>
+        <v>2568.227400486574</v>
       </c>
       <c r="G54" t="n">
-        <v>4774.823618738349</v>
+        <v>4766.692002125157</v>
       </c>
       <c r="H54" t="n">
-        <v>0.22</v>
+        <v>0.11</v>
       </c>
       <c r="I54" t="n">
-        <v>294228</v>
+        <v>295025</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4797752</v>
+        <v>4849077</v>
       </c>
       <c r="F55" t="n">
-        <v>2557.901308153752</v>
+        <v>4533.115371083617</v>
       </c>
       <c r="G55" t="n">
-        <v>1459.415907451502</v>
+        <v>1373.442706921814</v>
       </c>
       <c r="H55" t="n">
-        <v>0.42</v>
+        <v>0.5</v>
       </c>
       <c r="I55" t="n">
-        <v>196040</v>
+        <v>218547</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125262697</v>
+        <v>124991047</v>
       </c>
       <c r="E56" t="n">
-        <v>2074452857</v>
+        <v>2069954106</v>
       </c>
       <c r="F56" t="n">
-        <v>187462.0304074596</v>
+        <v>188816.6310657175</v>
       </c>
       <c r="G56" t="n">
-        <v>185659.5357097045</v>
+        <v>178314.4990691015</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4573779</v>
+        <v>4652701</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>100893871</v>
+        <v>100396307</v>
       </c>
       <c r="E57" t="n">
-        <v>101979925</v>
+        <v>101477005</v>
       </c>
       <c r="F57" t="n">
-        <v>47891.92805565231</v>
+        <v>51506.30582820953</v>
       </c>
       <c r="G57" t="n">
-        <v>65314.22055480558</v>
+        <v>65288.1236018184</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I57" t="n">
-        <v>45755244</v>
+        <v>47693326</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>253709533</v>
+        <v>256650595</v>
       </c>
       <c r="E58" t="n">
-        <v>253709533</v>
+        <v>256650595</v>
       </c>
       <c r="F58" t="n">
-        <v>90594.81108290119</v>
+        <v>86059.35096290364</v>
       </c>
       <c r="G58" t="n">
-        <v>122308.7391106482</v>
+        <v>130298.0404744901</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>51730446</v>
+        <v>51797447</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25242381</v>
+        <v>25185777</v>
       </c>
       <c r="E59" t="n">
-        <v>151030237</v>
+        <v>150691564</v>
       </c>
       <c r="F59" t="n">
-        <v>73567.27552106364</v>
+        <v>72181.14556560514</v>
       </c>
       <c r="G59" t="n">
-        <v>69448.52757578973</v>
+        <v>77512.6755525725</v>
       </c>
       <c r="H59" t="n">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="I59" t="n">
-        <v>12654272</v>
+        <v>13128766</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2400718</v>
+        <v>2413004</v>
       </c>
       <c r="E60" t="n">
-        <v>4430662</v>
+        <v>4453337</v>
       </c>
       <c r="F60" t="n">
-        <v>2697.828040896082</v>
+        <v>2729.639549290071</v>
       </c>
       <c r="G60" t="n">
-        <v>2515.784196607251</v>
+        <v>2506.660199570945</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>28036</v>
+        <v>28329</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11544615</v>
+        <v>11623897</v>
       </c>
       <c r="E62" t="n">
-        <v>34247462</v>
+        <v>34482654</v>
       </c>
       <c r="F62" t="n">
-        <v>7979.432858036681</v>
+        <v>11186.44021292297</v>
       </c>
       <c r="G62" t="n">
-        <v>4254.999628552058</v>
+        <v>5635.378937870978</v>
       </c>
       <c r="H62" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="I62" t="n">
-        <v>7356418</v>
+        <v>7391874</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14526469</v>
+        <v>14597460</v>
       </c>
       <c r="E63" t="n">
-        <v>29407950</v>
+        <v>29551666</v>
       </c>
       <c r="F63" t="n">
-        <v>3973.066768666079</v>
+        <v>6313.185659288485</v>
       </c>
       <c r="G63" t="n">
-        <v>20411.83810423805</v>
+        <v>12100.53173058901</v>
       </c>
       <c r="H63" t="n">
-        <v>0.34</v>
+        <v>0.41</v>
       </c>
       <c r="I63" t="n">
-        <v>552800</v>
+        <v>543792</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40451066</v>
+        <v>40608755</v>
       </c>
       <c r="E64" t="n">
-        <v>286791459</v>
+        <v>287909451</v>
       </c>
       <c r="F64" t="n">
-        <v>45492.12000401963</v>
+        <v>65689.21938434594</v>
       </c>
       <c r="G64" t="n">
-        <v>59100.96635986263</v>
+        <v>33938.92103148116</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1799472</v>
+        <v>1827142</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1279249</v>
+        <v>1281779</v>
       </c>
       <c r="E65" t="n">
-        <v>7932652</v>
+        <v>7948319</v>
       </c>
       <c r="F65" t="n">
-        <v>2095.201958979404</v>
+        <v>2133.325370826495</v>
       </c>
       <c r="G65" t="n">
-        <v>2028.541685420949</v>
+        <v>1965.120825107218</v>
       </c>
       <c r="H65" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I65" t="n">
-        <v>783512</v>
+        <v>784886</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>628721102</v>
+        <v>631138539</v>
       </c>
       <c r="E66" t="n">
-        <v>2434944069</v>
+        <v>2444306442</v>
       </c>
       <c r="F66" t="n">
-        <v>153556.1944331853</v>
+        <v>134718.7091540993</v>
       </c>
       <c r="G66" t="n">
-        <v>149680.145265885</v>
+        <v>152298.8955688939</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>36639348</v>
+        <v>38856542</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5873609</v>
+        <v>5872751</v>
       </c>
       <c r="E67" t="n">
-        <v>26292793</v>
+        <v>26288955</v>
       </c>
       <c r="F67" t="n">
-        <v>4530.823664625897</v>
+        <v>4532.960880552953</v>
       </c>
       <c r="G67" t="n">
-        <v>4037.380133591311</v>
+        <v>4077.100530234796</v>
       </c>
       <c r="H67" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>151054</v>
+        <v>151036</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116410062</v>
+        <v>116730385</v>
       </c>
       <c r="E68" t="n">
-        <v>1081599401</v>
+        <v>1084575611</v>
       </c>
       <c r="F68" t="n">
-        <v>168624.3165854732</v>
+        <v>164133.4139348111</v>
       </c>
       <c r="G68" t="n">
-        <v>165719.1084100648</v>
+        <v>171383.6689571191</v>
       </c>
       <c r="H68" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>9394845</v>
+        <v>9885917</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>118806453</v>
+        <v>115089977</v>
       </c>
       <c r="E69" t="n">
-        <v>181242029</v>
+        <v>175572457</v>
       </c>
       <c r="F69" t="n">
-        <v>57827.69174928399</v>
+        <v>64501.83150607913</v>
       </c>
       <c r="G69" t="n">
-        <v>74764.056036259</v>
+        <v>88481.82006973289</v>
       </c>
       <c r="H69" t="n">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>8587445</v>
+        <v>8698780</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1141244</v>
+        <v>1142894</v>
       </c>
       <c r="E70" t="n">
-        <v>4419145</v>
+        <v>4425536</v>
       </c>
       <c r="F70" t="n">
-        <v>2642.474181792071</v>
+        <v>2443.077618774145</v>
       </c>
       <c r="G70" t="n">
-        <v>2447.752110860201</v>
+        <v>2672.611283380157</v>
       </c>
       <c r="H70" t="n">
-        <v>0.22</v>
+        <v>0.52</v>
       </c>
       <c r="I70" t="n">
-        <v>330832</v>
+        <v>362840</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>128318971</v>
+        <v>129518969</v>
       </c>
       <c r="E71" t="n">
-        <v>492252228</v>
+        <v>496855612</v>
       </c>
       <c r="F71" t="n">
-        <v>156295.5867376766</v>
+        <v>147086.2963946714</v>
       </c>
       <c r="G71" t="n">
-        <v>160739.6395355844</v>
+        <v>158911.2908941573</v>
       </c>
       <c r="H71" t="n">
         <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>33712552</v>
+        <v>35190319</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3279447</v>
+        <v>3304552</v>
       </c>
       <c r="E72" t="n">
-        <v>31073242</v>
+        <v>31311117</v>
       </c>
       <c r="F72" t="n">
-        <v>4199.002227305507</v>
+        <v>3965.702363963815</v>
       </c>
       <c r="G72" t="n">
-        <v>4079.528103592209</v>
+        <v>5161.797579548011</v>
       </c>
       <c r="H72" t="n">
-        <v>0.38</v>
+        <v>0.22</v>
       </c>
       <c r="I72" t="n">
-        <v>225772</v>
+        <v>227131</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>34615181</v>
+        <v>33516231</v>
       </c>
       <c r="F73" t="n">
-        <v>5383.643150386801</v>
+        <v>3718.915990877206</v>
       </c>
       <c r="G73" t="n">
-        <v>5106.288770969098</v>
+        <v>2928.437506548206</v>
       </c>
       <c r="H73" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I73" t="n">
-        <v>6031148</v>
+        <v>5473328</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89029053</v>
+        <v>88758199</v>
       </c>
       <c r="E74" t="n">
-        <v>329099248</v>
+        <v>328095774</v>
       </c>
       <c r="F74" t="n">
-        <v>8205.596075028472</v>
+        <v>8366.857721915721</v>
       </c>
       <c r="G74" t="n">
-        <v>679.2060695899212</v>
+        <v>1228.623036833828</v>
       </c>
       <c r="H74" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.02</v>
       </c>
       <c r="I74" t="n">
-        <v>232852</v>
+        <v>222841</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24338986</v>
+        <v>24300698</v>
       </c>
       <c r="E75" t="n">
-        <v>24338986</v>
+        <v>24300698</v>
       </c>
       <c r="F75" t="n">
-        <v>24832.47932021202</v>
+        <v>22890.50325695219</v>
       </c>
       <c r="G75" t="n">
-        <v>25413.36190152311</v>
+        <v>30799.95951884381</v>
       </c>
       <c r="H75" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I75" t="n">
-        <v>5886582</v>
+        <v>5782139</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>510607856</v>
+        <v>514081912</v>
       </c>
       <c r="E76" t="n">
-        <v>1777383452</v>
+        <v>1789476351</v>
       </c>
       <c r="F76" t="n">
-        <v>205424.9661815801</v>
+        <v>205319.2592523366</v>
       </c>
       <c r="G76" t="n">
-        <v>219403.1124269149</v>
+        <v>229600.3575583661</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>31909515</v>
+        <v>34740401</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5857261949</v>
+        <v>5857802348</v>
       </c>
       <c r="E77" t="n">
-        <v>5855309865</v>
+        <v>5857802348</v>
       </c>
       <c r="F77" t="n">
-        <v>10512.81597594791</v>
+        <v>10685.76878617792</v>
       </c>
       <c r="G77" t="n">
-        <v>95660.49755592115</v>
+        <v>95727.20714742136</v>
       </c>
       <c r="H77" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>8488911</v>
+        <v>16815972</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7495869</v>
+        <v>7492955</v>
       </c>
       <c r="E78" t="n">
-        <v>19473461</v>
+        <v>19465890</v>
       </c>
       <c r="F78" t="n">
-        <v>2924.001341673371</v>
+        <v>2440.500078952079</v>
       </c>
       <c r="G78" t="n">
-        <v>3088.83556816932</v>
+        <v>3341.44801087925</v>
       </c>
       <c r="H78" t="n">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="I78" t="n">
-        <v>717845</v>
+        <v>719760</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>111584607</v>
+        <v>109091912</v>
       </c>
       <c r="E79" t="n">
-        <v>169063572</v>
+        <v>165286851</v>
       </c>
       <c r="F79" t="n">
-        <v>39518.23782692227</v>
+        <v>39176.32517905653</v>
       </c>
       <c r="G79" t="n">
-        <v>40799.47663024323</v>
+        <v>39997.21747705291</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I79" t="n">
-        <v>8514413</v>
+        <v>8573053</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2637059</v>
+        <v>2609852</v>
       </c>
       <c r="E80" t="n">
-        <v>10548238</v>
+        <v>10439407</v>
       </c>
       <c r="F80" t="n">
-        <v>73521.44480909139</v>
+        <v>12203.6643036414</v>
       </c>
       <c r="G80" t="n">
-        <v>12716.92326966239</v>
+        <v>59884.38998859814</v>
       </c>
       <c r="H80" t="n">
         <v>0.38</v>
       </c>
       <c r="I80" t="n">
-        <v>7018351</v>
+        <v>7007074</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2565211</v>
+        <v>2493226</v>
       </c>
       <c r="F81" t="n">
-        <v>2240.821609397038</v>
+        <v>1551.632435726585</v>
       </c>
       <c r="G81" t="n">
-        <v>329.8939500372501</v>
+        <v>1235.948880684987</v>
       </c>
       <c r="H81" t="n">
-        <v>0.31</v>
+        <v>0.48</v>
       </c>
       <c r="I81" t="n">
-        <v>293829</v>
+        <v>288199</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>413225439</v>
+        <v>411404815</v>
       </c>
       <c r="E82" t="n">
-        <v>2361288223</v>
+        <v>2350884658</v>
       </c>
       <c r="F82" t="n">
-        <v>117410.3904243774</v>
+        <v>123534.9462082212</v>
       </c>
       <c r="G82" t="n">
-        <v>130336.9543316156</v>
+        <v>191702.2368341722</v>
       </c>
       <c r="H82" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>41748779</v>
+        <v>42941034</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4133957</v>
+        <v>4173296</v>
       </c>
       <c r="F2" t="n">
-        <v>469.2595305944595</v>
+        <v>958.1036348267888</v>
       </c>
       <c r="G2" t="n">
-        <v>345.28331511771</v>
+        <v>486.3912399655322</v>
       </c>
       <c r="H2" t="n">
-        <v>0.96</v>
+        <v>0.43</v>
       </c>
       <c r="I2" t="n">
-        <v>150002</v>
+        <v>149315</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1388118</v>
+        <v>1382483</v>
       </c>
       <c r="E3" t="n">
-        <v>4486967</v>
+        <v>4468751</v>
       </c>
       <c r="F3" t="n">
-        <v>4754.897592169261</v>
+        <v>3594.464138409195</v>
       </c>
       <c r="G3" t="n">
-        <v>8141.225939303108</v>
+        <v>9941.089946814262</v>
       </c>
       <c r="H3" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
       <c r="I3" t="n">
-        <v>147586</v>
+        <v>146066</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>253911113</v>
+        <v>256038597</v>
       </c>
       <c r="E4" t="n">
-        <v>1592240901</v>
+        <v>1605582054</v>
       </c>
       <c r="F4" t="n">
-        <v>247765.3778146969</v>
+        <v>259267.4322299641</v>
       </c>
       <c r="G4" t="n">
-        <v>257890.6976048601</v>
+        <v>217239.6194591503</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>17635534</v>
+        <v>17200097</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152334345</v>
+        <v>152069455</v>
       </c>
       <c r="E5" t="n">
-        <v>168810261</v>
+        <v>168516721</v>
       </c>
       <c r="F5" t="n">
-        <v>88073.98796228813</v>
+        <v>94589.12477809016</v>
       </c>
       <c r="G5" t="n">
-        <v>112458.0228926112</v>
+        <v>101766.952244004</v>
       </c>
       <c r="H5" t="n">
         <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>40632817</v>
+        <v>40797056</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>129336639</v>
+        <v>128635073</v>
       </c>
       <c r="E6" t="n">
-        <v>506960899</v>
+        <v>504210971</v>
       </c>
       <c r="F6" t="n">
-        <v>19730.43478249126</v>
+        <v>26452.47918015927</v>
       </c>
       <c r="G6" t="n">
-        <v>45918.59977524796</v>
+        <v>43335.48565328673</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I6" t="n">
-        <v>29332389</v>
+        <v>28378306</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4713774</v>
+        <v>4658260</v>
       </c>
       <c r="E7" t="n">
-        <v>28950383</v>
+        <v>28609433</v>
       </c>
       <c r="F7" t="n">
-        <v>1778.750467748303</v>
+        <v>1393.693931155837</v>
       </c>
       <c r="G7" t="n">
-        <v>1260.589143933962</v>
+        <v>2613.430794945821</v>
       </c>
       <c r="H7" t="n">
-        <v>0.24</v>
+        <v>0.17</v>
       </c>
       <c r="I7" t="n">
-        <v>687817</v>
+        <v>684992</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>202084</v>
+        <v>200613</v>
       </c>
       <c r="E8" t="n">
-        <v>2223150</v>
+        <v>2206960</v>
       </c>
       <c r="F8" t="n">
-        <v>2556.053462707744</v>
+        <v>3002.739340883783</v>
       </c>
       <c r="G8" t="n">
-        <v>2573.921502659503</v>
+        <v>2654.019805236941</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="I8" t="n">
-        <v>30685</v>
+        <v>32184</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72730144</v>
+        <v>72528367</v>
       </c>
       <c r="E9" t="n">
-        <v>125942027</v>
+        <v>125589621</v>
       </c>
       <c r="F9" t="n">
-        <v>4186.917054182035</v>
+        <v>9728.630661095707</v>
       </c>
       <c r="G9" t="n">
-        <v>16984.14555531751</v>
+        <v>12289.54712777833</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>828791</v>
+        <v>817034</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8801642</v>
+        <v>8844458</v>
       </c>
       <c r="E10" t="n">
-        <v>12458071</v>
+        <v>12518673</v>
       </c>
       <c r="F10" t="n">
-        <v>4252.935690485804</v>
+        <v>4379.728036895559</v>
       </c>
       <c r="G10" t="n">
-        <v>4395.342536575206</v>
+        <v>3369.873697612269</v>
       </c>
       <c r="H10" t="n">
         <v>0.32</v>
       </c>
       <c r="I10" t="n">
-        <v>70347</v>
+        <v>71710</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>484462244</v>
+        <v>482128294</v>
       </c>
       <c r="E11" t="n">
-        <v>484462245</v>
+        <v>482128296</v>
       </c>
       <c r="F11" t="n">
-        <v>43384.49257483137</v>
+        <v>39116.84618343163</v>
       </c>
       <c r="G11" t="n">
-        <v>69879.30606219881</v>
+        <v>65414.39861795064</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>66228538</v>
+        <v>64598505</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324769</v>
+        <v>331171</v>
       </c>
       <c r="E12" t="n">
-        <v>1516052</v>
+        <v>1545939</v>
       </c>
       <c r="F12" t="n">
-        <v>86.61093848416525</v>
+        <v>235.7522889891655</v>
       </c>
       <c r="G12" t="n">
-        <v>1713.699699058271</v>
+        <v>195.4300639533801</v>
       </c>
       <c r="H12" t="n">
-        <v>0.96</v>
+        <v>0.64</v>
       </c>
       <c r="I12" t="n">
-        <v>709209</v>
+        <v>736938</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1464779</v>
+        <v>1481338</v>
       </c>
       <c r="F13" t="n">
-        <v>4864.475183625662</v>
+        <v>4664.499112465556</v>
       </c>
       <c r="G13" t="n">
-        <v>873.3851705770055</v>
+        <v>855.8559513560609</v>
       </c>
       <c r="H13" t="n">
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>332448</v>
+        <v>342444</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12669494</v>
+        <v>12607624</v>
       </c>
       <c r="E14" t="n">
-        <v>31532078</v>
+        <v>31378095</v>
       </c>
       <c r="F14" t="n">
-        <v>553.0521745325741</v>
+        <v>1617.473890445052</v>
       </c>
       <c r="G14" t="n">
-        <v>506.0489369469312</v>
+        <v>1616.447329117995</v>
       </c>
       <c r="H14" t="n">
-        <v>0.44</v>
+        <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>1283153</v>
+        <v>1283739</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>118615428</v>
+        <v>116098744</v>
       </c>
       <c r="E15" t="n">
-        <v>461371074</v>
+        <v>451565311</v>
       </c>
       <c r="F15" t="n">
-        <v>60368.62506319909</v>
+        <v>68017.12102217777</v>
       </c>
       <c r="G15" t="n">
-        <v>104632.2283528251</v>
+        <v>110035.8600754376</v>
       </c>
       <c r="H15" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>17235689</v>
+        <v>11391224</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5164115</v>
+        <v>5088752</v>
       </c>
       <c r="E16" t="n">
-        <v>7601858</v>
+        <v>7490918</v>
       </c>
       <c r="F16" t="n">
-        <v>1850.58298490379</v>
+        <v>1851.37920890694</v>
       </c>
       <c r="G16" t="n">
-        <v>3890.364622814867</v>
+        <v>3700.19692757257</v>
       </c>
       <c r="H16" t="n">
-        <v>0.52</v>
+        <v>0.26</v>
       </c>
       <c r="I16" t="n">
-        <v>578318</v>
+        <v>579819</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1993639</v>
+        <v>1985677</v>
       </c>
       <c r="F17" t="n">
-        <v>674.9626842065769</v>
+        <v>316.5795827877804</v>
       </c>
       <c r="G17" t="n">
-        <v>913.4362397410697</v>
+        <v>658.1928412376424</v>
       </c>
       <c r="H17" t="n">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="I17" t="n">
-        <v>131393</v>
+        <v>125802</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="E18" t="n">
-        <v>145141077</v>
+        <v>145232824</v>
       </c>
       <c r="F18" t="n">
-        <v>147479.8465708489</v>
+        <v>122307.9019768111</v>
       </c>
       <c r="G18" t="n">
-        <v>153117.7236527722</v>
+        <v>134196.4004959403</v>
       </c>
       <c r="H18" t="n">
-        <v>0.05</v>
+        <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>74581853</v>
+        <v>74802421</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69756411</v>
+        <v>69086657</v>
       </c>
       <c r="E19" t="n">
-        <v>357725184</v>
+        <v>354290549</v>
       </c>
       <c r="F19" t="n">
-        <v>15733.79146944465</v>
+        <v>17125.78784143912</v>
       </c>
       <c r="G19" t="n">
-        <v>13880.58150636285</v>
+        <v>22708.09968210313</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>26136560</v>
+        <v>25895646</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>268060614</v>
+        <v>267612455</v>
       </c>
       <c r="E20" t="n">
-        <v>268060614</v>
+        <v>267612455</v>
       </c>
       <c r="F20" t="n">
-        <v>75701.56284166611</v>
+        <v>72595.16852582974</v>
       </c>
       <c r="G20" t="n">
-        <v>91811.34851295281</v>
+        <v>88071.08994438669</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>15476433</v>
+        <v>15469700</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>195209134</v>
+        <v>208541986</v>
       </c>
       <c r="E21" t="n">
-        <v>256872391</v>
+        <v>274416863</v>
       </c>
       <c r="F21" t="n">
-        <v>16789.64971489475</v>
+        <v>8534.793287010112</v>
       </c>
       <c r="G21" t="n">
-        <v>33209.64882515041</v>
+        <v>22901.12054864029</v>
       </c>
       <c r="H21" t="n">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>11349465</v>
+        <v>13154034</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>83723835</v>
+        <v>84692640</v>
       </c>
       <c r="E22" t="n">
-        <v>234216658</v>
+        <v>236928716</v>
       </c>
       <c r="F22" t="n">
-        <v>24535.05921436686</v>
+        <v>36323.71370656873</v>
       </c>
       <c r="G22" t="n">
-        <v>42772.3153055841</v>
+        <v>39137.48997178589</v>
       </c>
       <c r="H22" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="I22" t="n">
-        <v>46881276</v>
+        <v>47693215</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>80114890</v>
+        <v>79570504</v>
       </c>
       <c r="E23" t="n">
-        <v>167080230</v>
+        <v>165944908</v>
       </c>
       <c r="F23" t="n">
-        <v>31100.41121404784</v>
+        <v>42458.90939924521</v>
       </c>
       <c r="G23" t="n">
-        <v>40343.94867582843</v>
+        <v>38802.01539071235</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I23" t="n">
-        <v>20305313</v>
+        <v>20463605</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>679299013</v>
+        <v>673113301</v>
       </c>
       <c r="E24" t="n">
-        <v>679299013</v>
+        <v>673113301</v>
       </c>
       <c r="F24" t="n">
-        <v>178464.4708105881</v>
+        <v>183676.1900531318</v>
       </c>
       <c r="G24" t="n">
-        <v>307910.1862890684</v>
+        <v>255683.9306294237</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>345949922</v>
+        <v>344997041</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>210714523</v>
+        <v>214947883</v>
       </c>
       <c r="E25" t="n">
-        <v>732041295</v>
+        <v>746748372</v>
       </c>
       <c r="F25" t="n">
-        <v>92729.46906370918</v>
+        <v>99637.52296681839</v>
       </c>
       <c r="G25" t="n">
-        <v>360390.0271917781</v>
+        <v>358205.2137872328</v>
       </c>
       <c r="H25" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>30038385</v>
+        <v>33530667</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5776326</v>
+        <v>5876898</v>
       </c>
       <c r="E26" t="n">
-        <v>7847464</v>
+        <v>7986487</v>
       </c>
       <c r="F26" t="n">
-        <v>733.0705189972958</v>
+        <v>811.2690834681057</v>
       </c>
       <c r="G26" t="n">
-        <v>229.9448086959482</v>
+        <v>206.6803264475526</v>
       </c>
       <c r="H26" t="n">
-        <v>0.48</v>
+        <v>0.34</v>
       </c>
       <c r="I26" t="n">
-        <v>5516251</v>
+        <v>5470201</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14884215</v>
+        <v>14869911</v>
       </c>
       <c r="F27" t="n">
-        <v>1731.785837916161</v>
+        <v>2963.382105015518</v>
       </c>
       <c r="G27" t="n">
-        <v>3125.977081020991</v>
+        <v>1889.844818060313</v>
       </c>
       <c r="H27" t="n">
-        <v>0.66</v>
+        <v>0.43</v>
       </c>
       <c r="I27" t="n">
-        <v>265484</v>
+        <v>249983</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26439653</v>
+        <v>26321624</v>
       </c>
       <c r="E28" t="n">
-        <v>37371157</v>
+        <v>37204329</v>
       </c>
       <c r="F28" t="n">
-        <v>591.1395738095819</v>
+        <v>115.6553019997132</v>
       </c>
       <c r="G28" t="n">
-        <v>938.8030824275236</v>
+        <v>429.9308588078283</v>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>0.34</v>
       </c>
       <c r="I28" t="n">
-        <v>83286</v>
+        <v>73699</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279955204</v>
+        <v>279024847</v>
       </c>
       <c r="E29" t="n">
-        <v>1208442077</v>
+        <v>1204426138</v>
       </c>
       <c r="F29" t="n">
-        <v>287181.0177647138</v>
+        <v>392734.739863926</v>
       </c>
       <c r="G29" t="n">
-        <v>370477.9430609304</v>
+        <v>338567.6846257343</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>110690895</v>
+        <v>110807714</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11817177</v>
+        <v>11888215</v>
       </c>
       <c r="E30" t="n">
-        <v>142646939</v>
+        <v>143504449</v>
       </c>
       <c r="F30" t="n">
-        <v>4065.471546657738</v>
+        <v>2181.493168878122</v>
       </c>
       <c r="G30" t="n">
-        <v>2088.06916909617</v>
+        <v>3218.102624120376</v>
       </c>
       <c r="H30" t="n">
-        <v>0.62</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I30" t="n">
-        <v>431210</v>
+        <v>478936</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19837113</v>
+        <v>19839150</v>
       </c>
       <c r="E31" t="n">
-        <v>49592783</v>
+        <v>49597875</v>
       </c>
       <c r="F31" t="n">
-        <v>9701.648768137795</v>
+        <v>10243.28375480404</v>
       </c>
       <c r="G31" t="n">
-        <v>14043.23772640619</v>
+        <v>12336.33347142261</v>
       </c>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2016883</v>
+        <v>2208562</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19722716</v>
+        <v>19760475</v>
       </c>
       <c r="F32" t="n">
-        <v>2277.492266814006</v>
+        <v>2315.306110737273</v>
       </c>
       <c r="G32" t="n">
-        <v>2513.732492146065</v>
+        <v>2450.241124109376</v>
       </c>
       <c r="H32" t="n">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
       <c r="I32" t="n">
-        <v>45385</v>
+        <v>43401</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1369172</v>
+        <v>1372925</v>
       </c>
       <c r="E33" t="n">
-        <v>5104611</v>
+        <v>5118602</v>
       </c>
       <c r="F33" t="n">
-        <v>2628.241117795325</v>
+        <v>2826.126035651658</v>
       </c>
       <c r="G33" t="n">
-        <v>2910.604182417354</v>
+        <v>2099.361133489349</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="I33" t="n">
-        <v>606942</v>
+        <v>632716</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4224364</v>
+        <v>4273905</v>
       </c>
       <c r="E34" t="n">
-        <v>12168177</v>
+        <v>12310879</v>
       </c>
       <c r="F34" t="n">
-        <v>1258.937491393279</v>
+        <v>3370.242552173414</v>
       </c>
       <c r="G34" t="n">
-        <v>1020.230702886426</v>
+        <v>2003.234751288251</v>
       </c>
       <c r="H34" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="I34" t="n">
-        <v>598352</v>
+        <v>615089</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15635295</v>
+        <v>15634624</v>
       </c>
       <c r="E35" t="n">
-        <v>75724228</v>
+        <v>75720981</v>
       </c>
       <c r="F35" t="n">
-        <v>10421.53198201217</v>
+        <v>10472.39743868792</v>
       </c>
       <c r="G35" t="n">
-        <v>13972.29147038245</v>
+        <v>13511.10668528191</v>
       </c>
       <c r="H35" t="n">
         <v>0.3</v>
       </c>
       <c r="I35" t="n">
-        <v>4213449</v>
+        <v>4254200</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1480724</v>
+        <v>1466964</v>
       </c>
       <c r="E36" t="n">
-        <v>9691299</v>
+        <v>9601237</v>
       </c>
       <c r="F36" t="n">
-        <v>4160.252931900573</v>
+        <v>3894.930615450975</v>
       </c>
       <c r="G36" t="n">
-        <v>1357.732543337653</v>
+        <v>3542.64548273277</v>
       </c>
       <c r="H36" t="n">
-        <v>0.52</v>
+        <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>701508</v>
+        <v>703307</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1929205612</v>
+        <v>1929217566</v>
       </c>
       <c r="F37" t="n">
-        <v>75224.29143321542</v>
+        <v>64666.86380909348</v>
       </c>
       <c r="G37" t="n">
-        <v>74846.81375998001</v>
+        <v>73676.61173119064</v>
       </c>
       <c r="H37" t="n">
         <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>28069409</v>
+        <v>28167866</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1945557</v>
+        <v>1996705</v>
       </c>
       <c r="E38" t="n">
-        <v>13951395</v>
+        <v>14318173</v>
       </c>
       <c r="F38" t="n">
-        <v>3883.914976992841</v>
+        <v>5329.135515641685</v>
       </c>
       <c r="G38" t="n">
-        <v>5451.126635533769</v>
+        <v>5666.10288990431</v>
       </c>
       <c r="H38" t="n">
-        <v>0.7</v>
+        <v>0.21</v>
       </c>
       <c r="I38" t="n">
-        <v>2000891</v>
+        <v>2010454</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208578487</v>
+        <v>208396999</v>
       </c>
       <c r="E39" t="n">
-        <v>1181099551</v>
+        <v>1180071858</v>
       </c>
       <c r="F39" t="n">
-        <v>146616.772861709</v>
+        <v>144730.0575381123</v>
       </c>
       <c r="G39" t="n">
-        <v>162626.5073214265</v>
+        <v>179646.3012068057</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I39" t="n">
-        <v>69838307</v>
+        <v>69268491</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>144925576</v>
+        <v>145168363</v>
       </c>
       <c r="E40" t="n">
-        <v>1073522784</v>
+        <v>1075321208</v>
       </c>
       <c r="F40" t="n">
-        <v>219842.535316526</v>
+        <v>213492.5856876373</v>
       </c>
       <c r="G40" t="n">
-        <v>202515.4292981085</v>
+        <v>194306.426249285</v>
       </c>
       <c r="H40" t="n">
         <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8372930</v>
+        <v>8382456</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>350341534</v>
+        <v>349144594</v>
       </c>
       <c r="E41" t="n">
-        <v>3151889677</v>
+        <v>3141121268</v>
       </c>
       <c r="F41" t="n">
-        <v>218159.7245772039</v>
+        <v>237974.3218514434</v>
       </c>
       <c r="G41" t="n">
-        <v>252560.5687261097</v>
+        <v>269959.3914992857</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>47253036</v>
+        <v>47011243</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1573241</v>
+        <v>1575188</v>
       </c>
       <c r="E42" t="n">
-        <v>13110343</v>
+        <v>13126566</v>
       </c>
       <c r="F42" t="n">
-        <v>1452.196020910259</v>
+        <v>1439.294347302207</v>
       </c>
       <c r="G42" t="n">
-        <v>4530.090087886602</v>
+        <v>4483.149524703905</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I42" t="n">
-        <v>26535</v>
+        <v>25807</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23162524</v>
+        <v>22652726</v>
       </c>
       <c r="E43" t="n">
-        <v>69429961</v>
+        <v>67903701</v>
       </c>
       <c r="F43" t="n">
-        <v>57976.9422510694</v>
+        <v>59335.33815317039</v>
       </c>
       <c r="G43" t="n">
-        <v>67896.76591822646</v>
+        <v>63869.44051314779</v>
       </c>
       <c r="H43" t="n">
         <v>0.23</v>
       </c>
       <c r="I43" t="n">
-        <v>3502730</v>
+        <v>3571135</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9441259</v>
+        <v>9456859</v>
       </c>
       <c r="F44" t="n">
-        <v>5651.129326573343</v>
+        <v>5653.098541768226</v>
       </c>
       <c r="G44" t="n">
-        <v>6084.04897274481</v>
+        <v>6068.419450713854</v>
       </c>
       <c r="H44" t="n">
-        <v>0.63</v>
+        <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>98616</v>
+        <v>98501</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13586925</v>
+        <v>13524612</v>
       </c>
       <c r="E45" t="n">
-        <v>13586925</v>
+        <v>13524612</v>
       </c>
       <c r="F45" t="n">
-        <v>300.8666927516596</v>
+        <v>265.4159643784552</v>
       </c>
       <c r="G45" t="n">
-        <v>1368.41233390981</v>
+        <v>710.415388512119</v>
       </c>
       <c r="H45" t="n">
-        <v>1.02</v>
+        <v>0.88</v>
       </c>
       <c r="I45" t="n">
-        <v>3889852</v>
+        <v>4027760</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>323615901</v>
+        <v>324327114</v>
       </c>
       <c r="E46" t="n">
-        <v>323615901</v>
+        <v>324327114</v>
       </c>
       <c r="F46" t="n">
-        <v>33034.19045054584</v>
+        <v>29169.78529099312</v>
       </c>
       <c r="G46" t="n">
-        <v>41659.75367089828</v>
+        <v>47568.35123148843</v>
       </c>
       <c r="H46" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>15934278</v>
+        <v>16243782</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12771787</v>
+        <v>12738724</v>
       </c>
       <c r="E47" t="n">
-        <v>40399567</v>
+        <v>40294981</v>
       </c>
       <c r="F47" t="n">
-        <v>20265.16659672236</v>
+        <v>18250.83302849241</v>
       </c>
       <c r="G47" t="n">
-        <v>13758.42494535264</v>
+        <v>14504.21472517989</v>
       </c>
       <c r="H47" t="n">
-        <v>0.22</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>972542</v>
+        <v>959196</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33034114</v>
+        <v>33125576</v>
       </c>
       <c r="E48" t="n">
-        <v>91501217</v>
+        <v>91754558</v>
       </c>
       <c r="F48" t="n">
-        <v>3990.874427937062</v>
+        <v>3013.856488072174</v>
       </c>
       <c r="G48" t="n">
-        <v>6881.157719228739</v>
+        <v>7972.521989047044</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2</v>
+        <v>0.24</v>
       </c>
       <c r="I48" t="n">
-        <v>12087270</v>
+        <v>12133097</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>28414143</v>
+        <v>29543990</v>
       </c>
       <c r="E49" t="n">
-        <v>67504938</v>
+        <v>70189175</v>
       </c>
       <c r="F49" t="n">
-        <v>18458.05268646876</v>
+        <v>9727.03103220867</v>
       </c>
       <c r="G49" t="n">
-        <v>11356.31016357881</v>
+        <v>9581.48833056918</v>
       </c>
       <c r="H49" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="I49" t="n">
-        <v>412938</v>
+        <v>426816</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12734681</v>
+        <v>12775352</v>
       </c>
       <c r="E50" t="n">
-        <v>19385056</v>
+        <v>19446967</v>
       </c>
       <c r="F50" t="n">
-        <v>4835.968958205248</v>
+        <v>5356.822038402297</v>
       </c>
       <c r="G50" t="n">
-        <v>17613.37085648919</v>
+        <v>18669.27144348613</v>
       </c>
       <c r="H50" t="n">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="I50" t="n">
-        <v>693685</v>
+        <v>678406</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>304625998</v>
+        <v>305673601</v>
       </c>
       <c r="E51" t="n">
-        <v>304625998</v>
+        <v>305673601</v>
       </c>
       <c r="F51" t="n">
-        <v>91523.17482461066</v>
+        <v>90488.7057139864</v>
       </c>
       <c r="G51" t="n">
-        <v>108361.650288752</v>
+        <v>104002.9382467851</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>80737900</v>
+        <v>72006843</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>93495183</v>
+        <v>92973355</v>
       </c>
       <c r="E52" t="n">
-        <v>538759571</v>
+        <v>535752572</v>
       </c>
       <c r="F52" t="n">
-        <v>267599.2253567936</v>
+        <v>264941.3139602017</v>
       </c>
       <c r="G52" t="n">
-        <v>197487.3009363937</v>
+        <v>247821.5415859734</v>
       </c>
       <c r="H52" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>18323439</v>
+        <v>18279024</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31792551</v>
+        <v>31780854</v>
       </c>
       <c r="E53" t="n">
-        <v>142348292</v>
+        <v>142295922</v>
       </c>
       <c r="F53" t="n">
-        <v>22444.73101091406</v>
+        <v>17940.23008115072</v>
       </c>
       <c r="G53" t="n">
-        <v>41522.8061838765</v>
+        <v>52412.82284405181</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>7963095</v>
+        <v>8639394</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9102600</v>
+        <v>9092696</v>
       </c>
       <c r="F54" t="n">
-        <v>2568.227400486574</v>
+        <v>2628.563522592315</v>
       </c>
       <c r="G54" t="n">
-        <v>4766.692002125157</v>
+        <v>4749.833725440269</v>
       </c>
       <c r="H54" t="n">
-        <v>0.11</v>
+        <v>0.44</v>
       </c>
       <c r="I54" t="n">
-        <v>295025</v>
+        <v>294322</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4849077</v>
+        <v>4877202</v>
       </c>
       <c r="F55" t="n">
-        <v>4533.115371083617</v>
+        <v>2348.786810812308</v>
       </c>
       <c r="G55" t="n">
-        <v>1373.442706921814</v>
+        <v>1406.575195518717</v>
       </c>
       <c r="H55" t="n">
-        <v>0.5</v>
+        <v>0.41</v>
       </c>
       <c r="I55" t="n">
-        <v>218547</v>
+        <v>202055</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124991047</v>
+        <v>125121271</v>
       </c>
       <c r="E56" t="n">
-        <v>2069954106</v>
+        <v>2072110731</v>
       </c>
       <c r="F56" t="n">
-        <v>188816.6310657175</v>
+        <v>194301.304182991</v>
       </c>
       <c r="G56" t="n">
-        <v>178314.4990691015</v>
+        <v>178522.9019341269</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4652701</v>
+        <v>4806182</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>100396307</v>
+        <v>105632766</v>
       </c>
       <c r="E57" t="n">
-        <v>101477005</v>
+        <v>106769832</v>
       </c>
       <c r="F57" t="n">
-        <v>51506.30582820953</v>
+        <v>38138.4399405006</v>
       </c>
       <c r="G57" t="n">
-        <v>65288.1236018184</v>
+        <v>45496.4420003812</v>
       </c>
       <c r="H57" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.18</v>
       </c>
       <c r="I57" t="n">
-        <v>47693326</v>
+        <v>50854041</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>256650595</v>
+        <v>251889726</v>
       </c>
       <c r="E58" t="n">
-        <v>256650595</v>
+        <v>251889726</v>
       </c>
       <c r="F58" t="n">
-        <v>86059.35096290364</v>
+        <v>98468.49379823508</v>
       </c>
       <c r="G58" t="n">
-        <v>130298.0404744901</v>
+        <v>100137.8450719903</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>51797447</v>
+        <v>52123835</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25185777</v>
+        <v>25140767</v>
       </c>
       <c r="E59" t="n">
-        <v>150691564</v>
+        <v>150422260</v>
       </c>
       <c r="F59" t="n">
-        <v>72181.14556560514</v>
+        <v>71796.40041546458</v>
       </c>
       <c r="G59" t="n">
-        <v>77512.6755525725</v>
+        <v>80604.78418488808</v>
       </c>
       <c r="H59" t="n">
         <v>0.2</v>
       </c>
       <c r="I59" t="n">
-        <v>13128766</v>
+        <v>13154017</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2413004</v>
+        <v>2412820</v>
       </c>
       <c r="E60" t="n">
-        <v>4453337</v>
+        <v>4452996</v>
       </c>
       <c r="F60" t="n">
-        <v>2729.639549290071</v>
+        <v>2676.103438502847</v>
       </c>
       <c r="G60" t="n">
-        <v>2506.660199570945</v>
+        <v>2496.643877280835</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>28329</v>
+        <v>30129</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11623897</v>
+        <v>11108704</v>
       </c>
       <c r="E62" t="n">
-        <v>34482654</v>
+        <v>32954318</v>
       </c>
       <c r="F62" t="n">
-        <v>11186.44021292297</v>
+        <v>7261.265575395952</v>
       </c>
       <c r="G62" t="n">
-        <v>5635.378937870978</v>
+        <v>5727.768179930511</v>
       </c>
       <c r="H62" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="I62" t="n">
-        <v>7391874</v>
+        <v>6867108</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14597460</v>
+        <v>14572847</v>
       </c>
       <c r="E63" t="n">
-        <v>29551666</v>
+        <v>29501840</v>
       </c>
       <c r="F63" t="n">
-        <v>6313.185659288485</v>
+        <v>5841.358699335656</v>
       </c>
       <c r="G63" t="n">
-        <v>12100.53173058901</v>
+        <v>16693.43236191974</v>
       </c>
       <c r="H63" t="n">
-        <v>0.41</v>
+        <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>543792</v>
+        <v>546027</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40608755</v>
+        <v>40090868</v>
       </c>
       <c r="E64" t="n">
-        <v>287909451</v>
+        <v>284237711</v>
       </c>
       <c r="F64" t="n">
-        <v>65689.21938434594</v>
+        <v>70400.16700900183</v>
       </c>
       <c r="G64" t="n">
-        <v>33938.92103148116</v>
+        <v>67876.07747375967</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.11</v>
       </c>
       <c r="I64" t="n">
-        <v>1827142</v>
+        <v>1898203</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1281779</v>
+        <v>1286283</v>
       </c>
       <c r="E65" t="n">
-        <v>7948319</v>
+        <v>7976250</v>
       </c>
       <c r="F65" t="n">
-        <v>2133.325370826495</v>
+        <v>2203.335284212408</v>
       </c>
       <c r="G65" t="n">
-        <v>1965.120825107218</v>
+        <v>2107.99786106938</v>
       </c>
       <c r="H65" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="I65" t="n">
-        <v>784886</v>
+        <v>781868</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>631138539</v>
+        <v>627282243</v>
       </c>
       <c r="E66" t="n">
-        <v>2444306442</v>
+        <v>2429371580</v>
       </c>
       <c r="F66" t="n">
-        <v>134718.7091540993</v>
+        <v>121266.6435368611</v>
       </c>
       <c r="G66" t="n">
-        <v>152298.8955688939</v>
+        <v>151293.3015219982</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>38856542</v>
+        <v>39031530</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5872751</v>
+        <v>5879248</v>
       </c>
       <c r="E67" t="n">
-        <v>26288955</v>
+        <v>26318037</v>
       </c>
       <c r="F67" t="n">
-        <v>4532.960880552953</v>
+        <v>1915.212623366894</v>
       </c>
       <c r="G67" t="n">
-        <v>4077.100530234796</v>
+        <v>2960.693133504657</v>
       </c>
       <c r="H67" t="n">
         <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>151036</v>
+        <v>151081</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116730385</v>
+        <v>116218573</v>
       </c>
       <c r="E68" t="n">
-        <v>1084575611</v>
+        <v>1079820224</v>
       </c>
       <c r="F68" t="n">
-        <v>164133.4139348111</v>
+        <v>164884.5320864413</v>
       </c>
       <c r="G68" t="n">
-        <v>171383.6689571191</v>
+        <v>170469.1417978883</v>
       </c>
       <c r="H68" t="n">
         <v>0.06</v>
       </c>
       <c r="I68" t="n">
-        <v>9885917</v>
+        <v>9792839</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>115089977</v>
+        <v>113396304</v>
       </c>
       <c r="E69" t="n">
-        <v>175572457</v>
+        <v>172988720</v>
       </c>
       <c r="F69" t="n">
-        <v>64501.83150607913</v>
+        <v>61085.77857407142</v>
       </c>
       <c r="G69" t="n">
-        <v>88481.82006973289</v>
+        <v>84822.3805644136</v>
       </c>
       <c r="H69" t="n">
         <v>0.19</v>
       </c>
       <c r="I69" t="n">
-        <v>8698780</v>
+        <v>8665995</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1142894</v>
+        <v>1139252</v>
       </c>
       <c r="E70" t="n">
-        <v>4425536</v>
+        <v>4411434</v>
       </c>
       <c r="F70" t="n">
-        <v>2443.077618774145</v>
+        <v>3364.536074629651</v>
       </c>
       <c r="G70" t="n">
-        <v>2672.611283380157</v>
+        <v>2934.995470497749</v>
       </c>
       <c r="H70" t="n">
-        <v>0.52</v>
+        <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>362840</v>
+        <v>391407</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>129518969</v>
+        <v>127811914</v>
       </c>
       <c r="E71" t="n">
-        <v>496855612</v>
+        <v>490307076</v>
       </c>
       <c r="F71" t="n">
-        <v>147086.2963946714</v>
+        <v>156468.4173872442</v>
       </c>
       <c r="G71" t="n">
-        <v>158911.2908941573</v>
+        <v>160071.7297901793</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>35190319</v>
+        <v>36981206</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3304552</v>
+        <v>3301538</v>
       </c>
       <c r="E72" t="n">
-        <v>31311117</v>
+        <v>31282562</v>
       </c>
       <c r="F72" t="n">
-        <v>3965.702363963815</v>
+        <v>3830.776840121431</v>
       </c>
       <c r="G72" t="n">
-        <v>5161.797579548011</v>
+        <v>5008.73470945909</v>
       </c>
       <c r="H72" t="n">
-        <v>0.22</v>
+        <v>0.38</v>
       </c>
       <c r="I72" t="n">
-        <v>227131</v>
+        <v>227057</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>33516231</v>
+        <v>33735148</v>
       </c>
       <c r="F73" t="n">
-        <v>3718.915990877206</v>
+        <v>3724.313571596705</v>
       </c>
       <c r="G73" t="n">
-        <v>2928.437506548206</v>
+        <v>2791.050067779403</v>
       </c>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="I73" t="n">
-        <v>5473328</v>
+        <v>5390208</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>88758199</v>
+        <v>89158383</v>
       </c>
       <c r="E74" t="n">
-        <v>328095774</v>
+        <v>329574303</v>
       </c>
       <c r="F74" t="n">
-        <v>8366.857721915721</v>
+        <v>8354.392710633903</v>
       </c>
       <c r="G74" t="n">
-        <v>1228.623036833828</v>
+        <v>638.3195739868916</v>
       </c>
       <c r="H74" t="n">
-        <v>0.02</v>
+        <v>0.37</v>
       </c>
       <c r="I74" t="n">
-        <v>222841</v>
+        <v>222218</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>24300698</v>
+        <v>23782283</v>
       </c>
       <c r="E75" t="n">
-        <v>24300698</v>
+        <v>23782283</v>
       </c>
       <c r="F75" t="n">
-        <v>22890.50325695219</v>
+        <v>23807.3396958635</v>
       </c>
       <c r="G75" t="n">
-        <v>30799.95951884381</v>
+        <v>24013.55589731175</v>
       </c>
       <c r="H75" t="n">
-        <v>0.09</v>
+        <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>5782139</v>
+        <v>5898614</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>514081912</v>
+        <v>510343475</v>
       </c>
       <c r="E76" t="n">
-        <v>1789476351</v>
+        <v>1776463164</v>
       </c>
       <c r="F76" t="n">
-        <v>205319.2592523366</v>
+        <v>204760.9878610558</v>
       </c>
       <c r="G76" t="n">
-        <v>229600.3575583661</v>
+        <v>223548.1087258657</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>34740401</v>
+        <v>35161511</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5857802348</v>
+        <v>5844330115</v>
       </c>
       <c r="E77" t="n">
-        <v>5857802348</v>
+        <v>5844330115</v>
       </c>
       <c r="F77" t="n">
-        <v>10685.76878617792</v>
+        <v>10674.69294199671</v>
       </c>
       <c r="G77" t="n">
-        <v>95727.20714742136</v>
+        <v>95967.37654271084</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>16815972</v>
+        <v>16785928</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7492955</v>
+        <v>7492931</v>
       </c>
       <c r="E78" t="n">
-        <v>19465890</v>
+        <v>19465830</v>
       </c>
       <c r="F78" t="n">
-        <v>2440.500078952079</v>
+        <v>2665.509072733098</v>
       </c>
       <c r="G78" t="n">
-        <v>3341.44801087925</v>
+        <v>3151.602224881217</v>
       </c>
       <c r="H78" t="n">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="I78" t="n">
-        <v>719760</v>
+        <v>721653</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109091912</v>
+        <v>109108668</v>
       </c>
       <c r="E79" t="n">
-        <v>165286851</v>
+        <v>165312238</v>
       </c>
       <c r="F79" t="n">
-        <v>39176.32517905653</v>
+        <v>42486.41053575229</v>
       </c>
       <c r="G79" t="n">
-        <v>39997.21747705291</v>
+        <v>43703.31826215205</v>
       </c>
       <c r="H79" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="I79" t="n">
-        <v>8573053</v>
+        <v>8644704</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2609852</v>
+        <v>2634233</v>
       </c>
       <c r="E80" t="n">
-        <v>10439407</v>
+        <v>10536933</v>
       </c>
       <c r="F80" t="n">
-        <v>12203.6643036414</v>
+        <v>71295.96764281321</v>
       </c>
       <c r="G80" t="n">
-        <v>59884.38998859814</v>
+        <v>35028.41448876098</v>
       </c>
       <c r="H80" t="n">
-        <v>0.38</v>
+        <v>0.57</v>
       </c>
       <c r="I80" t="n">
-        <v>7007074</v>
+        <v>7008923</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2493226</v>
+        <v>2513257</v>
       </c>
       <c r="F81" t="n">
-        <v>1551.632435726585</v>
+        <v>2037.926652933561</v>
       </c>
       <c r="G81" t="n">
-        <v>1235.948880684987</v>
+        <v>999.8723829137881</v>
       </c>
       <c r="H81" t="n">
-        <v>0.48</v>
+        <v>0.63</v>
       </c>
       <c r="I81" t="n">
-        <v>288199</v>
+        <v>286480</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>411404815</v>
+        <v>411065469</v>
       </c>
       <c r="E82" t="n">
-        <v>2350884658</v>
+        <v>2348945539</v>
       </c>
       <c r="F82" t="n">
-        <v>123534.9462082212</v>
+        <v>83734.74769875544</v>
       </c>
       <c r="G82" t="n">
-        <v>191702.2368341722</v>
+        <v>187833.9590406788</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>42941034</v>
+        <v>43096203</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4173296</v>
+        <v>4167318</v>
       </c>
       <c r="F2" t="n">
-        <v>958.1036348267888</v>
+        <v>1064.340917859419</v>
       </c>
       <c r="G2" t="n">
-        <v>486.3912399655322</v>
+        <v>652.0901825269008</v>
       </c>
       <c r="H2" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I2" t="n">
-        <v>149315</v>
+        <v>149653</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382483</v>
+        <v>1382147</v>
       </c>
       <c r="E3" t="n">
-        <v>4468751</v>
+        <v>4467667</v>
       </c>
       <c r="F3" t="n">
-        <v>3594.464138409195</v>
+        <v>5681.692954969311</v>
       </c>
       <c r="G3" t="n">
-        <v>9941.089946814262</v>
+        <v>10289.83227956164</v>
       </c>
       <c r="H3" t="n">
-        <v>0.27</v>
+        <v>0.18</v>
       </c>
       <c r="I3" t="n">
-        <v>146066</v>
+        <v>145968</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>256038597</v>
+        <v>257201314</v>
       </c>
       <c r="E4" t="n">
-        <v>1605582054</v>
+        <v>1612873290</v>
       </c>
       <c r="F4" t="n">
-        <v>259267.4322299641</v>
+        <v>250446.3236772392</v>
       </c>
       <c r="G4" t="n">
-        <v>217239.6194591503</v>
+        <v>261264.0370954752</v>
       </c>
       <c r="H4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="I4" t="n">
-        <v>17200097</v>
+        <v>17188416</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152069455</v>
+        <v>152114990</v>
       </c>
       <c r="E5" t="n">
-        <v>168516721</v>
+        <v>168567181</v>
       </c>
       <c r="F5" t="n">
-        <v>94589.12477809016</v>
+        <v>91539.5359815712</v>
       </c>
       <c r="G5" t="n">
-        <v>101766.952244004</v>
+        <v>102933.1238935727</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>40797056</v>
+        <v>40278901</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>128635073</v>
+        <v>128213975</v>
       </c>
       <c r="E6" t="n">
-        <v>504210971</v>
+        <v>502560391</v>
       </c>
       <c r="F6" t="n">
-        <v>26452.47918015927</v>
+        <v>20518.91302084407</v>
       </c>
       <c r="G6" t="n">
-        <v>43335.48565328673</v>
+        <v>41566.18258314444</v>
       </c>
       <c r="H6" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>28378306</v>
+        <v>28064544</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4658260</v>
+        <v>4651432</v>
       </c>
       <c r="E7" t="n">
-        <v>28609433</v>
+        <v>28567499</v>
       </c>
       <c r="F7" t="n">
-        <v>1393.693931155837</v>
+        <v>1999.289206319293</v>
       </c>
       <c r="G7" t="n">
-        <v>2613.430794945821</v>
+        <v>2126.701289829033</v>
       </c>
       <c r="H7" t="n">
-        <v>0.17</v>
+        <v>0.28</v>
       </c>
       <c r="I7" t="n">
-        <v>684992</v>
+        <v>684343</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>200613</v>
+        <v>201265</v>
       </c>
       <c r="E8" t="n">
-        <v>2206960</v>
+        <v>2214136</v>
       </c>
       <c r="F8" t="n">
-        <v>3002.739340883783</v>
+        <v>3299.540647500785</v>
       </c>
       <c r="G8" t="n">
-        <v>2654.019805236941</v>
+        <v>2839.623544898508</v>
       </c>
       <c r="H8" t="n">
-        <v>0.36</v>
+        <v>0.54</v>
       </c>
       <c r="I8" t="n">
-        <v>32184</v>
+        <v>32302</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72528367</v>
+        <v>72460379</v>
       </c>
       <c r="E9" t="n">
-        <v>125589621</v>
+        <v>125471894</v>
       </c>
       <c r="F9" t="n">
-        <v>9728.630661095707</v>
+        <v>9996.157821675528</v>
       </c>
       <c r="G9" t="n">
-        <v>12289.54712777833</v>
+        <v>12849.52961221858</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>817034</v>
+        <v>831705</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8844458</v>
+        <v>8844763</v>
       </c>
       <c r="E10" t="n">
-        <v>12518673</v>
+        <v>12519105</v>
       </c>
       <c r="F10" t="n">
-        <v>4379.728036895559</v>
+        <v>4555.211669681973</v>
       </c>
       <c r="G10" t="n">
-        <v>3369.873697612269</v>
+        <v>3371.450707583509</v>
       </c>
       <c r="H10" t="n">
-        <v>0.32</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>71710</v>
+        <v>71690</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>482128294</v>
+        <v>478550583</v>
       </c>
       <c r="E11" t="n">
-        <v>482128296</v>
+        <v>478550585</v>
       </c>
       <c r="F11" t="n">
-        <v>39116.84618343163</v>
+        <v>37165.04450669352</v>
       </c>
       <c r="G11" t="n">
-        <v>65414.39861795064</v>
+        <v>73425.68273987007</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>64598505</v>
+        <v>63857463</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>331171</v>
+        <v>324424</v>
       </c>
       <c r="E12" t="n">
-        <v>1545939</v>
+        <v>1514443</v>
       </c>
       <c r="F12" t="n">
-        <v>235.7522889891655</v>
+        <v>1377.758852606593</v>
       </c>
       <c r="G12" t="n">
-        <v>195.4300639533801</v>
+        <v>159.9090107515544</v>
       </c>
       <c r="H12" t="n">
-        <v>0.64</v>
+        <v>0.32</v>
       </c>
       <c r="I12" t="n">
-        <v>736938</v>
+        <v>715888</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1481338</v>
+        <v>1487676</v>
       </c>
       <c r="F13" t="n">
-        <v>4664.499112465556</v>
+        <v>4683.411225337005</v>
       </c>
       <c r="G13" t="n">
-        <v>855.8559513560609</v>
+        <v>1113.023925869796</v>
       </c>
       <c r="H13" t="n">
         <v>0.2</v>
       </c>
       <c r="I13" t="n">
-        <v>342444</v>
+        <v>345857</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12607624</v>
+        <v>12439902</v>
       </c>
       <c r="E14" t="n">
-        <v>31378095</v>
+        <v>30960665</v>
       </c>
       <c r="F14" t="n">
-        <v>1617.473890445052</v>
+        <v>679.0892102082696</v>
       </c>
       <c r="G14" t="n">
-        <v>1616.447329117995</v>
+        <v>1264.189956965569</v>
       </c>
       <c r="H14" t="n">
         <v>0.32</v>
       </c>
       <c r="I14" t="n">
-        <v>1283739</v>
+        <v>1319076</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116098744</v>
+        <v>115406535</v>
       </c>
       <c r="E15" t="n">
-        <v>451565311</v>
+        <v>448863778</v>
       </c>
       <c r="F15" t="n">
-        <v>68017.12102217777</v>
+        <v>65803.41476345033</v>
       </c>
       <c r="G15" t="n">
-        <v>110035.8600754376</v>
+        <v>112559.1973788625</v>
       </c>
       <c r="H15" t="n">
         <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>11391224</v>
+        <v>11152384</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5088752</v>
+        <v>5094190</v>
       </c>
       <c r="E16" t="n">
-        <v>7490918</v>
+        <v>7498924</v>
       </c>
       <c r="F16" t="n">
-        <v>1851.37920890694</v>
+        <v>4086.207810201779</v>
       </c>
       <c r="G16" t="n">
-        <v>3700.19692757257</v>
+        <v>3762.950414576048</v>
       </c>
       <c r="H16" t="n">
         <v>0.26</v>
       </c>
       <c r="I16" t="n">
-        <v>579819</v>
+        <v>582804</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1985677</v>
+        <v>2012675</v>
       </c>
       <c r="F17" t="n">
-        <v>316.5795827877804</v>
+        <v>998.0795069636916</v>
       </c>
       <c r="G17" t="n">
-        <v>658.1928412376424</v>
+        <v>275.3159521534649</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3</v>
+        <v>0.44</v>
       </c>
       <c r="I17" t="n">
-        <v>125802</v>
+        <v>124101</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>145232824</v>
+        <v>145501226</v>
       </c>
       <c r="E18" t="n">
-        <v>145232824</v>
+        <v>145501226</v>
       </c>
       <c r="F18" t="n">
-        <v>122307.9019768111</v>
+        <v>123054.5377803676</v>
       </c>
       <c r="G18" t="n">
-        <v>134196.4004959403</v>
+        <v>117384.9209101535</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>74802421</v>
+        <v>74950064</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69086657</v>
+        <v>69068854</v>
       </c>
       <c r="E19" t="n">
-        <v>354290549</v>
+        <v>354199249</v>
       </c>
       <c r="F19" t="n">
-        <v>17125.78784143912</v>
+        <v>15728.93841330034</v>
       </c>
       <c r="G19" t="n">
-        <v>22708.09968210313</v>
+        <v>27430.55605840421</v>
       </c>
       <c r="H19" t="n">
         <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>25895646</v>
+        <v>25550729</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>267612455</v>
+        <v>268433015</v>
       </c>
       <c r="E20" t="n">
-        <v>267612455</v>
+        <v>268433015</v>
       </c>
       <c r="F20" t="n">
-        <v>72595.16852582974</v>
+        <v>65232.19722374155</v>
       </c>
       <c r="G20" t="n">
-        <v>88071.08994438669</v>
+        <v>100738.8835757384</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>15469700</v>
+        <v>15108733</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>208541986</v>
+        <v>204189250</v>
       </c>
       <c r="E21" t="n">
-        <v>274416863</v>
+        <v>268689172</v>
       </c>
       <c r="F21" t="n">
-        <v>8534.793287010112</v>
+        <v>6295.527646122591</v>
       </c>
       <c r="G21" t="n">
-        <v>22901.12054864029</v>
+        <v>30315.85898596477</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>13154034</v>
+        <v>11289758</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84692640</v>
+        <v>84468064</v>
       </c>
       <c r="E22" t="n">
-        <v>236928716</v>
+        <v>236300462</v>
       </c>
       <c r="F22" t="n">
-        <v>36323.71370656873</v>
+        <v>29604.34947349323</v>
       </c>
       <c r="G22" t="n">
-        <v>39137.48997178589</v>
+        <v>37404.50906765187</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>47693215</v>
+        <v>47444693</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79570504</v>
+        <v>79317069</v>
       </c>
       <c r="E23" t="n">
-        <v>165944908</v>
+        <v>165416368</v>
       </c>
       <c r="F23" t="n">
-        <v>42458.90939924521</v>
+        <v>27207.17361517461</v>
       </c>
       <c r="G23" t="n">
-        <v>38802.01539071235</v>
+        <v>41275.80901873653</v>
       </c>
       <c r="H23" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>20463605</v>
+        <v>20422865</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>673113301</v>
+        <v>673567686</v>
       </c>
       <c r="E24" t="n">
-        <v>673113301</v>
+        <v>673567686</v>
       </c>
       <c r="F24" t="n">
-        <v>183676.1900531318</v>
+        <v>188482.6007338161</v>
       </c>
       <c r="G24" t="n">
-        <v>255683.9306294237</v>
+        <v>264640.633999908</v>
       </c>
       <c r="H24" t="n">
         <v>0.15</v>
       </c>
       <c r="I24" t="n">
-        <v>344997041</v>
+        <v>346000280</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>214947883</v>
+        <v>213709963</v>
       </c>
       <c r="E25" t="n">
-        <v>746748372</v>
+        <v>742447726</v>
       </c>
       <c r="F25" t="n">
-        <v>99637.52296681839</v>
+        <v>102008.0893818862</v>
       </c>
       <c r="G25" t="n">
-        <v>358205.2137872328</v>
+        <v>353498.3878436337</v>
       </c>
       <c r="H25" t="n">
         <v>0.08</v>
       </c>
       <c r="I25" t="n">
-        <v>33530667</v>
+        <v>30847623</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5876898</v>
+        <v>5879748</v>
       </c>
       <c r="E26" t="n">
-        <v>7986487</v>
+        <v>7987111</v>
       </c>
       <c r="F26" t="n">
-        <v>811.2690834681057</v>
+        <v>841.1103442351306</v>
       </c>
       <c r="G26" t="n">
-        <v>206.6803264475526</v>
+        <v>181.9315332809525</v>
       </c>
       <c r="H26" t="n">
-        <v>0.34</v>
+        <v>0.28</v>
       </c>
       <c r="I26" t="n">
-        <v>5470201</v>
+        <v>5458952</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14869911</v>
+        <v>14916163</v>
       </c>
       <c r="F27" t="n">
-        <v>2963.382105015518</v>
+        <v>2196.144974770421</v>
       </c>
       <c r="G27" t="n">
-        <v>1889.844818060313</v>
+        <v>2689.89576897095</v>
       </c>
       <c r="H27" t="n">
-        <v>0.43</v>
+        <v>0.53</v>
       </c>
       <c r="I27" t="n">
-        <v>249983</v>
+        <v>136746</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26321624</v>
+        <v>26798662</v>
       </c>
       <c r="E28" t="n">
-        <v>37204329</v>
+        <v>37878598</v>
       </c>
       <c r="F28" t="n">
-        <v>115.6553019997132</v>
+        <v>10489.97807493254</v>
       </c>
       <c r="G28" t="n">
-        <v>429.9308588078283</v>
+        <v>178.4335023446312</v>
       </c>
       <c r="H28" t="n">
-        <v>0.34</v>
+        <v>0.68</v>
       </c>
       <c r="I28" t="n">
-        <v>73699</v>
+        <v>76080</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279024847</v>
+        <v>279892627</v>
       </c>
       <c r="E29" t="n">
-        <v>1204426138</v>
+        <v>1208171958</v>
       </c>
       <c r="F29" t="n">
-        <v>392734.739863926</v>
+        <v>388588.6986932918</v>
       </c>
       <c r="G29" t="n">
-        <v>338567.6846257343</v>
+        <v>354460.8775919789</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>110807714</v>
+        <v>110062845</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11888215</v>
+        <v>11613777</v>
       </c>
       <c r="E30" t="n">
-        <v>143504449</v>
+        <v>140191661</v>
       </c>
       <c r="F30" t="n">
-        <v>2181.493168878122</v>
+        <v>4376.691584700505</v>
       </c>
       <c r="G30" t="n">
-        <v>3218.102624120376</v>
+        <v>5438.316690067502</v>
       </c>
       <c r="H30" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="I30" t="n">
-        <v>478936</v>
+        <v>404118</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19839150</v>
+        <v>19827326</v>
       </c>
       <c r="E31" t="n">
-        <v>49597875</v>
+        <v>49568316</v>
       </c>
       <c r="F31" t="n">
-        <v>10243.28375480404</v>
+        <v>11092.09616559819</v>
       </c>
       <c r="G31" t="n">
-        <v>12336.33347142261</v>
+        <v>10638.08101214468</v>
       </c>
       <c r="H31" t="n">
         <v>0.1</v>
       </c>
       <c r="I31" t="n">
-        <v>2208562</v>
+        <v>1963248</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19760475</v>
+        <v>19743889</v>
       </c>
       <c r="F32" t="n">
-        <v>2315.306110737273</v>
+        <v>2248.332431743208</v>
       </c>
       <c r="G32" t="n">
-        <v>2450.241124109376</v>
+        <v>2480.625283039275</v>
       </c>
       <c r="H32" t="n">
-        <v>0.51</v>
+        <v>0.46</v>
       </c>
       <c r="I32" t="n">
-        <v>43401</v>
+        <v>41656</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1372925</v>
+        <v>1368029</v>
       </c>
       <c r="E33" t="n">
-        <v>5118602</v>
+        <v>5100350</v>
       </c>
       <c r="F33" t="n">
-        <v>2826.126035651658</v>
+        <v>2631.178703553044</v>
       </c>
       <c r="G33" t="n">
-        <v>2099.361133489349</v>
+        <v>2483.818328059968</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2</v>
+        <v>0.48</v>
       </c>
       <c r="I33" t="n">
-        <v>632716</v>
+        <v>639163</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4273905</v>
+        <v>4198084</v>
       </c>
       <c r="E34" t="n">
-        <v>12310879</v>
+        <v>12092477</v>
       </c>
       <c r="F34" t="n">
-        <v>3370.242552173414</v>
+        <v>1377.106796053342</v>
       </c>
       <c r="G34" t="n">
-        <v>2003.234751288251</v>
+        <v>3668.193763468732</v>
       </c>
       <c r="H34" t="n">
-        <v>0.57</v>
+        <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>615089</v>
+        <v>604651</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15634624</v>
+        <v>15653966</v>
       </c>
       <c r="E35" t="n">
-        <v>75720981</v>
+        <v>75814654</v>
       </c>
       <c r="F35" t="n">
-        <v>10472.39743868792</v>
+        <v>10089.76836739307</v>
       </c>
       <c r="G35" t="n">
-        <v>13511.10668528191</v>
+        <v>14293.06705134441</v>
       </c>
       <c r="H35" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="I35" t="n">
-        <v>4254200</v>
+        <v>4247622</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1466964</v>
+        <v>1467813</v>
       </c>
       <c r="E36" t="n">
-        <v>9601237</v>
+        <v>9606797</v>
       </c>
       <c r="F36" t="n">
-        <v>3894.930615450975</v>
+        <v>4164.760716092478</v>
       </c>
       <c r="G36" t="n">
-        <v>3542.64548273277</v>
+        <v>3485.363489976325</v>
       </c>
       <c r="H36" t="n">
         <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>703307</v>
+        <v>680165</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1929217566</v>
+        <v>1927626850</v>
       </c>
       <c r="F37" t="n">
-        <v>64666.86380909348</v>
+        <v>77825.27553993434</v>
       </c>
       <c r="G37" t="n">
-        <v>73676.61173119064</v>
+        <v>76601.4446652675</v>
       </c>
       <c r="H37" t="n">
         <v>0.26</v>
       </c>
       <c r="I37" t="n">
-        <v>28167866</v>
+        <v>28297429</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1996705</v>
+        <v>1992404</v>
       </c>
       <c r="E38" t="n">
-        <v>14318173</v>
+        <v>14287333</v>
       </c>
       <c r="F38" t="n">
-        <v>5329.135515641685</v>
+        <v>5338.08055036364</v>
       </c>
       <c r="G38" t="n">
-        <v>5666.10288990431</v>
+        <v>5665.790312520819</v>
       </c>
       <c r="H38" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I38" t="n">
-        <v>2010454</v>
+        <v>2012556</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208396999</v>
+        <v>208155336</v>
       </c>
       <c r="E39" t="n">
-        <v>1180071858</v>
+        <v>1178703410</v>
       </c>
       <c r="F39" t="n">
-        <v>144730.0575381123</v>
+        <v>167571.5498983965</v>
       </c>
       <c r="G39" t="n">
-        <v>179646.3012068057</v>
+        <v>176951.1573115647</v>
       </c>
       <c r="H39" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>69268491</v>
+        <v>69072584</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>145168363</v>
+        <v>145660257</v>
       </c>
       <c r="E40" t="n">
-        <v>1075321208</v>
+        <v>1078964866</v>
       </c>
       <c r="F40" t="n">
-        <v>213492.5856876373</v>
+        <v>209003.1777714312</v>
       </c>
       <c r="G40" t="n">
-        <v>194306.426249285</v>
+        <v>210895.5279667242</v>
       </c>
       <c r="H40" t="n">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I40" t="n">
-        <v>8382456</v>
+        <v>8331310</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>349144594</v>
+        <v>349585034</v>
       </c>
       <c r="E41" t="n">
-        <v>3141121268</v>
+        <v>3145083732</v>
       </c>
       <c r="F41" t="n">
-        <v>237974.3218514434</v>
+        <v>253596.2081709997</v>
       </c>
       <c r="G41" t="n">
-        <v>269959.3914992857</v>
+        <v>281296.6202864791</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>47011243</v>
+        <v>46345799</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1575188</v>
+        <v>1573097</v>
       </c>
       <c r="E42" t="n">
-        <v>13126566</v>
+        <v>13109143</v>
       </c>
       <c r="F42" t="n">
-        <v>1439.294347302207</v>
+        <v>2383.700260772428</v>
       </c>
       <c r="G42" t="n">
-        <v>4483.149524703905</v>
+        <v>3900.784056997054</v>
       </c>
       <c r="H42" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>25807</v>
+        <v>25276</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22652726</v>
+        <v>22685608</v>
       </c>
       <c r="E43" t="n">
-        <v>67903701</v>
+        <v>68002267</v>
       </c>
       <c r="F43" t="n">
-        <v>59335.33815317039</v>
+        <v>58347.12982032824</v>
       </c>
       <c r="G43" t="n">
-        <v>63869.44051314779</v>
+        <v>65621.09559258865</v>
       </c>
       <c r="H43" t="n">
-        <v>0.23</v>
+        <v>0.25</v>
       </c>
       <c r="I43" t="n">
-        <v>3571135</v>
+        <v>3564622</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9456859</v>
+        <v>9481759</v>
       </c>
       <c r="F44" t="n">
-        <v>5653.098541768226</v>
+        <v>5661.825591091064</v>
       </c>
       <c r="G44" t="n">
-        <v>6068.419450713854</v>
+        <v>6059.877015063757</v>
       </c>
       <c r="H44" t="n">
         <v>0.53</v>
       </c>
       <c r="I44" t="n">
-        <v>98501</v>
+        <v>98520</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13524612</v>
+        <v>13610222</v>
       </c>
       <c r="E45" t="n">
-        <v>13524612</v>
+        <v>13610222</v>
       </c>
       <c r="F45" t="n">
-        <v>265.4159643784552</v>
+        <v>138.7885121432431</v>
       </c>
       <c r="G45" t="n">
-        <v>710.415388512119</v>
+        <v>1089.161108421129</v>
       </c>
       <c r="H45" t="n">
-        <v>0.88</v>
+        <v>0.73</v>
       </c>
       <c r="I45" t="n">
-        <v>4027760</v>
+        <v>4057638</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>324327114</v>
+        <v>323465502</v>
       </c>
       <c r="E46" t="n">
-        <v>324327114</v>
+        <v>323465502</v>
       </c>
       <c r="F46" t="n">
-        <v>29169.78529099312</v>
+        <v>29155.25786053645</v>
       </c>
       <c r="G46" t="n">
-        <v>47568.35123148843</v>
+        <v>57053.87543934896</v>
       </c>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>0.24</v>
       </c>
       <c r="I46" t="n">
-        <v>16243782</v>
+        <v>16305887</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12738724</v>
+        <v>12712431</v>
       </c>
       <c r="E47" t="n">
-        <v>40294981</v>
+        <v>40211812</v>
       </c>
       <c r="F47" t="n">
-        <v>18250.83302849241</v>
+        <v>15790.90366721274</v>
       </c>
       <c r="G47" t="n">
-        <v>14504.21472517989</v>
+        <v>11871.7844786047</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="I47" t="n">
-        <v>959196</v>
+        <v>960366</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33125576</v>
+        <v>33146031</v>
       </c>
       <c r="E48" t="n">
-        <v>91754558</v>
+        <v>91811218</v>
       </c>
       <c r="F48" t="n">
-        <v>3013.856488072174</v>
+        <v>3311.030534351629</v>
       </c>
       <c r="G48" t="n">
-        <v>7972.521989047044</v>
+        <v>8716.177114720696</v>
       </c>
       <c r="H48" t="n">
-        <v>0.24</v>
+        <v>0.16</v>
       </c>
       <c r="I48" t="n">
-        <v>12133097</v>
+        <v>12131269</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29543990</v>
+        <v>29800234</v>
       </c>
       <c r="E49" t="n">
-        <v>70189175</v>
+        <v>70797947</v>
       </c>
       <c r="F49" t="n">
-        <v>9727.03103220867</v>
+        <v>12063.35056018034</v>
       </c>
       <c r="G49" t="n">
-        <v>9581.48833056918</v>
+        <v>17455.67000715961</v>
       </c>
       <c r="H49" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>426816</v>
+        <v>453068</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12775352</v>
+        <v>12773828</v>
       </c>
       <c r="E50" t="n">
-        <v>19446967</v>
+        <v>19444647</v>
       </c>
       <c r="F50" t="n">
-        <v>5356.822038402297</v>
+        <v>6920.27910548601</v>
       </c>
       <c r="G50" t="n">
-        <v>18669.27144348613</v>
+        <v>18707.56699295</v>
       </c>
       <c r="H50" t="n">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I50" t="n">
-        <v>678406</v>
+        <v>668839</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="E51" t="n">
-        <v>305673601</v>
+        <v>306107797</v>
       </c>
       <c r="F51" t="n">
-        <v>90488.7057139864</v>
+        <v>81944.71518464776</v>
       </c>
       <c r="G51" t="n">
-        <v>104002.9382467851</v>
+        <v>118604.916289581</v>
       </c>
       <c r="H51" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>72006843</v>
+        <v>71595601</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>92973355</v>
+        <v>93260580</v>
       </c>
       <c r="E52" t="n">
-        <v>535752572</v>
+        <v>537407686</v>
       </c>
       <c r="F52" t="n">
-        <v>264941.3139602017</v>
+        <v>266487.3760978365</v>
       </c>
       <c r="G52" t="n">
-        <v>247821.5415859734</v>
+        <v>246219.4481786954</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>18279024</v>
+        <v>18305862</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31780854</v>
+        <v>31849723</v>
       </c>
       <c r="E53" t="n">
-        <v>142295922</v>
+        <v>142604277</v>
       </c>
       <c r="F53" t="n">
-        <v>17940.23008115072</v>
+        <v>19843.78380841892</v>
       </c>
       <c r="G53" t="n">
-        <v>52412.82284405181</v>
+        <v>48616.80376997436</v>
       </c>
       <c r="H53" t="n">
         <v>0.21</v>
       </c>
       <c r="I53" t="n">
-        <v>8639394</v>
+        <v>7965138</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9092696</v>
+        <v>9094288</v>
       </c>
       <c r="F54" t="n">
-        <v>2628.563522592315</v>
+        <v>2627.764461832172</v>
       </c>
       <c r="G54" t="n">
-        <v>4749.833725440269</v>
+        <v>4749.79216533754</v>
       </c>
       <c r="H54" t="n">
         <v>0.44</v>
       </c>
       <c r="I54" t="n">
-        <v>294322</v>
+        <v>294167</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4877202</v>
+        <v>4825010</v>
       </c>
       <c r="F55" t="n">
-        <v>2348.786810812308</v>
+        <v>4933.47817066794</v>
       </c>
       <c r="G55" t="n">
-        <v>1406.575195518717</v>
+        <v>1271.039912851247</v>
       </c>
       <c r="H55" t="n">
-        <v>0.41</v>
+        <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>202055</v>
+        <v>201355</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>125121271</v>
+        <v>124928900</v>
       </c>
       <c r="E56" t="n">
-        <v>2072110731</v>
+        <v>2068924909</v>
       </c>
       <c r="F56" t="n">
-        <v>194301.304182991</v>
+        <v>189831.3969894989</v>
       </c>
       <c r="G56" t="n">
-        <v>178522.9019341269</v>
+        <v>180087.4133043026</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4806182</v>
+        <v>4841593</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>105632766</v>
+        <v>102718157</v>
       </c>
       <c r="E57" t="n">
-        <v>106769832</v>
+        <v>103823848</v>
       </c>
       <c r="F57" t="n">
-        <v>38138.4399405006</v>
+        <v>52516.63949872614</v>
       </c>
       <c r="G57" t="n">
-        <v>45496.4420003812</v>
+        <v>74715.0178688117</v>
       </c>
       <c r="H57" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="I57" t="n">
-        <v>50854041</v>
+        <v>51129392</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>251889726</v>
+        <v>251903121</v>
       </c>
       <c r="E58" t="n">
-        <v>251889726</v>
+        <v>251903121</v>
       </c>
       <c r="F58" t="n">
-        <v>98468.49379823508</v>
+        <v>127397.1359523217</v>
       </c>
       <c r="G58" t="n">
-        <v>100137.8450719903</v>
+        <v>80430.38588979798</v>
       </c>
       <c r="H58" t="n">
         <v>0.08</v>
       </c>
       <c r="I58" t="n">
-        <v>52123835</v>
+        <v>52022565</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25140767</v>
+        <v>25072086</v>
       </c>
       <c r="E59" t="n">
-        <v>150422260</v>
+        <v>150011332</v>
       </c>
       <c r="F59" t="n">
-        <v>71796.40041546458</v>
+        <v>70374.73105231572</v>
       </c>
       <c r="G59" t="n">
-        <v>80604.78418488808</v>
+        <v>77564.72864664295</v>
       </c>
       <c r="H59" t="n">
-        <v>0.2</v>
+        <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>13154017</v>
+        <v>13223616</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2412820</v>
+        <v>2403316</v>
       </c>
       <c r="E60" t="n">
-        <v>4452996</v>
+        <v>4435456</v>
       </c>
       <c r="F60" t="n">
-        <v>2676.103438502847</v>
+        <v>1082.820765381761</v>
       </c>
       <c r="G60" t="n">
-        <v>2496.643877280835</v>
+        <v>922.7225355555435</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>30129</v>
+        <v>28213</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11108704</v>
+        <v>11031905</v>
       </c>
       <c r="E62" t="n">
-        <v>32954318</v>
+        <v>32721477</v>
       </c>
       <c r="F62" t="n">
-        <v>7261.265575395952</v>
+        <v>8277.24255143833</v>
       </c>
       <c r="G62" t="n">
-        <v>5727.768179930511</v>
+        <v>4501.255724613482</v>
       </c>
       <c r="H62" t="n">
-        <v>0.08</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>6867108</v>
+        <v>7406990</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14572847</v>
+        <v>14571629</v>
       </c>
       <c r="E63" t="n">
-        <v>29501840</v>
+        <v>29499374</v>
       </c>
       <c r="F63" t="n">
-        <v>5841.358699335656</v>
+        <v>5675.29844109492</v>
       </c>
       <c r="G63" t="n">
-        <v>16693.43236191974</v>
+        <v>16218.85624328247</v>
       </c>
       <c r="H63" t="n">
         <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>546027</v>
+        <v>546641</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40090868</v>
+        <v>40380849</v>
       </c>
       <c r="E64" t="n">
-        <v>284237711</v>
+        <v>286293632</v>
       </c>
       <c r="F64" t="n">
-        <v>70400.16700900183</v>
+        <v>71922.72779005009</v>
       </c>
       <c r="G64" t="n">
-        <v>67876.07747375967</v>
+        <v>38567.6725288919</v>
       </c>
       <c r="H64" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I64" t="n">
-        <v>1898203</v>
+        <v>1895939</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1286283</v>
+        <v>1293849</v>
       </c>
       <c r="E65" t="n">
-        <v>7976250</v>
+        <v>8023766</v>
       </c>
       <c r="F65" t="n">
-        <v>2203.335284212408</v>
+        <v>2307.552072984736</v>
       </c>
       <c r="G65" t="n">
-        <v>2107.99786106938</v>
+        <v>2299.380550533113</v>
       </c>
       <c r="H65" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I65" t="n">
-        <v>781868</v>
+        <v>780501</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>627282243</v>
+        <v>626310161</v>
       </c>
       <c r="E66" t="n">
-        <v>2429371580</v>
+        <v>2425606848</v>
       </c>
       <c r="F66" t="n">
-        <v>121266.6435368611</v>
+        <v>121058.0735449088</v>
       </c>
       <c r="G66" t="n">
-        <v>151293.3015219982</v>
+        <v>123890.1465008338</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>39031530</v>
+        <v>38837845</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5879248</v>
+        <v>5880331</v>
       </c>
       <c r="E67" t="n">
-        <v>26318037</v>
+        <v>26322884</v>
       </c>
       <c r="F67" t="n">
-        <v>1915.212623366894</v>
+        <v>4615.071498159843</v>
       </c>
       <c r="G67" t="n">
-        <v>2960.693133504657</v>
+        <v>4101.656021528148</v>
       </c>
       <c r="H67" t="n">
         <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>151081</v>
+        <v>151035</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>116218573</v>
+        <v>115968058</v>
       </c>
       <c r="E68" t="n">
-        <v>1079820224</v>
+        <v>1077492619</v>
       </c>
       <c r="F68" t="n">
-        <v>164884.5320864413</v>
+        <v>167033.3256404794</v>
       </c>
       <c r="G68" t="n">
-        <v>170469.1417978883</v>
+        <v>170170.4298430318</v>
       </c>
       <c r="H68" t="n">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>9792839</v>
+        <v>9793059</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>113396304</v>
+        <v>113068199</v>
       </c>
       <c r="E69" t="n">
-        <v>172988720</v>
+        <v>172488187</v>
       </c>
       <c r="F69" t="n">
-        <v>61085.77857407142</v>
+        <v>59894.80668834921</v>
       </c>
       <c r="G69" t="n">
-        <v>84822.3805644136</v>
+        <v>85296.21809089818</v>
       </c>
       <c r="H69" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="I69" t="n">
-        <v>8665995</v>
+        <v>8635318</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1139252</v>
+        <v>1134301</v>
       </c>
       <c r="E70" t="n">
-        <v>4411434</v>
+        <v>4392260</v>
       </c>
       <c r="F70" t="n">
-        <v>3364.536074629651</v>
+        <v>3027.814440203072</v>
       </c>
       <c r="G70" t="n">
-        <v>2934.995470497749</v>
+        <v>3912.925051407443</v>
       </c>
       <c r="H70" t="n">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="I70" t="n">
-        <v>391407</v>
+        <v>397997</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127811914</v>
+        <v>127831282</v>
       </c>
       <c r="E71" t="n">
-        <v>490307076</v>
+        <v>490381374</v>
       </c>
       <c r="F71" t="n">
-        <v>156468.4173872442</v>
+        <v>162708.8165254218</v>
       </c>
       <c r="G71" t="n">
-        <v>160071.7297901793</v>
+        <v>160190.266274095</v>
       </c>
       <c r="H71" t="n">
         <v>0.12</v>
       </c>
       <c r="I71" t="n">
-        <v>36981206</v>
+        <v>37467231</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3301538</v>
+        <v>3292979</v>
       </c>
       <c r="E72" t="n">
-        <v>31282562</v>
+        <v>31201461</v>
       </c>
       <c r="F72" t="n">
-        <v>3830.776840121431</v>
+        <v>3236.720911870649</v>
       </c>
       <c r="G72" t="n">
-        <v>5008.73470945909</v>
+        <v>4981.796385562523</v>
       </c>
       <c r="H72" t="n">
-        <v>0.38</v>
+        <v>0.26</v>
       </c>
       <c r="I72" t="n">
-        <v>227057</v>
+        <v>205898</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>33735148</v>
+        <v>33319704</v>
       </c>
       <c r="F73" t="n">
-        <v>3724.313571596705</v>
+        <v>3410.292901695988</v>
       </c>
       <c r="G73" t="n">
-        <v>2791.050067779403</v>
+        <v>7162.407805149001</v>
       </c>
       <c r="H73" t="n">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="I73" t="n">
-        <v>5390208</v>
+        <v>5388291</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89158383</v>
+        <v>89085615</v>
       </c>
       <c r="E74" t="n">
-        <v>329574303</v>
+        <v>329304558</v>
       </c>
       <c r="F74" t="n">
-        <v>8354.392710633903</v>
+        <v>8635.591982281818</v>
       </c>
       <c r="G74" t="n">
-        <v>638.3195739868916</v>
+        <v>681.5435653894077</v>
       </c>
       <c r="H74" t="n">
-        <v>0.37</v>
+        <v>0.4</v>
       </c>
       <c r="I74" t="n">
-        <v>222218</v>
+        <v>216101</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23782283</v>
+        <v>23780368</v>
       </c>
       <c r="E75" t="n">
-        <v>23782283</v>
+        <v>23780368</v>
       </c>
       <c r="F75" t="n">
-        <v>23807.3396958635</v>
+        <v>27800.38152404555</v>
       </c>
       <c r="G75" t="n">
-        <v>24013.55589731175</v>
+        <v>23779.1553827497</v>
       </c>
       <c r="H75" t="n">
         <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>5898614</v>
+        <v>5711126</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>510343475</v>
+        <v>510246437</v>
       </c>
       <c r="E76" t="n">
-        <v>1776463164</v>
+        <v>1776125384</v>
       </c>
       <c r="F76" t="n">
-        <v>204760.9878610558</v>
+        <v>203453.4646717821</v>
       </c>
       <c r="G76" t="n">
-        <v>223548.1087258657</v>
+        <v>221296.1787761367</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>35161511</v>
+        <v>35098676</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5844330115</v>
+        <v>5845948388</v>
       </c>
       <c r="E77" t="n">
-        <v>5844330115</v>
+        <v>5845948388</v>
       </c>
       <c r="F77" t="n">
-        <v>10674.69294199671</v>
+        <v>10664.64860785327</v>
       </c>
       <c r="G77" t="n">
-        <v>95967.37654271084</v>
+        <v>95877.07620319742</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>16785928</v>
+        <v>16954683</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7492931</v>
+        <v>7481667</v>
       </c>
       <c r="E78" t="n">
-        <v>19465830</v>
+        <v>19436567</v>
       </c>
       <c r="F78" t="n">
-        <v>2665.509072733098</v>
+        <v>2042.613682861888</v>
       </c>
       <c r="G78" t="n">
-        <v>3151.602224881217</v>
+        <v>3647.479952651446</v>
       </c>
       <c r="H78" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I78" t="n">
-        <v>721653</v>
+        <v>722484</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>109108668</v>
+        <v>110925050</v>
       </c>
       <c r="E79" t="n">
-        <v>165312238</v>
+        <v>168064267</v>
       </c>
       <c r="F79" t="n">
-        <v>42486.41053575229</v>
+        <v>41073.04966441228</v>
       </c>
       <c r="G79" t="n">
-        <v>43703.31826215205</v>
+        <v>78331.81802781769</v>
       </c>
       <c r="H79" t="n">
-        <v>0.29</v>
+        <v>0.23</v>
       </c>
       <c r="I79" t="n">
-        <v>8644704</v>
+        <v>8766870</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2634233</v>
+        <v>2630686</v>
       </c>
       <c r="E80" t="n">
-        <v>10536933</v>
+        <v>10522742</v>
       </c>
       <c r="F80" t="n">
-        <v>71295.96764281321</v>
+        <v>70352.41946562003</v>
       </c>
       <c r="G80" t="n">
-        <v>35028.41448876098</v>
+        <v>34981.47576100442</v>
       </c>
       <c r="H80" t="n">
-        <v>0.57</v>
+        <v>0.66</v>
       </c>
       <c r="I80" t="n">
-        <v>7008923</v>
+        <v>7013624</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2513257</v>
+        <v>2511562</v>
       </c>
       <c r="F81" t="n">
-        <v>2037.926652933561</v>
+        <v>1692.840418260765</v>
       </c>
       <c r="G81" t="n">
-        <v>999.8723829137881</v>
+        <v>829.0043481516934</v>
       </c>
       <c r="H81" t="n">
-        <v>0.63</v>
+        <v>0.71</v>
       </c>
       <c r="I81" t="n">
-        <v>286480</v>
+        <v>284973</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>411065469</v>
+        <v>410929824</v>
       </c>
       <c r="E82" t="n">
-        <v>2348945539</v>
+        <v>2348170421</v>
       </c>
       <c r="F82" t="n">
-        <v>83734.74769875544</v>
+        <v>85420.36934559353</v>
       </c>
       <c r="G82" t="n">
-        <v>187833.9590406788</v>
+        <v>119474.9156068561</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>43096203</v>
+        <v>42915915</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4167318</v>
+        <v>4123946</v>
       </c>
       <c r="F2" t="n">
-        <v>1064.340917859419</v>
+        <v>874.1641752689231</v>
       </c>
       <c r="G2" t="n">
-        <v>652.0901825269008</v>
+        <v>503.5864362050813</v>
       </c>
       <c r="H2" t="n">
-        <v>0.53</v>
+        <v>0.72</v>
       </c>
       <c r="I2" t="n">
-        <v>149653</v>
+        <v>153328</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382147</v>
+        <v>1451180</v>
       </c>
       <c r="E3" t="n">
-        <v>4467667</v>
+        <v>4690808</v>
       </c>
       <c r="F3" t="n">
-        <v>5681.692954969311</v>
+        <v>2049.860120434138</v>
       </c>
       <c r="G3" t="n">
-        <v>10289.83227956164</v>
+        <v>7462.27577458937</v>
       </c>
       <c r="H3" t="n">
-        <v>0.18</v>
+        <v>0.46</v>
       </c>
       <c r="I3" t="n">
-        <v>145968</v>
+        <v>176352</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>257201314</v>
+        <v>259257928</v>
       </c>
       <c r="E4" t="n">
-        <v>1612873290</v>
+        <v>1625770025</v>
       </c>
       <c r="F4" t="n">
-        <v>250446.3236772392</v>
+        <v>261991.2577703061</v>
       </c>
       <c r="G4" t="n">
-        <v>261264.0370954752</v>
+        <v>257625.0261641194</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>17188416</v>
+        <v>17336215</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>152114990</v>
+        <v>154054225</v>
       </c>
       <c r="E5" t="n">
-        <v>168567181</v>
+        <v>170716156</v>
       </c>
       <c r="F5" t="n">
-        <v>91539.5359815712</v>
+        <v>91455.68145020152</v>
       </c>
       <c r="G5" t="n">
-        <v>102933.1238935727</v>
+        <v>99531.96985249317</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>40278901</v>
+        <v>42612556</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>128213975</v>
+        <v>129488307</v>
       </c>
       <c r="E6" t="n">
-        <v>502560391</v>
+        <v>507555391</v>
       </c>
       <c r="F6" t="n">
-        <v>20518.91302084407</v>
+        <v>17192.66725384978</v>
       </c>
       <c r="G6" t="n">
-        <v>41566.18258314444</v>
+        <v>47752.22242799702</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>28064544</v>
+        <v>27357618</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4651432</v>
+        <v>4582947</v>
       </c>
       <c r="E7" t="n">
-        <v>28567499</v>
+        <v>28146081</v>
       </c>
       <c r="F7" t="n">
-        <v>1999.289206319293</v>
+        <v>2665.688001106505</v>
       </c>
       <c r="G7" t="n">
-        <v>2126.701289829033</v>
+        <v>3459.795498624621</v>
       </c>
       <c r="H7" t="n">
-        <v>0.28</v>
+        <v>0.21</v>
       </c>
       <c r="I7" t="n">
-        <v>684343</v>
+        <v>699042</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>201265</v>
+        <v>202611</v>
       </c>
       <c r="E8" t="n">
-        <v>2214136</v>
+        <v>2228949</v>
       </c>
       <c r="F8" t="n">
-        <v>3299.540647500785</v>
+        <v>2500.271110101793</v>
       </c>
       <c r="G8" t="n">
-        <v>2839.623544898508</v>
+        <v>2859.229232453538</v>
       </c>
       <c r="H8" t="n">
         <v>0.54</v>
       </c>
       <c r="I8" t="n">
-        <v>32302</v>
+        <v>32595</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72460379</v>
+        <v>72340946</v>
       </c>
       <c r="E9" t="n">
-        <v>125471894</v>
+        <v>125260594</v>
       </c>
       <c r="F9" t="n">
-        <v>9996.157821675528</v>
+        <v>4052.607406438638</v>
       </c>
       <c r="G9" t="n">
-        <v>12849.52961221858</v>
+        <v>7656.475919614098</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>831705</v>
+        <v>857020</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8844763</v>
+        <v>8865912</v>
       </c>
       <c r="E10" t="n">
-        <v>12519105</v>
+        <v>12549040</v>
       </c>
       <c r="F10" t="n">
-        <v>4555.211669681973</v>
+        <v>4594.927424047753</v>
       </c>
       <c r="G10" t="n">
-        <v>3371.450707583509</v>
+        <v>4207.772917726809</v>
       </c>
       <c r="H10" t="n">
         <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>71690</v>
+        <v>71905</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>478550583</v>
+        <v>499597304</v>
       </c>
       <c r="E11" t="n">
-        <v>478550585</v>
+        <v>499597306</v>
       </c>
       <c r="F11" t="n">
-        <v>37165.04450669352</v>
+        <v>62939.93378451024</v>
       </c>
       <c r="G11" t="n">
-        <v>73425.68273987007</v>
+        <v>120914.6901668024</v>
       </c>
       <c r="H11" t="n">
         <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>63857463</v>
+        <v>60941391</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>324424</v>
+        <v>323772</v>
       </c>
       <c r="E12" t="n">
-        <v>1514443</v>
+        <v>1511398</v>
       </c>
       <c r="F12" t="n">
-        <v>1377.758852606593</v>
+        <v>207.2224994326972</v>
       </c>
       <c r="G12" t="n">
-        <v>159.9090107515544</v>
+        <v>2667.895274788727</v>
       </c>
       <c r="H12" t="n">
-        <v>0.32</v>
+        <v>1.55</v>
       </c>
       <c r="I12" t="n">
-        <v>715888</v>
+        <v>708597</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1487676</v>
+        <v>1945410</v>
       </c>
       <c r="F13" t="n">
-        <v>4683.411225337005</v>
+        <v>261.1318218032457</v>
       </c>
       <c r="G13" t="n">
-        <v>1113.023925869796</v>
+        <v>33.16395694646658</v>
       </c>
       <c r="H13" t="n">
-        <v>0.2</v>
+        <v>1.57</v>
       </c>
       <c r="I13" t="n">
-        <v>345857</v>
+        <v>477880</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12439902</v>
+        <v>12217379</v>
       </c>
       <c r="E14" t="n">
-        <v>30960665</v>
+        <v>30406846</v>
       </c>
       <c r="F14" t="n">
-        <v>679.0892102082696</v>
+        <v>1530.627902902779</v>
       </c>
       <c r="G14" t="n">
-        <v>1264.189956965569</v>
+        <v>1681.922601140679</v>
       </c>
       <c r="H14" t="n">
-        <v>0.32</v>
+        <v>0.43</v>
       </c>
       <c r="I14" t="n">
-        <v>1319076</v>
+        <v>1350764</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115406535</v>
+        <v>115971574</v>
       </c>
       <c r="E15" t="n">
-        <v>448863778</v>
+        <v>451024531</v>
       </c>
       <c r="F15" t="n">
-        <v>65803.41476345033</v>
+        <v>42999.40737976332</v>
       </c>
       <c r="G15" t="n">
-        <v>112559.1973788625</v>
+        <v>100966.1964767445</v>
       </c>
       <c r="H15" t="n">
         <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>11152384</v>
+        <v>11242094</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5094190</v>
+        <v>5083014</v>
       </c>
       <c r="E16" t="n">
-        <v>7498924</v>
+        <v>7482473</v>
       </c>
       <c r="F16" t="n">
-        <v>4086.207810201779</v>
+        <v>3152.45165270937</v>
       </c>
       <c r="G16" t="n">
-        <v>3762.950414576048</v>
+        <v>3713.537682108771</v>
       </c>
       <c r="H16" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="I16" t="n">
-        <v>582804</v>
+        <v>585733</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2012675</v>
+        <v>2027708</v>
       </c>
       <c r="F17" t="n">
-        <v>998.0795069636916</v>
+        <v>144.7032032615257</v>
       </c>
       <c r="G17" t="n">
-        <v>275.3159521534649</v>
+        <v>62.3167950310071</v>
       </c>
       <c r="H17" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="I17" t="n">
-        <v>124101</v>
+        <v>123731</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="E18" t="n">
-        <v>145501226</v>
+        <v>148024507</v>
       </c>
       <c r="F18" t="n">
-        <v>123054.5377803676</v>
+        <v>77377.75344762919</v>
       </c>
       <c r="G18" t="n">
-        <v>117384.9209101535</v>
+        <v>119342.6224272711</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>74950064</v>
+        <v>75758173</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69068854</v>
+        <v>69488738</v>
       </c>
       <c r="E19" t="n">
-        <v>354199249</v>
+        <v>356352501</v>
       </c>
       <c r="F19" t="n">
-        <v>15728.93841330034</v>
+        <v>18553.33558326498</v>
       </c>
       <c r="G19" t="n">
-        <v>27430.55605840421</v>
+        <v>18646.92614180871</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>25550729</v>
+        <v>24837492</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>268433015</v>
+        <v>274493167</v>
       </c>
       <c r="E20" t="n">
-        <v>268433015</v>
+        <v>274493167</v>
       </c>
       <c r="F20" t="n">
-        <v>65232.19722374155</v>
+        <v>69048.12566512453</v>
       </c>
       <c r="G20" t="n">
-        <v>100738.8835757384</v>
+        <v>110315.587325469</v>
       </c>
       <c r="H20" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I20" t="n">
-        <v>15108733</v>
+        <v>19688913</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>204189250</v>
+        <v>191147712</v>
       </c>
       <c r="E21" t="n">
-        <v>268689172</v>
+        <v>251528033</v>
       </c>
       <c r="F21" t="n">
-        <v>6295.527646122591</v>
+        <v>14628.40935861993</v>
       </c>
       <c r="G21" t="n">
-        <v>30315.85898596477</v>
+        <v>25000.084022576</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2</v>
+        <v>0.23</v>
       </c>
       <c r="I21" t="n">
-        <v>11289758</v>
+        <v>13008373</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>84468064</v>
+        <v>89009550</v>
       </c>
       <c r="E22" t="n">
-        <v>236300462</v>
+        <v>248981623</v>
       </c>
       <c r="F22" t="n">
-        <v>29604.34947349323</v>
+        <v>19729.21885600387</v>
       </c>
       <c r="G22" t="n">
-        <v>37404.50906765187</v>
+        <v>46649.31068104634</v>
       </c>
       <c r="H22" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="I22" t="n">
-        <v>47444693</v>
+        <v>52891911</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>79317069</v>
+        <v>82595380</v>
       </c>
       <c r="E23" t="n">
-        <v>165416368</v>
+        <v>172204733</v>
       </c>
       <c r="F23" t="n">
-        <v>27207.17361517461</v>
+        <v>31466.49911340533</v>
       </c>
       <c r="G23" t="n">
-        <v>41275.80901873653</v>
+        <v>41141.17623243002</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I23" t="n">
-        <v>20422865</v>
+        <v>22642311</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>673567686</v>
+        <v>697712526</v>
       </c>
       <c r="E24" t="n">
-        <v>673567686</v>
+        <v>697712526</v>
       </c>
       <c r="F24" t="n">
-        <v>188482.6007338161</v>
+        <v>211433.2154880938</v>
       </c>
       <c r="G24" t="n">
-        <v>264640.633999908</v>
+        <v>303353.6047020151</v>
       </c>
       <c r="H24" t="n">
-        <v>0.15</v>
+        <v>0.28</v>
       </c>
       <c r="I24" t="n">
-        <v>346000280</v>
+        <v>364769285</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>213709963</v>
+        <v>211287856</v>
       </c>
       <c r="E25" t="n">
-        <v>742447726</v>
+        <v>734033107</v>
       </c>
       <c r="F25" t="n">
-        <v>102008.0893818862</v>
+        <v>122641.0359712489</v>
       </c>
       <c r="G25" t="n">
-        <v>353498.3878436337</v>
+        <v>359734.4925330784</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="I25" t="n">
-        <v>30847623</v>
+        <v>33632321</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5879748</v>
+        <v>5836247</v>
       </c>
       <c r="E26" t="n">
-        <v>7987111</v>
+        <v>7923242</v>
       </c>
       <c r="F26" t="n">
-        <v>841.1103442351306</v>
+        <v>554.7311715672028</v>
       </c>
       <c r="G26" t="n">
-        <v>181.9315332809525</v>
+        <v>2633.1494919178</v>
       </c>
       <c r="H26" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
-        <v>5458952</v>
+        <v>5442374</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14916163</v>
+        <v>14891891</v>
       </c>
       <c r="F27" t="n">
-        <v>2196.144974770421</v>
+        <v>2339.80473089921</v>
       </c>
       <c r="G27" t="n">
-        <v>2689.89576897095</v>
+        <v>3030.347103342102</v>
       </c>
       <c r="H27" t="n">
         <v>0.53</v>
       </c>
       <c r="I27" t="n">
-        <v>136746</v>
+        <v>226876</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26798662</v>
+        <v>26598608</v>
       </c>
       <c r="E28" t="n">
-        <v>37878598</v>
+        <v>37588121</v>
       </c>
       <c r="F28" t="n">
-        <v>10489.97807493254</v>
+        <v>7924.837723149949</v>
       </c>
       <c r="G28" t="n">
-        <v>178.4335023446312</v>
+        <v>561.7872910337242</v>
       </c>
       <c r="H28" t="n">
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="I28" t="n">
-        <v>76080</v>
+        <v>89411</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>279892627</v>
+        <v>286029805</v>
       </c>
       <c r="E29" t="n">
-        <v>1208171958</v>
+        <v>1234663424</v>
       </c>
       <c r="F29" t="n">
-        <v>388588.6986932918</v>
+        <v>374566.406397253</v>
       </c>
       <c r="G29" t="n">
-        <v>354460.8775919789</v>
+        <v>325249.4146210508</v>
       </c>
       <c r="H29" t="n">
-        <v>0.08</v>
+        <v>0.16</v>
       </c>
       <c r="I29" t="n">
-        <v>110062845</v>
+        <v>111479307</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11613777</v>
+        <v>11676852</v>
       </c>
       <c r="E30" t="n">
-        <v>140191661</v>
+        <v>140914531</v>
       </c>
       <c r="F30" t="n">
-        <v>4376.691584700505</v>
+        <v>6341.382878376963</v>
       </c>
       <c r="G30" t="n">
-        <v>5438.316690067502</v>
+        <v>3021.955345698871</v>
       </c>
       <c r="H30" t="n">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
       <c r="I30" t="n">
-        <v>404118</v>
+        <v>407149</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19827326</v>
+        <v>19569134</v>
       </c>
       <c r="E31" t="n">
-        <v>49568316</v>
+        <v>48922835</v>
       </c>
       <c r="F31" t="n">
-        <v>11092.09616559819</v>
+        <v>8001.002416702529</v>
       </c>
       <c r="G31" t="n">
-        <v>10638.08101214468</v>
+        <v>14156.69421981231</v>
       </c>
       <c r="H31" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="I31" t="n">
-        <v>1963248</v>
+        <v>2235906</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19743889</v>
+        <v>19817904</v>
       </c>
       <c r="F32" t="n">
-        <v>2248.332431743208</v>
+        <v>4036.830382518398</v>
       </c>
       <c r="G32" t="n">
-        <v>2480.625283039275</v>
+        <v>3852.184285254811</v>
       </c>
       <c r="H32" t="n">
-        <v>0.46</v>
+        <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>41656</v>
+        <v>34678</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1368029</v>
+        <v>1363121</v>
       </c>
       <c r="E33" t="n">
-        <v>5100350</v>
+        <v>5082051</v>
       </c>
       <c r="F33" t="n">
-        <v>2631.178703553044</v>
+        <v>1972.26979177356</v>
       </c>
       <c r="G33" t="n">
-        <v>2483.818328059968</v>
+        <v>2336.738173311674</v>
       </c>
       <c r="H33" t="n">
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="I33" t="n">
-        <v>639163</v>
+        <v>622734</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4198084</v>
+        <v>4205196</v>
       </c>
       <c r="E34" t="n">
-        <v>12092477</v>
+        <v>12112886</v>
       </c>
       <c r="F34" t="n">
-        <v>1377.106796053342</v>
+        <v>793.2709875122455</v>
       </c>
       <c r="G34" t="n">
-        <v>3668.193763468732</v>
+        <v>3788.757456241493</v>
       </c>
       <c r="H34" t="n">
         <v>0.41</v>
       </c>
       <c r="I34" t="n">
-        <v>604651</v>
+        <v>610626</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>15653966</v>
+        <v>16217664</v>
       </c>
       <c r="E35" t="n">
-        <v>75814654</v>
+        <v>78544736</v>
       </c>
       <c r="F35" t="n">
-        <v>10089.76836739307</v>
+        <v>13097.25214821465</v>
       </c>
       <c r="G35" t="n">
-        <v>14293.06705134441</v>
+        <v>13643.42873946616</v>
       </c>
       <c r="H35" t="n">
-        <v>0.26</v>
+        <v>0.41</v>
       </c>
       <c r="I35" t="n">
-        <v>4247622</v>
+        <v>4347338</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1467813</v>
+        <v>1462258</v>
       </c>
       <c r="E36" t="n">
-        <v>9606797</v>
+        <v>9570438</v>
       </c>
       <c r="F36" t="n">
-        <v>4164.760716092478</v>
+        <v>1662.616004636102</v>
       </c>
       <c r="G36" t="n">
-        <v>3485.363489976325</v>
+        <v>1678.072924043894</v>
       </c>
       <c r="H36" t="n">
-        <v>0.41</v>
+        <v>0.62</v>
       </c>
       <c r="I36" t="n">
-        <v>680165</v>
+        <v>585486</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1927626850</v>
+        <v>1922121709</v>
       </c>
       <c r="F37" t="n">
-        <v>77825.27553993434</v>
+        <v>77150.55332142995</v>
       </c>
       <c r="G37" t="n">
-        <v>76601.4446652675</v>
+        <v>73741.49346019652</v>
       </c>
       <c r="H37" t="n">
-        <v>0.26</v>
+        <v>0.42</v>
       </c>
       <c r="I37" t="n">
-        <v>28297429</v>
+        <v>27918200</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1992404</v>
+        <v>1977987</v>
       </c>
       <c r="E38" t="n">
-        <v>14287333</v>
+        <v>14183945</v>
       </c>
       <c r="F38" t="n">
-        <v>5338.08055036364</v>
+        <v>5195.413224392649</v>
       </c>
       <c r="G38" t="n">
-        <v>5665.790312520819</v>
+        <v>4750.012699088883</v>
       </c>
       <c r="H38" t="n">
-        <v>0.14</v>
+        <v>0.48</v>
       </c>
       <c r="I38" t="n">
-        <v>2012556</v>
+        <v>2029295</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>208155336</v>
+        <v>211809734</v>
       </c>
       <c r="E39" t="n">
-        <v>1178703410</v>
+        <v>1199396862</v>
       </c>
       <c r="F39" t="n">
-        <v>167571.5498983965</v>
+        <v>167193.9928359993</v>
       </c>
       <c r="G39" t="n">
-        <v>176951.1573115647</v>
+        <v>163995.4227827566</v>
       </c>
       <c r="H39" t="n">
         <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>69072584</v>
+        <v>67221908</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>145660257</v>
+        <v>146956199</v>
       </c>
       <c r="E40" t="n">
-        <v>1078964866</v>
+        <v>1088564436</v>
       </c>
       <c r="F40" t="n">
-        <v>209003.1777714312</v>
+        <v>199642.5729178298</v>
       </c>
       <c r="G40" t="n">
-        <v>210895.5279667242</v>
+        <v>195572.2247941754</v>
       </c>
       <c r="H40" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I40" t="n">
-        <v>8331310</v>
+        <v>8358597</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>349585034</v>
+        <v>349325105</v>
       </c>
       <c r="E41" t="n">
-        <v>3145083732</v>
+        <v>3142745251</v>
       </c>
       <c r="F41" t="n">
-        <v>253596.2081709997</v>
+        <v>284065.5002772493</v>
       </c>
       <c r="G41" t="n">
-        <v>281296.6202864791</v>
+        <v>298289.2177349471</v>
       </c>
       <c r="H41" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="I41" t="n">
-        <v>46345799</v>
+        <v>43926455</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1573097</v>
+        <v>1572715</v>
       </c>
       <c r="E42" t="n">
-        <v>13109143</v>
+        <v>13105959</v>
       </c>
       <c r="F42" t="n">
-        <v>2383.700260772428</v>
+        <v>2404.771892898917</v>
       </c>
       <c r="G42" t="n">
-        <v>3900.784056997054</v>
+        <v>3838.224569737607</v>
       </c>
       <c r="H42" t="n">
         <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>25276</v>
+        <v>21711</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22685608</v>
+        <v>23101669</v>
       </c>
       <c r="E43" t="n">
-        <v>68002267</v>
+        <v>69249451</v>
       </c>
       <c r="F43" t="n">
-        <v>58347.12982032824</v>
+        <v>58361.46986231909</v>
       </c>
       <c r="G43" t="n">
-        <v>65621.09559258865</v>
+        <v>64140.61141721698</v>
       </c>
       <c r="H43" t="n">
-        <v>0.25</v>
+        <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>3564622</v>
+        <v>3607668</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9481759</v>
+        <v>9410737</v>
       </c>
       <c r="F44" t="n">
-        <v>5661.825591091064</v>
+        <v>5698.208827031079</v>
       </c>
       <c r="G44" t="n">
-        <v>6059.877015063757</v>
+        <v>5707.698030709419</v>
       </c>
       <c r="H44" t="n">
-        <v>0.53</v>
+        <v>0.32</v>
       </c>
       <c r="I44" t="n">
-        <v>98520</v>
+        <v>102040</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13610222</v>
+        <v>13595222</v>
       </c>
       <c r="E45" t="n">
-        <v>13610222</v>
+        <v>13595222</v>
       </c>
       <c r="F45" t="n">
-        <v>138.7885121432431</v>
+        <v>202.282371488935</v>
       </c>
       <c r="G45" t="n">
-        <v>1089.161108421129</v>
+        <v>246.7193967496541</v>
       </c>
       <c r="H45" t="n">
-        <v>0.73</v>
+        <v>0.66</v>
       </c>
       <c r="I45" t="n">
-        <v>4057638</v>
+        <v>4203304</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>323465502</v>
+        <v>328817536</v>
       </c>
       <c r="E46" t="n">
-        <v>323465502</v>
+        <v>328817536</v>
       </c>
       <c r="F46" t="n">
-        <v>29155.25786053645</v>
+        <v>31488.34377976311</v>
       </c>
       <c r="G46" t="n">
-        <v>57053.87543934896</v>
+        <v>48297.45593589578</v>
       </c>
       <c r="H46" t="n">
-        <v>0.24</v>
+        <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>16305887</v>
+        <v>16624580</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12712431</v>
+        <v>12675279</v>
       </c>
       <c r="E47" t="n">
-        <v>40211812</v>
+        <v>40093217</v>
       </c>
       <c r="F47" t="n">
-        <v>15790.90366721274</v>
+        <v>15153.38152909328</v>
       </c>
       <c r="G47" t="n">
-        <v>11871.7844786047</v>
+        <v>15163.94241263537</v>
       </c>
       <c r="H47" t="n">
-        <v>0.37</v>
+        <v>0.32</v>
       </c>
       <c r="I47" t="n">
-        <v>960366</v>
+        <v>965229</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33146031</v>
+        <v>33481772</v>
       </c>
       <c r="E48" t="n">
-        <v>91811218</v>
+        <v>92741186</v>
       </c>
       <c r="F48" t="n">
-        <v>3311.030534351629</v>
+        <v>4033.232595553354</v>
       </c>
       <c r="G48" t="n">
-        <v>8716.177114720696</v>
+        <v>8735.700445262655</v>
       </c>
       <c r="H48" t="n">
-        <v>0.16</v>
+        <v>0.21</v>
       </c>
       <c r="I48" t="n">
-        <v>12131269</v>
+        <v>12419910</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29800234</v>
+        <v>29633835</v>
       </c>
       <c r="E49" t="n">
-        <v>70797947</v>
+        <v>70402624</v>
       </c>
       <c r="F49" t="n">
-        <v>12063.35056018034</v>
+        <v>6386.178200128098</v>
       </c>
       <c r="G49" t="n">
-        <v>17455.67000715961</v>
+        <v>12376.57798561746</v>
       </c>
       <c r="H49" t="n">
         <v>0.1</v>
       </c>
       <c r="I49" t="n">
-        <v>453068</v>
+        <v>420728</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12773828</v>
+        <v>12777921</v>
       </c>
       <c r="E50" t="n">
-        <v>19444647</v>
+        <v>19450877</v>
       </c>
       <c r="F50" t="n">
-        <v>6920.27910548601</v>
+        <v>5883.333977986787</v>
       </c>
       <c r="G50" t="n">
-        <v>18707.56699295</v>
+        <v>3662.079869367388</v>
       </c>
       <c r="H50" t="n">
-        <v>0.5</v>
+        <v>0.36</v>
       </c>
       <c r="I50" t="n">
-        <v>668839</v>
+        <v>660797</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="E51" t="n">
-        <v>306107797</v>
+        <v>309932779</v>
       </c>
       <c r="F51" t="n">
-        <v>81944.71518464776</v>
+        <v>123720.9107544362</v>
       </c>
       <c r="G51" t="n">
-        <v>118604.916289581</v>
+        <v>116423.3489028806</v>
       </c>
       <c r="H51" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="I51" t="n">
-        <v>71595601</v>
+        <v>72342078</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>93260580</v>
+        <v>94360954</v>
       </c>
       <c r="E52" t="n">
-        <v>537407686</v>
+        <v>543748516</v>
       </c>
       <c r="F52" t="n">
-        <v>266487.3760978365</v>
+        <v>263965.3199948476</v>
       </c>
       <c r="G52" t="n">
-        <v>246219.4481786954</v>
+        <v>242026.490563923</v>
       </c>
       <c r="H52" t="n">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I52" t="n">
-        <v>18305862</v>
+        <v>18300165</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>31849723</v>
+        <v>33115476</v>
       </c>
       <c r="E53" t="n">
-        <v>142604277</v>
+        <v>148271569</v>
       </c>
       <c r="F53" t="n">
-        <v>19843.78380841892</v>
+        <v>18578.33627042873</v>
       </c>
       <c r="G53" t="n">
-        <v>48616.80376997436</v>
+        <v>40683.81247733801</v>
       </c>
       <c r="H53" t="n">
-        <v>0.21</v>
+        <v>0.13</v>
       </c>
       <c r="I53" t="n">
-        <v>7965138</v>
+        <v>8907200</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9094288</v>
+        <v>9064267</v>
       </c>
       <c r="F54" t="n">
-        <v>2627.764461832172</v>
+        <v>2610.330414437889</v>
       </c>
       <c r="G54" t="n">
-        <v>4749.79216533754</v>
+        <v>4730.644233569226</v>
       </c>
       <c r="H54" t="n">
-        <v>0.44</v>
+        <v>0.22</v>
       </c>
       <c r="I54" t="n">
-        <v>294167</v>
+        <v>295310</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4825010</v>
+        <v>4802378</v>
       </c>
       <c r="F55" t="n">
-        <v>4933.47817066794</v>
+        <v>2560.914004779289</v>
       </c>
       <c r="G55" t="n">
-        <v>1271.039912851247</v>
+        <v>1665.866402996625</v>
       </c>
       <c r="H55" t="n">
         <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>201355</v>
+        <v>203006</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124928900</v>
+        <v>124969063</v>
       </c>
       <c r="E56" t="n">
-        <v>2068924909</v>
+        <v>2069590041</v>
       </c>
       <c r="F56" t="n">
-        <v>189831.3969894989</v>
+        <v>188949.176292669</v>
       </c>
       <c r="G56" t="n">
-        <v>180087.4133043026</v>
+        <v>183879.0441641777</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4841593</v>
+        <v>4894040</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>102718157</v>
+        <v>104390014</v>
       </c>
       <c r="E57" t="n">
-        <v>103823848</v>
+        <v>105513702</v>
       </c>
       <c r="F57" t="n">
-        <v>52516.63949872614</v>
+        <v>47798.39019119752</v>
       </c>
       <c r="G57" t="n">
-        <v>74715.0178688117</v>
+        <v>65584.35252500634</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1</v>
+        <v>0.19</v>
       </c>
       <c r="I57" t="n">
-        <v>51129392</v>
+        <v>55251585</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>251903121</v>
+        <v>260942847</v>
       </c>
       <c r="E58" t="n">
-        <v>251903121</v>
+        <v>260942847</v>
       </c>
       <c r="F58" t="n">
-        <v>127397.1359523217</v>
+        <v>112253.9152046084</v>
       </c>
       <c r="G58" t="n">
-        <v>80430.38588979798</v>
+        <v>96204.97473901183</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I58" t="n">
-        <v>52022565</v>
+        <v>53836066</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25072086</v>
+        <v>25304578</v>
       </c>
       <c r="E59" t="n">
-        <v>150011332</v>
+        <v>151402378</v>
       </c>
       <c r="F59" t="n">
-        <v>70374.73105231572</v>
+        <v>55820.99481133192</v>
       </c>
       <c r="G59" t="n">
-        <v>77564.72864664295</v>
+        <v>55990.56831190249</v>
       </c>
       <c r="H59" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I59" t="n">
-        <v>13223616</v>
+        <v>13616224</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2403316</v>
+        <v>2422148</v>
       </c>
       <c r="E60" t="n">
-        <v>4435456</v>
+        <v>4470212</v>
       </c>
       <c r="F60" t="n">
-        <v>1082.820765381761</v>
+        <v>2674.28051062981</v>
       </c>
       <c r="G60" t="n">
-        <v>922.7225355555435</v>
+        <v>2481.506642270531</v>
       </c>
       <c r="H60" t="n">
         <v>0.34</v>
       </c>
       <c r="I60" t="n">
-        <v>28213</v>
+        <v>30277</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11031905</v>
+        <v>11032765</v>
       </c>
       <c r="E62" t="n">
-        <v>32721477</v>
+        <v>32723639</v>
       </c>
       <c r="F62" t="n">
-        <v>8277.24255143833</v>
+        <v>6498.158380074444</v>
       </c>
       <c r="G62" t="n">
-        <v>4501.255724613482</v>
+        <v>5885.628211369679</v>
       </c>
       <c r="H62" t="n">
-        <v>0.15</v>
+        <v>0.23</v>
       </c>
       <c r="I62" t="n">
-        <v>7406990</v>
+        <v>6606854</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14571629</v>
+        <v>14567034</v>
       </c>
       <c r="E63" t="n">
-        <v>29499374</v>
+        <v>29490070</v>
       </c>
       <c r="F63" t="n">
-        <v>5675.29844109492</v>
+        <v>6234.037165206706</v>
       </c>
       <c r="G63" t="n">
-        <v>16218.85624328247</v>
+        <v>12917.73798274683</v>
       </c>
       <c r="H63" t="n">
         <v>0.27</v>
       </c>
       <c r="I63" t="n">
-        <v>546641</v>
+        <v>537228</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40380849</v>
+        <v>40504698</v>
       </c>
       <c r="E64" t="n">
-        <v>286293632</v>
+        <v>287171702</v>
       </c>
       <c r="F64" t="n">
-        <v>71922.72779005009</v>
+        <v>73582.33569852651</v>
       </c>
       <c r="G64" t="n">
-        <v>38567.6725288919</v>
+        <v>50646.74828615817</v>
       </c>
       <c r="H64" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I64" t="n">
-        <v>1895939</v>
+        <v>1964989</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1293849</v>
+        <v>1335212</v>
       </c>
       <c r="E65" t="n">
-        <v>8023766</v>
+        <v>8280313</v>
       </c>
       <c r="F65" t="n">
-        <v>2307.552072984736</v>
+        <v>1776.529602335079</v>
       </c>
       <c r="G65" t="n">
-        <v>2299.380550533113</v>
+        <v>2250.74059201357</v>
       </c>
       <c r="H65" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>780501</v>
+        <v>802577</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>626310161</v>
+        <v>630618531</v>
       </c>
       <c r="E66" t="n">
-        <v>2425606848</v>
+        <v>2442292531</v>
       </c>
       <c r="F66" t="n">
-        <v>121058.0735449088</v>
+        <v>161798.107162841</v>
       </c>
       <c r="G66" t="n">
-        <v>123890.1465008338</v>
+        <v>156031.6128730786</v>
       </c>
       <c r="H66" t="n">
         <v>0.04</v>
       </c>
       <c r="I66" t="n">
-        <v>38837845</v>
+        <v>39567895</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5880331</v>
+        <v>5887272</v>
       </c>
       <c r="E67" t="n">
-        <v>26322884</v>
+        <v>26353956</v>
       </c>
       <c r="F67" t="n">
-        <v>4615.071498159843</v>
+        <v>4534.107280656216</v>
       </c>
       <c r="G67" t="n">
-        <v>4101.656021528148</v>
+        <v>4377.562914794449</v>
       </c>
       <c r="H67" t="n">
         <v>0.15</v>
       </c>
       <c r="I67" t="n">
-        <v>151035</v>
+        <v>150808</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>115968058</v>
+        <v>118752204</v>
       </c>
       <c r="E68" t="n">
-        <v>1077492619</v>
+        <v>1103360916</v>
       </c>
       <c r="F68" t="n">
-        <v>167033.3256404794</v>
+        <v>169449.5054087781</v>
       </c>
       <c r="G68" t="n">
-        <v>170170.4298430318</v>
+        <v>170552.6076040087</v>
       </c>
       <c r="H68" t="n">
-        <v>0.08</v>
+        <v>0.11</v>
       </c>
       <c r="I68" t="n">
-        <v>9793059</v>
+        <v>10243314</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>113068199</v>
+        <v>115612799</v>
       </c>
       <c r="E69" t="n">
-        <v>172488187</v>
+        <v>176370035</v>
       </c>
       <c r="F69" t="n">
-        <v>59894.80668834921</v>
+        <v>55800.5340047653</v>
       </c>
       <c r="G69" t="n">
-        <v>85296.21809089818</v>
+        <v>83287.88058020688</v>
       </c>
       <c r="H69" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I69" t="n">
-        <v>8635318</v>
+        <v>9032858</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1134301</v>
+        <v>1126093</v>
       </c>
       <c r="E70" t="n">
-        <v>4392260</v>
+        <v>4360479</v>
       </c>
       <c r="F70" t="n">
-        <v>3027.814440203072</v>
+        <v>523.9157732199233</v>
       </c>
       <c r="G70" t="n">
-        <v>3912.925051407443</v>
+        <v>1377.272716458991</v>
       </c>
       <c r="H70" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="I70" t="n">
-        <v>397997</v>
+        <v>380885</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127831282</v>
+        <v>127718419</v>
       </c>
       <c r="E71" t="n">
-        <v>490381374</v>
+        <v>489948414</v>
       </c>
       <c r="F71" t="n">
-        <v>162708.8165254218</v>
+        <v>149233.6010976995</v>
       </c>
       <c r="G71" t="n">
-        <v>160190.266274095</v>
+        <v>149372.9568787359</v>
       </c>
       <c r="H71" t="n">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>37467231</v>
+        <v>38746032</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3292979</v>
+        <v>3283271</v>
       </c>
       <c r="E72" t="n">
-        <v>31201461</v>
+        <v>31109479</v>
       </c>
       <c r="F72" t="n">
-        <v>3236.720911870649</v>
+        <v>4134.205652571683</v>
       </c>
       <c r="G72" t="n">
-        <v>4981.796385562523</v>
+        <v>4690.568877969435</v>
       </c>
       <c r="H72" t="n">
-        <v>0.26</v>
+        <v>0.35</v>
       </c>
       <c r="I72" t="n">
-        <v>205898</v>
+        <v>226647</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>33319704</v>
+        <v>33895297</v>
       </c>
       <c r="F73" t="n">
-        <v>3410.292901695988</v>
+        <v>1952.487069743629</v>
       </c>
       <c r="G73" t="n">
-        <v>7162.407805149001</v>
+        <v>7108.818479079433</v>
       </c>
       <c r="H73" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="I73" t="n">
-        <v>5388291</v>
+        <v>4732905</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89085615</v>
+        <v>89113576</v>
       </c>
       <c r="E74" t="n">
-        <v>329304558</v>
+        <v>329409128</v>
       </c>
       <c r="F74" t="n">
-        <v>8635.591982281818</v>
+        <v>8438.135083753712</v>
       </c>
       <c r="G74" t="n">
-        <v>681.5435653894077</v>
+        <v>877.0520157079827</v>
       </c>
       <c r="H74" t="n">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="I74" t="n">
-        <v>216101</v>
+        <v>181638</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23780368</v>
+        <v>23561376</v>
       </c>
       <c r="E75" t="n">
-        <v>23780368</v>
+        <v>23561376</v>
       </c>
       <c r="F75" t="n">
-        <v>27800.38152404555</v>
+        <v>25807.32274432254</v>
       </c>
       <c r="G75" t="n">
-        <v>23779.1553827497</v>
+        <v>26106.45727697746</v>
       </c>
       <c r="H75" t="n">
         <v>0.12</v>
       </c>
       <c r="I75" t="n">
-        <v>5711126</v>
+        <v>5596906</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>510246437</v>
+        <v>510819005</v>
       </c>
       <c r="E76" t="n">
-        <v>1776125384</v>
+        <v>1778118445</v>
       </c>
       <c r="F76" t="n">
-        <v>203453.4646717821</v>
+        <v>201347.1579723649</v>
       </c>
       <c r="G76" t="n">
-        <v>221296.1787761367</v>
+        <v>223036.9324475102</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>35098676</v>
+        <v>36341983</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5845948388</v>
+        <v>5862599118</v>
       </c>
       <c r="E77" t="n">
-        <v>5845948388</v>
+        <v>5862599118</v>
       </c>
       <c r="F77" t="n">
-        <v>10664.64860785327</v>
+        <v>10494.92156805106</v>
       </c>
       <c r="G77" t="n">
-        <v>95877.07620319742</v>
+        <v>96955.40449300698</v>
       </c>
       <c r="H77" t="n">
         <v>0.15</v>
       </c>
       <c r="I77" t="n">
-        <v>16954683</v>
+        <v>16306032</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7481667</v>
+        <v>7453579</v>
       </c>
       <c r="E78" t="n">
-        <v>19436567</v>
+        <v>19363596</v>
       </c>
       <c r="F78" t="n">
-        <v>2042.613682861888</v>
+        <v>2402.473384873305</v>
       </c>
       <c r="G78" t="n">
-        <v>3647.479952651446</v>
+        <v>3140.75050729614</v>
       </c>
       <c r="H78" t="n">
-        <v>0.05</v>
+        <v>0.41</v>
       </c>
       <c r="I78" t="n">
-        <v>722484</v>
+        <v>724489</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>110925050</v>
+        <v>111760693</v>
       </c>
       <c r="E79" t="n">
-        <v>168064267</v>
+        <v>169330363</v>
       </c>
       <c r="F79" t="n">
-        <v>41073.04966441228</v>
+        <v>40014.10373606669</v>
       </c>
       <c r="G79" t="n">
-        <v>78331.81802781769</v>
+        <v>73401.2842994868</v>
       </c>
       <c r="H79" t="n">
         <v>0.23</v>
       </c>
       <c r="I79" t="n">
-        <v>8766870</v>
+        <v>8921347</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2630686</v>
+        <v>2625450</v>
       </c>
       <c r="E80" t="n">
-        <v>10522742</v>
+        <v>10501799</v>
       </c>
       <c r="F80" t="n">
-        <v>70352.41946562003</v>
+        <v>76586.97172398948</v>
       </c>
       <c r="G80" t="n">
-        <v>34981.47576100442</v>
+        <v>35080.88029382318</v>
       </c>
       <c r="H80" t="n">
         <v>0.66</v>
       </c>
       <c r="I80" t="n">
-        <v>7013624</v>
+        <v>7013750</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2511562</v>
+        <v>2497124</v>
       </c>
       <c r="F81" t="n">
-        <v>1692.840418260765</v>
+        <v>1656.598410003872</v>
       </c>
       <c r="G81" t="n">
-        <v>829.0043481516934</v>
+        <v>585.3238371056431</v>
       </c>
       <c r="H81" t="n">
-        <v>0.71</v>
+        <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>284973</v>
+        <v>284396</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>410929824</v>
+        <v>410879511</v>
       </c>
       <c r="E82" t="n">
-        <v>2348170421</v>
+        <v>2347882922</v>
       </c>
       <c r="F82" t="n">
-        <v>85420.36934559353</v>
+        <v>82547.16097617909</v>
       </c>
       <c r="G82" t="n">
-        <v>119474.9156068561</v>
+        <v>180911.4523556398</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>42915915</v>
+        <v>42626121</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4123946</v>
+        <v>4120180</v>
       </c>
       <c r="F2" t="n">
-        <v>874.1641752689231</v>
+        <v>360.407334163958</v>
       </c>
       <c r="G2" t="n">
-        <v>503.5864362050813</v>
+        <v>520.5808427698194</v>
       </c>
       <c r="H2" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="I2" t="n">
-        <v>153328</v>
+        <v>152982</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1451180</v>
+        <v>1382478</v>
       </c>
       <c r="E3" t="n">
-        <v>4690808</v>
+        <v>4468737</v>
       </c>
       <c r="F3" t="n">
-        <v>2049.860120434138</v>
+        <v>878.4150306608542</v>
       </c>
       <c r="G3" t="n">
-        <v>7462.27577458937</v>
+        <v>1198.227260773372</v>
       </c>
       <c r="H3" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="I3" t="n">
-        <v>176352</v>
+        <v>205558</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259257928</v>
+        <v>259491249</v>
       </c>
       <c r="E4" t="n">
-        <v>1625770025</v>
+        <v>1627233150</v>
       </c>
       <c r="F4" t="n">
-        <v>261991.2577703061</v>
+        <v>258107.3275943767</v>
       </c>
       <c r="G4" t="n">
-        <v>257625.0261641194</v>
+        <v>259871.2065017955</v>
       </c>
       <c r="H4" t="n">
         <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>17336215</v>
+        <v>17493251</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>154054225</v>
+        <v>153542654</v>
       </c>
       <c r="E5" t="n">
-        <v>170716156</v>
+        <v>170149257</v>
       </c>
       <c r="F5" t="n">
-        <v>91455.68145020152</v>
+        <v>84851.71235300545</v>
       </c>
       <c r="G5" t="n">
-        <v>99531.96985249317</v>
+        <v>105088.0769907452</v>
       </c>
       <c r="H5" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>42612556</v>
+        <v>44375192</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>129488307</v>
+        <v>130066433</v>
       </c>
       <c r="E6" t="n">
-        <v>507555391</v>
+        <v>509821472</v>
       </c>
       <c r="F6" t="n">
-        <v>17192.66725384978</v>
+        <v>20553.39248552926</v>
       </c>
       <c r="G6" t="n">
-        <v>47752.22242799702</v>
+        <v>42603.21322546624</v>
       </c>
       <c r="H6" t="n">
         <v>0.08</v>
       </c>
       <c r="I6" t="n">
-        <v>27357618</v>
+        <v>26938546</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4582947</v>
+        <v>4605341</v>
       </c>
       <c r="E7" t="n">
-        <v>28146081</v>
+        <v>28283593</v>
       </c>
       <c r="F7" t="n">
-        <v>2665.688001106505</v>
+        <v>1886.687626052566</v>
       </c>
       <c r="G7" t="n">
-        <v>3459.795498624621</v>
+        <v>3217.352828752272</v>
       </c>
       <c r="H7" t="n">
-        <v>0.21</v>
+        <v>0.14</v>
       </c>
       <c r="I7" t="n">
-        <v>699042</v>
+        <v>520041</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>202611</v>
+        <v>202727</v>
       </c>
       <c r="E8" t="n">
-        <v>2228949</v>
+        <v>2230216</v>
       </c>
       <c r="F8" t="n">
-        <v>2500.271110101793</v>
+        <v>2907.805364856787</v>
       </c>
       <c r="G8" t="n">
-        <v>2859.229232453538</v>
+        <v>2946.869025726974</v>
       </c>
       <c r="H8" t="n">
-        <v>0.54</v>
+        <v>0.67</v>
       </c>
       <c r="I8" t="n">
-        <v>32595</v>
+        <v>32623</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72340946</v>
+        <v>72984011</v>
       </c>
       <c r="E9" t="n">
-        <v>125260594</v>
+        <v>126372572</v>
       </c>
       <c r="F9" t="n">
-        <v>4052.607406438638</v>
+        <v>9187.941656574609</v>
       </c>
       <c r="G9" t="n">
-        <v>7656.475919614098</v>
+        <v>12941.29498489835</v>
       </c>
       <c r="H9" t="n">
-        <v>0.16</v>
+        <v>0.32</v>
       </c>
       <c r="I9" t="n">
-        <v>857020</v>
+        <v>849166</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8865912</v>
+        <v>8870563</v>
       </c>
       <c r="E10" t="n">
-        <v>12549040</v>
+        <v>12555623</v>
       </c>
       <c r="F10" t="n">
-        <v>4594.927424047753</v>
+        <v>4598.793857380531</v>
       </c>
       <c r="G10" t="n">
-        <v>4207.772917726809</v>
+        <v>4207.910966012126</v>
       </c>
       <c r="H10" t="n">
-        <v>0.4</v>
+        <v>0.24</v>
       </c>
       <c r="I10" t="n">
-        <v>71905</v>
+        <v>36732</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>499597304</v>
+        <v>528584141</v>
       </c>
       <c r="E11" t="n">
-        <v>499597306</v>
+        <v>528584143</v>
       </c>
       <c r="F11" t="n">
-        <v>62939.93378451024</v>
+        <v>31318.26171434774</v>
       </c>
       <c r="G11" t="n">
-        <v>120914.6901668024</v>
+        <v>43526.49516236994</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="I11" t="n">
-        <v>60941391</v>
+        <v>76801807</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>323772</v>
+        <v>322140</v>
       </c>
       <c r="E12" t="n">
-        <v>1511398</v>
+        <v>1503783</v>
       </c>
       <c r="F12" t="n">
-        <v>207.2224994326972</v>
+        <v>326.3453171715832</v>
       </c>
       <c r="G12" t="n">
-        <v>2667.895274788727</v>
+        <v>2788.356144253326</v>
       </c>
       <c r="H12" t="n">
-        <v>1.55</v>
+        <v>0.58</v>
       </c>
       <c r="I12" t="n">
-        <v>708597</v>
+        <v>701410</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1945410</v>
+        <v>2593105</v>
       </c>
       <c r="F13" t="n">
-        <v>261.1318218032457</v>
+        <v>14.2675064189168</v>
       </c>
       <c r="G13" t="n">
-        <v>33.16395694646658</v>
+        <v>7.537535951633437</v>
       </c>
       <c r="H13" t="n">
-        <v>1.57</v>
+        <v>1.94</v>
       </c>
       <c r="I13" t="n">
-        <v>477880</v>
+        <v>702603</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12217379</v>
+        <v>12278930</v>
       </c>
       <c r="E14" t="n">
-        <v>30406846</v>
+        <v>30560035</v>
       </c>
       <c r="F14" t="n">
-        <v>1530.627902902779</v>
+        <v>1737.713457205753</v>
       </c>
       <c r="G14" t="n">
-        <v>1681.922601140679</v>
+        <v>2398.667276969276</v>
       </c>
       <c r="H14" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
       <c r="I14" t="n">
-        <v>1350764</v>
+        <v>1363522</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>115971574</v>
+        <v>116356061</v>
       </c>
       <c r="E15" t="n">
-        <v>451024531</v>
+        <v>452504572</v>
       </c>
       <c r="F15" t="n">
-        <v>42999.40737976332</v>
+        <v>62164.06530469588</v>
       </c>
       <c r="G15" t="n">
-        <v>100966.1964767445</v>
+        <v>98472.20476702477</v>
       </c>
       <c r="H15" t="n">
         <v>0.04</v>
       </c>
       <c r="I15" t="n">
-        <v>11242094</v>
+        <v>11324535</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5083014</v>
+        <v>5091797</v>
       </c>
       <c r="E16" t="n">
-        <v>7482473</v>
+        <v>7495401</v>
       </c>
       <c r="F16" t="n">
-        <v>3152.45165270937</v>
+        <v>1346.794446782811</v>
       </c>
       <c r="G16" t="n">
-        <v>3713.537682108771</v>
+        <v>1084.470274555116</v>
       </c>
       <c r="H16" t="n">
-        <v>0.27</v>
+        <v>0.53</v>
       </c>
       <c r="I16" t="n">
-        <v>585733</v>
+        <v>585738</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2027708</v>
+        <v>2005011</v>
       </c>
       <c r="F17" t="n">
-        <v>144.7032032615257</v>
+        <v>747.6064446935399</v>
       </c>
       <c r="G17" t="n">
-        <v>62.3167950310071</v>
+        <v>510.5074482881233</v>
       </c>
       <c r="H17" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I17" t="n">
-        <v>123731</v>
+        <v>121648</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="E18" t="n">
-        <v>148024507</v>
+        <v>148720172</v>
       </c>
       <c r="F18" t="n">
-        <v>77377.75344762919</v>
+        <v>133545.4434226069</v>
       </c>
       <c r="G18" t="n">
-        <v>119342.6224272711</v>
+        <v>126878.7342265544</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>75758173</v>
+        <v>76026859</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>69488738</v>
+        <v>70215319</v>
       </c>
       <c r="E19" t="n">
-        <v>356352501</v>
+        <v>360078561</v>
       </c>
       <c r="F19" t="n">
-        <v>18553.33558326498</v>
+        <v>24891.11046111857</v>
       </c>
       <c r="G19" t="n">
-        <v>18646.92614180871</v>
+        <v>19876.33439175835</v>
       </c>
       <c r="H19" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
       <c r="I19" t="n">
-        <v>24837492</v>
+        <v>25139447</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>274493167</v>
+        <v>276539596</v>
       </c>
       <c r="E20" t="n">
-        <v>274493167</v>
+        <v>276539596</v>
       </c>
       <c r="F20" t="n">
-        <v>69048.12566512453</v>
+        <v>71316.74159731735</v>
       </c>
       <c r="G20" t="n">
-        <v>110315.587325469</v>
+        <v>92406.73185519058</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>19688913</v>
+        <v>16140514</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>191147712</v>
+        <v>197854512</v>
       </c>
       <c r="E21" t="n">
-        <v>251528033</v>
+        <v>260353397</v>
       </c>
       <c r="F21" t="n">
-        <v>14628.40935861993</v>
+        <v>13283.5585851566</v>
       </c>
       <c r="G21" t="n">
-        <v>25000.084022576</v>
+        <v>28961.34046276437</v>
       </c>
       <c r="H21" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="I21" t="n">
-        <v>13008373</v>
+        <v>14592467</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>89009550</v>
+        <v>90223307</v>
       </c>
       <c r="E22" t="n">
-        <v>248981623</v>
+        <v>252398871</v>
       </c>
       <c r="F22" t="n">
-        <v>19729.21885600387</v>
+        <v>24410.54843807244</v>
       </c>
       <c r="G22" t="n">
-        <v>46649.31068104634</v>
+        <v>41802.70648214188</v>
       </c>
       <c r="H22" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I22" t="n">
-        <v>52891911</v>
+        <v>46031908</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82595380</v>
+        <v>92158308</v>
       </c>
       <c r="E23" t="n">
-        <v>172204733</v>
+        <v>192142670</v>
       </c>
       <c r="F23" t="n">
-        <v>31466.49911340533</v>
+        <v>28543.05445745537</v>
       </c>
       <c r="G23" t="n">
-        <v>41141.17623243002</v>
+        <v>38324.95219831659</v>
       </c>
       <c r="H23" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="I23" t="n">
-        <v>22642311</v>
+        <v>37475381</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>697712526</v>
+        <v>714200739</v>
       </c>
       <c r="E24" t="n">
-        <v>697712526</v>
+        <v>714200739</v>
       </c>
       <c r="F24" t="n">
-        <v>211433.2154880938</v>
+        <v>179929.3312321571</v>
       </c>
       <c r="G24" t="n">
-        <v>303353.6047020151</v>
+        <v>259663.8944646247</v>
       </c>
       <c r="H24" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>364769285</v>
+        <v>391641641</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>211287856</v>
+        <v>212010320</v>
       </c>
       <c r="E25" t="n">
-        <v>734033107</v>
+        <v>736543013</v>
       </c>
       <c r="F25" t="n">
-        <v>122641.0359712489</v>
+        <v>125078.3789428986</v>
       </c>
       <c r="G25" t="n">
-        <v>359734.4925330784</v>
+        <v>363981.4193623887</v>
       </c>
       <c r="H25" t="n">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I25" t="n">
-        <v>33632321</v>
+        <v>33710708</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>5836247</v>
+        <v>6072888</v>
       </c>
       <c r="E26" t="n">
-        <v>7923242</v>
+        <v>8244471</v>
       </c>
       <c r="F26" t="n">
-        <v>554.7311715672028</v>
+        <v>446.7842609737739</v>
       </c>
       <c r="G26" t="n">
-        <v>2633.1494919178</v>
+        <v>362.3578667162678</v>
       </c>
       <c r="H26" t="n">
-        <v>0.14</v>
+        <v>0.53</v>
       </c>
       <c r="I26" t="n">
-        <v>5442374</v>
+        <v>1488801</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>14891891</v>
+        <v>15096399</v>
       </c>
       <c r="F27" t="n">
-        <v>2339.80473089921</v>
+        <v>1726.554615166508</v>
       </c>
       <c r="G27" t="n">
-        <v>3030.347103342102</v>
+        <v>3391.532889600173</v>
       </c>
       <c r="H27" t="n">
-        <v>0.53</v>
+        <v>0.6</v>
       </c>
       <c r="I27" t="n">
-        <v>226876</v>
+        <v>229892</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26598608</v>
+        <v>26877368</v>
       </c>
       <c r="E28" t="n">
-        <v>37588121</v>
+        <v>37982055</v>
       </c>
       <c r="F28" t="n">
-        <v>7924.837723149949</v>
+        <v>8549.00369437989</v>
       </c>
       <c r="G28" t="n">
-        <v>561.7872910337242</v>
+        <v>302.5873504924007</v>
       </c>
       <c r="H28" t="n">
-        <v>0.42</v>
+        <v>0.66</v>
       </c>
       <c r="I28" t="n">
-        <v>89411</v>
+        <v>81029</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>286029805</v>
+        <v>288688263</v>
       </c>
       <c r="E29" t="n">
-        <v>1234663424</v>
+        <v>1246138805</v>
       </c>
       <c r="F29" t="n">
-        <v>374566.406397253</v>
+        <v>289260.2313172399</v>
       </c>
       <c r="G29" t="n">
-        <v>325249.4146210508</v>
+        <v>371781.1278777521</v>
       </c>
       <c r="H29" t="n">
-        <v>0.16</v>
+        <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>111479307</v>
+        <v>111970897</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11676852</v>
+        <v>11879390</v>
       </c>
       <c r="E30" t="n">
-        <v>140914531</v>
+        <v>143358733</v>
       </c>
       <c r="F30" t="n">
-        <v>6341.382878376963</v>
+        <v>5667.984013468667</v>
       </c>
       <c r="G30" t="n">
-        <v>3021.955345698871</v>
+        <v>3053.975804336769</v>
       </c>
       <c r="H30" t="n">
-        <v>0.21</v>
+        <v>0.76</v>
       </c>
       <c r="I30" t="n">
-        <v>407149</v>
+        <v>404344</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19569134</v>
+        <v>19646810</v>
       </c>
       <c r="E31" t="n">
-        <v>48922835</v>
+        <v>49117026</v>
       </c>
       <c r="F31" t="n">
-        <v>8001.002416702529</v>
+        <v>10410.13706886263</v>
       </c>
       <c r="G31" t="n">
-        <v>14156.69421981231</v>
+        <v>12114.87444923663</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="I31" t="n">
-        <v>2235906</v>
+        <v>2285561</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19817904</v>
+        <v>19830200</v>
       </c>
       <c r="F32" t="n">
-        <v>4036.830382518398</v>
+        <v>3411.164300402086</v>
       </c>
       <c r="G32" t="n">
-        <v>3852.184285254811</v>
+        <v>4050.839522884261</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>34678</v>
+        <v>37174</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1363121</v>
+        <v>1344854</v>
       </c>
       <c r="E33" t="n">
-        <v>5082051</v>
+        <v>5013575</v>
       </c>
       <c r="F33" t="n">
-        <v>1972.26979177356</v>
+        <v>1916.753787540662</v>
       </c>
       <c r="G33" t="n">
-        <v>2336.738173311674</v>
+        <v>3491.391942452076</v>
       </c>
       <c r="H33" t="n">
-        <v>0.01</v>
+        <v>0.28</v>
       </c>
       <c r="I33" t="n">
-        <v>622734</v>
+        <v>596099</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4205196</v>
+        <v>4202525</v>
       </c>
       <c r="E34" t="n">
-        <v>12112886</v>
+        <v>12105553</v>
       </c>
       <c r="F34" t="n">
-        <v>793.2709875122455</v>
+        <v>4395.113573734176</v>
       </c>
       <c r="G34" t="n">
-        <v>3788.757456241493</v>
+        <v>4184.162927428021</v>
       </c>
       <c r="H34" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="I34" t="n">
-        <v>610626</v>
+        <v>613007</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16217664</v>
+        <v>16633187</v>
       </c>
       <c r="E35" t="n">
-        <v>78544736</v>
+        <v>80557178</v>
       </c>
       <c r="F35" t="n">
-        <v>13097.25214821465</v>
+        <v>14014.67340043066</v>
       </c>
       <c r="G35" t="n">
-        <v>13643.42873946616</v>
+        <v>14515.40717868806</v>
       </c>
       <c r="H35" t="n">
-        <v>0.41</v>
+        <v>0.28</v>
       </c>
       <c r="I35" t="n">
-        <v>4347338</v>
+        <v>4376053</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1462258</v>
+        <v>1474147</v>
       </c>
       <c r="E36" t="n">
-        <v>9570438</v>
+        <v>9648251</v>
       </c>
       <c r="F36" t="n">
-        <v>1662.616004636102</v>
+        <v>1063.728744145572</v>
       </c>
       <c r="G36" t="n">
-        <v>1678.072924043894</v>
+        <v>1648.615382854936</v>
       </c>
       <c r="H36" t="n">
-        <v>0.62</v>
+        <v>0.41</v>
       </c>
       <c r="I36" t="n">
-        <v>585486</v>
+        <v>527748</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1922121709</v>
+        <v>1926418506</v>
       </c>
       <c r="F37" t="n">
-        <v>77150.55332142995</v>
+        <v>76915.52369926329</v>
       </c>
       <c r="G37" t="n">
-        <v>73741.49346019652</v>
+        <v>76492.65356468082</v>
       </c>
       <c r="H37" t="n">
-        <v>0.42</v>
+        <v>0.16</v>
       </c>
       <c r="I37" t="n">
-        <v>27918200</v>
+        <v>28163484</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1977987</v>
+        <v>2022168</v>
       </c>
       <c r="E38" t="n">
-        <v>14183945</v>
+        <v>14500762</v>
       </c>
       <c r="F38" t="n">
-        <v>5195.413224392649</v>
+        <v>5235.328534334255</v>
       </c>
       <c r="G38" t="n">
-        <v>4750.012699088883</v>
+        <v>4250.971297844869</v>
       </c>
       <c r="H38" t="n">
-        <v>0.48</v>
+        <v>0.28</v>
       </c>
       <c r="I38" t="n">
-        <v>2029295</v>
+        <v>2011480</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>211809734</v>
+        <v>212696174</v>
       </c>
       <c r="E39" t="n">
-        <v>1199396862</v>
+        <v>1204416425</v>
       </c>
       <c r="F39" t="n">
-        <v>167193.9928359993</v>
+        <v>162169.7981878248</v>
       </c>
       <c r="G39" t="n">
-        <v>163995.4227827566</v>
+        <v>161302.934039167</v>
       </c>
       <c r="H39" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="I39" t="n">
-        <v>67221908</v>
+        <v>68827204</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>146956199</v>
+        <v>147252113</v>
       </c>
       <c r="E40" t="n">
-        <v>1088564436</v>
+        <v>1090756395</v>
       </c>
       <c r="F40" t="n">
-        <v>199642.5729178298</v>
+        <v>206196.5460427154</v>
       </c>
       <c r="G40" t="n">
-        <v>195572.2247941754</v>
+        <v>171278.8216332601</v>
       </c>
       <c r="H40" t="n">
         <v>0.04</v>
       </c>
       <c r="I40" t="n">
-        <v>8358597</v>
+        <v>8319482</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>349325105</v>
+        <v>350054163</v>
       </c>
       <c r="E41" t="n">
-        <v>3142745251</v>
+        <v>3149304314</v>
       </c>
       <c r="F41" t="n">
-        <v>284065.5002772493</v>
+        <v>259038.7665744554</v>
       </c>
       <c r="G41" t="n">
-        <v>298289.2177349471</v>
+        <v>301208.9151492085</v>
       </c>
       <c r="H41" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>43926455</v>
+        <v>45681840</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1572715</v>
+        <v>1573027</v>
       </c>
       <c r="E42" t="n">
-        <v>13105959</v>
+        <v>13108561</v>
       </c>
       <c r="F42" t="n">
-        <v>2404.771892898917</v>
+        <v>2405.034529290225</v>
       </c>
       <c r="G42" t="n">
-        <v>3838.224569737607</v>
+        <v>3833.550325378889</v>
       </c>
       <c r="H42" t="n">
         <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>21711</v>
+        <v>18673.58</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23101669</v>
+        <v>23373096</v>
       </c>
       <c r="E43" t="n">
-        <v>69249451</v>
+        <v>70064795</v>
       </c>
       <c r="F43" t="n">
-        <v>58361.46986231909</v>
+        <v>48515.66721974518</v>
       </c>
       <c r="G43" t="n">
-        <v>64140.61141721698</v>
+        <v>63541.09682642337</v>
       </c>
       <c r="H43" t="n">
         <v>0.18</v>
       </c>
       <c r="I43" t="n">
-        <v>3607668</v>
+        <v>3653680</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9410737</v>
+        <v>9408906</v>
       </c>
       <c r="F44" t="n">
-        <v>5698.208827031079</v>
+        <v>5697.889529714599</v>
       </c>
       <c r="G44" t="n">
-        <v>5707.698030709419</v>
+        <v>5710.965366398911</v>
       </c>
       <c r="H44" t="n">
-        <v>0.32</v>
+        <v>0.21</v>
       </c>
       <c r="I44" t="n">
-        <v>102040</v>
+        <v>101855</v>
       </c>
     </row>
     <row r="45">
@@ -2002,22 +2002,22 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>13595222</v>
+        <v>13613076</v>
       </c>
       <c r="E45" t="n">
-        <v>13595222</v>
+        <v>13613076</v>
       </c>
       <c r="F45" t="n">
-        <v>202.282371488935</v>
+        <v>775.6812621414451</v>
       </c>
       <c r="G45" t="n">
-        <v>246.7193967496541</v>
+        <v>866.0838106794287</v>
       </c>
       <c r="H45" t="n">
-        <v>0.66</v>
+        <v>0.37</v>
       </c>
       <c r="I45" t="n">
-        <v>4203304</v>
+        <v>4257819</v>
       </c>
     </row>
     <row r="46">
@@ -2037,22 +2037,22 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>328817536</v>
+        <v>331970966</v>
       </c>
       <c r="E46" t="n">
-        <v>328817536</v>
+        <v>331970966</v>
       </c>
       <c r="F46" t="n">
-        <v>31488.34377976311</v>
+        <v>34299.32318856203</v>
       </c>
       <c r="G46" t="n">
-        <v>48297.45593589578</v>
+        <v>45404.85802113321</v>
       </c>
       <c r="H46" t="n">
         <v>0.12</v>
       </c>
       <c r="I46" t="n">
-        <v>16624580</v>
+        <v>16976872</v>
       </c>
     </row>
     <row r="47">
@@ -2072,22 +2072,22 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>12675279</v>
+        <v>12808855</v>
       </c>
       <c r="E47" t="n">
-        <v>40093217</v>
+        <v>40515683</v>
       </c>
       <c r="F47" t="n">
-        <v>15153.38152909328</v>
+        <v>18149.12523928825</v>
       </c>
       <c r="G47" t="n">
-        <v>15163.94241263537</v>
+        <v>14927.3194312691</v>
       </c>
       <c r="H47" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="I47" t="n">
-        <v>965229</v>
+        <v>935349</v>
       </c>
     </row>
     <row r="48">
@@ -2107,22 +2107,22 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>33481772</v>
+        <v>33961274</v>
       </c>
       <c r="E48" t="n">
-        <v>92741186</v>
+        <v>94069360</v>
       </c>
       <c r="F48" t="n">
-        <v>4033.232595553354</v>
+        <v>2741.613162290221</v>
       </c>
       <c r="G48" t="n">
-        <v>8735.700445262655</v>
+        <v>6561.365791316231</v>
       </c>
       <c r="H48" t="n">
-        <v>0.21</v>
+        <v>0.32</v>
       </c>
       <c r="I48" t="n">
-        <v>12419910</v>
+        <v>12172468</v>
       </c>
     </row>
     <row r="49">
@@ -2142,22 +2142,22 @@
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29633835</v>
+        <v>29040925</v>
       </c>
       <c r="E49" t="n">
-        <v>70402624</v>
+        <v>68994016</v>
       </c>
       <c r="F49" t="n">
-        <v>6386.178200128098</v>
+        <v>6137.607887061463</v>
       </c>
       <c r="G49" t="n">
-        <v>12376.57798561746</v>
+        <v>12173.56306213693</v>
       </c>
       <c r="H49" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="I49" t="n">
-        <v>420728</v>
+        <v>445276</v>
       </c>
     </row>
     <row r="50">
@@ -2177,22 +2177,22 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>12777921</v>
+        <v>12768131</v>
       </c>
       <c r="E50" t="n">
-        <v>19450877</v>
+        <v>19435974</v>
       </c>
       <c r="F50" t="n">
-        <v>5883.333977986787</v>
+        <v>13933.30816477172</v>
       </c>
       <c r="G50" t="n">
-        <v>3662.079869367388</v>
+        <v>18710.44606689541</v>
       </c>
       <c r="H50" t="n">
-        <v>0.36</v>
+        <v>0.41</v>
       </c>
       <c r="I50" t="n">
-        <v>660797</v>
+        <v>649956</v>
       </c>
     </row>
     <row r="51">
@@ -2212,22 +2212,22 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="E51" t="n">
-        <v>309932779</v>
+        <v>311115969</v>
       </c>
       <c r="F51" t="n">
-        <v>123720.9107544362</v>
+        <v>92624.74364289771</v>
       </c>
       <c r="G51" t="n">
-        <v>116423.3489028806</v>
+        <v>101149.8417099971</v>
       </c>
       <c r="H51" t="n">
-        <v>0.03</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I51" t="n">
-        <v>72342078</v>
+        <v>73458783</v>
       </c>
     </row>
     <row r="52">
@@ -2247,22 +2247,22 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>94360954</v>
+        <v>93755165</v>
       </c>
       <c r="E52" t="n">
-        <v>543748516</v>
+        <v>540257697</v>
       </c>
       <c r="F52" t="n">
-        <v>263965.3199948476</v>
+        <v>269582.4140623536</v>
       </c>
       <c r="G52" t="n">
-        <v>242026.490563923</v>
+        <v>239130.4268762449</v>
       </c>
       <c r="H52" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I52" t="n">
-        <v>18300165</v>
+        <v>18339658</v>
       </c>
     </row>
     <row r="53">
@@ -2282,22 +2282,22 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>33115476</v>
+        <v>33641585</v>
       </c>
       <c r="E53" t="n">
-        <v>148271569</v>
+        <v>150627179</v>
       </c>
       <c r="F53" t="n">
-        <v>18578.33627042873</v>
+        <v>21652.04474855569</v>
       </c>
       <c r="G53" t="n">
-        <v>40683.81247733801</v>
+        <v>54059.71832681653</v>
       </c>
       <c r="H53" t="n">
         <v>0.13</v>
       </c>
       <c r="I53" t="n">
-        <v>8907200</v>
+        <v>9209957</v>
       </c>
     </row>
     <row r="54">
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="E54" t="n">
-        <v>9064267</v>
+        <v>9075356</v>
       </c>
       <c r="F54" t="n">
-        <v>2610.330414437889</v>
+        <v>2590.331828508482</v>
       </c>
       <c r="G54" t="n">
-        <v>4730.644233569226</v>
+        <v>4722.785934400607</v>
       </c>
       <c r="H54" t="n">
         <v>0.22</v>
       </c>
       <c r="I54" t="n">
-        <v>295310</v>
+        <v>296144</v>
       </c>
     </row>
     <row r="55">
@@ -2355,19 +2355,19 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>4802378</v>
+        <v>4822556</v>
       </c>
       <c r="F55" t="n">
-        <v>2560.914004779289</v>
+        <v>2703.645534761001</v>
       </c>
       <c r="G55" t="n">
-        <v>1665.866402996625</v>
+        <v>1499.280984625821</v>
       </c>
       <c r="H55" t="n">
         <v>0.25</v>
       </c>
       <c r="I55" t="n">
-        <v>203006</v>
+        <v>228005</v>
       </c>
     </row>
     <row r="56">
@@ -2387,22 +2387,22 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>124969063</v>
+        <v>125082499</v>
       </c>
       <c r="E56" t="n">
-        <v>2069590041</v>
+        <v>2071468624</v>
       </c>
       <c r="F56" t="n">
-        <v>188949.176292669</v>
+        <v>191388.5844681367</v>
       </c>
       <c r="G56" t="n">
-        <v>183879.0441641777</v>
+        <v>186133.5248665726</v>
       </c>
       <c r="H56" t="n">
         <v>0.01</v>
       </c>
       <c r="I56" t="n">
-        <v>4894040</v>
+        <v>4970443</v>
       </c>
     </row>
     <row r="57">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>104390014</v>
+        <v>105052579</v>
       </c>
       <c r="E57" t="n">
-        <v>105513702</v>
+        <v>106183399</v>
       </c>
       <c r="F57" t="n">
-        <v>47798.39019119752</v>
+        <v>34613.33673511299</v>
       </c>
       <c r="G57" t="n">
-        <v>65584.35252500634</v>
+        <v>59213.10442578499</v>
       </c>
       <c r="H57" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="I57" t="n">
-        <v>55251585</v>
+        <v>56161083</v>
       </c>
     </row>
     <row r="58">
@@ -2457,22 +2457,22 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>260942847</v>
+        <v>269409827</v>
       </c>
       <c r="E58" t="n">
-        <v>260942847</v>
+        <v>269409827</v>
       </c>
       <c r="F58" t="n">
-        <v>112253.9152046084</v>
+        <v>97704.53687275668</v>
       </c>
       <c r="G58" t="n">
-        <v>96204.97473901183</v>
+        <v>119934.0946201323</v>
       </c>
       <c r="H58" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I58" t="n">
-        <v>53836066</v>
+        <v>56294722</v>
       </c>
     </row>
     <row r="59">
@@ -2492,22 +2492,22 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>25304578</v>
+        <v>25250219</v>
       </c>
       <c r="E59" t="n">
-        <v>151402378</v>
+        <v>151077135</v>
       </c>
       <c r="F59" t="n">
-        <v>55820.99481133192</v>
+        <v>79320.79764291743</v>
       </c>
       <c r="G59" t="n">
-        <v>55990.56831190249</v>
+        <v>82224.79119765371</v>
       </c>
       <c r="H59" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="I59" t="n">
-        <v>13616224</v>
+        <v>13808863</v>
       </c>
     </row>
     <row r="60">
@@ -2527,22 +2527,22 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>2422148</v>
+        <v>2424376</v>
       </c>
       <c r="E60" t="n">
-        <v>4470212</v>
+        <v>4474324</v>
       </c>
       <c r="F60" t="n">
-        <v>2674.28051062981</v>
+        <v>2624.308106872819</v>
       </c>
       <c r="G60" t="n">
-        <v>2481.506642270531</v>
+        <v>2486.590785019926</v>
       </c>
       <c r="H60" t="n">
-        <v>0.34</v>
+        <v>0.57</v>
       </c>
       <c r="I60" t="n">
-        <v>30277</v>
+        <v>30288</v>
       </c>
     </row>
     <row r="61">
@@ -2589,22 +2589,22 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>11032765</v>
+        <v>11106531</v>
       </c>
       <c r="E62" t="n">
-        <v>32723639</v>
+        <v>32942432</v>
       </c>
       <c r="F62" t="n">
-        <v>6498.158380074444</v>
+        <v>7065.098309731962</v>
       </c>
       <c r="G62" t="n">
-        <v>5885.628211369679</v>
+        <v>5209.335339690693</v>
       </c>
       <c r="H62" t="n">
-        <v>0.23</v>
+        <v>0.15</v>
       </c>
       <c r="I62" t="n">
-        <v>6606854</v>
+        <v>6444328</v>
       </c>
     </row>
     <row r="63">
@@ -2624,22 +2624,22 @@
         </is>
       </c>
       <c r="D63" t="n">
-        <v>14567034</v>
+        <v>14571201</v>
       </c>
       <c r="E63" t="n">
-        <v>29490070</v>
+        <v>29498506</v>
       </c>
       <c r="F63" t="n">
-        <v>6234.037165206706</v>
+        <v>6534.95763540876</v>
       </c>
       <c r="G63" t="n">
-        <v>12917.73798274683</v>
+        <v>15825.38395461614</v>
       </c>
       <c r="H63" t="n">
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I63" t="n">
-        <v>537228</v>
+        <v>538406</v>
       </c>
     </row>
     <row r="64">
@@ -2659,22 +2659,22 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>40504698</v>
+        <v>41392111</v>
       </c>
       <c r="E64" t="n">
-        <v>287171702</v>
+        <v>293463315</v>
       </c>
       <c r="F64" t="n">
-        <v>73582.33569852651</v>
+        <v>65472.75893959518</v>
       </c>
       <c r="G64" t="n">
-        <v>50646.74828615817</v>
+        <v>51602.49896067539</v>
       </c>
       <c r="H64" t="n">
         <v>0.1</v>
       </c>
       <c r="I64" t="n">
-        <v>1964989</v>
+        <v>2041456</v>
       </c>
     </row>
     <row r="65">
@@ -2694,22 +2694,22 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>1335212</v>
+        <v>1331472</v>
       </c>
       <c r="E65" t="n">
-        <v>8280313</v>
+        <v>8257108</v>
       </c>
       <c r="F65" t="n">
-        <v>1776.529602335079</v>
+        <v>2085.264272421004</v>
       </c>
       <c r="G65" t="n">
-        <v>2250.74059201357</v>
+        <v>2524.673347430241</v>
       </c>
       <c r="H65" t="n">
         <v>0.22</v>
       </c>
       <c r="I65" t="n">
-        <v>802577</v>
+        <v>811895</v>
       </c>
     </row>
     <row r="66">
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>630618531</v>
+        <v>629459559</v>
       </c>
       <c r="E66" t="n">
-        <v>2442292531</v>
+        <v>2437804003</v>
       </c>
       <c r="F66" t="n">
-        <v>161798.107162841</v>
+        <v>159969.48949664</v>
       </c>
       <c r="G66" t="n">
-        <v>156031.6128730786</v>
+        <v>164794.865100491</v>
       </c>
       <c r="H66" t="n">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="I66" t="n">
-        <v>39567895</v>
+        <v>40878624</v>
       </c>
     </row>
     <row r="67">
@@ -2764,22 +2764,22 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5887272</v>
+        <v>5830705</v>
       </c>
       <c r="E67" t="n">
-        <v>26353956</v>
+        <v>26100739</v>
       </c>
       <c r="F67" t="n">
-        <v>4534.107280656216</v>
+        <v>1623.815599397751</v>
       </c>
       <c r="G67" t="n">
-        <v>4377.562914794449</v>
+        <v>1868.852970050278</v>
       </c>
       <c r="H67" t="n">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="I67" t="n">
-        <v>150808</v>
+        <v>151716</v>
       </c>
     </row>
     <row r="68">
@@ -2799,22 +2799,22 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>118752204</v>
+        <v>119925977</v>
       </c>
       <c r="E68" t="n">
-        <v>1103360916</v>
+        <v>1114266783</v>
       </c>
       <c r="F68" t="n">
-        <v>169449.5054087781</v>
+        <v>167499.1971107646</v>
       </c>
       <c r="G68" t="n">
-        <v>170552.6076040087</v>
+        <v>172054.5551654452</v>
       </c>
       <c r="H68" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="I68" t="n">
-        <v>10243314</v>
+        <v>10138016</v>
       </c>
     </row>
     <row r="69">
@@ -2834,22 +2834,22 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>115612799</v>
+        <v>115218110</v>
       </c>
       <c r="E69" t="n">
-        <v>176370035</v>
+        <v>175767927</v>
       </c>
       <c r="F69" t="n">
-        <v>55800.5340047653</v>
+        <v>57873.76268322283</v>
       </c>
       <c r="G69" t="n">
-        <v>83287.88058020688</v>
+        <v>77808.33605496648</v>
       </c>
       <c r="H69" t="n">
-        <v>0.22</v>
+        <v>0.13</v>
       </c>
       <c r="I69" t="n">
-        <v>9032858</v>
+        <v>8934453</v>
       </c>
     </row>
     <row r="70">
@@ -2869,22 +2869,22 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>1126093</v>
+        <v>1131960</v>
       </c>
       <c r="E70" t="n">
-        <v>4360479</v>
+        <v>4383198</v>
       </c>
       <c r="F70" t="n">
-        <v>523.9157732199233</v>
+        <v>3339.796279969002</v>
       </c>
       <c r="G70" t="n">
-        <v>1377.272716458991</v>
+        <v>3391.760258023668</v>
       </c>
       <c r="H70" t="n">
-        <v>0.37</v>
+        <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>380885</v>
+        <v>369524</v>
       </c>
     </row>
     <row r="71">
@@ -2904,22 +2904,22 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>127718419</v>
+        <v>127756139</v>
       </c>
       <c r="E71" t="n">
-        <v>489948414</v>
+        <v>490093113</v>
       </c>
       <c r="F71" t="n">
-        <v>149233.6010976995</v>
+        <v>152291.0741008833</v>
       </c>
       <c r="G71" t="n">
-        <v>149372.9568787359</v>
+        <v>158780.2879483773</v>
       </c>
       <c r="H71" t="n">
         <v>0.1</v>
       </c>
       <c r="I71" t="n">
-        <v>38746032</v>
+        <v>38950650</v>
       </c>
     </row>
     <row r="72">
@@ -2939,22 +2939,22 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>3283271</v>
+        <v>3304380</v>
       </c>
       <c r="E72" t="n">
-        <v>31109479</v>
+        <v>31309486</v>
       </c>
       <c r="F72" t="n">
-        <v>4134.205652571683</v>
+        <v>4136.994178416035</v>
       </c>
       <c r="G72" t="n">
-        <v>4690.568877969435</v>
+        <v>4632.806131444817</v>
       </c>
       <c r="H72" t="n">
-        <v>0.35</v>
+        <v>0.22</v>
       </c>
       <c r="I72" t="n">
-        <v>226647</v>
+        <v>219363</v>
       </c>
     </row>
     <row r="73">
@@ -2977,19 +2977,19 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>33895297</v>
+        <v>34484249</v>
       </c>
       <c r="F73" t="n">
-        <v>1952.487069743629</v>
+        <v>2583.627217571546</v>
       </c>
       <c r="G73" t="n">
-        <v>7108.818479079433</v>
+        <v>7031.602351686207</v>
       </c>
       <c r="H73" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="I73" t="n">
-        <v>4732905</v>
+        <v>5295476</v>
       </c>
     </row>
     <row r="74">
@@ -3009,22 +3009,22 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>89113576</v>
+        <v>89235333</v>
       </c>
       <c r="E74" t="n">
-        <v>329409128</v>
+        <v>329857959</v>
       </c>
       <c r="F74" t="n">
-        <v>8438.135083753712</v>
+        <v>8358.532493334636</v>
       </c>
       <c r="G74" t="n">
-        <v>877.0520157079827</v>
+        <v>844.87786035294</v>
       </c>
       <c r="H74" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="I74" t="n">
-        <v>181638</v>
+        <v>179810</v>
       </c>
     </row>
     <row r="75">
@@ -3044,22 +3044,22 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23561376</v>
+        <v>23717751</v>
       </c>
       <c r="E75" t="n">
-        <v>23561376</v>
+        <v>23717751</v>
       </c>
       <c r="F75" t="n">
-        <v>25807.32274432254</v>
+        <v>23499.66037070208</v>
       </c>
       <c r="G75" t="n">
-        <v>26106.45727697746</v>
+        <v>27013.52492331873</v>
       </c>
       <c r="H75" t="n">
-        <v>0.12</v>
+        <v>0.15</v>
       </c>
       <c r="I75" t="n">
-        <v>5596906</v>
+        <v>5418507</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +3079,22 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>510819005</v>
+        <v>514680438</v>
       </c>
       <c r="E76" t="n">
-        <v>1778118445</v>
+        <v>1791559773</v>
       </c>
       <c r="F76" t="n">
-        <v>201347.1579723649</v>
+        <v>203202.5940145103</v>
       </c>
       <c r="G76" t="n">
-        <v>223036.9324475102</v>
+        <v>223912.0704347187</v>
       </c>
       <c r="H76" t="n">
         <v>0.06</v>
       </c>
       <c r="I76" t="n">
-        <v>36341983</v>
+        <v>36763548</v>
       </c>
     </row>
     <row r="77">
@@ -3114,22 +3114,22 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>5862599118</v>
+        <v>5920526957</v>
       </c>
       <c r="E77" t="n">
-        <v>5862599118</v>
+        <v>5920535806</v>
       </c>
       <c r="F77" t="n">
-        <v>10494.92156805106</v>
+        <v>10576.75654258863</v>
       </c>
       <c r="G77" t="n">
-        <v>96955.40449300698</v>
+        <v>96873.05875267679</v>
       </c>
       <c r="H77" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
       <c r="I77" t="n">
-        <v>16306032</v>
+        <v>16431955</v>
       </c>
     </row>
     <row r="78">
@@ -3149,22 +3149,22 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7453579</v>
+        <v>7481391</v>
       </c>
       <c r="E78" t="n">
-        <v>19363596</v>
+        <v>19435849</v>
       </c>
       <c r="F78" t="n">
-        <v>2402.473384873305</v>
+        <v>2382.535761362342</v>
       </c>
       <c r="G78" t="n">
-        <v>3140.75050729614</v>
+        <v>3196.52238088857</v>
       </c>
       <c r="H78" t="n">
-        <v>0.41</v>
+        <v>0.26</v>
       </c>
       <c r="I78" t="n">
-        <v>724489</v>
+        <v>665682</v>
       </c>
     </row>
     <row r="79">
@@ -3184,22 +3184,22 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>111760693</v>
+        <v>113014944</v>
       </c>
       <c r="E79" t="n">
-        <v>169330363</v>
+        <v>171230697</v>
       </c>
       <c r="F79" t="n">
-        <v>40014.10373606669</v>
+        <v>45682.55901512243</v>
       </c>
       <c r="G79" t="n">
-        <v>73401.2842994868</v>
+        <v>56297.88511536464</v>
       </c>
       <c r="H79" t="n">
-        <v>0.23</v>
+        <v>0.17</v>
       </c>
       <c r="I79" t="n">
-        <v>8921347</v>
+        <v>8997661</v>
       </c>
     </row>
     <row r="80">
@@ -3219,22 +3219,22 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2625450</v>
+        <v>2640653</v>
       </c>
       <c r="E80" t="n">
-        <v>10501799</v>
+        <v>10562612</v>
       </c>
       <c r="F80" t="n">
-        <v>76586.97172398948</v>
+        <v>78933.44800326931</v>
       </c>
       <c r="G80" t="n">
-        <v>35080.88029382318</v>
+        <v>3771.891016700004</v>
       </c>
       <c r="H80" t="n">
-        <v>0.66</v>
+        <v>0.47</v>
       </c>
       <c r="I80" t="n">
-        <v>7013750</v>
+        <v>7084114</v>
       </c>
     </row>
     <row r="81">
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>2497124</v>
+        <v>2519686</v>
       </c>
       <c r="F81" t="n">
-        <v>1656.598410003872</v>
+        <v>1702.445312977821</v>
       </c>
       <c r="G81" t="n">
-        <v>585.3238371056431</v>
+        <v>241.2307553128976</v>
       </c>
       <c r="H81" t="n">
         <v>0.04</v>
       </c>
       <c r="I81" t="n">
-        <v>284396</v>
+        <v>290609</v>
       </c>
     </row>
     <row r="82">
@@ -3289,22 +3289,22 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>410879511</v>
+        <v>415427517</v>
       </c>
       <c r="E82" t="n">
-        <v>2347882922</v>
+        <v>2373871523</v>
       </c>
       <c r="F82" t="n">
-        <v>82547.16097617909</v>
+        <v>168163.1739821965</v>
       </c>
       <c r="G82" t="n">
-        <v>180911.4523556398</v>
+        <v>198850.6112332968</v>
       </c>
       <c r="H82" t="n">
         <v>0.09</v>
       </c>
       <c r="I82" t="n">
-        <v>42626121</v>
+        <v>43914422</v>
       </c>
     </row>
   </sheetData>

--- a/BybitData20250221.xlsx
+++ b/BybitData20250221.xlsx
@@ -500,19 +500,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4120180</v>
+        <v>4128546</v>
       </c>
       <c r="F2" t="n">
-        <v>360.407334163958</v>
+        <v>325.8905273245864</v>
       </c>
       <c r="G2" t="n">
-        <v>520.5808427698194</v>
+        <v>452.1466957739049</v>
       </c>
       <c r="H2" t="n">
-        <v>0.73</v>
+        <v>0.41</v>
       </c>
       <c r="I2" t="n">
-        <v>152982</v>
+        <v>149847</v>
       </c>
     </row>
     <row r="3">
@@ -532,22 +532,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1382478</v>
+        <v>1474798</v>
       </c>
       <c r="E3" t="n">
-        <v>4468737</v>
+        <v>4767153</v>
       </c>
       <c r="F3" t="n">
-        <v>878.4150306608542</v>
+        <v>1592.493344905074</v>
       </c>
       <c r="G3" t="n">
-        <v>1198.227260773372</v>
+        <v>1224.111609649917</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08</v>
+        <v>0.48</v>
       </c>
       <c r="I3" t="n">
-        <v>205558</v>
+        <v>225148</v>
       </c>
     </row>
     <row r="4">
@@ -567,22 +567,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>259491249</v>
+        <v>258072963</v>
       </c>
       <c r="E4" t="n">
-        <v>1627233150</v>
+        <v>1618339274</v>
       </c>
       <c r="F4" t="n">
-        <v>258107.3275943767</v>
+        <v>255790.5023966137</v>
       </c>
       <c r="G4" t="n">
-        <v>259871.2065017955</v>
+        <v>249734.5991876733</v>
       </c>
       <c r="H4" t="n">
         <v>0.1</v>
       </c>
       <c r="I4" t="n">
-        <v>17493251</v>
+        <v>17560787</v>
       </c>
     </row>
     <row r="5">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>153542654</v>
+        <v>152371278</v>
       </c>
       <c r="E5" t="n">
-        <v>170149257</v>
+        <v>168851189</v>
       </c>
       <c r="F5" t="n">
-        <v>84851.71235300545</v>
+        <v>93654.52386073463</v>
       </c>
       <c r="G5" t="n">
-        <v>105088.0769907452</v>
+        <v>97763.86646736822</v>
       </c>
       <c r="H5" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="I5" t="n">
-        <v>44375192</v>
+        <v>45004585</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +637,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>130066433</v>
+        <v>128546768</v>
       </c>
       <c r="E6" t="n">
-        <v>509821472</v>
+        <v>503864841</v>
       </c>
       <c r="F6" t="n">
-        <v>20553.39248552926</v>
+        <v>24830.84079529301</v>
       </c>
       <c r="G6" t="n">
-        <v>42603.21322546624</v>
+        <v>41290.99245515251</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="I6" t="n">
-        <v>26938546</v>
+        <v>26095634</v>
       </c>
     </row>
     <row r="7">
@@ -672,22 +672,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4605341</v>
+        <v>4618867</v>
       </c>
       <c r="E7" t="n">
-        <v>28283593</v>
+        <v>28362199</v>
       </c>
       <c r="F7" t="n">
-        <v>1886.687626052566</v>
+        <v>2317.361298803205</v>
       </c>
       <c r="G7" t="n">
-        <v>3217.352828752272</v>
+        <v>1989.35983296218</v>
       </c>
       <c r="H7" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="I7" t="n">
-        <v>520041</v>
+        <v>699609</v>
       </c>
     </row>
     <row r="8">
@@ -707,22 +707,22 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>202727</v>
+        <v>201818</v>
       </c>
       <c r="E8" t="n">
-        <v>2230216</v>
+        <v>2220220</v>
       </c>
       <c r="F8" t="n">
-        <v>2907.805364856787</v>
+        <v>2879.918918021366</v>
       </c>
       <c r="G8" t="n">
-        <v>2946.869025726974</v>
+        <v>2750.424908195861</v>
       </c>
       <c r="H8" t="n">
         <v>0.67</v>
       </c>
       <c r="I8" t="n">
-        <v>32623</v>
+        <v>32918</v>
       </c>
     </row>
     <row r="9">
@@ -742,22 +742,22 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>72984011</v>
+        <v>72755538</v>
       </c>
       <c r="E9" t="n">
-        <v>126372572</v>
+        <v>125973957</v>
       </c>
       <c r="F9" t="n">
-        <v>9187.941656574609</v>
+        <v>10974.5412282142</v>
       </c>
       <c r="G9" t="n">
-        <v>12941.29498489835</v>
+        <v>5479.576110993125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.32</v>
+        <v>0.16</v>
       </c>
       <c r="I9" t="n">
-        <v>849166</v>
+        <v>858463</v>
       </c>
     </row>
     <row r="10">
@@ -777,22 +777,22 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>8870563</v>
+        <v>8854724</v>
       </c>
       <c r="E10" t="n">
-        <v>12555623</v>
+        <v>12533204</v>
       </c>
       <c r="F10" t="n">
-        <v>4598.793857380531</v>
+        <v>4606.069204126596</v>
       </c>
       <c r="G10" t="n">
-        <v>4207.910966012126</v>
+        <v>4184.585721840601</v>
       </c>
       <c r="H10" t="n">
-        <v>0.24</v>
+        <v>0.4</v>
       </c>
       <c r="I10" t="n">
-        <v>36732</v>
+        <v>67898</v>
       </c>
     </row>
     <row r="11">
@@ -812,22 +812,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>528584141</v>
+        <v>542247261</v>
       </c>
       <c r="E11" t="n">
-        <v>528584143</v>
+        <v>542247261</v>
       </c>
       <c r="F11" t="n">
-        <v>31318.26171434774</v>
+        <v>36685.40998768186</v>
       </c>
       <c r="G11" t="n">
-        <v>43526.49516236994</v>
+        <v>53897.75223362994</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="I11" t="n">
-        <v>76801807</v>
+        <v>82053593</v>
       </c>
     </row>
     <row r="12">
@@ -847,22 +847,22 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>322140</v>
+        <v>319366</v>
       </c>
       <c r="E12" t="n">
-        <v>1503783</v>
+        <v>1490832</v>
       </c>
       <c r="F12" t="n">
-        <v>326.3453171715832</v>
+        <v>272.89557939374</v>
       </c>
       <c r="G12" t="n">
-        <v>2788.356144253326</v>
+        <v>272.893122173111</v>
       </c>
       <c r="H12" t="n">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="I12" t="n">
-        <v>701410</v>
+        <v>693349</v>
       </c>
     </row>
     <row r="13">
@@ -885,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2593105</v>
+        <v>2628369</v>
       </c>
       <c r="F13" t="n">
-        <v>14.2675064189168</v>
+        <v>613.3825544243987</v>
       </c>
       <c r="G13" t="n">
-        <v>7.537535951633437</v>
+        <v>34.31917128465344</v>
       </c>
       <c r="H13" t="n">
-        <v>1.94</v>
+        <v>0.85</v>
       </c>
       <c r="I13" t="n">
-        <v>702603</v>
+        <v>843677</v>
       </c>
     </row>
     <row r="14">
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>12278930</v>
+        <v>12194189</v>
       </c>
       <c r="E14" t="n">
-        <v>30560035</v>
+        <v>30349132</v>
       </c>
       <c r="F14" t="n">
-        <v>1737.713457205753</v>
+        <v>1640.831280660267</v>
       </c>
       <c r="G14" t="n">
-        <v>2398.667276969276</v>
+        <v>1135.086080709439</v>
       </c>
       <c r="H14" t="n">
-        <v>0.36</v>
+        <v>0.13</v>
       </c>
       <c r="I14" t="n">
-        <v>1363522</v>
+        <v>1384568</v>
       </c>
     </row>
     <row r="15">
@@ -952,22 +952,22 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>116356061</v>
+        <v>116682466</v>
       </c>
       <c r="E15" t="n">
-        <v>452504572</v>
+        <v>453747749</v>
       </c>
       <c r="F15" t="n">
-        <v>62164.06530469588</v>
+        <v>36387.89384793302</v>
       </c>
       <c r="G15" t="n">
-        <v>98472.20476702477</v>
+        <v>95164.9911625987</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I15" t="n">
-        <v>11324535</v>
+        <v>18574142</v>
       </c>
     </row>
     <row r="16">
@@ -987,22 +987,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>5091797</v>
+        <v>5084546</v>
       </c>
       <c r="E16" t="n">
-        <v>7495401</v>
+        <v>7484728</v>
       </c>
       <c r="F16" t="n">
-        <v>1346.794446782811</v>
+        <v>4221.85453358539</v>
       </c>
       <c r="G16" t="n">
-        <v>1084.470274555116</v>
+        <v>2259.711235438052</v>
       </c>
       <c r="H16" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
       <c r="I16" t="n">
-        <v>585738</v>
+        <v>590432</v>
       </c>
     </row>
     <row r="17">
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2005011</v>
+        <v>2001088</v>
       </c>
       <c r="F17" t="n">
-        <v>747.6064446935399</v>
+        <v>522.5950400016695</v>
       </c>
       <c r="G17" t="n">
-        <v>510.5074482881233</v>
+        <v>78.79656285258869</v>
       </c>
       <c r="H17" t="n">
-        <v>0.05</v>
+        <v>0.4</v>
       </c>
       <c r="I17" t="n">
-        <v>121648</v>
+        <v>112950</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1057,22 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>148720172</v>
+        <v>148224553</v>
       </c>
       <c r="E18" t="n">
-        <v>148720172</v>
+        <v>148224553</v>
       </c>
       <c r="F18" t="n">
-        <v>133545.4434226069</v>
+        <v>106813.9934718869</v>
       </c>
       <c r="G18" t="n">
-        <v>126878.7342265544</v>
+        <v>104895.0362040662</v>
       </c>
       <c r="H18" t="n">
         <v>0.09</v>
       </c>
       <c r="I18" t="n">
-        <v>76026859</v>
+        <v>76922798</v>
       </c>
     </row>
     <row r="19">
@@ -1092,22 +1092,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>70215319</v>
+        <v>69382272</v>
       </c>
       <c r="E19" t="n">
-        <v>360078561</v>
+        <v>355806522</v>
       </c>
       <c r="F19" t="n">
-        <v>24891.11046111857</v>
+        <v>18839.80304539172</v>
       </c>
       <c r="G19" t="n">
-        <v>19876.33439175835</v>
+        <v>16849.46952676486</v>
       </c>
       <c r="H19" t="n">
-        <v>0.12</v>
+        <v>0.18</v>
       </c>
       <c r="I19" t="n">
-        <v>25139447</v>
+        <v>25178347</v>
       </c>
     </row>
     <row r="20">
@@ -1127,22 +1127,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>276539596</v>
+        <v>275014694</v>
       </c>
       <c r="E20" t="n">
-        <v>276539596</v>
+        <v>275014694</v>
       </c>
       <c r="F20" t="n">
-        <v>71316.74159731735</v>
+        <v>73237.82090528708</v>
       </c>
       <c r="G20" t="n">
-        <v>92406.73185519058</v>
+        <v>93807.61439797904</v>
       </c>
       <c r="H20" t="n">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="I20" t="n">
-        <v>16140514</v>
+        <v>20820422</v>
       </c>
     </row>
     <row r="21">
@@ -1162,22 +1162,22 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>197854512</v>
+        <v>196157649</v>
       </c>
       <c r="E21" t="n">
-        <v>260353397</v>
+        <v>258120525</v>
       </c>
       <c r="F21" t="n">
-        <v>13283.5585851566</v>
+        <v>17808.62769690371</v>
       </c>
       <c r="G21" t="n">
-        <v>28961.34046276437</v>
+        <v>30576.91729406986</v>
       </c>
       <c r="H21" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="I21" t="n">
-        <v>14592467</v>
+        <v>14733390</v>
       </c>
     </row>
     <row r="22">
@@ -1197,22 +1197,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>90223307</v>
+        <v>87042638</v>
       </c>
       <c r="E22" t="n">
-        <v>252398871</v>
+        <v>243446358</v>
       </c>
       <c r="F22" t="n">
-        <v>24410.54843807244</v>
+        <v>25080.0900149943</v>
       </c>
       <c r="G22" t="n">
-        <v>41802.70648214188</v>
+        <v>40877.24778079044</v>
       </c>
       <c r="H22" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="I22" t="n">
-        <v>46031908</v>
+        <v>43938432</v>
       </c>
     </row>
     <row r="23">
@@ -1232,22 +1232,22 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>92158308</v>
+        <v>93029944</v>
       </c>
       <c r="E23" t="n">
-        <v>192142670</v>
+        <v>193959962</v>
       </c>
       <c r="F23" t="n">
-        <v>28543.05445745537</v>
+        <v>39890.53931847668</v>
       </c>
       <c r="G23" t="n">
-        <v>38324.95219831659</v>
+        <v>40006.83057681707</v>
       </c>
       <c r="H23" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
       <c r="I23" t="n">
-        <v>37475381</v>
+        <v>49519324</v>
       </c>
     </row>
     <row r="24">
@@ -1267,22 +1267,22 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>714200739</v>
+        <v>713391690</v>
       </c>
       <c r="E24" t="n">
-        <v>714200739</v>
+        <v>713391690</v>
       </c>
       <c r="F24" t="n">
-        <v>179929.3312321571</v>
+        <v>174148.4853564933</v>
       </c>
       <c r="G24" t="n">
-        <v>259663.8944646247</v>
+        <v>232907.7717778927</v>
       </c>
       <c r="H24" t="n">
         <v>0.14</v>
       </c>
       <c r="I24" t="n">
-        <v>391641641</v>
+        <v>414685390</v>
       </c>
     </row>
     <row r="25">
@@ -1302,22 +1302,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>212010320</v>
+        <v>209783386</v>
       </c>
       <c r="E25" t="n">
-        <v>736543013</v>
+        <v>728806442</v>
       </c>
       <c r="F25" t="n">
-        <v>125078.3789428986</v>
+        <v>127506.1242451993</v>
       </c>
       <c r="G25" t="n">
-        <v>363981.4193623887</v>
+        <v>312965.0270474543</v>
       </c>
       <c r="H25" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="I25" t="n">
-        <v>33710708</v>
+        <v>34074229</v>
       </c>
     </row>
     <row r="26">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>6072888</v>
+        <v>6049994</v>
       </c>
       <c r="E26" t="n">
-        <v>8244471</v>
+        <v>8213099</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7842609737739</v>
+        <v>361.1184037289992</v>
       </c>
       <c r="G26" t="n">
-        <v>362.3578667162678</v>
+        <v>2318.937579315048</v>
       </c>
       <c r="H26" t="n">
-        <v>0.53</v>
+        <v>0.4</v>
       </c>
       <c r="I26" t="n">
-        <v>1488801</v>
+        <v>1489235</v>
       </c>
     </row>
     <row r="27">
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>15096399</v>
+        <v>14925552</v>
       </c>
       <c r="F27" t="n">
-        <v>1726.554615166508</v>
+        <v>2754.860219768053</v>
       </c>
       <c r="G27" t="n">
-        <v>3391.532889600173</v>
+        <v>2613.599802224429</v>
       </c>
       <c r="H27" t="n">
-        <v>0.6</v>
+        <v>0.79</v>
       </c>
       <c r="I27" t="n">
-        <v>229892</v>
+        <v>227480</v>
       </c>
     </row>
     <row r="28">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>26877368</v>
+        <v>26719600</v>
       </c>
       <c r="E28" t="n">
-        <v>37982055</v>
+        <v>37759103</v>
       </c>
       <c r="F28" t="n">
-        <v>8549.00369437989</v>
+        <v>7392.756895565249</v>
       </c>
       <c r="G28" t="n">
-        <v>302.5873504924007</v>
+        <v>313.5120821727824</v>
       </c>
       <c r="H28" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="I28" t="n">
-        <v>81029</v>
+        <v>87945</v>
       </c>
     </row>
     <row r="29">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>288688263</v>
+        <v>282833340</v>
       </c>
       <c r="E29" t="n">
-        <v>1246138805</v>
+        <v>1220865706</v>
       </c>
       <c r="F29" t="n">
-        <v>289260.2313172399</v>
+        <v>360476.9512655653</v>
       </c>
       <c r="G29" t="n">
-        <v>371781.1278777521</v>
+        <v>324675.0466529082</v>
       </c>
       <c r="H29" t="n">
         <v>0.08</v>
       </c>
       <c r="I29" t="n">
-        <v>111970897</v>
+        <v>112886728</v>
       </c>
     </row>
     <row r="30">
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>11879390</v>
+        <v>11891912</v>
       </c>
       <c r="E30" t="n">
-        <v>143358733</v>
+        <v>143509846</v>
       </c>
       <c r="F30" t="n">
-        <v>5667.984013468667</v>
+        <v>1098.096438239302</v>
       </c>
       <c r="G30" t="n">
-        <v>3053.975804336769</v>
+        <v>3568.743341611915</v>
       </c>
       <c r="H30" t="n">
-        <v>0.76</v>
+        <v>0.9</v>
       </c>
       <c r="I30" t="n">
-        <v>404344</v>
+        <v>411748</v>
       </c>
     </row>
     <row r="31">
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19646810</v>
+        <v>19443346</v>
       </c>
       <c r="E31" t="n">
-        <v>49117026</v>
+        <v>48608365</v>
       </c>
       <c r="F31" t="n">
-        <v>10410.13706886263</v>
+        <v>10337.25178921793</v>
       </c>
       <c r="G31" t="n">
-        <v>12114.87444923663</v>
+        <v>8314.40414724485</v>
       </c>
       <c r="H31" t="n">
-        <v>0.14</v>
+        <v>0.19</v>
       </c>
       <c r="I31" t="n">
-        <v>2285561</v>
+        <v>2293520</v>
       </c>
     </row>
     <row r="32">
@@ -1550,19 +1550,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>19830200</v>
+        <v>19803793</v>
       </c>
       <c r="F32" t="n">
-        <v>3411.164300402086</v>
+        <v>2216.306805514263</v>
       </c>
       <c r="G32" t="n">
-        <v>4050.839522884261</v>
+        <v>2212.555285085833</v>
       </c>
       <c r="H32" t="n">
         <v>0.4</v>
       </c>
       <c r="I32" t="n">
-        <v>37174</v>
+        <v>36799</v>
       </c>
     </row>
     <row r="33">
@@ -1582,22 +1582,22 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1344854</v>
+        <v>1417814</v>
       </c>
       <c r="E33" t="n">
-        <v>5013575</v>
+        <v>5285569</v>
       </c>
       <c r="F33" t="n">
-        <v>1916.753787540662</v>
+        <v>4302.568936430682</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.391942452076</v>
+        <v>1321.332480870853</v>
       </c>
       <c r="H33" t="n">
-        <v>0.28</v>
+        <v>0.82</v>
       </c>
       <c r="I33" t="n">
-        <v>596099</v>
+        <v>585785</v>
       </c>
     </row>
     <row r="34">
@@ -1617,22 +1617,22 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>4202525</v>
+        <v>4167483</v>
       </c>
       <c r="E34" t="n">
-        <v>12105553</v>
+        <v>12004613</v>
       </c>
       <c r="F34" t="n">
-        <v>4395.113573734176</v>
+        <v>4744.217230949009</v>
       </c>
       <c r="G34" t="n">
-        <v>4184.162927428021</v>
+        <v>2303.055114760783</v>
       </c>
       <c r="H34" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="I34" t="n">
-        <v>613007</v>
+        <v>622381</v>
       </c>
     </row>
     <row r="35">
@@ -1652,22 +1652,22 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>16633187</v>
+        <v>16941520</v>
       </c>
       <c r="E35" t="n">
-        <v>80557178</v>
+        <v>82050484</v>
       </c>
       <c r="F35" t="n">
-        <v>14014.67340043066</v>
+        <v>6656.753724212234</v>
       </c>
       <c r="G35" t="n">
-        <v>14515.40717868806</v>
+        <v>16416.33616243783</v>
       </c>
       <c r="H35" t="n">
-        <v>0.28</v>
+        <v>0.34</v>
       </c>
       <c r="I35" t="n">
-        <v>4376053</v>
+        <v>4482379</v>
       </c>
     </row>
     <row r="36">
@@ -1687,22 +1687,22 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1474147</v>
+        <v>1473702</v>
       </c>
       <c r="E36" t="n">
-        <v>9648251</v>
+        <v>9645340</v>
       </c>
       <c r="F36" t="n">
-        <v>1063.728744145572</v>
+        <v>691.8544365305582</v>
       </c>
       <c r="G36" t="n">
-        <v>1648.615382854936</v>
+        <v>627.9850425475383</v>
       </c>
       <c r="H36" t="n">
-        <v>0.41</v>
+        <v>0.83</v>
       </c>
       <c r="I36" t="n">
-        <v>527748</v>
+        <v>511234</v>
       </c>
     </row>
     <row r="37">
@@ -1725,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1926418506</v>
+        <v>1917447525</v>
       </c>
       <c r="F37" t="n">
-        <v>76915.52369926329</v>
+        <v>71283.13432795698</v>
       </c>
       <c r="G37" t="n">
-        <v>76492.65356468082</v>
+        <v>76340.86224379508</v>
       </c>
       <c r="H37" t="n">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="I37" t="n">
-        <v>28163484</v>
+        <v>28159336</v>
       </c>
     </row>
     <row r="38">
@@ -1757,22 +1757,22 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2022168</v>
+        <v>1987413</v>
       </c>
       <c r="E38" t="n">
-        <v>14500762</v>
+        <v>14251544</v>
       </c>
       <c r="F38" t="n">
-        <v>5235.328534334255</v>
+        <v>5430.977873621966</v>
       </c>
       <c r="G38" t="n">
-        <v>4250.971297844869</v>
+        <v>5749.708367730428</v>
       </c>
       <c r="H38" t="n">
-        <v>0.28</v>
+        <v>0.42</v>
       </c>
       <c r="I38" t="n">
-        <v>2011480</v>
+        <v>2040066</v>
       </c>
     </row>
     <row r="39">
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>212696174</v>
+        <v>213017583</v>
       </c>
       <c r="E39" t="n">
-        <v>1204416425</v>
+        <v>1206236442</v>
       </c>
       <c r="F39" t="n">
-        <v>162169.7981878248</v>
+        <v>155224.0128794183</v>
       </c>
       <c r="G39" t="n">
-        <v>161302.934039167</v>
+        <v>166736.4724954457</v>
       </c>
       <c r="H39" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="I39" t="n">
-        <v>68827204</v>
+        <v>68592566</v>
       </c>
     </row>
     <row r="40">
@@ -1827,22 +1827,22 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>147252113</v>
+        <v>146393930</v>
       </c>
       <c r="E40" t="n">
-        <v>1090756395</v>
+        <v>1084399485</v>
       </c>
       <c r="F40" t="n">
-        <v>206196.5460427154</v>
+        <v>189981.77728707</v>
       </c>
       <c r="G40" t="n">
-        <v>171278.8216332601</v>
+        <v>188506.3857285247</v>
       </c>
       <c r="H40" t="n">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="I40" t="n">
-        <v>8319482</v>
+        <v>8325361</v>
       </c>
     </row>
     <row r="41">
@@ -1862,22 +1862,22 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>350054163</v>
+        <v>345102934</v>
       </c>
       <c r="E41" t="n">
-        <v>3149304314</v>
+        <v>3104759988</v>
       </c>
       <c r="F41" t="n">
-        <v>259038.7665744554</v>
+        <v>266760.343525745</v>
       </c>
       <c r="G41" t="n">
-        <v>301208.9151492085</v>
+        <v>276835.9324828206</v>
       </c>
       <c r="H41" t="n">
         <v>0.04</v>
       </c>
       <c r="I41" t="n">
-        <v>45681840</v>
+        <v>44764147</v>
       </c>
     </row>
     <row r="42">
@@ -1897,22 +1897,22 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1573027</v>
+        <v>1571769</v>
       </c>
       <c r="E42" t="n">
-        <v>13108561</v>
+        <v>13098075</v>
       </c>
       <c r="F42" t="n">
-        <v>2405.034529290225</v>
+        <v>2354.881405795842</v>
       </c>
       <c r="G42" t="n">
-        <v>3833.550325378889</v>
+        <v>4386.669303297213</v>
       </c>
       <c r="H42" t="n">
         <v>0.23</v>
       </c>
       <c r="I42" t="n">
-        <v>18673.58</v>
+        <v>18487.25</v>
       </c>
     </row>
     <row r="43">
@@ -1932,22 +1932,22 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>23373096</v>
+        <v>23031112</v>
       </c>
       <c r="E43" t="n">
-        <v>70064795</v>
+        <v>69041863</v>
       </c>
       <c r="F43" t="n">
-        <v>48515.66721974518</v>
+        <v>53383.70747770713</v>
       </c>
       <c r="G43" t="n">
-        <v>63541.09682642337</v>
+        <v>66733.11878568046</v>
       </c>
       <c r="H43" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="I43" t="n">
-        <v>3653680</v>
+        <v>3619560</v>
       </c>
     </row>
     <row r="44">
@@ -1970,19 +1970,17 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>9408906</v>
-      </c>
-      <c r="F44" t="n">
-        <v>5697.889529714599</v>
-      </c>
-      <c r="G44" t="n">
-        <v>5710.965366398911</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0.21</v>
+        <v>9398343</v>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I44" t="n">
-        <v>101855</v>
+        <v>101713</v>
       </c>
     </row>
     <row r="45">
@@ -1993,7 +1991,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Meme, Base Ecosystem, Base Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2001,24 +1999,16 @@
           <t>mfercoin</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>13613076</v>
-      </c>
-      <c r="E45" t="n">
-        <v>13613076</v>
-      </c>
-      <c r="F45" t="n">
-        <v>775.6812621414451</v>
-      </c>
-      <c r="G45" t="n">
-        <v>866.0838106794287</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I45" t="n">
-        <v>4257819</v>
-      </c>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2028,7 +2018,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Meme, Ethereum Ecosystem, Base Ecosystem, Cat-Themed, Murad Picks</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2036,24 +2026,16 @@
           <t>mog-coin</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>331970966</v>
-      </c>
-      <c r="E46" t="n">
-        <v>331970966</v>
-      </c>
-      <c r="F46" t="n">
-        <v>34299.32318856203</v>
-      </c>
-      <c r="G46" t="n">
-        <v>45404.85802113321</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16976872</v>
-      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2063,7 +2045,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Ethereum Ecosystem, Animoca Brands Portfolio, Delphi Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2071,24 +2053,16 @@
           <t>mon-protocol</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>12808855</v>
-      </c>
-      <c r="E47" t="n">
-        <v>40515683</v>
-      </c>
-      <c r="F47" t="n">
-        <v>18149.12523928825</v>
-      </c>
-      <c r="G47" t="n">
-        <v>14927.3194312691</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="I47" t="n">
-        <v>935349</v>
-      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2098,7 +2072,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Polygon Ecosystem, Play To Earn, Gaming Platform</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2106,24 +2080,16 @@
           <t>nakamoto-games</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>33961274</v>
-      </c>
-      <c r="E48" t="n">
-        <v>94069360</v>
-      </c>
-      <c r="F48" t="n">
-        <v>2741.613162290221</v>
-      </c>
-      <c r="G48" t="n">
-        <v>6561.365791316231</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="I48" t="n">
-        <v>12172468</v>
-      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2133,7 +2099,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Gaming (GameFi), Arbitrum Ecosystem, Paradigm Portfolio, AI Agents, AI Framework</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2141,24 +2107,16 @@
           <t>neuron</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>29040925</v>
-      </c>
-      <c r="E49" t="n">
-        <v>68994016</v>
-      </c>
-      <c r="F49" t="n">
-        <v>6137.607887061463</v>
-      </c>
-      <c r="G49" t="n">
-        <v>12173.56306213693</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I49" t="n">
-        <v>445276</v>
-      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2168,7 +2126,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Layer 1 (L1), Osmosis Ecosystem, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2176,24 +2134,16 @@
           <t>nibiru</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>12768131</v>
-      </c>
-      <c r="E50" t="n">
-        <v>19435974</v>
-      </c>
-      <c r="F50" t="n">
-        <v>13933.30816477172</v>
-      </c>
-      <c r="G50" t="n">
-        <v>18710.44606689541</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="I50" t="n">
-        <v>649956</v>
-      </c>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2203,7 +2153,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Binance Launchpool, Meme, Play To Earn, TON Ecosystem, TON Meme, Tap to Earn, Gaming Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2211,24 +2161,16 @@
           <t>notcoin</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>311115969</v>
-      </c>
-      <c r="E51" t="n">
-        <v>311115969</v>
-      </c>
-      <c r="F51" t="n">
-        <v>92624.74364289771</v>
-      </c>
-      <c r="G51" t="n">
-        <v>101149.8417099971</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I51" t="n">
-        <v>73458783</v>
-      </c>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2238,7 +2180,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Binance Launchpool, Layer 1 (L1), Interoperability, Cross-chain Communication, Pantera Capital Portfolio, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2246,24 +2188,16 @@
           <t>omni-network</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>93755165</v>
-      </c>
-      <c r="E52" t="n">
-        <v>540257697</v>
-      </c>
-      <c r="F52" t="n">
-        <v>269582.4140623536</v>
-      </c>
-      <c r="G52" t="n">
-        <v>239130.4268762449</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I52" t="n">
-        <v>18339658</v>
-      </c>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2273,7 +2207,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Tokenized Real Estate, Decentralized Finance (DeFi), Tokenized Assets, Derivatives, Solana Ecosystem, Real World Assets (RWA), Coinbase Ventures Portfolio, DragonFly Capital Portfolio, RWA Protocol, Made in USA</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2281,24 +2215,16 @@
           <t>parcl</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>33641585</v>
-      </c>
-      <c r="E53" t="n">
-        <v>150627179</v>
-      </c>
-      <c r="F53" t="n">
-        <v>21652.04474855569</v>
-      </c>
-      <c r="G53" t="n">
-        <v>54059.71832681653</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9209957</v>
-      </c>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2308,7 +2234,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem, Animoca Brands Portfolio, Base Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2316,24 +2242,16 @@
           <t>planet-mojo</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>0</v>
-      </c>
-      <c r="E54" t="n">
-        <v>9075356</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2590.331828508482</v>
-      </c>
-      <c r="G54" t="n">
-        <v>4722.785934400607</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I54" t="n">
-        <v>296144</v>
-      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2343,7 +2261,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Binance Labs Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2351,24 +2269,16 @@
           <t>playbux</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4822556</v>
-      </c>
-      <c r="F55" t="n">
-        <v>2703.645534761001</v>
-      </c>
-      <c r="G55" t="n">
-        <v>1499.280984625821</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I55" t="n">
-        <v>228005</v>
-      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2378,7 +2288,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, BNB Chain Ecosystem, Ethereum Ecosystem, Zero Knowledge (ZK), Animoca Brands Portfolio, Binance Labs Portfolio, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2386,24 +2296,16 @@
           <t>polyhedra-network</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>125082499</v>
-      </c>
-      <c r="E56" t="n">
-        <v>2071468624</v>
-      </c>
-      <c r="F56" t="n">
-        <v>191388.5844681367</v>
-      </c>
-      <c r="G56" t="n">
-        <v>186133.5248665726</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="I56" t="n">
-        <v>4970443</v>
-      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2413,7 +2315,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Solana Meme</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2421,24 +2323,16 @@
           <t>ponke</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>105052579</v>
-      </c>
-      <c r="E57" t="n">
-        <v>106183399</v>
-      </c>
-      <c r="F57" t="n">
-        <v>34613.33673511299</v>
-      </c>
-      <c r="G57" t="n">
-        <v>59213.10442578499</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="I57" t="n">
-        <v>56161083</v>
-      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2448,7 +2342,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Solana Ecosystem, Meme, Solana Meme, Cat-Themed, Murad Picks</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2456,24 +2350,16 @@
           <t>popcat</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>269409827</v>
-      </c>
-      <c r="E58" t="n">
-        <v>269409827</v>
-      </c>
-      <c r="F58" t="n">
-        <v>97704.53687275668</v>
-      </c>
-      <c r="G58" t="n">
-        <v>119934.0946201323</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="I58" t="n">
-        <v>56294722</v>
-      </c>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2483,7 +2369,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Solana Ecosystem, Ethereum Ecosystem, Gaming Platform</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2491,24 +2377,16 @@
           <t>portal-2</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>25250219</v>
-      </c>
-      <c r="E59" t="n">
-        <v>151077135</v>
-      </c>
-      <c r="F59" t="n">
-        <v>79320.79764291743</v>
-      </c>
-      <c r="G59" t="n">
-        <v>82224.79119765371</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13808863</v>
-      </c>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2518,7 +2396,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BNB Chain Ecosystem, Ethereum Ecosystem, ERC 404</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2526,24 +2404,16 @@
           <t>pundi-x-purse</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2424376</v>
-      </c>
-      <c r="E60" t="n">
-        <v>4474324</v>
-      </c>
-      <c r="F60" t="n">
-        <v>2624.308106872819</v>
-      </c>
-      <c r="G60" t="n">
-        <v>2486.590785019926</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="I60" t="n">
-        <v>30288</v>
-      </c>
+      <c r="D60" t="inlineStr"/>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2580,7 +2450,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Lending/Borrowing Protocols, Sui Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2588,24 +2458,16 @@
           <t>scallop-2</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>11106531</v>
-      </c>
-      <c r="E62" t="n">
-        <v>32942432</v>
-      </c>
-      <c r="F62" t="n">
-        <v>7065.098309731962</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5209.335339690693</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="I62" t="n">
-        <v>6444328</v>
-      </c>
+      <c r="D62" t="inlineStr"/>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2615,7 +2477,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Mantle Ecosystem, Payment Solutions</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2623,24 +2485,16 @@
           <t>slash-vision-labs</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>14571201</v>
-      </c>
-      <c r="E63" t="n">
-        <v>29498506</v>
-      </c>
-      <c r="F63" t="n">
-        <v>6534.95763540876</v>
-      </c>
-      <c r="G63" t="n">
-        <v>15825.38395461614</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="I63" t="n">
-        <v>538406</v>
-      </c>
+      <c r="D63" t="inlineStr"/>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2650,7 +2504,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Ethereum Ecosystem, Base Ecosystem, AI Agents, Circle Ventures Portfolio, Galaxy Digital Portfolio, AI Agent Launchpad, DeFAI</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2658,24 +2512,16 @@
           <t>spectral</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>41392111</v>
-      </c>
-      <c r="E64" t="n">
-        <v>293463315</v>
-      </c>
-      <c r="F64" t="n">
-        <v>65472.75893959518</v>
-      </c>
-      <c r="G64" t="n">
-        <v>51602.49896067539</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2041456</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2685,7 +2531,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Arbitrum Ecosystem, Ethereum Ecosystem, Shooting Games</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2693,24 +2539,16 @@
           <t>starheroes</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>1331472</v>
-      </c>
-      <c r="E65" t="n">
-        <v>8257108</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2085.264272421004</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2524.673347430241</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I65" t="n">
-        <v>811895</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2720,7 +2558,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Infrastructure, Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Starknet Ecosystem, Paradigm Portfolio, Coinbase Ventures Portfolio, Rollup, Multicoin Capital Portfolio, Alameda Research Portfolio, Pantera Capital Portfolio, GMCI Layer 2 Index, Consensys Portfolio, Sequoia Capital Portfolio, GMCI Index, Polychain Capital Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2728,24 +2566,16 @@
           <t>starknet</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>629459559</v>
-      </c>
-      <c r="E66" t="n">
-        <v>2437804003</v>
-      </c>
-      <c r="F66" t="n">
-        <v>159969.48949664</v>
-      </c>
-      <c r="G66" t="n">
-        <v>164794.865100491</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I66" t="n">
-        <v>40878624</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2755,7 +2585,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Business Services, Infrastructure, Decentralized Finance (DeFi), Analytics, Ethereum Ecosystem, DePIN, Base Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2763,24 +2593,16 @@
           <t>subquery-network</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>5830705</v>
-      </c>
-      <c r="E67" t="n">
-        <v>26100739</v>
-      </c>
-      <c r="F67" t="n">
-        <v>1623.815599397751</v>
-      </c>
-      <c r="G67" t="n">
-        <v>1868.852970050278</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="I67" t="n">
-        <v>151716</v>
-      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2790,7 +2612,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Smart Contract Platform, Ethereum Ecosystem, Layer 2 (L2), Zero Knowledge (ZK), Rollup, OKX Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2798,24 +2620,16 @@
           <t>taiko</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>119925977</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1114266783</v>
-      </c>
-      <c r="F68" t="n">
-        <v>167499.1971107646</v>
-      </c>
-      <c r="G68" t="n">
-        <v>172054.5551654452</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10138016</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2825,7 +2639,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Artificial Intelligence (AI), Solana Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2833,24 +2647,16 @@
           <t>tars-protocol</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>115218110</v>
-      </c>
-      <c r="E69" t="n">
-        <v>175767927</v>
-      </c>
-      <c r="F69" t="n">
-        <v>57873.76268322283</v>
-      </c>
-      <c r="G69" t="n">
-        <v>77808.33605496648</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="I69" t="n">
-        <v>8934453</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2860,7 +2666,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Ethereum Ecosystem, Cross-chain Communication, BTCfi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2868,24 +2674,16 @@
           <t>teleport-system-token</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>1131960</v>
-      </c>
-      <c r="E70" t="n">
-        <v>4383198</v>
-      </c>
-      <c r="F70" t="n">
-        <v>3339.796279969002</v>
-      </c>
-      <c r="G70" t="n">
-        <v>3391.760258023668</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I70" t="n">
-        <v>369524</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2895,7 +2693,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>NFT, Solana Ecosystem, NFT Marketplace</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2903,24 +2701,16 @@
           <t>tensor</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>127756139</v>
-      </c>
-      <c r="E71" t="n">
-        <v>490093113</v>
-      </c>
-      <c r="F71" t="n">
-        <v>152291.0741008833</v>
-      </c>
-      <c r="G71" t="n">
-        <v>158780.2879483773</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>38950650</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2930,7 +2720,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Derivatives, Options, Ethereum Ecosystem, Restaking, LRTfi</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2938,24 +2728,16 @@
           <t>thetanuts-finance</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>3304380</v>
-      </c>
-      <c r="E72" t="n">
-        <v>31309486</v>
-      </c>
-      <c r="F72" t="n">
-        <v>4136.994178416035</v>
-      </c>
-      <c r="G72" t="n">
-        <v>4632.806131444817</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="I72" t="n">
-        <v>219363</v>
-      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2965,7 +2747,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), BNB Chain Ecosystem, Animoca Brands Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2973,24 +2755,16 @@
           <t>ultiverse</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" t="n">
-        <v>34484249</v>
-      </c>
-      <c r="F73" t="n">
-        <v>2583.627217571546</v>
-      </c>
-      <c r="G73" t="n">
-        <v>7031.602351686207</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5295476</v>
-      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3000,7 +2774,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Venom Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3008,24 +2782,16 @@
           <t>venom</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>89235333</v>
-      </c>
-      <c r="E74" t="n">
-        <v>329857959</v>
-      </c>
-      <c r="F74" t="n">
-        <v>8358.532493334636</v>
-      </c>
-      <c r="G74" t="n">
-        <v>844.87786035294</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="I74" t="n">
-        <v>179810</v>
-      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3044,22 +2810,20 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>23717751</v>
+        <v>24338072</v>
       </c>
       <c r="E75" t="n">
-        <v>23717751</v>
-      </c>
-      <c r="F75" t="n">
-        <v>23499.66037070208</v>
-      </c>
-      <c r="G75" t="n">
-        <v>27013.52492331873</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0.15</v>
+        <v>24338072</v>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I75" t="n">
-        <v>5418507</v>
+        <v>5306411</v>
       </c>
     </row>
     <row r="76">
@@ -3079,22 +2843,20 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>514680438</v>
+        <v>510502135</v>
       </c>
       <c r="E76" t="n">
-        <v>1791559773</v>
-      </c>
-      <c r="F76" t="n">
-        <v>203202.5940145103</v>
-      </c>
-      <c r="G76" t="n">
-        <v>223912.0704347187</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.06</v>
+        <v>1777015447</v>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I76" t="n">
-        <v>36763548</v>
+        <v>37925234</v>
       </c>
     </row>
     <row r="77">
@@ -3105,7 +2867,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Crypto-Backed Tokens, Wrapped-Tokens, Arbitrum Ecosystem, Ethereum Ecosystem, Restaking, Liquid Restaking Tokens, Ether.fi Ecosystem</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3113,24 +2875,16 @@
           <t>wrapped-eeth</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>5920526957</v>
-      </c>
-      <c r="E77" t="n">
-        <v>5920535806</v>
-      </c>
-      <c r="F77" t="n">
-        <v>10576.75654258863</v>
-      </c>
-      <c r="G77" t="n">
-        <v>96873.05875267679</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I77" t="n">
-        <v>16431955</v>
-      </c>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3149,22 +2903,20 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>7481391</v>
+        <v>7487957</v>
       </c>
       <c r="E78" t="n">
-        <v>19435849</v>
-      </c>
-      <c r="F78" t="n">
-        <v>2382.535761362342</v>
-      </c>
-      <c r="G78" t="n">
-        <v>3196.52238088857</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0.26</v>
+        <v>19452907</v>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I78" t="n">
-        <v>665682</v>
+        <v>724948</v>
       </c>
     </row>
     <row r="79">
@@ -3175,7 +2927,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Gaming (GameFi), Play To Earn, Guild and Scholarship, Ethereum Ecosystem, Animoca Brands Portfolio, DWF Labs Portfolio, Coinbase Ventures Portfolio, DeFiance Capital Portfolio, Pantera Capital Portfolio, Binance Labs Portfolio, MMO</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3183,24 +2935,16 @@
           <t>zentry</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>113014944</v>
-      </c>
-      <c r="E79" t="n">
-        <v>171230697</v>
-      </c>
-      <c r="F79" t="n">
-        <v>45682.55901512243</v>
-      </c>
-      <c r="G79" t="n">
-        <v>56297.88511536464</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="I79" t="n">
-        <v>8997661</v>
-      </c>
+      <c r="D79" t="inlineStr"/>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3219,22 +2963,20 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2640653</v>
+        <v>2659058</v>
       </c>
       <c r="E80" t="n">
-        <v>10562612</v>
-      </c>
-      <c r="F80" t="n">
-        <v>78933.44800326931</v>
-      </c>
-      <c r="G80" t="n">
-        <v>3771.891016700004</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0.47</v>
+        <v>10636232</v>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I80" t="n">
-        <v>7084114</v>
+        <v>7050205</v>
       </c>
     </row>
     <row r="81">
@@ -3245,7 +2987,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Decentralized Finance (DeFi), Ethereum Ecosystem, Starknet Ecosystem, Delphi Ventures Portfolio</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3253,24 +2995,16 @@
           <t>zklend-2</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>2519686</v>
-      </c>
-      <c r="F81" t="n">
-        <v>1702.445312977821</v>
-      </c>
-      <c r="G81" t="n">
-        <v>241.2307553128976</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="I81" t="n">
-        <v>290609</v>
-      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3289,22 +3023,20 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>415427517</v>
+        <v>412028387</v>
       </c>
       <c r="E82" t="n">
-        <v>2373871523</v>
-      </c>
-      <c r="F82" t="n">
-        <v>168163.1739821965</v>
-      </c>
-      <c r="G82" t="n">
-        <v>198850.6112332968</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.09</v>
+        <v>2354447925</v>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
       </c>
       <c r="I82" t="n">
-        <v>43914422</v>
+        <v>44035385</v>
       </c>
     </row>
   </sheetData>
